--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="255">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -594,58 +594,55 @@
     <t>ems/fcasts/update_period</t>
   </si>
   <si>
-    <t>B0gUAuzRUlrkye1</t>
-  </si>
-  <si>
-    <t>dHgL4gbOpvpcHKz</t>
-  </si>
-  <si>
-    <t>y7bMb12eBvtJ8b0</t>
-  </si>
-  <si>
-    <t>b7H16UTMMdvYwkU</t>
-  </si>
-  <si>
-    <t>Eo8DW9m2MAGNf82</t>
-  </si>
-  <si>
-    <t>CO3Y8q2flOzMpz7</t>
-  </si>
-  <si>
-    <t>rPrwX4wRKBxQcSa</t>
-  </si>
-  <si>
-    <t>HtTmLv45OthAjh6</t>
-  </si>
-  <si>
-    <t>JGt1PfTbwm9Cnuo</t>
-  </si>
-  <si>
-    <t>m4EZz0BTC7a0LBF</t>
+    <t>QIDo2Rf8HWcrrrK</t>
+  </si>
+  <si>
+    <t>mMna0fdFv2mFxIA</t>
+  </si>
+  <si>
+    <t>LTjj3htgEzFPFwG</t>
+  </si>
+  <si>
+    <t>wUnlhLunAQkmiYg</t>
+  </si>
+  <si>
+    <t>TzFCeFv75nGXK76</t>
+  </si>
+  <si>
+    <t>Whx5cbqKg1TTcfv</t>
+  </si>
+  <si>
+    <t>TqTxlkKDgzonG7H</t>
+  </si>
+  <si>
+    <t>1elq9ieTruo5sEm</t>
+  </si>
+  <si>
+    <t>RxBT5EAnLtY3JdD</t>
+  </si>
+  <si>
+    <t>g06giXT84GgespH</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_2959_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
+    <t>hh_2896_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2455_0.csv</t>
   </si>
   <si>
     <t>average</t>
@@ -669,25 +666,22 @@
     <t>local</t>
   </si>
   <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
     <t>ev_freetime_2.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_43.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
   </si>
   <si>
     <t>ev_parttime_88.csv</t>
   </si>
   <si>
-    <t>ev_parttime_90.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_41.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_42.csv</t>
+    <t>ev_freetime_0.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -699,10 +693,7 @@
     <t>['time']</t>
   </si>
   <si>
-    <t>rule-based</t>
-  </si>
-  <si>
-    <t>mpc</t>
+    <t>linopy</t>
   </si>
   <si>
     <t>['linear']</t>
@@ -739,12 +730,6 @@
   </si>
   <si>
     <t>ev/fcast/random_forest_classifier/features</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retraining_period</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/update_period</t>
   </si>
   <si>
     <t>psh/owner</t>
@@ -1745,10 +1730,10 @@
         <v>191</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1757,7 +1742,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1769,13 +1754,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>5527000</v>
+        <v>4536000</v>
       </c>
       <c r="O2" t="s">
         <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1790,25 +1775,25 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V2" t="s">
+        <v>210</v>
+      </c>
+      <c r="W2">
+        <v>90</v>
+      </c>
+      <c r="X2" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y2">
+        <v>90</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA2" t="s">
         <v>211</v>
-      </c>
-      <c r="W2">
-        <v>90</v>
-      </c>
-      <c r="X2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y2">
-        <v>90</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>212</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1820,7 +1805,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1835,26 +1820,26 @@
         <v>9</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN2">
+        <v>90</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP2">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR2" t="s">
         <v>211</v>
       </c>
-      <c r="AN2">
-        <v>90</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP2">
-        <v>90</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>212</v>
-      </c>
       <c r="AS2">
         <v>0</v>
       </c>
@@ -1862,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="AX2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1877,26 +1862,26 @@
         <v>9</v>
       </c>
       <c r="BC2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE2">
+        <v>90</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG2">
+        <v>90</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI2" t="s">
         <v>211</v>
       </c>
-      <c r="BE2">
-        <v>90</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG2">
-        <v>90</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ2">
         <v>0</v>
       </c>
@@ -1904,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="BO2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -1919,34 +1904,49 @@
         <v>9</v>
       </c>
       <c r="BT2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV2">
+        <v>90</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX2">
+        <v>90</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>211</v>
       </c>
-      <c r="BV2">
-        <v>90</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX2">
-        <v>90</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ2" t="s">
+      <c r="CA2">
+        <v>1</v>
+      </c>
+      <c r="CB2">
+        <v>1</v>
+      </c>
+      <c r="CC2">
+        <v>5700</v>
+      </c>
+      <c r="CD2" t="s">
         <v>212</v>
       </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>40</v>
+      </c>
+      <c r="CG2" t="b">
+        <v>1</v>
       </c>
       <c r="CH2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -1961,28 +1961,28 @@
         <v>9</v>
       </c>
       <c r="CM2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO2">
+        <v>90</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ2">
+        <v>90</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS2" t="s">
         <v>211</v>
       </c>
-      <c r="CO2">
-        <v>90</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ2">
-        <v>90</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>212</v>
-      </c>
       <c r="CT2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -2006,28 +2006,28 @@
         <v>9</v>
       </c>
       <c r="DE2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG2">
+        <v>90</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI2">
+        <v>90</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK2" t="s">
         <v>211</v>
       </c>
-      <c r="DG2">
-        <v>90</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI2">
-        <v>90</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>212</v>
-      </c>
       <c r="DL2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2036,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="DR2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -2051,28 +2051,28 @@
         <v>9</v>
       </c>
       <c r="DW2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY2">
+        <v>90</v>
+      </c>
+      <c r="DZ2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA2">
+        <v>90</v>
+      </c>
+      <c r="EB2" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC2" t="s">
         <v>211</v>
       </c>
-      <c r="DY2">
-        <v>90</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA2">
-        <v>90</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>212</v>
-      </c>
       <c r="ED2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2081,70 +2081,16 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>2</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>216</v>
-      </c>
-      <c r="EM2">
-        <v>50000</v>
-      </c>
-      <c r="EN2">
-        <v>7200</v>
-      </c>
-      <c r="EO2">
-        <v>7200</v>
-      </c>
-      <c r="EP2">
-        <v>50000</v>
-      </c>
-      <c r="EQ2">
-        <v>90000</v>
-      </c>
-      <c r="ER2">
-        <v>80000</v>
-      </c>
-      <c r="ES2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU2" t="s">
+        <v>0</v>
+      </c>
+      <c r="FD2" t="s">
         <v>221</v>
-      </c>
-      <c r="EV2">
-        <v>75000</v>
-      </c>
-      <c r="EW2">
-        <v>7200</v>
-      </c>
-      <c r="EX2">
-        <v>11000</v>
-      </c>
-      <c r="EY2">
-        <v>100000</v>
-      </c>
-      <c r="EZ2">
-        <v>90000</v>
-      </c>
-      <c r="FA2">
-        <v>80000</v>
-      </c>
-      <c r="FB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="s">
-        <v>223</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2159,52 +2105,70 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL2">
+        <v>1</v>
+      </c>
+      <c r="FM2">
+        <v>1</v>
+      </c>
+      <c r="FN2">
+        <v>4500</v>
+      </c>
+      <c r="FO2">
+        <v>4500</v>
+      </c>
+      <c r="FP2">
+        <v>0.95</v>
+      </c>
+      <c r="FQ2">
+        <v>0.1</v>
+      </c>
+      <c r="FR2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="b">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU2">
+        <v>0</v>
+      </c>
+      <c r="FV2">
+        <v>0</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB2" t="s">
         <v>224</v>
       </c>
-      <c r="FJ2" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL2">
-        <v>0</v>
-      </c>
-      <c r="FM2">
-        <v>0</v>
-      </c>
-      <c r="FT2" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU2">
-        <v>0</v>
-      </c>
-      <c r="FV2">
-        <v>0</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB2" t="s">
-        <v>226</v>
-      </c>
       <c r="GC2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI2">
         <v>86400</v>
@@ -2245,13 +2209,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>5527000</v>
+        <v>3564000</v>
       </c>
       <c r="O3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2266,25 +2230,25 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V3" t="s">
+        <v>210</v>
+      </c>
+      <c r="W3">
+        <v>90</v>
+      </c>
+      <c r="X3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y3">
+        <v>90</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA3" t="s">
         <v>211</v>
-      </c>
-      <c r="W3">
-        <v>90</v>
-      </c>
-      <c r="X3" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y3">
-        <v>90</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>212</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2296,7 +2260,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2311,26 +2275,26 @@
         <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN3">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP3">
+        <v>90</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR3" t="s">
         <v>211</v>
       </c>
-      <c r="AN3">
-        <v>90</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP3">
-        <v>90</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>212</v>
-      </c>
       <c r="AS3">
         <v>0</v>
       </c>
@@ -2338,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="AX3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -2353,26 +2317,26 @@
         <v>9</v>
       </c>
       <c r="BC3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE3">
+        <v>90</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG3">
+        <v>90</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI3" t="s">
         <v>211</v>
       </c>
-      <c r="BE3">
-        <v>90</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG3">
-        <v>90</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ3">
         <v>0</v>
       </c>
@@ -2380,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="BO3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -2395,49 +2359,34 @@
         <v>9</v>
       </c>
       <c r="BT3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV3">
+        <v>90</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX3">
+        <v>90</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>211</v>
       </c>
-      <c r="BV3">
-        <v>90</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX3">
-        <v>90</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>212</v>
-      </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
-      </c>
-      <c r="CC3">
-        <v>8900</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>40</v>
-      </c>
-      <c r="CG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -2452,28 +2401,28 @@
         <v>9</v>
       </c>
       <c r="CM3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO3">
+        <v>90</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ3">
+        <v>90</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS3" t="s">
         <v>211</v>
       </c>
-      <c r="CO3">
-        <v>90</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ3">
-        <v>90</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>212</v>
-      </c>
       <c r="CT3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -2482,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA3">
         <v>1</v>
@@ -2497,28 +2446,28 @@
         <v>9</v>
       </c>
       <c r="DE3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG3">
+        <v>90</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI3">
+        <v>90</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK3" t="s">
         <v>211</v>
       </c>
-      <c r="DG3">
-        <v>90</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI3">
-        <v>90</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>212</v>
-      </c>
       <c r="DL3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM3">
         <v>0</v>
@@ -2527,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="DR3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS3">
         <v>1</v>
@@ -2542,46 +2491,100 @@
         <v>9</v>
       </c>
       <c r="DW3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY3">
+        <v>90</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA3">
+        <v>90</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC3" t="s">
         <v>211</v>
       </c>
-      <c r="DY3">
-        <v>90</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA3">
-        <v>90</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>212</v>
-      </c>
       <c r="ED3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EE3">
+        <v>0</v>
+      </c>
+      <c r="EF3">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ3">
+        <v>1</v>
+      </c>
+      <c r="EK3">
+        <v>2</v>
+      </c>
+      <c r="EL3" t="s">
         <v>215</v>
       </c>
-      <c r="EE3">
-        <v>0</v>
-      </c>
-      <c r="EF3">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>215</v>
-      </c>
-      <c r="EJ3">
-        <v>0</v>
-      </c>
-      <c r="EK3">
+      <c r="EM3">
+        <v>75000</v>
+      </c>
+      <c r="EN3">
+        <v>7200</v>
+      </c>
+      <c r="EO3">
+        <v>11000</v>
+      </c>
+      <c r="EP3">
+        <v>100000</v>
+      </c>
+      <c r="EQ3">
+        <v>90000</v>
+      </c>
+      <c r="ER3">
+        <v>80000</v>
+      </c>
+      <c r="ES3" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>219</v>
+      </c>
+      <c r="EV3">
+        <v>50000</v>
+      </c>
+      <c r="EW3">
+        <v>7200</v>
+      </c>
+      <c r="EX3">
+        <v>7200</v>
+      </c>
+      <c r="EY3">
+        <v>50000</v>
+      </c>
+      <c r="EZ3">
+        <v>90000</v>
+      </c>
+      <c r="FA3">
+        <v>80000</v>
+      </c>
+      <c r="FB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="b">
         <v>0</v>
       </c>
       <c r="FD3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2596,70 +2599,52 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL3">
+        <v>0</v>
+      </c>
+      <c r="FM3">
+        <v>0</v>
+      </c>
+      <c r="FT3" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU3">
+        <v>0</v>
+      </c>
+      <c r="FV3">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB3" t="s">
         <v>224</v>
       </c>
-      <c r="FJ3" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL3">
-        <v>1</v>
-      </c>
-      <c r="FM3">
-        <v>1</v>
-      </c>
-      <c r="FN3">
-        <v>5500</v>
-      </c>
-      <c r="FO3">
-        <v>5500</v>
-      </c>
-      <c r="FP3">
-        <v>0.95</v>
-      </c>
-      <c r="FQ3">
-        <v>0.1</v>
-      </c>
-      <c r="FR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU3">
-        <v>0</v>
-      </c>
-      <c r="FV3">
-        <v>0</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB3" t="s">
-        <v>226</v>
-      </c>
       <c r="GC3" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI3">
         <v>86400</v>
@@ -2676,10 +2661,10 @@
         <v>193</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2688,7 +2673,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2700,13 +2685,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3296000</v>
+        <v>3863000</v>
       </c>
       <c r="O4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2721,25 +2706,25 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V4" t="s">
+        <v>210</v>
+      </c>
+      <c r="W4">
+        <v>90</v>
+      </c>
+      <c r="X4" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y4">
+        <v>90</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA4" t="s">
         <v>211</v>
-      </c>
-      <c r="W4">
-        <v>90</v>
-      </c>
-      <c r="X4" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y4">
-        <v>90</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>212</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2751,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2766,26 +2751,26 @@
         <v>9</v>
       </c>
       <c r="AL4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN4">
+        <v>90</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP4">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR4" t="s">
         <v>211</v>
       </c>
-      <c r="AN4">
-        <v>90</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP4">
-        <v>90</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>212</v>
-      </c>
       <c r="AS4">
         <v>0</v>
       </c>
@@ -2793,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="AX4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -2808,26 +2793,26 @@
         <v>9</v>
       </c>
       <c r="BC4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE4">
+        <v>90</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG4">
+        <v>90</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI4" t="s">
         <v>211</v>
       </c>
-      <c r="BE4">
-        <v>90</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG4">
-        <v>90</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ4">
         <v>0</v>
       </c>
@@ -2835,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="BO4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -2850,49 +2835,49 @@
         <v>9</v>
       </c>
       <c r="BT4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV4">
+        <v>90</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX4">
+        <v>90</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ4" t="s">
         <v>211</v>
       </c>
-      <c r="BV4">
-        <v>90</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX4">
-        <v>90</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ4" t="s">
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>6400</v>
+      </c>
+      <c r="CD4" t="s">
         <v>212</v>
       </c>
-      <c r="CA4">
-        <v>1</v>
-      </c>
-      <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>4200</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>213</v>
-      </c>
       <c r="CE4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG4" t="b">
         <v>1</v>
       </c>
       <c r="CH4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -2907,28 +2892,28 @@
         <v>9</v>
       </c>
       <c r="CM4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO4">
+        <v>90</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ4">
+        <v>90</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS4" t="s">
         <v>211</v>
       </c>
-      <c r="CO4">
-        <v>90</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ4">
-        <v>90</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>212</v>
-      </c>
       <c r="CT4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -2937,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA4">
         <v>1</v>
@@ -2952,28 +2937,28 @@
         <v>9</v>
       </c>
       <c r="DE4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG4">
+        <v>90</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI4">
+        <v>90</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK4" t="s">
         <v>211</v>
       </c>
-      <c r="DG4">
-        <v>90</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI4">
-        <v>90</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>212</v>
-      </c>
       <c r="DL4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2982,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="DR4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS4">
         <v>1</v>
@@ -2997,28 +2982,28 @@
         <v>9</v>
       </c>
       <c r="DW4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY4">
+        <v>90</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA4">
+        <v>90</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC4" t="s">
         <v>211</v>
       </c>
-      <c r="DY4">
-        <v>90</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA4">
-        <v>90</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>212</v>
-      </c>
       <c r="ED4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3027,43 +3012,16 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>1</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>217</v>
-      </c>
-      <c r="EM4">
-        <v>75000</v>
-      </c>
-      <c r="EN4">
-        <v>7200</v>
-      </c>
-      <c r="EO4">
-        <v>11000</v>
-      </c>
-      <c r="EP4">
-        <v>100000</v>
-      </c>
-      <c r="EQ4">
-        <v>90000</v>
-      </c>
-      <c r="ER4">
-        <v>80000</v>
-      </c>
-      <c r="ES4" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET4" t="b">
         <v>0</v>
       </c>
       <c r="FD4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3078,13 +3036,13 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FJ4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="FK4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FL4">
         <v>1</v>
@@ -3093,10 +3051,10 @@
         <v>1</v>
       </c>
       <c r="FN4">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="FO4">
-        <v>3300</v>
+        <v>3900</v>
       </c>
       <c r="FP4">
         <v>0.95</v>
@@ -3111,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3120,28 +3078,28 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="GB4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="GC4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH4" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI4">
         <v>86400</v>
@@ -3182,13 +3140,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3648000</v>
+        <v>3125000</v>
       </c>
       <c r="O5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3203,25 +3161,25 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V5" t="s">
+        <v>210</v>
+      </c>
+      <c r="W5">
+        <v>90</v>
+      </c>
+      <c r="X5" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y5">
+        <v>90</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA5" t="s">
         <v>211</v>
-      </c>
-      <c r="W5">
-        <v>90</v>
-      </c>
-      <c r="X5" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y5">
-        <v>90</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>212</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -3233,7 +3191,7 @@
         <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3248,26 +3206,26 @@
         <v>9</v>
       </c>
       <c r="AL5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN5">
+        <v>90</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP5">
+        <v>90</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR5" t="s">
         <v>211</v>
       </c>
-      <c r="AN5">
-        <v>90</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP5">
-        <v>90</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>212</v>
-      </c>
       <c r="AS5">
         <v>0</v>
       </c>
@@ -3275,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="AX5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -3290,26 +3248,26 @@
         <v>9</v>
       </c>
       <c r="BC5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE5">
+        <v>90</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG5">
+        <v>90</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI5" t="s">
         <v>211</v>
       </c>
-      <c r="BE5">
-        <v>90</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG5">
-        <v>90</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ5">
         <v>0</v>
       </c>
@@ -3317,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="BO5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -3332,37 +3290,37 @@
         <v>9</v>
       </c>
       <c r="BT5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV5">
+        <v>90</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX5">
+        <v>90</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>211</v>
       </c>
-      <c r="BV5">
-        <v>90</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX5">
-        <v>90</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ5" t="s">
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>5400</v>
+      </c>
+      <c r="CD5" t="s">
         <v>212</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>6400</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>213</v>
       </c>
       <c r="CE5">
         <v>-20</v>
@@ -3374,7 +3332,7 @@
         <v>1</v>
       </c>
       <c r="CH5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -3389,28 +3347,28 @@
         <v>9</v>
       </c>
       <c r="CM5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO5">
+        <v>90</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ5">
+        <v>90</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS5" t="s">
         <v>211</v>
       </c>
-      <c r="CO5">
-        <v>90</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ5">
-        <v>90</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>212</v>
-      </c>
       <c r="CT5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -3419,7 +3377,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA5">
         <v>1</v>
@@ -3434,28 +3392,28 @@
         <v>9</v>
       </c>
       <c r="DE5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG5">
+        <v>90</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI5">
+        <v>90</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK5" t="s">
         <v>211</v>
       </c>
-      <c r="DG5">
-        <v>90</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI5">
-        <v>90</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>212</v>
-      </c>
       <c r="DL5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM5">
         <v>0</v>
@@ -3464,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="DR5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -3479,46 +3437,100 @@
         <v>9</v>
       </c>
       <c r="DW5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY5">
+        <v>90</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA5">
+        <v>90</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC5" t="s">
         <v>211</v>
       </c>
-      <c r="DY5">
-        <v>90</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA5">
-        <v>90</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>212</v>
-      </c>
       <c r="ED5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EE5">
+        <v>0</v>
+      </c>
+      <c r="EF5">
+        <v>0</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ5">
+        <v>1</v>
+      </c>
+      <c r="EK5">
+        <v>2</v>
+      </c>
+      <c r="EL5" t="s">
         <v>215</v>
       </c>
-      <c r="EE5">
-        <v>0</v>
-      </c>
-      <c r="EF5">
-        <v>0</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>215</v>
-      </c>
-      <c r="EJ5">
-        <v>0</v>
-      </c>
-      <c r="EK5">
+      <c r="EM5">
+        <v>50000</v>
+      </c>
+      <c r="EN5">
+        <v>7200</v>
+      </c>
+      <c r="EO5">
+        <v>7200</v>
+      </c>
+      <c r="EP5">
+        <v>50000</v>
+      </c>
+      <c r="EQ5">
+        <v>90000</v>
+      </c>
+      <c r="ER5">
+        <v>80000</v>
+      </c>
+      <c r="ES5" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>220</v>
+      </c>
+      <c r="EV5">
+        <v>75000</v>
+      </c>
+      <c r="EW5">
+        <v>7200</v>
+      </c>
+      <c r="EX5">
+        <v>11000</v>
+      </c>
+      <c r="EY5">
+        <v>100000</v>
+      </c>
+      <c r="EZ5">
+        <v>90000</v>
+      </c>
+      <c r="FA5">
+        <v>80000</v>
+      </c>
+      <c r="FB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC5" t="b">
         <v>0</v>
       </c>
       <c r="FD5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3533,13 +3545,13 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FJ5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="FK5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FL5">
         <v>1</v>
@@ -3548,10 +3560,10 @@
         <v>1</v>
       </c>
       <c r="FN5">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FO5">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FP5">
         <v>0.95</v>
@@ -3566,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -3575,28 +3587,28 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="GB5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="GC5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI5">
         <v>86400</v>
@@ -3613,10 +3625,10 @@
         <v>195</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3625,7 +3637,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3637,13 +3649,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2012000</v>
+        <v>3564000</v>
       </c>
       <c r="O6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3658,25 +3670,25 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W6">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y6">
+        <v>90</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA6" t="s">
         <v>211</v>
-      </c>
-      <c r="W6">
-        <v>90</v>
-      </c>
-      <c r="X6" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y6">
-        <v>90</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>212</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -3688,7 +3700,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -3703,26 +3715,26 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN6">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP6">
+        <v>90</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR6" t="s">
         <v>211</v>
       </c>
-      <c r="AN6">
-        <v>90</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP6">
-        <v>90</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>212</v>
-      </c>
       <c r="AS6">
         <v>0</v>
       </c>
@@ -3730,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AX6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -3745,26 +3757,26 @@
         <v>9</v>
       </c>
       <c r="BC6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE6">
+        <v>90</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG6">
+        <v>90</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI6" t="s">
         <v>211</v>
       </c>
-      <c r="BE6">
-        <v>90</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG6">
-        <v>90</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ6">
         <v>0</v>
       </c>
@@ -3772,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="BO6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -3787,34 +3799,49 @@
         <v>9</v>
       </c>
       <c r="BT6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV6">
+        <v>90</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX6">
+        <v>90</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>211</v>
       </c>
-      <c r="BV6">
-        <v>90</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX6">
-        <v>90</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ6" t="s">
+      <c r="CA6">
+        <v>1</v>
+      </c>
+      <c r="CB6">
+        <v>1</v>
+      </c>
+      <c r="CC6">
+        <v>4800</v>
+      </c>
+      <c r="CD6" t="s">
         <v>212</v>
       </c>
-      <c r="CA6">
-        <v>0</v>
-      </c>
-      <c r="CB6">
-        <v>0</v>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>40</v>
+      </c>
+      <c r="CG6" t="b">
+        <v>1</v>
       </c>
       <c r="CH6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -3829,28 +3856,28 @@
         <v>9</v>
       </c>
       <c r="CM6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO6">
+        <v>90</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ6">
+        <v>90</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS6" t="s">
         <v>211</v>
       </c>
-      <c r="CO6">
-        <v>90</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ6">
-        <v>90</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>212</v>
-      </c>
       <c r="CT6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -3859,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA6">
         <v>1</v>
@@ -3874,28 +3901,28 @@
         <v>9</v>
       </c>
       <c r="DE6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG6">
+        <v>90</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI6">
+        <v>90</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK6" t="s">
         <v>211</v>
       </c>
-      <c r="DG6">
-        <v>90</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI6">
-        <v>90</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>212</v>
-      </c>
       <c r="DL6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -3904,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="DR6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -3919,28 +3946,28 @@
         <v>9</v>
       </c>
       <c r="DW6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY6">
+        <v>90</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA6">
+        <v>90</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC6" t="s">
         <v>211</v>
       </c>
-      <c r="DY6">
-        <v>90</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA6">
-        <v>90</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>212</v>
-      </c>
       <c r="ED6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3949,16 +3976,43 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK6">
+        <v>1</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>216</v>
+      </c>
+      <c r="EM6">
+        <v>50000</v>
+      </c>
+      <c r="EN6">
+        <v>7200</v>
+      </c>
+      <c r="EO6">
+        <v>7200</v>
+      </c>
+      <c r="EP6">
+        <v>50000</v>
+      </c>
+      <c r="EQ6">
+        <v>90000</v>
+      </c>
+      <c r="ER6">
+        <v>80000</v>
+      </c>
+      <c r="ES6" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="b">
         <v>0</v>
       </c>
       <c r="FD6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -3973,52 +4027,52 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL6">
+        <v>0</v>
+      </c>
+      <c r="FM6">
+        <v>0</v>
+      </c>
+      <c r="FT6" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU6">
+        <v>0</v>
+      </c>
+      <c r="FV6">
+        <v>0</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB6" t="s">
         <v>224</v>
       </c>
-      <c r="FJ6" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL6">
-        <v>0</v>
-      </c>
-      <c r="FM6">
-        <v>0</v>
-      </c>
-      <c r="FT6" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU6">
-        <v>0</v>
-      </c>
-      <c r="FV6">
-        <v>0</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB6" t="s">
-        <v>226</v>
-      </c>
       <c r="GC6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI6">
         <v>86400</v>
@@ -4059,13 +4113,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>2959000</v>
+        <v>5527000</v>
       </c>
       <c r="O7" t="s">
         <v>205</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4080,25 +4134,25 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V7" t="s">
+        <v>210</v>
+      </c>
+      <c r="W7">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y7">
+        <v>90</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA7" t="s">
         <v>211</v>
-      </c>
-      <c r="W7">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y7">
-        <v>90</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>212</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -4110,7 +4164,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4125,26 +4179,26 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN7">
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP7">
+        <v>90</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR7" t="s">
         <v>211</v>
       </c>
-      <c r="AN7">
-        <v>90</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP7">
-        <v>90</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>212</v>
-      </c>
       <c r="AS7">
         <v>0</v>
       </c>
@@ -4152,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AX7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -4167,26 +4221,26 @@
         <v>9</v>
       </c>
       <c r="BC7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE7">
+        <v>90</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG7">
+        <v>90</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI7" t="s">
         <v>211</v>
       </c>
-      <c r="BE7">
-        <v>90</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG7">
-        <v>90</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ7">
         <v>0</v>
       </c>
@@ -4194,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="BO7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -4209,37 +4263,37 @@
         <v>9</v>
       </c>
       <c r="BT7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV7">
+        <v>90</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX7">
+        <v>90</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>211</v>
       </c>
-      <c r="BV7">
-        <v>90</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX7">
-        <v>90</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ7" t="s">
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>8000</v>
+      </c>
+      <c r="CD7" t="s">
         <v>212</v>
-      </c>
-      <c r="CA7">
-        <v>1</v>
-      </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>3800</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>213</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -4251,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="CH7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -4266,28 +4320,28 @@
         <v>9</v>
       </c>
       <c r="CM7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO7">
+        <v>90</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ7">
+        <v>90</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS7" t="s">
         <v>211</v>
       </c>
-      <c r="CO7">
-        <v>90</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ7">
-        <v>90</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>212</v>
-      </c>
       <c r="CT7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -4296,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -4311,28 +4365,28 @@
         <v>9</v>
       </c>
       <c r="DE7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG7">
+        <v>90</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI7">
+        <v>90</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK7" t="s">
         <v>211</v>
       </c>
-      <c r="DG7">
-        <v>90</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI7">
-        <v>90</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>212</v>
-      </c>
       <c r="DL7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM7">
         <v>0</v>
@@ -4341,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="DR7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -4356,28 +4410,28 @@
         <v>9</v>
       </c>
       <c r="DW7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY7">
+        <v>90</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA7">
+        <v>90</v>
+      </c>
+      <c r="EB7" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC7" t="s">
         <v>211</v>
       </c>
-      <c r="DY7">
-        <v>90</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA7">
-        <v>90</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>212</v>
-      </c>
       <c r="ED7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4386,16 +4440,43 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK7">
+        <v>1</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>217</v>
+      </c>
+      <c r="EM7">
+        <v>75000</v>
+      </c>
+      <c r="EN7">
+        <v>7200</v>
+      </c>
+      <c r="EO7">
+        <v>11000</v>
+      </c>
+      <c r="EP7">
+        <v>100000</v>
+      </c>
+      <c r="EQ7">
+        <v>90000</v>
+      </c>
+      <c r="ER7">
+        <v>80000</v>
+      </c>
+      <c r="ES7" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET7" t="b">
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4410,70 +4491,52 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL7">
+        <v>0</v>
+      </c>
+      <c r="FM7">
+        <v>0</v>
+      </c>
+      <c r="FT7" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU7">
+        <v>0</v>
+      </c>
+      <c r="FV7">
+        <v>0</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB7" t="s">
         <v>224</v>
       </c>
-      <c r="FJ7" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL7">
-        <v>1</v>
-      </c>
-      <c r="FM7">
-        <v>1</v>
-      </c>
-      <c r="FN7">
-        <v>3000</v>
-      </c>
-      <c r="FO7">
-        <v>3000</v>
-      </c>
-      <c r="FP7">
-        <v>0.95</v>
-      </c>
-      <c r="FQ7">
-        <v>0.1</v>
-      </c>
-      <c r="FR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FT7" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU7">
-        <v>0</v>
-      </c>
-      <c r="FV7">
-        <v>0</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB7" t="s">
-        <v>226</v>
-      </c>
       <c r="GC7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI7">
         <v>86400</v>
@@ -4514,13 +4577,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3863000</v>
+        <v>2896000</v>
       </c>
       <c r="O8" t="s">
         <v>206</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4535,25 +4598,25 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V8" t="s">
+        <v>210</v>
+      </c>
+      <c r="W8">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y8">
+        <v>90</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA8" t="s">
         <v>211</v>
-      </c>
-      <c r="W8">
-        <v>90</v>
-      </c>
-      <c r="X8" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y8">
-        <v>90</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>212</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -4565,7 +4628,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -4580,26 +4643,26 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN8">
+        <v>90</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP8">
+        <v>90</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR8" t="s">
         <v>211</v>
       </c>
-      <c r="AN8">
-        <v>90</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP8">
-        <v>90</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>212</v>
-      </c>
       <c r="AS8">
         <v>0</v>
       </c>
@@ -4607,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="AX8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -4622,26 +4685,26 @@
         <v>9</v>
       </c>
       <c r="BC8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE8">
+        <v>90</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG8">
+        <v>90</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI8" t="s">
         <v>211</v>
       </c>
-      <c r="BE8">
-        <v>90</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG8">
-        <v>90</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ8">
         <v>0</v>
       </c>
@@ -4649,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="BO8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -4664,37 +4727,37 @@
         <v>9</v>
       </c>
       <c r="BT8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV8">
+        <v>90</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX8">
+        <v>90</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>211</v>
       </c>
-      <c r="BV8">
-        <v>90</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX8">
-        <v>90</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ8" t="s">
+      <c r="CA8">
+        <v>1</v>
+      </c>
+      <c r="CB8">
+        <v>1</v>
+      </c>
+      <c r="CC8">
+        <v>4900</v>
+      </c>
+      <c r="CD8" t="s">
         <v>212</v>
-      </c>
-      <c r="CA8">
-        <v>1</v>
-      </c>
-      <c r="CB8">
-        <v>1</v>
-      </c>
-      <c r="CC8">
-        <v>5000</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>213</v>
       </c>
       <c r="CE8">
         <v>0</v>
@@ -4706,7 +4769,7 @@
         <v>1</v>
       </c>
       <c r="CH8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -4721,28 +4784,28 @@
         <v>9</v>
       </c>
       <c r="CM8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN8" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO8">
+        <v>90</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ8">
+        <v>90</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS8" t="s">
         <v>211</v>
       </c>
-      <c r="CO8">
-        <v>90</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ8">
-        <v>90</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>212</v>
-      </c>
       <c r="CT8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -4751,7 +4814,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -4766,28 +4829,28 @@
         <v>9</v>
       </c>
       <c r="DE8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG8">
+        <v>90</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI8">
+        <v>90</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK8" t="s">
         <v>211</v>
       </c>
-      <c r="DG8">
-        <v>90</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI8">
-        <v>90</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>212</v>
-      </c>
       <c r="DL8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM8">
         <v>0</v>
@@ -4796,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="DR8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -4811,28 +4874,28 @@
         <v>9</v>
       </c>
       <c r="DW8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY8">
+        <v>90</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA8">
+        <v>90</v>
+      </c>
+      <c r="EB8" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC8" t="s">
         <v>211</v>
       </c>
-      <c r="DY8">
-        <v>90</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA8">
-        <v>90</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>212</v>
-      </c>
       <c r="ED8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4841,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ8">
         <v>1</v>
@@ -4877,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -4892,13 +4955,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FJ8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="FK8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -4907,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="FN8">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="FO8">
-        <v>3900</v>
+        <v>2900</v>
       </c>
       <c r="FP8">
         <v>0.95</v>
@@ -4925,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -4934,28 +4997,28 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="GB8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="GC8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI8">
         <v>86400</v>
@@ -4996,13 +5059,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3863000</v>
+        <v>2455000</v>
       </c>
       <c r="O9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -5017,25 +5080,25 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V9" t="s">
+        <v>210</v>
+      </c>
+      <c r="W9">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y9">
+        <v>90</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA9" t="s">
         <v>211</v>
-      </c>
-      <c r="W9">
-        <v>90</v>
-      </c>
-      <c r="X9" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y9">
-        <v>90</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>212</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -5047,7 +5110,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -5062,26 +5125,26 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN9">
+        <v>90</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP9">
+        <v>90</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR9" t="s">
         <v>211</v>
       </c>
-      <c r="AN9">
-        <v>90</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP9">
-        <v>90</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>212</v>
-      </c>
       <c r="AS9">
         <v>0</v>
       </c>
@@ -5089,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AX9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -5104,26 +5167,26 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE9">
+        <v>90</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG9">
+        <v>90</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI9" t="s">
         <v>211</v>
       </c>
-      <c r="BE9">
-        <v>90</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG9">
-        <v>90</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ9">
         <v>0</v>
       </c>
@@ -5131,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="BO9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -5146,37 +5209,37 @@
         <v>9</v>
       </c>
       <c r="BT9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV9">
+        <v>90</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX9">
+        <v>90</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>211</v>
       </c>
-      <c r="BV9">
-        <v>90</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX9">
-        <v>90</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ9" t="s">
+      <c r="CA9">
+        <v>1</v>
+      </c>
+      <c r="CB9">
+        <v>1</v>
+      </c>
+      <c r="CC9">
+        <v>3300</v>
+      </c>
+      <c r="CD9" t="s">
         <v>212</v>
-      </c>
-      <c r="CA9">
-        <v>1</v>
-      </c>
-      <c r="CB9">
-        <v>1</v>
-      </c>
-      <c r="CC9">
-        <v>6600</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>213</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5188,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="CH9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -5203,28 +5266,28 @@
         <v>9</v>
       </c>
       <c r="CM9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN9" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO9">
+        <v>90</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ9">
+        <v>90</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS9" t="s">
         <v>211</v>
       </c>
-      <c r="CO9">
-        <v>90</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ9">
-        <v>90</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>212</v>
-      </c>
       <c r="CT9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -5233,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA9">
         <v>1</v>
@@ -5248,28 +5311,28 @@
         <v>9</v>
       </c>
       <c r="DE9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG9">
+        <v>90</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI9">
+        <v>90</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK9" t="s">
         <v>211</v>
       </c>
-      <c r="DG9">
-        <v>90</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI9">
-        <v>90</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>212</v>
-      </c>
       <c r="DL9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM9">
         <v>0</v>
@@ -5278,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="DR9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS9">
         <v>1</v>
@@ -5293,28 +5356,28 @@
         <v>9</v>
       </c>
       <c r="DW9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY9">
+        <v>90</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA9">
+        <v>90</v>
+      </c>
+      <c r="EB9" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC9" t="s">
         <v>211</v>
       </c>
-      <c r="DY9">
-        <v>90</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA9">
-        <v>90</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>212</v>
-      </c>
       <c r="ED9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5323,70 +5386,16 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK9">
-        <v>2</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>219</v>
-      </c>
-      <c r="EM9">
-        <v>50000</v>
-      </c>
-      <c r="EN9">
-        <v>7200</v>
-      </c>
-      <c r="EO9">
-        <v>7200</v>
-      </c>
-      <c r="EP9">
-        <v>50000</v>
-      </c>
-      <c r="EQ9">
-        <v>90000</v>
-      </c>
-      <c r="ER9">
-        <v>80000</v>
-      </c>
-      <c r="ES9" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET9" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU9" t="s">
-        <v>222</v>
-      </c>
-      <c r="EV9">
-        <v>50000</v>
-      </c>
-      <c r="EW9">
-        <v>7200</v>
-      </c>
-      <c r="EX9">
-        <v>7200</v>
-      </c>
-      <c r="EY9">
-        <v>50000</v>
-      </c>
-      <c r="EZ9">
-        <v>90000</v>
-      </c>
-      <c r="FA9">
-        <v>80000</v>
-      </c>
-      <c r="FB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="b">
         <v>0</v>
       </c>
       <c r="FD9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -5401,52 +5410,70 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL9">
+        <v>1</v>
+      </c>
+      <c r="FM9">
+        <v>1</v>
+      </c>
+      <c r="FN9">
+        <v>2500</v>
+      </c>
+      <c r="FO9">
+        <v>2500</v>
+      </c>
+      <c r="FP9">
+        <v>0.95</v>
+      </c>
+      <c r="FQ9">
+        <v>0.1</v>
+      </c>
+      <c r="FR9" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS9" t="b">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU9">
+        <v>0</v>
+      </c>
+      <c r="FV9">
+        <v>0</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB9" t="s">
         <v>224</v>
       </c>
-      <c r="FJ9" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL9">
-        <v>0</v>
-      </c>
-      <c r="FM9">
-        <v>0</v>
-      </c>
-      <c r="FT9" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU9">
-        <v>0</v>
-      </c>
-      <c r="FV9">
-        <v>0</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB9" t="s">
-        <v>226</v>
-      </c>
       <c r="GC9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI9">
         <v>86400</v>
@@ -5487,13 +5514,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>3125000</v>
+        <v>5527000</v>
       </c>
       <c r="O10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -5508,25 +5535,25 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V10" t="s">
+        <v>210</v>
+      </c>
+      <c r="W10">
+        <v>90</v>
+      </c>
+      <c r="X10" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y10">
+        <v>90</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA10" t="s">
         <v>211</v>
-      </c>
-      <c r="W10">
-        <v>90</v>
-      </c>
-      <c r="X10" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y10">
-        <v>90</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>212</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -5538,7 +5565,7 @@
         <v>6</v>
       </c>
       <c r="AG10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -5553,26 +5580,26 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN10">
+        <v>90</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP10">
+        <v>90</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR10" t="s">
         <v>211</v>
       </c>
-      <c r="AN10">
-        <v>90</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP10">
-        <v>90</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>212</v>
-      </c>
       <c r="AS10">
         <v>0</v>
       </c>
@@ -5580,7 +5607,7 @@
         <v>0</v>
       </c>
       <c r="AX10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -5595,26 +5622,26 @@
         <v>9</v>
       </c>
       <c r="BC10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE10">
+        <v>90</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG10">
+        <v>90</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI10" t="s">
         <v>211</v>
       </c>
-      <c r="BE10">
-        <v>90</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG10">
-        <v>90</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ10">
         <v>0</v>
       </c>
@@ -5622,7 +5649,7 @@
         <v>0</v>
       </c>
       <c r="BO10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -5637,49 +5664,34 @@
         <v>9</v>
       </c>
       <c r="BT10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV10">
+        <v>90</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX10">
+        <v>90</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>211</v>
       </c>
-      <c r="BV10">
-        <v>90</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX10">
-        <v>90</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>212</v>
-      </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>4300</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>213</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>40</v>
-      </c>
-      <c r="CG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -5694,28 +5706,28 @@
         <v>9</v>
       </c>
       <c r="CM10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO10">
+        <v>90</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ10">
+        <v>90</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS10" t="s">
         <v>211</v>
       </c>
-      <c r="CO10">
-        <v>90</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ10">
-        <v>90</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>212</v>
-      </c>
       <c r="CT10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -5724,7 +5736,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA10">
         <v>1</v>
@@ -5739,28 +5751,28 @@
         <v>9</v>
       </c>
       <c r="DE10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG10">
+        <v>90</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI10">
+        <v>90</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK10" t="s">
         <v>211</v>
       </c>
-      <c r="DG10">
-        <v>90</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI10">
-        <v>90</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK10" t="s">
-        <v>212</v>
-      </c>
       <c r="DL10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM10">
         <v>0</v>
@@ -5769,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="DR10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS10">
         <v>1</v>
@@ -5784,28 +5796,28 @@
         <v>9</v>
       </c>
       <c r="DW10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY10">
+        <v>90</v>
+      </c>
+      <c r="DZ10" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA10">
+        <v>90</v>
+      </c>
+      <c r="EB10" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC10" t="s">
         <v>211</v>
       </c>
-      <c r="DY10">
-        <v>90</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA10">
-        <v>90</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>212</v>
-      </c>
       <c r="ED10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5814,43 +5826,16 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK10">
-        <v>1</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>220</v>
-      </c>
-      <c r="EM10">
-        <v>75000</v>
-      </c>
-      <c r="EN10">
-        <v>7200</v>
-      </c>
-      <c r="EO10">
-        <v>11000</v>
-      </c>
-      <c r="EP10">
-        <v>100000</v>
-      </c>
-      <c r="EQ10">
-        <v>90000</v>
-      </c>
-      <c r="ER10">
-        <v>80000</v>
-      </c>
-      <c r="ES10" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET10" t="b">
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -5865,52 +5850,52 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
+        <v>222</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>223</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>214</v>
+      </c>
+      <c r="FL10">
+        <v>0</v>
+      </c>
+      <c r="FM10">
+        <v>0</v>
+      </c>
+      <c r="FT10" t="s">
+        <v>214</v>
+      </c>
+      <c r="FU10">
+        <v>0</v>
+      </c>
+      <c r="FV10">
+        <v>0</v>
+      </c>
+      <c r="GA10" t="s">
+        <v>214</v>
+      </c>
+      <c r="GB10" t="s">
         <v>224</v>
       </c>
-      <c r="FJ10" t="s">
-        <v>225</v>
-      </c>
-      <c r="FK10" t="s">
-        <v>215</v>
-      </c>
-      <c r="FL10">
-        <v>0</v>
-      </c>
-      <c r="FM10">
-        <v>0</v>
-      </c>
-      <c r="FT10" t="s">
-        <v>215</v>
-      </c>
-      <c r="FU10">
-        <v>0</v>
-      </c>
-      <c r="FV10">
-        <v>0</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>215</v>
-      </c>
-      <c r="GB10" t="s">
-        <v>226</v>
-      </c>
       <c r="GC10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI10">
         <v>86400</v>
@@ -5927,10 +5912,10 @@
         <v>200</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5939,7 +5924,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5951,13 +5936,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>3564000</v>
+        <v>3125000</v>
       </c>
       <c r="O11" t="s">
+        <v>204</v>
+      </c>
+      <c r="P11" t="s">
         <v>208</v>
-      </c>
-      <c r="P11" t="s">
-        <v>209</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -5972,25 +5957,25 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="V11" t="s">
+        <v>210</v>
+      </c>
+      <c r="W11">
+        <v>90</v>
+      </c>
+      <c r="X11" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y11">
+        <v>90</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA11" t="s">
         <v>211</v>
-      </c>
-      <c r="W11">
-        <v>90</v>
-      </c>
-      <c r="X11" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y11">
-        <v>90</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>212</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -6002,7 +5987,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -6017,26 +6002,26 @@
         <v>9</v>
       </c>
       <c r="AL11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AN11">
+        <v>90</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP11">
+        <v>90</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR11" t="s">
         <v>211</v>
       </c>
-      <c r="AN11">
-        <v>90</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP11">
-        <v>90</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>212</v>
-      </c>
       <c r="AS11">
         <v>0</v>
       </c>
@@ -6044,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="AX11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -6059,26 +6044,26 @@
         <v>9</v>
       </c>
       <c r="BC11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BE11">
+        <v>90</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BG11">
+        <v>90</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BI11" t="s">
         <v>211</v>
       </c>
-      <c r="BE11">
-        <v>90</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BG11">
-        <v>90</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>212</v>
-      </c>
       <c r="BJ11">
         <v>0</v>
       </c>
@@ -6086,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="BO11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -6101,49 +6086,49 @@
         <v>9</v>
       </c>
       <c r="BT11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BU11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV11">
+        <v>90</v>
+      </c>
+      <c r="BW11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX11">
+        <v>90</v>
+      </c>
+      <c r="BY11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>211</v>
       </c>
-      <c r="BV11">
-        <v>90</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BX11">
-        <v>90</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BZ11" t="s">
+      <c r="CA11">
+        <v>1</v>
+      </c>
+      <c r="CB11">
+        <v>1</v>
+      </c>
+      <c r="CC11">
+        <v>4300</v>
+      </c>
+      <c r="CD11" t="s">
         <v>212</v>
       </c>
-      <c r="CA11">
-        <v>1</v>
-      </c>
-      <c r="CB11">
-        <v>1</v>
-      </c>
-      <c r="CC11">
-        <v>4600</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>213</v>
-      </c>
       <c r="CE11">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG11" t="b">
         <v>1</v>
       </c>
       <c r="CH11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="CI11">
         <v>1</v>
@@ -6158,28 +6143,28 @@
         <v>9</v>
       </c>
       <c r="CM11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CN11" t="s">
+        <v>210</v>
+      </c>
+      <c r="CO11">
+        <v>90</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>210</v>
+      </c>
+      <c r="CQ11">
+        <v>90</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>210</v>
+      </c>
+      <c r="CS11" t="s">
         <v>211</v>
       </c>
-      <c r="CO11">
-        <v>90</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>211</v>
-      </c>
-      <c r="CQ11">
-        <v>90</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>211</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>212</v>
-      </c>
       <c r="CT11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -6188,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DA11">
         <v>1</v>
@@ -6203,28 +6188,28 @@
         <v>9</v>
       </c>
       <c r="DE11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DF11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DG11">
+        <v>90</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DI11">
+        <v>90</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DK11" t="s">
         <v>211</v>
       </c>
-      <c r="DG11">
-        <v>90</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>211</v>
-      </c>
-      <c r="DI11">
-        <v>90</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>211</v>
-      </c>
-      <c r="DK11" t="s">
-        <v>212</v>
-      </c>
       <c r="DL11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="DM11">
         <v>0</v>
@@ -6233,7 +6218,7 @@
         <v>0</v>
       </c>
       <c r="DR11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="DS11">
         <v>1</v>
@@ -6248,28 +6233,28 @@
         <v>9</v>
       </c>
       <c r="DW11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="DX11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DY11">
+        <v>90</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>210</v>
+      </c>
+      <c r="EA11">
+        <v>90</v>
+      </c>
+      <c r="EB11" t="s">
+        <v>210</v>
+      </c>
+      <c r="EC11" t="s">
         <v>211</v>
       </c>
-      <c r="DY11">
-        <v>90</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>211</v>
-      </c>
-      <c r="EA11">
-        <v>90</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>211</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>212</v>
-      </c>
       <c r="ED11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6278,7 +6263,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EJ11">
         <v>0</v>
@@ -6287,7 +6272,7 @@
         <v>0</v>
       </c>
       <c r="FD11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -6302,13 +6287,13 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="FJ11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="FK11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FL11">
         <v>1</v>
@@ -6317,10 +6302,10 @@
         <v>1</v>
       </c>
       <c r="FN11">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FO11">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FP11">
         <v>0.95</v>
@@ -6335,7 +6320,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -6344,28 +6329,28 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="GB11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="GC11" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="GF11" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="GG11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GH11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="GI11">
         <v>86400</v>
@@ -6401,13 +6386,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -6998,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7310,22 +7295,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="DH1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -7412,7 +7397,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8072,10 +8057,10 @@
         <v>188</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -8135,58 +8120,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>259</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\02 - config\example_single_market\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFA954-CCD5-47CB-8AFF-7921CCAD63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,25 @@
     <sheet name="producer" sheetId="5" r:id="rId5"/>
     <sheet name="storage" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="270">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -594,57 +613,57 @@
     <t>ems/fcasts/update_period</t>
   </si>
   <si>
-    <t>QIDo2Rf8HWcrrrK</t>
-  </si>
-  <si>
-    <t>mMna0fdFv2mFxIA</t>
-  </si>
-  <si>
-    <t>LTjj3htgEzFPFwG</t>
-  </si>
-  <si>
-    <t>wUnlhLunAQkmiYg</t>
-  </si>
-  <si>
-    <t>TzFCeFv75nGXK76</t>
-  </si>
-  <si>
-    <t>Whx5cbqKg1TTcfv</t>
-  </si>
-  <si>
-    <t>TqTxlkKDgzonG7H</t>
-  </si>
-  <si>
-    <t>1elq9ieTruo5sEm</t>
-  </si>
-  <si>
-    <t>RxBT5EAnLtY3JdD</t>
-  </si>
-  <si>
-    <t>g06giXT84GgespH</t>
-  </si>
-  <si>
-    <t>hh_4536_0.csv</t>
+    <t>uzEoMpDvqUQmolk</t>
+  </si>
+  <si>
+    <t>DGzmAB9lHmVyQZv</t>
+  </si>
+  <si>
+    <t>TYMLJEa1KAhqE59</t>
+  </si>
+  <si>
+    <t>exVNgDckyloeKPg</t>
+  </si>
+  <si>
+    <t>KbSpjvHvz8Y5u7z</t>
+  </si>
+  <si>
+    <t>9ImCBUvCV7wFtHf</t>
+  </si>
+  <si>
+    <t>yHAIaE0rOHnBGoP</t>
+  </si>
+  <si>
+    <t>rNrxz3A1u6iRhO2</t>
+  </si>
+  <si>
+    <t>Ec93eXNNvTukTxN</t>
+  </si>
+  <si>
+    <t>ZzD5Fsx2AOCTX8N</t>
+  </si>
+  <si>
+    <t>hh_2532_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4402_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
   </si>
   <si>
     <t>hh_3564_0.csv</t>
   </si>
   <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
     <t>hh_2896_0.csv</t>
   </si>
   <si>
-    <t>hh_2455_0.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -657,6 +676,42 @@
     <t>[1, 0, 0]</t>
   </si>
   <si>
+    <t>heat_2532_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2896_0.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
     <t>pv_config.json</t>
   </si>
   <si>
@@ -666,22 +721,31 @@
     <t>local</t>
   </si>
   <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_47.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_42.csv</t>
+  </si>
+  <si>
     <t>ev_parttime_90.csv</t>
   </si>
   <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_1.csv</t>
-  </si>
-  <si>
     <t>ev_parttime_88.csv</t>
   </si>
   <si>
-    <t>ev_freetime_0.csv</t>
+    <t>ev_fulltime_43.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -789,8 +853,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -853,13 +917,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -897,7 +969,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -931,6 +1003,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -965,9 +1038,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1140,14 +1214,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
+      <selection activeCell="EQ2" sqref="EQ2:EQ11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.90625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.36328125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.90625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.90625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="9" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="22" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="24.6328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="21.6328125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20.6328125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="21.08984375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="25" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="25.6328125" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="24" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="14" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="24" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="14" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="35.6328125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="174" max="175" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="23.08984375" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="24.08984375" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="19" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="23.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:192">
+    <row r="1" spans="1:192" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1722,7 +1991,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:192">
+    <row r="2" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1754,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4536000</v>
+        <v>2532000</v>
       </c>
       <c r="O2" t="s">
         <v>201</v>
@@ -1841,10 +2110,19 @@
         <v>211</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>19500000</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AW2">
+        <v>55</v>
       </c>
       <c r="AX2" t="s">
         <v>208</v>
@@ -1883,10 +2161,19 @@
         <v>211</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>2800000</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN2">
+        <v>55</v>
       </c>
       <c r="BO2" t="s">
         <v>208</v>
@@ -1931,10 +2218,10 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>5700</v>
+        <v>3800</v>
       </c>
       <c r="CD2" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -1982,7 +2269,7 @@
         <v>211</v>
       </c>
       <c r="CT2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -2027,7 +2314,7 @@
         <v>211</v>
       </c>
       <c r="DL2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2072,7 +2359,7 @@
         <v>211</v>
       </c>
       <c r="ED2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2081,16 +2368,43 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK2">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>227</v>
+      </c>
+      <c r="EM2">
+        <v>50000</v>
+      </c>
+      <c r="EN2">
+        <v>7200</v>
+      </c>
+      <c r="EO2">
+        <v>7200</v>
+      </c>
+      <c r="EP2">
+        <v>50000</v>
+      </c>
+      <c r="EQ2">
+        <v>0.9</v>
+      </c>
+      <c r="ER2">
+        <v>0.8</v>
+      </c>
+      <c r="ES2" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET2" t="b">
         <v>0</v>
       </c>
       <c r="FD2" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2105,13 +2419,13 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ2" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL2">
         <v>1</v>
@@ -2120,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="FN2">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="FO2">
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="FP2">
         <v>0.95</v>
@@ -2138,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="FT2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2147,28 +2461,28 @@
         <v>0</v>
       </c>
       <c r="GA2" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF2" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH2" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI2">
         <v>86400</v>
@@ -2177,7 +2491,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:192">
+    <row r="3" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2209,7 +2523,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3564000</v>
+        <v>3125000</v>
       </c>
       <c r="O3" t="s">
         <v>202</v>
@@ -2296,10 +2610,19 @@
         <v>211</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>19500000</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>213</v>
+      </c>
+      <c r="AW3">
+        <v>55</v>
       </c>
       <c r="AX3" t="s">
         <v>208</v>
@@ -2338,10 +2661,19 @@
         <v>211</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>2400000</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>220</v>
+      </c>
+      <c r="BN3">
+        <v>55</v>
       </c>
       <c r="BO3" t="s">
         <v>208</v>
@@ -2380,10 +2712,25 @@
         <v>211</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>5400</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>40</v>
+      </c>
+      <c r="CG3" t="b">
+        <v>1</v>
       </c>
       <c r="CH3" t="s">
         <v>208</v>
@@ -2422,7 +2769,7 @@
         <v>211</v>
       </c>
       <c r="CT3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -2467,7 +2814,7 @@
         <v>211</v>
       </c>
       <c r="DL3" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM3">
         <v>0</v>
@@ -2512,7 +2859,7 @@
         <v>211</v>
       </c>
       <c r="ED3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2521,34 +2868,34 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ3">
         <v>1</v>
       </c>
       <c r="EK3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL3" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="EM3">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EN3">
         <v>7200</v>
       </c>
       <c r="EO3">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EP3">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EQ3">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER3">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES3" t="b">
         <v>0</v>
@@ -2556,35 +2903,8 @@
       <c r="ET3" t="b">
         <v>0</v>
       </c>
-      <c r="EU3" t="s">
-        <v>219</v>
-      </c>
-      <c r="EV3">
-        <v>50000</v>
-      </c>
-      <c r="EW3">
-        <v>7200</v>
-      </c>
-      <c r="EX3">
-        <v>7200</v>
-      </c>
-      <c r="EY3">
-        <v>50000</v>
-      </c>
-      <c r="EZ3">
-        <v>90000</v>
-      </c>
-      <c r="FA3">
-        <v>80000</v>
-      </c>
-      <c r="FB3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="b">
-        <v>0</v>
-      </c>
       <c r="FD3" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2599,22 +2919,40 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ3" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM3">
+        <v>1</v>
+      </c>
+      <c r="FN3">
+        <v>3100</v>
+      </c>
+      <c r="FO3">
+        <v>3100</v>
+      </c>
+      <c r="FP3">
+        <v>0.95</v>
+      </c>
+      <c r="FQ3">
+        <v>0.1</v>
+      </c>
+      <c r="FR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="b">
         <v>0</v>
       </c>
       <c r="FT3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -2623,28 +2961,28 @@
         <v>0</v>
       </c>
       <c r="GA3" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF3" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH3" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI3">
         <v>86400</v>
@@ -2653,7 +2991,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:192">
+    <row r="4" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2685,7 +3023,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3863000</v>
+        <v>5527000</v>
       </c>
       <c r="O4" t="s">
         <v>203</v>
@@ -2772,10 +3110,19 @@
         <v>211</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>5500000</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW4">
+        <v>55</v>
       </c>
       <c r="AX4" t="s">
         <v>208</v>
@@ -2814,10 +3161,19 @@
         <v>211</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>2400000</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN4">
+        <v>55</v>
       </c>
       <c r="BO4" t="s">
         <v>208</v>
@@ -2862,10 +3218,10 @@
         <v>1</v>
       </c>
       <c r="CC4">
-        <v>6400</v>
+        <v>7900</v>
       </c>
       <c r="CD4" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -2913,7 +3269,7 @@
         <v>211</v>
       </c>
       <c r="CT4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -2958,7 +3314,7 @@
         <v>211</v>
       </c>
       <c r="DL4" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -3003,7 +3359,7 @@
         <v>211</v>
       </c>
       <c r="ED4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3012,16 +3368,70 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK4">
+        <v>2</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>229</v>
+      </c>
+      <c r="EM4">
+        <v>75000</v>
+      </c>
+      <c r="EN4">
+        <v>7200</v>
+      </c>
+      <c r="EO4">
+        <v>11000</v>
+      </c>
+      <c r="EP4">
+        <v>100000</v>
+      </c>
+      <c r="EQ4">
+        <v>0.9</v>
+      </c>
+      <c r="ER4">
+        <v>0.8</v>
+      </c>
+      <c r="ES4" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET4" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>234</v>
+      </c>
+      <c r="EV4">
+        <v>100000</v>
+      </c>
+      <c r="EW4">
+        <v>11000</v>
+      </c>
+      <c r="EX4">
+        <v>22000</v>
+      </c>
+      <c r="EY4">
+        <v>200000</v>
+      </c>
+      <c r="EZ4">
+        <v>90000</v>
+      </c>
+      <c r="FA4">
+        <v>80000</v>
+      </c>
+      <c r="FB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC4" t="b">
         <v>0</v>
       </c>
       <c r="FD4" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3036,13 +3446,13 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL4">
         <v>1</v>
@@ -3051,10 +3461,10 @@
         <v>1</v>
       </c>
       <c r="FN4">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="FO4">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="FP4">
         <v>0.95</v>
@@ -3069,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3078,28 +3488,28 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF4" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH4" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI4">
         <v>86400</v>
@@ -3108,7 +3518,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:192">
+    <row r="5" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3116,10 +3526,10 @@
         <v>194</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3128,7 +3538,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3140,7 +3550,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3125000</v>
+        <v>4402000</v>
       </c>
       <c r="O5" t="s">
         <v>204</v>
@@ -3227,10 +3637,19 @@
         <v>211</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>5500000</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AW5">
+        <v>55</v>
       </c>
       <c r="AX5" t="s">
         <v>208</v>
@@ -3269,10 +3688,19 @@
         <v>211</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>2400000</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>221</v>
+      </c>
+      <c r="BN5">
+        <v>55</v>
       </c>
       <c r="BO5" t="s">
         <v>208</v>
@@ -3317,10 +3745,10 @@
         <v>1</v>
       </c>
       <c r="CC5">
-        <v>5400</v>
+        <v>6900</v>
       </c>
       <c r="CD5" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE5">
         <v>-20</v>
@@ -3368,7 +3796,7 @@
         <v>211</v>
       </c>
       <c r="CT5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -3413,7 +3841,7 @@
         <v>211</v>
       </c>
       <c r="DL5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM5">
         <v>0</v>
@@ -3458,7 +3886,7 @@
         <v>211</v>
       </c>
       <c r="ED5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3467,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ5">
         <v>1</v>
@@ -3476,7 +3904,7 @@
         <v>2</v>
       </c>
       <c r="EL5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="EM5">
         <v>50000</v>
@@ -3491,10 +3919,10 @@
         <v>50000</v>
       </c>
       <c r="EQ5">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER5">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES5" t="b">
         <v>0</v>
@@ -3503,19 +3931,19 @@
         <v>0</v>
       </c>
       <c r="EU5" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="EV5">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EW5">
         <v>7200</v>
       </c>
       <c r="EX5">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EY5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EZ5">
         <v>90000</v>
@@ -3530,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="FD5" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3545,13 +3973,13 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ5" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL5">
         <v>1</v>
@@ -3560,10 +3988,10 @@
         <v>1</v>
       </c>
       <c r="FN5">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="FO5">
-        <v>3100</v>
+        <v>4400</v>
       </c>
       <c r="FP5">
         <v>0.95</v>
@@ -3578,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -3587,28 +4015,28 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB5" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC5" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF5" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH5" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI5">
         <v>86400</v>
@@ -3617,7 +4045,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:192">
+    <row r="6" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3625,10 +4053,10 @@
         <v>195</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -3637,7 +4065,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3649,10 +4077,10 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3564000</v>
+        <v>3296000</v>
       </c>
       <c r="O6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="P6" t="s">
         <v>208</v>
@@ -3736,10 +4164,19 @@
         <v>211</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>5500000</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW6">
+        <v>55</v>
       </c>
       <c r="AX6" t="s">
         <v>208</v>
@@ -3778,10 +4215,19 @@
         <v>211</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>1800000</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN6">
+        <v>55</v>
       </c>
       <c r="BO6" t="s">
         <v>208</v>
@@ -3826,10 +4272,10 @@
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="CD6" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -3877,7 +4323,7 @@
         <v>211</v>
       </c>
       <c r="CT6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -3922,7 +4368,7 @@
         <v>211</v>
       </c>
       <c r="DL6" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -3967,7 +4413,7 @@
         <v>211</v>
       </c>
       <c r="ED6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3976,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ6">
         <v>1</v>
@@ -3985,7 +4431,7 @@
         <v>1</v>
       </c>
       <c r="EL6" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="EM6">
         <v>50000</v>
@@ -4000,10 +4446,10 @@
         <v>50000</v>
       </c>
       <c r="EQ6">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER6">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES6" t="b">
         <v>0</v>
@@ -4012,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="FD6" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -4027,22 +4473,40 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ6" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM6">
+        <v>1</v>
+      </c>
+      <c r="FN6">
+        <v>3300</v>
+      </c>
+      <c r="FO6">
+        <v>3300</v>
+      </c>
+      <c r="FP6">
+        <v>0.95</v>
+      </c>
+      <c r="FQ6">
+        <v>0.1</v>
+      </c>
+      <c r="FR6" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS6" t="b">
         <v>0</v>
       </c>
       <c r="FT6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU6">
         <v>0</v>
@@ -4051,28 +4515,28 @@
         <v>0</v>
       </c>
       <c r="GA6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF6" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI6">
         <v>86400</v>
@@ -4081,7 +4545,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:192">
+    <row r="7" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4089,10 +4553,10 @@
         <v>196</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -4101,7 +4565,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4113,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>5527000</v>
+        <v>3296000</v>
       </c>
       <c r="O7" t="s">
         <v>205</v>
@@ -4200,10 +4664,19 @@
         <v>211</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>19500000</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW7">
+        <v>35</v>
       </c>
       <c r="AX7" t="s">
         <v>208</v>
@@ -4242,10 +4715,19 @@
         <v>211</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>2800000</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>221</v>
+      </c>
+      <c r="BN7">
+        <v>55</v>
       </c>
       <c r="BO7" t="s">
         <v>208</v>
@@ -4290,16 +4772,16 @@
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>8000</v>
+        <v>5900</v>
       </c>
       <c r="CD7" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE7">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG7" t="b">
         <v>1</v>
@@ -4341,7 +4823,7 @@
         <v>211</v>
       </c>
       <c r="CT7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -4386,7 +4868,7 @@
         <v>211</v>
       </c>
       <c r="DL7" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM7">
         <v>0</v>
@@ -4431,7 +4913,7 @@
         <v>211</v>
       </c>
       <c r="ED7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4440,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ7">
         <v>1</v>
@@ -4449,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="EL7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="EM7">
         <v>75000</v>
@@ -4464,10 +4946,10 @@
         <v>100000</v>
       </c>
       <c r="EQ7">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER7">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES7" t="b">
         <v>0</v>
@@ -4476,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4491,22 +4973,40 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM7">
+        <v>1</v>
+      </c>
+      <c r="FN7">
+        <v>3300</v>
+      </c>
+      <c r="FO7">
+        <v>3300</v>
+      </c>
+      <c r="FP7">
+        <v>0.95</v>
+      </c>
+      <c r="FQ7">
+        <v>0.1</v>
+      </c>
+      <c r="FR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="b">
         <v>0</v>
       </c>
       <c r="FT7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU7">
         <v>0</v>
@@ -4515,28 +5015,28 @@
         <v>0</v>
       </c>
       <c r="GA7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI7">
         <v>86400</v>
@@ -4545,7 +5045,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:192">
+    <row r="8" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4577,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2896000</v>
+        <v>3564000</v>
       </c>
       <c r="O8" t="s">
         <v>206</v>
@@ -4664,10 +5164,19 @@
         <v>211</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>5500000</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>214</v>
+      </c>
+      <c r="AW8">
+        <v>55</v>
       </c>
       <c r="AX8" t="s">
         <v>208</v>
@@ -4706,10 +5215,19 @@
         <v>211</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>2100000</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BN8">
+        <v>55</v>
       </c>
       <c r="BO8" t="s">
         <v>208</v>
@@ -4754,16 +5272,16 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="CD8" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE8">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG8" t="b">
         <v>1</v>
@@ -4805,7 +5323,7 @@
         <v>211</v>
       </c>
       <c r="CT8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -4850,7 +5368,7 @@
         <v>211</v>
       </c>
       <c r="DL8" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM8">
         <v>0</v>
@@ -4895,7 +5413,7 @@
         <v>211</v>
       </c>
       <c r="ED8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4904,7 +5422,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ8">
         <v>1</v>
@@ -4913,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="EL8" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="EM8">
         <v>100000</v>
@@ -4928,10 +5446,10 @@
         <v>200000</v>
       </c>
       <c r="EQ8">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER8">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES8" t="b">
         <v>0</v>
@@ -4940,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -4955,13 +5473,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ8" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -4970,10 +5488,10 @@
         <v>1</v>
       </c>
       <c r="FN8">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="FO8">
-        <v>2900</v>
+        <v>3600</v>
       </c>
       <c r="FP8">
         <v>0.95</v>
@@ -4988,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -4997,28 +5515,28 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB8" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC8" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF8" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH8" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI8">
         <v>86400</v>
@@ -5027,7 +5545,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:192">
+    <row r="9" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5035,10 +5553,10 @@
         <v>198</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -5047,7 +5565,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5059,10 +5577,10 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>2455000</v>
+        <v>3296000</v>
       </c>
       <c r="O9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P9" t="s">
         <v>208</v>
@@ -5146,10 +5664,19 @@
         <v>211</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>19500000</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW9">
+        <v>35</v>
       </c>
       <c r="AX9" t="s">
         <v>208</v>
@@ -5188,10 +5715,19 @@
         <v>211</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>2400000</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN9">
+        <v>55</v>
       </c>
       <c r="BO9" t="s">
         <v>208</v>
@@ -5236,10 +5772,10 @@
         <v>1</v>
       </c>
       <c r="CC9">
-        <v>3300</v>
+        <v>5200</v>
       </c>
       <c r="CD9" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5287,7 +5823,7 @@
         <v>211</v>
       </c>
       <c r="CT9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -5332,7 +5868,7 @@
         <v>211</v>
       </c>
       <c r="DL9" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM9">
         <v>0</v>
@@ -5377,7 +5913,7 @@
         <v>211</v>
       </c>
       <c r="ED9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5386,16 +5922,70 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK9">
+        <v>2</v>
+      </c>
+      <c r="EL9" t="s">
+        <v>232</v>
+      </c>
+      <c r="EM9">
+        <v>75000</v>
+      </c>
+      <c r="EN9">
+        <v>7200</v>
+      </c>
+      <c r="EO9">
+        <v>11000</v>
+      </c>
+      <c r="EP9">
+        <v>100000</v>
+      </c>
+      <c r="EQ9">
+        <v>0.9</v>
+      </c>
+      <c r="ER9">
+        <v>0.8</v>
+      </c>
+      <c r="ES9" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET9" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>230</v>
+      </c>
+      <c r="EV9">
+        <v>75000</v>
+      </c>
+      <c r="EW9">
+        <v>7200</v>
+      </c>
+      <c r="EX9">
+        <v>11000</v>
+      </c>
+      <c r="EY9">
+        <v>100000</v>
+      </c>
+      <c r="EZ9">
+        <v>90000</v>
+      </c>
+      <c r="FA9">
+        <v>80000</v>
+      </c>
+      <c r="FB9" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC9" t="b">
         <v>0</v>
       </c>
       <c r="FD9" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -5410,13 +6000,13 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ9" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL9">
         <v>1</v>
@@ -5425,10 +6015,10 @@
         <v>1</v>
       </c>
       <c r="FN9">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="FO9">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="FP9">
         <v>0.95</v>
@@ -5443,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="FT9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU9">
         <v>0</v>
@@ -5452,28 +6042,28 @@
         <v>0</v>
       </c>
       <c r="GA9" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB9" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC9" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF9" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG9" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH9" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI9">
         <v>86400</v>
@@ -5482,7 +6072,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:192">
+    <row r="10" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5490,10 +6080,10 @@
         <v>199</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -5502,7 +6092,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -5517,7 +6107,7 @@
         <v>5527000</v>
       </c>
       <c r="O10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P10" t="s">
         <v>208</v>
@@ -5601,10 +6191,19 @@
         <v>211</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>5500000</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AW10">
+        <v>35</v>
       </c>
       <c r="AX10" t="s">
         <v>208</v>
@@ -5643,10 +6242,19 @@
         <v>211</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>2400000</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>219</v>
+      </c>
+      <c r="BN10">
+        <v>55</v>
       </c>
       <c r="BO10" t="s">
         <v>208</v>
@@ -5685,10 +6293,25 @@
         <v>211</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>7000</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>40</v>
+      </c>
+      <c r="CG10" t="b">
+        <v>1</v>
       </c>
       <c r="CH10" t="s">
         <v>208</v>
@@ -5727,7 +6350,7 @@
         <v>211</v>
       </c>
       <c r="CT10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -5772,7 +6395,7 @@
         <v>211</v>
       </c>
       <c r="DL10" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM10">
         <v>0</v>
@@ -5817,7 +6440,7 @@
         <v>211</v>
       </c>
       <c r="ED10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5826,16 +6449,43 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK10">
+        <v>1</v>
+      </c>
+      <c r="EL10" t="s">
+        <v>233</v>
+      </c>
+      <c r="EM10">
+        <v>100000</v>
+      </c>
+      <c r="EN10">
+        <v>11000</v>
+      </c>
+      <c r="EO10">
+        <v>22000</v>
+      </c>
+      <c r="EP10">
+        <v>200000</v>
+      </c>
+      <c r="EQ10">
+        <v>0.9</v>
+      </c>
+      <c r="ER10">
+        <v>0.8</v>
+      </c>
+      <c r="ES10" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET10" t="b">
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -5850,22 +6500,40 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ10" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM10">
+        <v>1</v>
+      </c>
+      <c r="FN10">
+        <v>5500</v>
+      </c>
+      <c r="FO10">
+        <v>5500</v>
+      </c>
+      <c r="FP10">
+        <v>0.95</v>
+      </c>
+      <c r="FQ10">
+        <v>0.1</v>
+      </c>
+      <c r="FR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="b">
         <v>0</v>
       </c>
       <c r="FT10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU10">
         <v>0</v>
@@ -5874,28 +6542,28 @@
         <v>0</v>
       </c>
       <c r="GA10" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB10" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC10" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF10" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG10" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH10" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI10">
         <v>86400</v>
@@ -5904,7 +6572,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:192">
+    <row r="11" spans="1:192" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5912,10 +6580,10 @@
         <v>200</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5924,7 +6592,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5936,10 +6604,10 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>3125000</v>
+        <v>2896000</v>
       </c>
       <c r="O11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P11" t="s">
         <v>208</v>
@@ -6023,10 +6691,19 @@
         <v>211</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>19500000</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW11">
+        <v>55</v>
       </c>
       <c r="AX11" t="s">
         <v>208</v>
@@ -6065,10 +6742,19 @@
         <v>211</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>2800000</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>223</v>
+      </c>
+      <c r="BN11">
+        <v>55</v>
       </c>
       <c r="BO11" t="s">
         <v>208</v>
@@ -6113,16 +6799,16 @@
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>4300</v>
+        <v>5000</v>
       </c>
       <c r="CD11" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="CE11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG11" t="b">
         <v>1</v>
@@ -6164,7 +6850,7 @@
         <v>211</v>
       </c>
       <c r="CT11" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -6209,7 +6895,7 @@
         <v>211</v>
       </c>
       <c r="DL11" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="DM11">
         <v>0</v>
@@ -6254,7 +6940,7 @@
         <v>211</v>
       </c>
       <c r="ED11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6263,16 +6949,43 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="EJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK11">
+        <v>1</v>
+      </c>
+      <c r="EL11" t="s">
+        <v>231</v>
+      </c>
+      <c r="EM11">
+        <v>75000</v>
+      </c>
+      <c r="EN11">
+        <v>7200</v>
+      </c>
+      <c r="EO11">
+        <v>11000</v>
+      </c>
+      <c r="EP11">
+        <v>100000</v>
+      </c>
+      <c r="EQ11">
+        <v>0.9</v>
+      </c>
+      <c r="ER11">
+        <v>0.8</v>
+      </c>
+      <c r="ES11" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET11" t="b">
         <v>0</v>
       </c>
       <c r="FD11" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -6287,13 +7000,13 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="FJ11" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="FK11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FL11">
         <v>1</v>
@@ -6302,10 +7015,10 @@
         <v>1</v>
       </c>
       <c r="FN11">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="FO11">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="FP11">
         <v>0.95</v>
@@ -6320,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -6329,28 +7042,28 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="GB11" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GC11" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="GF11" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="GG11" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GH11" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="GI11">
         <v>86400</v>
@@ -6365,14 +7078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:GM1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:195">
+    <row r="1" spans="2:195" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6386,13 +7099,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -6962,14 +7675,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:ED1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:134">
+    <row r="1" spans="2:134" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6983,7 +7696,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7295,22 +8008,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -7376,14 +8089,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:EM1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:143">
+    <row r="1" spans="2:143" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7817,14 +8530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:CB1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:80">
+    <row r="1" spans="2:80" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8069,14 +8782,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:42">
+    <row r="1" spans="2:42" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8120,58 +8833,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\02 - config\example_single_market\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFA954-CCD5-47CB-8AFF-7921CCAD63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
@@ -20,25 +14,12 @@
     <sheet name="producer" sheetId="5" r:id="rId5"/>
     <sheet name="storage" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="254">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -613,55 +594,58 @@
     <t>ems/fcasts/update_period</t>
   </si>
   <si>
-    <t>uzEoMpDvqUQmolk</t>
-  </si>
-  <si>
-    <t>DGzmAB9lHmVyQZv</t>
-  </si>
-  <si>
-    <t>TYMLJEa1KAhqE59</t>
-  </si>
-  <si>
-    <t>exVNgDckyloeKPg</t>
-  </si>
-  <si>
-    <t>KbSpjvHvz8Y5u7z</t>
-  </si>
-  <si>
-    <t>9ImCBUvCV7wFtHf</t>
-  </si>
-  <si>
-    <t>yHAIaE0rOHnBGoP</t>
-  </si>
-  <si>
-    <t>rNrxz3A1u6iRhO2</t>
-  </si>
-  <si>
-    <t>Ec93eXNNvTukTxN</t>
-  </si>
-  <si>
-    <t>ZzD5Fsx2AOCTX8N</t>
-  </si>
-  <si>
-    <t>hh_2532_0.csv</t>
+    <t>1lIPbXNxrtcHbuq</t>
+  </si>
+  <si>
+    <t>1dMs8E6si6MYUqb</t>
+  </si>
+  <si>
+    <t>rZwqUNsMzDDl8Hy</t>
+  </si>
+  <si>
+    <t>n0w3DxDsc0KicUT</t>
+  </si>
+  <si>
+    <t>f9HuzbnqNCXzIlC</t>
+  </si>
+  <si>
+    <t>QRbLyCB6X1yb4BY</t>
+  </si>
+  <si>
+    <t>DbC1ILMdile5yIl</t>
+  </si>
+  <si>
+    <t>MdfdWyPPzFrkYvW</t>
+  </si>
+  <si>
+    <t>Nj2p967l9Vt9bjg</t>
+  </si>
+  <si>
+    <t>DubKsoLCiW6BzEv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
   </si>
   <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2896_0.csv</t>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2262_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
   </si>
   <si>
     <t>average</t>
@@ -676,42 +660,6 @@
     <t>[1, 0, 0]</t>
   </si>
   <si>
-    <t>heat_2532_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3296_0.csv</t>
-  </si>
-  <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2896_0.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
     <t>pv_config.json</t>
   </si>
   <si>
@@ -721,31 +669,16 @@
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
     <t>ev_freetime_1.csv</t>
   </si>
   <si>
-    <t>ev_parttime_89.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_42.csv</t>
+    <t>ev_fulltime_41.csv</t>
   </si>
   <si>
     <t>ev_parttime_90.csv</t>
   </si>
   <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_43.csv</t>
+    <t>ev_freetime_0.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -853,8 +786,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,21 +850,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -969,7 +894,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1003,7 +928,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1038,10 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1214,209 +1137,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:GJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
-      <selection activeCell="EQ2" sqref="EQ2:EQ11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="22" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="25" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="24" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="24" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="14" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="174" max="175" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="19" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="23.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:192">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +1719,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:192">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1999,10 +1727,10 @@
         <v>191</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2011,7 +1739,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2023,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2532000</v>
+        <v>3564000</v>
       </c>
       <c r="O2" t="s">
         <v>201</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2044,25 +1772,25 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W2">
         <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y2">
         <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -2074,7 +1802,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2089,43 +1817,34 @@
         <v>9</v>
       </c>
       <c r="AL2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN2">
+        <v>90</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP2">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="s">
         <v>209</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN2">
-        <v>90</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP2">
-        <v>90</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS2">
-        <v>1</v>
-      </c>
-      <c r="AT2">
-        <v>1</v>
-      </c>
-      <c r="AU2">
-        <v>19500000</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AW2">
-        <v>55</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>208</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -2140,43 +1859,34 @@
         <v>9</v>
       </c>
       <c r="BC2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE2">
+        <v>90</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG2">
+        <v>90</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="s">
         <v>209</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE2">
-        <v>90</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG2">
-        <v>90</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ2">
-        <v>1</v>
-      </c>
-      <c r="BK2">
-        <v>1</v>
-      </c>
-      <c r="BL2">
-        <v>2800000</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN2">
-        <v>55</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>208</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -2191,25 +1901,25 @@
         <v>9</v>
       </c>
       <c r="BT2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BV2">
         <v>90</v>
       </c>
       <c r="BW2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BX2">
         <v>90</v>
       </c>
       <c r="BY2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -2218,10 +1928,10 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>3800</v>
+        <v>5200</v>
       </c>
       <c r="CD2" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="CE2">
         <v>0</v>
@@ -2233,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="CH2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -2248,37 +1958,37 @@
         <v>9</v>
       </c>
       <c r="CM2" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO2">
+        <v>90</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ2">
+        <v>90</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CZ2" t="s">
         <v>209</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO2">
-        <v>90</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ2">
-        <v>90</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU2">
-        <v>0</v>
-      </c>
-      <c r="CV2">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>208</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -2293,37 +2003,37 @@
         <v>9</v>
       </c>
       <c r="DE2" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG2">
+        <v>90</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI2">
+        <v>90</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM2">
+        <v>0</v>
+      </c>
+      <c r="DN2">
+        <v>0</v>
+      </c>
+      <c r="DR2" t="s">
         <v>209</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG2">
-        <v>90</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI2">
-        <v>90</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM2">
-        <v>0</v>
-      </c>
-      <c r="DN2">
-        <v>0</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>208</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -2338,28 +2048,28 @@
         <v>9</v>
       </c>
       <c r="DW2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY2">
         <v>90</v>
       </c>
       <c r="DZ2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA2">
         <v>90</v>
       </c>
       <c r="EB2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2368,43 +2078,16 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>1</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EM2">
-        <v>50000</v>
-      </c>
-      <c r="EN2">
-        <v>7200</v>
-      </c>
-      <c r="EO2">
-        <v>7200</v>
-      </c>
-      <c r="EP2">
-        <v>50000</v>
-      </c>
-      <c r="EQ2">
-        <v>0.9</v>
-      </c>
-      <c r="ER2">
-        <v>0.8</v>
-      </c>
-      <c r="ES2" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET2" t="b">
         <v>0</v>
       </c>
       <c r="FD2" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2419,13 +2102,13 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ2" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL2">
         <v>1</v>
@@ -2434,10 +2117,10 @@
         <v>1</v>
       </c>
       <c r="FN2">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="FO2">
-        <v>2500</v>
+        <v>3600</v>
       </c>
       <c r="FP2">
         <v>0.95</v>
@@ -2452,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="FT2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2461,28 +2144,28 @@
         <v>0</v>
       </c>
       <c r="GA2" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF2" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI2">
         <v>86400</v>
@@ -2491,7 +2174,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:192">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2499,10 +2182,10 @@
         <v>192</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2511,7 +2194,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2523,13 +2206,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3125000</v>
+        <v>5527000</v>
       </c>
       <c r="O3" t="s">
         <v>202</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2544,25 +2227,25 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W3">
         <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y3">
         <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2574,7 +2257,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2589,43 +2272,34 @@
         <v>9</v>
       </c>
       <c r="AL3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN3">
+        <v>90</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP3">
+        <v>90</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="s">
         <v>209</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN3">
-        <v>90</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP3">
-        <v>90</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>1</v>
-      </c>
-      <c r="AU3">
-        <v>19500000</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AW3">
-        <v>55</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>208</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -2640,43 +2314,34 @@
         <v>9</v>
       </c>
       <c r="BC3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE3">
+        <v>90</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG3">
+        <v>90</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="s">
         <v>209</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE3">
-        <v>90</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG3">
-        <v>90</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
-      <c r="BK3">
-        <v>1</v>
-      </c>
-      <c r="BL3">
-        <v>2400000</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>220</v>
-      </c>
-      <c r="BN3">
-        <v>55</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>208</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -2691,49 +2356,34 @@
         <v>9</v>
       </c>
       <c r="BT3" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV3">
+        <v>90</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX3">
+        <v>90</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="s">
         <v>209</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV3">
-        <v>90</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX3">
-        <v>90</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA3">
-        <v>1</v>
-      </c>
-      <c r="CB3">
-        <v>1</v>
-      </c>
-      <c r="CC3">
-        <v>5400</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>40</v>
-      </c>
-      <c r="CG3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>208</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -2748,37 +2398,37 @@
         <v>9</v>
       </c>
       <c r="CM3" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO3">
+        <v>90</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ3">
+        <v>90</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="s">
         <v>209</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO3">
-        <v>90</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ3">
-        <v>90</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>208</v>
       </c>
       <c r="DA3">
         <v>1</v>
@@ -2793,37 +2443,37 @@
         <v>9</v>
       </c>
       <c r="DE3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG3">
+        <v>90</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI3">
+        <v>90</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DR3" t="s">
         <v>209</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG3">
-        <v>90</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI3">
-        <v>90</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>208</v>
       </c>
       <c r="DS3">
         <v>1</v>
@@ -2838,28 +2488,28 @@
         <v>9</v>
       </c>
       <c r="DW3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY3">
         <v>90</v>
       </c>
       <c r="DZ3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA3">
         <v>90</v>
       </c>
       <c r="EB3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2868,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ3">
         <v>1</v>
@@ -2877,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="EL3" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="EM3">
         <v>50000</v>
@@ -2892,10 +2542,10 @@
         <v>50000</v>
       </c>
       <c r="EQ3">
-        <v>0.9</v>
+        <v>90000</v>
       </c>
       <c r="ER3">
-        <v>0.8</v>
+        <v>80000</v>
       </c>
       <c r="ES3" t="b">
         <v>0</v>
@@ -2904,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="FD3" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2919,40 +2569,22 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ3" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>1</v>
-      </c>
-      <c r="FN3">
-        <v>3100</v>
-      </c>
-      <c r="FO3">
-        <v>3100</v>
-      </c>
-      <c r="FP3">
-        <v>0.95</v>
-      </c>
-      <c r="FQ3">
-        <v>0.1</v>
-      </c>
-      <c r="FR3" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS3" t="b">
         <v>0</v>
       </c>
       <c r="FT3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -2961,28 +2593,28 @@
         <v>0</v>
       </c>
       <c r="GA3" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC3" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF3" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI3">
         <v>86400</v>
@@ -2991,7 +2623,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:192">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3023,13 +2655,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>5527000</v>
+        <v>3648000</v>
       </c>
       <c r="O4" t="s">
         <v>203</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3044,25 +2676,25 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W4">
         <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y4">
         <v>90</v>
       </c>
       <c r="Z4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3074,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -3089,43 +2721,34 @@
         <v>9</v>
       </c>
       <c r="AL4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN4">
+        <v>90</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP4">
+        <v>90</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="s">
         <v>209</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN4">
-        <v>90</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP4">
-        <v>90</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>1</v>
-      </c>
-      <c r="AU4">
-        <v>5500000</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW4">
-        <v>55</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>208</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -3140,43 +2763,34 @@
         <v>9</v>
       </c>
       <c r="BC4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE4">
+        <v>90</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG4">
+        <v>90</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BO4" t="s">
         <v>209</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE4">
-        <v>90</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG4">
-        <v>90</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>2400000</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN4">
-        <v>55</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>208</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -3191,49 +2805,49 @@
         <v>9</v>
       </c>
       <c r="BT4" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV4">
+        <v>90</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX4">
+        <v>90</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA4">
+        <v>1</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>5200</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE4">
+        <v>-20</v>
+      </c>
+      <c r="CF4">
+        <v>50</v>
+      </c>
+      <c r="CG4" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH4" t="s">
         <v>209</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV4">
-        <v>90</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX4">
-        <v>90</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA4">
-        <v>1</v>
-      </c>
-      <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>7900</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE4">
-        <v>0</v>
-      </c>
-      <c r="CF4">
-        <v>40</v>
-      </c>
-      <c r="CG4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>208</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -3248,37 +2862,37 @@
         <v>9</v>
       </c>
       <c r="CM4" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO4">
+        <v>90</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ4">
+        <v>90</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CZ4" t="s">
         <v>209</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO4">
-        <v>90</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ4">
-        <v>90</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU4">
-        <v>0</v>
-      </c>
-      <c r="CV4">
-        <v>0</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>208</v>
       </c>
       <c r="DA4">
         <v>1</v>
@@ -3293,37 +2907,37 @@
         <v>9</v>
       </c>
       <c r="DE4" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG4">
+        <v>90</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI4">
+        <v>90</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DR4" t="s">
         <v>209</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG4">
-        <v>90</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI4">
-        <v>90</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM4">
-        <v>0</v>
-      </c>
-      <c r="DN4">
-        <v>0</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>208</v>
       </c>
       <c r="DS4">
         <v>1</v>
@@ -3338,28 +2952,28 @@
         <v>9</v>
       </c>
       <c r="DW4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY4">
         <v>90</v>
       </c>
       <c r="DZ4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA4">
         <v>90</v>
       </c>
       <c r="EB4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3368,16 +2982,16 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ4">
         <v>1</v>
       </c>
       <c r="EK4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL4" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="EM4">
         <v>75000</v>
@@ -3392,10 +3006,10 @@
         <v>100000</v>
       </c>
       <c r="EQ4">
-        <v>0.9</v>
+        <v>90000</v>
       </c>
       <c r="ER4">
-        <v>0.8</v>
+        <v>80000</v>
       </c>
       <c r="ES4" t="b">
         <v>0</v>
@@ -3403,35 +3017,8 @@
       <c r="ET4" t="b">
         <v>0</v>
       </c>
-      <c r="EU4" t="s">
-        <v>234</v>
-      </c>
-      <c r="EV4">
-        <v>100000</v>
-      </c>
-      <c r="EW4">
-        <v>11000</v>
-      </c>
-      <c r="EX4">
-        <v>22000</v>
-      </c>
-      <c r="EY4">
-        <v>200000</v>
-      </c>
-      <c r="EZ4">
-        <v>90000</v>
-      </c>
-      <c r="FA4">
-        <v>80000</v>
-      </c>
-      <c r="FB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="b">
-        <v>0</v>
-      </c>
       <c r="FD4" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3446,40 +3033,22 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ4" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>1</v>
-      </c>
-      <c r="FN4">
-        <v>5500</v>
-      </c>
-      <c r="FO4">
-        <v>5500</v>
-      </c>
-      <c r="FP4">
-        <v>0.95</v>
-      </c>
-      <c r="FQ4">
-        <v>0.1</v>
-      </c>
-      <c r="FR4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS4" t="b">
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3488,28 +3057,28 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC4" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF4" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI4">
         <v>86400</v>
@@ -3518,7 +3087,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:192">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3526,10 +3095,10 @@
         <v>194</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3538,7 +3107,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3550,13 +3119,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4402000</v>
+        <v>3296000</v>
       </c>
       <c r="O5" t="s">
         <v>204</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3571,25 +3140,25 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W5">
         <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y5">
         <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -3601,7 +3170,7 @@
         <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3616,43 +3185,34 @@
         <v>9</v>
       </c>
       <c r="AL5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN5">
+        <v>90</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP5">
+        <v>90</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="s">
         <v>209</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN5">
-        <v>90</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP5">
-        <v>90</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS5">
-        <v>1</v>
-      </c>
-      <c r="AT5">
-        <v>1</v>
-      </c>
-      <c r="AU5">
-        <v>5500000</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>215</v>
-      </c>
-      <c r="AW5">
-        <v>55</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>208</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -3667,43 +3227,34 @@
         <v>9</v>
       </c>
       <c r="BC5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE5">
+        <v>90</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG5">
+        <v>90</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="s">
         <v>209</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE5">
-        <v>90</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG5">
-        <v>90</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ5">
-        <v>1</v>
-      </c>
-      <c r="BK5">
-        <v>1</v>
-      </c>
-      <c r="BL5">
-        <v>2400000</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>221</v>
-      </c>
-      <c r="BN5">
-        <v>55</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>208</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -3718,49 +3269,49 @@
         <v>9</v>
       </c>
       <c r="BT5" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV5">
+        <v>90</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX5">
+        <v>90</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA5">
+        <v>1</v>
+      </c>
+      <c r="CB5">
+        <v>1</v>
+      </c>
+      <c r="CC5">
+        <v>5800</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>40</v>
+      </c>
+      <c r="CG5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH5" t="s">
         <v>209</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV5">
-        <v>90</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX5">
-        <v>90</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA5">
-        <v>1</v>
-      </c>
-      <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>6900</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE5">
-        <v>-20</v>
-      </c>
-      <c r="CF5">
-        <v>50</v>
-      </c>
-      <c r="CG5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>208</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -3775,37 +3326,37 @@
         <v>9</v>
       </c>
       <c r="CM5" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO5">
+        <v>90</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ5">
+        <v>90</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CZ5" t="s">
         <v>209</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO5">
-        <v>90</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ5">
-        <v>90</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU5">
-        <v>0</v>
-      </c>
-      <c r="CV5">
-        <v>0</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>208</v>
       </c>
       <c r="DA5">
         <v>1</v>
@@ -3820,37 +3371,37 @@
         <v>9</v>
       </c>
       <c r="DE5" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG5">
+        <v>90</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI5">
+        <v>90</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
+      <c r="DN5">
+        <v>0</v>
+      </c>
+      <c r="DR5" t="s">
         <v>209</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG5">
-        <v>90</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI5">
-        <v>90</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM5">
-        <v>0</v>
-      </c>
-      <c r="DN5">
-        <v>0</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>208</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -3865,28 +3416,28 @@
         <v>9</v>
       </c>
       <c r="DW5" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY5">
         <v>90</v>
       </c>
       <c r="DZ5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA5">
         <v>90</v>
       </c>
       <c r="EB5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3895,70 +3446,16 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>2</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>229</v>
-      </c>
-      <c r="EM5">
-        <v>50000</v>
-      </c>
-      <c r="EN5">
-        <v>7200</v>
-      </c>
-      <c r="EO5">
-        <v>7200</v>
-      </c>
-      <c r="EP5">
-        <v>50000</v>
-      </c>
-      <c r="EQ5">
-        <v>0.9</v>
-      </c>
-      <c r="ER5">
-        <v>0.8</v>
-      </c>
-      <c r="ES5" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET5" t="b">
-        <v>0</v>
-      </c>
-      <c r="EU5" t="s">
-        <v>235</v>
-      </c>
-      <c r="EV5">
-        <v>50000</v>
-      </c>
-      <c r="EW5">
-        <v>7200</v>
-      </c>
-      <c r="EX5">
-        <v>7200</v>
-      </c>
-      <c r="EY5">
-        <v>50000</v>
-      </c>
-      <c r="EZ5">
-        <v>90000</v>
-      </c>
-      <c r="FA5">
-        <v>80000</v>
-      </c>
-      <c r="FB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="b">
         <v>0</v>
       </c>
       <c r="FD5" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3973,13 +3470,13 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL5">
         <v>1</v>
@@ -3988,10 +3485,10 @@
         <v>1</v>
       </c>
       <c r="FN5">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="FO5">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="FP5">
         <v>0.95</v>
@@ -4006,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -4015,28 +3512,28 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB5" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC5" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI5">
         <v>86400</v>
@@ -4045,7 +3542,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:192">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4053,10 +3550,10 @@
         <v>195</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4065,7 +3562,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4077,13 +3574,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3296000</v>
+        <v>5527000</v>
       </c>
       <c r="O6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4098,25 +3595,25 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W6">
         <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y6">
         <v>90</v>
       </c>
       <c r="Z6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -4128,7 +3625,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -4143,43 +3640,34 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN6">
+        <v>90</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP6">
+        <v>90</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="s">
         <v>209</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN6">
-        <v>90</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP6">
-        <v>90</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS6">
-        <v>1</v>
-      </c>
-      <c r="AT6">
-        <v>1</v>
-      </c>
-      <c r="AU6">
-        <v>5500000</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW6">
-        <v>55</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>208</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -4194,43 +3682,34 @@
         <v>9</v>
       </c>
       <c r="BC6" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE6">
+        <v>90</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG6">
+        <v>90</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BO6" t="s">
         <v>209</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE6">
-        <v>90</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG6">
-        <v>90</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI6" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ6">
-        <v>1</v>
-      </c>
-      <c r="BK6">
-        <v>1</v>
-      </c>
-      <c r="BL6">
-        <v>1800000</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN6">
-        <v>55</v>
-      </c>
-      <c r="BO6" t="s">
-        <v>208</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -4245,25 +3724,25 @@
         <v>9</v>
       </c>
       <c r="BT6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BV6">
         <v>90</v>
       </c>
       <c r="BW6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BX6">
         <v>90</v>
       </c>
       <c r="BY6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -4272,10 +3751,10 @@
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>4000</v>
+        <v>7800</v>
       </c>
       <c r="CD6" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -4287,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="CH6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -4302,37 +3781,37 @@
         <v>9</v>
       </c>
       <c r="CM6" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO6">
+        <v>90</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ6">
+        <v>90</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CZ6" t="s">
         <v>209</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO6">
-        <v>90</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ6">
-        <v>90</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU6">
-        <v>0</v>
-      </c>
-      <c r="CV6">
-        <v>0</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>208</v>
       </c>
       <c r="DA6">
         <v>1</v>
@@ -4347,37 +3826,37 @@
         <v>9</v>
       </c>
       <c r="DE6" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG6">
+        <v>90</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI6">
+        <v>90</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM6">
+        <v>0</v>
+      </c>
+      <c r="DN6">
+        <v>0</v>
+      </c>
+      <c r="DR6" t="s">
         <v>209</v>
-      </c>
-      <c r="DF6" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG6">
-        <v>90</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI6">
-        <v>90</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK6" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM6">
-        <v>0</v>
-      </c>
-      <c r="DN6">
-        <v>0</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>208</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -4392,28 +3871,28 @@
         <v>9</v>
       </c>
       <c r="DW6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY6">
         <v>90</v>
       </c>
       <c r="DZ6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA6">
         <v>90</v>
       </c>
       <c r="EB6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -4422,43 +3901,16 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>1</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>230</v>
-      </c>
-      <c r="EM6">
-        <v>50000</v>
-      </c>
-      <c r="EN6">
-        <v>7200</v>
-      </c>
-      <c r="EO6">
-        <v>7200</v>
-      </c>
-      <c r="EP6">
-        <v>50000</v>
-      </c>
-      <c r="EQ6">
-        <v>0.9</v>
-      </c>
-      <c r="ER6">
-        <v>0.8</v>
-      </c>
-      <c r="ES6" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET6" t="b">
         <v>0</v>
       </c>
       <c r="FD6" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -4473,13 +3925,13 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ6" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL6">
         <v>1</v>
@@ -4488,10 +3940,10 @@
         <v>1</v>
       </c>
       <c r="FN6">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="FO6">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="FP6">
         <v>0.95</v>
@@ -4506,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="FT6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU6">
         <v>0</v>
@@ -4515,28 +3967,28 @@
         <v>0</v>
       </c>
       <c r="GA6" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB6" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC6" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF6" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH6" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI6">
         <v>86400</v>
@@ -4545,7 +3997,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:192">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4553,10 +4005,10 @@
         <v>196</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -4565,7 +4017,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4577,13 +4029,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3296000</v>
+        <v>3648000</v>
       </c>
       <c r="O7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4598,25 +4050,25 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W7">
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y7">
         <v>90</v>
       </c>
       <c r="Z7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -4628,7 +4080,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4643,43 +4095,34 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN7">
+        <v>90</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP7">
+        <v>90</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="s">
         <v>209</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN7">
-        <v>90</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP7">
-        <v>90</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS7">
-        <v>1</v>
-      </c>
-      <c r="AT7">
-        <v>1</v>
-      </c>
-      <c r="AU7">
-        <v>19500000</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW7">
-        <v>35</v>
-      </c>
-      <c r="AX7" t="s">
-        <v>208</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -4694,43 +4137,34 @@
         <v>9</v>
       </c>
       <c r="BC7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE7">
+        <v>90</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG7">
+        <v>90</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ7">
+        <v>0</v>
+      </c>
+      <c r="BK7">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="s">
         <v>209</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE7">
-        <v>90</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG7">
-        <v>90</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ7">
-        <v>1</v>
-      </c>
-      <c r="BK7">
-        <v>1</v>
-      </c>
-      <c r="BL7">
-        <v>2800000</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>221</v>
-      </c>
-      <c r="BN7">
-        <v>55</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>208</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -4745,49 +4179,49 @@
         <v>9</v>
       </c>
       <c r="BT7" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV7">
+        <v>90</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX7">
+        <v>90</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA7">
+        <v>1</v>
+      </c>
+      <c r="CB7">
+        <v>1</v>
+      </c>
+      <c r="CC7">
+        <v>5000</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>213</v>
+      </c>
+      <c r="CE7">
+        <v>0</v>
+      </c>
+      <c r="CF7">
+        <v>40</v>
+      </c>
+      <c r="CG7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CH7" t="s">
         <v>209</v>
-      </c>
-      <c r="BU7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV7">
-        <v>90</v>
-      </c>
-      <c r="BW7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX7">
-        <v>90</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA7">
-        <v>1</v>
-      </c>
-      <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>5900</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE7">
-        <v>-20</v>
-      </c>
-      <c r="CF7">
-        <v>50</v>
-      </c>
-      <c r="CG7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH7" t="s">
-        <v>208</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -4802,37 +4236,37 @@
         <v>9</v>
       </c>
       <c r="CM7" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO7">
+        <v>90</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ7">
+        <v>90</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU7">
+        <v>0</v>
+      </c>
+      <c r="CV7">
+        <v>0</v>
+      </c>
+      <c r="CZ7" t="s">
         <v>209</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO7">
-        <v>90</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ7">
-        <v>90</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU7">
-        <v>0</v>
-      </c>
-      <c r="CV7">
-        <v>0</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>208</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -4847,37 +4281,37 @@
         <v>9</v>
       </c>
       <c r="DE7" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG7">
+        <v>90</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI7">
+        <v>90</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM7">
+        <v>0</v>
+      </c>
+      <c r="DN7">
+        <v>0</v>
+      </c>
+      <c r="DR7" t="s">
         <v>209</v>
-      </c>
-      <c r="DF7" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG7">
-        <v>90</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI7">
-        <v>90</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK7" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
-      <c r="DN7">
-        <v>0</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>208</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -4892,28 +4326,28 @@
         <v>9</v>
       </c>
       <c r="DW7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY7">
         <v>90</v>
       </c>
       <c r="DZ7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA7">
         <v>90</v>
       </c>
       <c r="EB7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4922,43 +4356,16 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK7">
-        <v>1</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>228</v>
-      </c>
-      <c r="EM7">
-        <v>75000</v>
-      </c>
-      <c r="EN7">
-        <v>7200</v>
-      </c>
-      <c r="EO7">
-        <v>11000</v>
-      </c>
-      <c r="EP7">
-        <v>100000</v>
-      </c>
-      <c r="EQ7">
-        <v>0.9</v>
-      </c>
-      <c r="ER7">
-        <v>0.8</v>
-      </c>
-      <c r="ES7" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET7" t="b">
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4973,40 +4380,22 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM7">
-        <v>1</v>
-      </c>
-      <c r="FN7">
-        <v>3300</v>
-      </c>
-      <c r="FO7">
-        <v>3300</v>
-      </c>
-      <c r="FP7">
-        <v>0.95</v>
-      </c>
-      <c r="FQ7">
-        <v>0.1</v>
-      </c>
-      <c r="FR7" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS7" t="b">
         <v>0</v>
       </c>
       <c r="FT7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU7">
         <v>0</v>
@@ -5015,28 +4404,28 @@
         <v>0</v>
       </c>
       <c r="GA7" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC7" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF7" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI7">
         <v>86400</v>
@@ -5045,7 +4434,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:192">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5077,13 +4466,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3564000</v>
+        <v>3125000</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5098,25 +4487,25 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W8">
         <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y8">
         <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -5128,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -5143,43 +4532,34 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN8">
+        <v>90</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP8">
+        <v>90</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="s">
         <v>209</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN8">
-        <v>90</v>
-      </c>
-      <c r="AO8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP8">
-        <v>90</v>
-      </c>
-      <c r="AQ8" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS8">
-        <v>1</v>
-      </c>
-      <c r="AT8">
-        <v>1</v>
-      </c>
-      <c r="AU8">
-        <v>5500000</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AW8">
-        <v>55</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>208</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -5194,43 +4574,34 @@
         <v>9</v>
       </c>
       <c r="BC8" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE8">
+        <v>90</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG8">
+        <v>90</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ8">
+        <v>0</v>
+      </c>
+      <c r="BK8">
+        <v>0</v>
+      </c>
+      <c r="BO8" t="s">
         <v>209</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE8">
-        <v>90</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG8">
-        <v>90</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI8" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ8">
-        <v>1</v>
-      </c>
-      <c r="BK8">
-        <v>1</v>
-      </c>
-      <c r="BL8">
-        <v>2100000</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>222</v>
-      </c>
-      <c r="BN8">
-        <v>55</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>208</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -5245,25 +4616,25 @@
         <v>9</v>
       </c>
       <c r="BT8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BV8">
         <v>90</v>
       </c>
       <c r="BW8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BX8">
         <v>90</v>
       </c>
       <c r="BY8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -5272,10 +4643,10 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>4700</v>
+        <v>5400</v>
       </c>
       <c r="CD8" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="CE8">
         <v>-20</v>
@@ -5287,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="CH8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -5302,37 +4673,37 @@
         <v>9</v>
       </c>
       <c r="CM8" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO8">
+        <v>90</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ8">
+        <v>90</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="CZ8" t="s">
         <v>209</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO8">
-        <v>90</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ8">
-        <v>90</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>208</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -5347,37 +4718,37 @@
         <v>9</v>
       </c>
       <c r="DE8" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF8" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG8">
+        <v>90</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI8">
+        <v>90</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DR8" t="s">
         <v>209</v>
-      </c>
-      <c r="DF8" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG8">
-        <v>90</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI8">
-        <v>90</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK8" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>208</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -5392,28 +4763,28 @@
         <v>9</v>
       </c>
       <c r="DW8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY8">
         <v>90</v>
       </c>
       <c r="DZ8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA8">
         <v>90</v>
       </c>
       <c r="EB8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -5422,43 +4793,16 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EK8">
-        <v>1</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>231</v>
-      </c>
-      <c r="EM8">
-        <v>100000</v>
-      </c>
-      <c r="EN8">
-        <v>11000</v>
-      </c>
-      <c r="EO8">
-        <v>22000</v>
-      </c>
-      <c r="EP8">
-        <v>200000</v>
-      </c>
-      <c r="EQ8">
-        <v>0.9</v>
-      </c>
-      <c r="ER8">
-        <v>0.8</v>
-      </c>
-      <c r="ES8" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET8" t="b">
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -5473,13 +4817,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ8" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -5488,10 +4832,10 @@
         <v>1</v>
       </c>
       <c r="FN8">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FO8">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="FP8">
         <v>0.95</v>
@@ -5506,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -5515,28 +4859,28 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC8" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF8" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG8" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH8" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI8">
         <v>86400</v>
@@ -5545,7 +4889,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:192">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5577,13 +4921,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3296000</v>
+        <v>2687000</v>
       </c>
       <c r="O9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -5598,25 +4942,25 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W9">
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -5628,7 +4972,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -5643,43 +4987,34 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN9">
+        <v>90</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP9">
+        <v>90</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="s">
         <v>209</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN9">
-        <v>90</v>
-      </c>
-      <c r="AO9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP9">
-        <v>90</v>
-      </c>
-      <c r="AQ9" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS9">
-        <v>1</v>
-      </c>
-      <c r="AT9">
-        <v>1</v>
-      </c>
-      <c r="AU9">
-        <v>19500000</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>216</v>
-      </c>
-      <c r="AW9">
-        <v>35</v>
-      </c>
-      <c r="AX9" t="s">
-        <v>208</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -5694,43 +5029,34 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE9">
+        <v>90</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG9">
+        <v>90</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="s">
         <v>209</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE9">
-        <v>90</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG9">
-        <v>90</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI9" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ9">
-        <v>1</v>
-      </c>
-      <c r="BK9">
-        <v>1</v>
-      </c>
-      <c r="BL9">
-        <v>2400000</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>223</v>
-      </c>
-      <c r="BN9">
-        <v>55</v>
-      </c>
-      <c r="BO9" t="s">
-        <v>208</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -5745,25 +5071,25 @@
         <v>9</v>
       </c>
       <c r="BT9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BV9">
         <v>90</v>
       </c>
       <c r="BW9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BX9">
         <v>90</v>
       </c>
       <c r="BY9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5772,10 +5098,10 @@
         <v>1</v>
       </c>
       <c r="CC9">
-        <v>5200</v>
+        <v>3800</v>
       </c>
       <c r="CD9" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5787,7 +5113,7 @@
         <v>1</v>
       </c>
       <c r="CH9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -5802,37 +5128,37 @@
         <v>9</v>
       </c>
       <c r="CM9" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO9">
+        <v>90</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ9">
+        <v>90</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="CZ9" t="s">
         <v>209</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO9">
-        <v>90</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ9">
-        <v>90</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU9">
-        <v>0</v>
-      </c>
-      <c r="CV9">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>208</v>
       </c>
       <c r="DA9">
         <v>1</v>
@@ -5847,37 +5173,37 @@
         <v>9</v>
       </c>
       <c r="DE9" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG9">
+        <v>90</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI9">
+        <v>90</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DR9" t="s">
         <v>209</v>
-      </c>
-      <c r="DF9" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG9">
-        <v>90</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI9">
-        <v>90</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK9" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM9">
-        <v>0</v>
-      </c>
-      <c r="DN9">
-        <v>0</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>208</v>
       </c>
       <c r="DS9">
         <v>1</v>
@@ -5892,28 +5218,28 @@
         <v>9</v>
       </c>
       <c r="DW9" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY9">
         <v>90</v>
       </c>
       <c r="DZ9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA9">
         <v>90</v>
       </c>
       <c r="EB9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5922,7 +5248,7 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ9">
         <v>1</v>
@@ -5931,25 +5257,25 @@
         <v>2</v>
       </c>
       <c r="EL9" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="EM9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EN9">
         <v>7200</v>
       </c>
       <c r="EO9">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EP9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EQ9">
-        <v>0.9</v>
+        <v>90000</v>
       </c>
       <c r="ER9">
-        <v>0.8</v>
+        <v>80000</v>
       </c>
       <c r="ES9" t="b">
         <v>0</v>
@@ -5958,19 +5284,19 @@
         <v>0</v>
       </c>
       <c r="EU9" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="EV9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EW9">
         <v>7200</v>
       </c>
       <c r="EX9">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EY9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EZ9">
         <v>90000</v>
@@ -5985,7 +5311,7 @@
         <v>0</v>
       </c>
       <c r="FD9" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -6000,13 +5326,13 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ9" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL9">
         <v>1</v>
@@ -6015,10 +5341,10 @@
         <v>1</v>
       </c>
       <c r="FN9">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="FO9">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="FP9">
         <v>0.95</v>
@@ -6033,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="FT9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU9">
         <v>0</v>
@@ -6042,28 +5368,28 @@
         <v>0</v>
       </c>
       <c r="GA9" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC9" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF9" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI9">
         <v>86400</v>
@@ -6072,7 +5398,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:192">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6080,10 +5406,10 @@
         <v>199</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -6092,7 +5418,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6104,13 +5430,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>5527000</v>
+        <v>2262000</v>
       </c>
       <c r="O10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -6125,25 +5451,25 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W10">
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y10">
         <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -6155,7 +5481,7 @@
         <v>6</v>
       </c>
       <c r="AG10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -6170,43 +5496,34 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN10">
+        <v>90</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP10">
+        <v>90</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="s">
         <v>209</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN10">
-        <v>90</v>
-      </c>
-      <c r="AO10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP10">
-        <v>90</v>
-      </c>
-      <c r="AQ10" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR10" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS10">
-        <v>1</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>5500000</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>217</v>
-      </c>
-      <c r="AW10">
-        <v>35</v>
-      </c>
-      <c r="AX10" t="s">
-        <v>208</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -6221,43 +5538,34 @@
         <v>9</v>
       </c>
       <c r="BC10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE10">
+        <v>90</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG10">
+        <v>90</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="s">
         <v>209</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE10">
-        <v>90</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG10">
-        <v>90</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ10">
-        <v>1</v>
-      </c>
-      <c r="BK10">
-        <v>1</v>
-      </c>
-      <c r="BL10">
-        <v>2400000</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>219</v>
-      </c>
-      <c r="BN10">
-        <v>55</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>208</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -6272,49 +5580,34 @@
         <v>9</v>
       </c>
       <c r="BT10" t="s">
+        <v>210</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV10">
+        <v>90</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX10">
+        <v>90</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>211</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA10">
+        <v>0</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="s">
         <v>209</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV10">
-        <v>90</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BX10">
-        <v>90</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>210</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CA10">
-        <v>1</v>
-      </c>
-      <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>7000</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>224</v>
-      </c>
-      <c r="CE10">
-        <v>0</v>
-      </c>
-      <c r="CF10">
-        <v>40</v>
-      </c>
-      <c r="CG10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CH10" t="s">
-        <v>208</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -6329,37 +5622,37 @@
         <v>9</v>
       </c>
       <c r="CM10" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO10">
+        <v>90</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ10">
+        <v>90</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="CZ10" t="s">
         <v>209</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO10">
-        <v>90</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ10">
-        <v>90</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU10">
-        <v>0</v>
-      </c>
-      <c r="CV10">
-        <v>0</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>208</v>
       </c>
       <c r="DA10">
         <v>1</v>
@@ -6374,37 +5667,37 @@
         <v>9</v>
       </c>
       <c r="DE10" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG10">
+        <v>90</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI10">
+        <v>90</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DR10" t="s">
         <v>209</v>
-      </c>
-      <c r="DF10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG10">
-        <v>90</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI10">
-        <v>90</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK10" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM10">
-        <v>0</v>
-      </c>
-      <c r="DN10">
-        <v>0</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>208</v>
       </c>
       <c r="DS10">
         <v>1</v>
@@ -6419,28 +5712,28 @@
         <v>9</v>
       </c>
       <c r="DW10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY10">
         <v>90</v>
       </c>
       <c r="DZ10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA10">
         <v>90</v>
       </c>
       <c r="EB10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -6449,7 +5742,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ10">
         <v>1</v>
@@ -6458,25 +5751,25 @@
         <v>1</v>
       </c>
       <c r="EL10" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="EM10">
+        <v>75000</v>
+      </c>
+      <c r="EN10">
+        <v>7200</v>
+      </c>
+      <c r="EO10">
+        <v>11000</v>
+      </c>
+      <c r="EP10">
         <v>100000</v>
       </c>
-      <c r="EN10">
-        <v>11000</v>
-      </c>
-      <c r="EO10">
-        <v>22000</v>
-      </c>
-      <c r="EP10">
-        <v>200000</v>
-      </c>
       <c r="EQ10">
-        <v>0.9</v>
+        <v>90000</v>
       </c>
       <c r="ER10">
-        <v>0.8</v>
+        <v>80000</v>
       </c>
       <c r="ES10" t="b">
         <v>0</v>
@@ -6485,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -6500,40 +5793,22 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ10" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM10">
-        <v>1</v>
-      </c>
-      <c r="FN10">
-        <v>5500</v>
-      </c>
-      <c r="FO10">
-        <v>5500</v>
-      </c>
-      <c r="FP10">
-        <v>0.95</v>
-      </c>
-      <c r="FQ10">
-        <v>0.1</v>
-      </c>
-      <c r="FR10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FS10" t="b">
         <v>0</v>
       </c>
       <c r="FT10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU10">
         <v>0</v>
@@ -6542,28 +5817,28 @@
         <v>0</v>
       </c>
       <c r="GA10" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB10" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC10" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF10" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG10" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH10" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI10">
         <v>86400</v>
@@ -6572,7 +5847,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:192">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6604,13 +5879,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2896000</v>
+        <v>3863000</v>
       </c>
       <c r="O11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -6625,25 +5900,25 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W11">
         <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y11">
         <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AA11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -6655,7 +5930,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -6670,43 +5945,34 @@
         <v>9</v>
       </c>
       <c r="AL11" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN11">
+        <v>90</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP11">
+        <v>90</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>212</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="s">
         <v>209</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AN11">
-        <v>90</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AP11">
-        <v>90</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>211</v>
-      </c>
-      <c r="AS11">
-        <v>1</v>
-      </c>
-      <c r="AT11">
-        <v>1</v>
-      </c>
-      <c r="AU11">
-        <v>19500000</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>218</v>
-      </c>
-      <c r="AW11">
-        <v>55</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>208</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -6721,43 +5987,34 @@
         <v>9</v>
       </c>
       <c r="BC11" t="s">
+        <v>210</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE11">
+        <v>90</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BG11">
+        <v>90</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>212</v>
+      </c>
+      <c r="BJ11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>0</v>
+      </c>
+      <c r="BO11" t="s">
         <v>209</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>210</v>
-      </c>
-      <c r="BE11">
-        <v>90</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>210</v>
-      </c>
-      <c r="BG11">
-        <v>90</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>210</v>
-      </c>
-      <c r="BI11" t="s">
-        <v>211</v>
-      </c>
-      <c r="BJ11">
-        <v>1</v>
-      </c>
-      <c r="BK11">
-        <v>1</v>
-      </c>
-      <c r="BL11">
-        <v>2800000</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>223</v>
-      </c>
-      <c r="BN11">
-        <v>55</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>208</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -6772,25 +6029,25 @@
         <v>9</v>
       </c>
       <c r="BT11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BU11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BV11">
         <v>90</v>
       </c>
       <c r="BW11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BX11">
         <v>90</v>
       </c>
       <c r="BY11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BZ11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -6799,10 +6056,10 @@
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="CD11" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -6814,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="CH11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="CI11">
         <v>1</v>
@@ -6829,37 +6086,37 @@
         <v>9</v>
       </c>
       <c r="CM11" t="s">
+        <v>210</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>211</v>
+      </c>
+      <c r="CO11">
+        <v>90</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ11">
+        <v>90</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>214</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="CZ11" t="s">
         <v>209</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO11">
-        <v>90</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>210</v>
-      </c>
-      <c r="CQ11">
-        <v>90</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>210</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>225</v>
-      </c>
-      <c r="CU11">
-        <v>0</v>
-      </c>
-      <c r="CV11">
-        <v>0</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>208</v>
       </c>
       <c r="DA11">
         <v>1</v>
@@ -6874,37 +6131,37 @@
         <v>9</v>
       </c>
       <c r="DE11" t="s">
+        <v>210</v>
+      </c>
+      <c r="DF11" t="s">
+        <v>211</v>
+      </c>
+      <c r="DG11">
+        <v>90</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>211</v>
+      </c>
+      <c r="DI11">
+        <v>90</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>211</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>214</v>
+      </c>
+      <c r="DM11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DR11" t="s">
         <v>209</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>210</v>
-      </c>
-      <c r="DG11">
-        <v>90</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>210</v>
-      </c>
-      <c r="DI11">
-        <v>90</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>210</v>
-      </c>
-      <c r="DK11" t="s">
-        <v>211</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>225</v>
-      </c>
-      <c r="DM11">
-        <v>0</v>
-      </c>
-      <c r="DN11">
-        <v>0</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>208</v>
       </c>
       <c r="DS11">
         <v>1</v>
@@ -6919,28 +6176,28 @@
         <v>9</v>
       </c>
       <c r="DW11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="DX11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="DY11">
         <v>90</v>
       </c>
       <c r="DZ11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EA11">
         <v>90</v>
       </c>
       <c r="EB11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="EC11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="ED11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6949,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="EJ11">
         <v>1</v>
@@ -6958,25 +6215,25 @@
         <v>1</v>
       </c>
       <c r="EL11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="EM11">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="EN11">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EO11">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="EP11">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="EQ11">
-        <v>0.9</v>
+        <v>90000</v>
       </c>
       <c r="ER11">
-        <v>0.8</v>
+        <v>80000</v>
       </c>
       <c r="ES11" t="b">
         <v>0</v>
@@ -6985,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="FD11" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -7000,13 +6257,13 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="FJ11" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="FK11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FL11">
         <v>1</v>
@@ -7015,10 +6272,10 @@
         <v>1</v>
       </c>
       <c r="FN11">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="FO11">
-        <v>2900</v>
+        <v>3900</v>
       </c>
       <c r="FP11">
         <v>0.95</v>
@@ -7033,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -7042,28 +6299,28 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="GB11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GC11" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="GF11" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="GG11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GH11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="GI11">
         <v>86400</v>
@@ -7078,14 +6335,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:GM1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:195" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:195">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7099,13 +6356,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -7675,14 +6932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:ED1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:134" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:134">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7696,7 +6953,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8008,22 +7265,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -8089,14 +7346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:EM1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:143" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:143">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8110,7 +7367,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8530,14 +7787,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:CB1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:80">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8782,14 +8039,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:AP1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:42">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8833,58 +8090,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ge23nur\Documents\Python Scripts\HAMLET\02 - config\example_single_market\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDFA954-CCD5-47CB-8AFF-7921CCAD63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="28800" windowHeight="15410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sfh" sheetId="1" r:id="rId1"/>
@@ -20,25 +14,12 @@
     <sheet name="producer" sheetId="5" r:id="rId5"/>
     <sheet name="storage" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="278">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -607,63 +588,84 @@
     <t>ems/market/fcast/wholesale</t>
   </si>
   <si>
-    <t>ems/fcasts/retraining_period</t>
-  </si>
-  <si>
-    <t>ems/fcasts/update_period</t>
-  </si>
-  <si>
-    <t>uzEoMpDvqUQmolk</t>
-  </si>
-  <si>
-    <t>DGzmAB9lHmVyQZv</t>
-  </si>
-  <si>
-    <t>TYMLJEa1KAhqE59</t>
-  </si>
-  <si>
-    <t>exVNgDckyloeKPg</t>
-  </si>
-  <si>
-    <t>KbSpjvHvz8Y5u7z</t>
-  </si>
-  <si>
-    <t>9ImCBUvCV7wFtHf</t>
-  </si>
-  <si>
-    <t>yHAIaE0rOHnBGoP</t>
-  </si>
-  <si>
-    <t>rNrxz3A1u6iRhO2</t>
-  </si>
-  <si>
-    <t>Ec93eXNNvTukTxN</t>
-  </si>
-  <si>
-    <t>ZzD5Fsx2AOCTX8N</t>
-  </si>
-  <si>
-    <t>hh_2532_0.csv</t>
+    <t>ems/market/fcast/retailer/energy</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/local</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/retail</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/levies</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/balancing</t>
+  </si>
+  <si>
+    <t>ems/fcasts/horizon</t>
+  </si>
+  <si>
+    <t>ems/fcasts/retraining</t>
+  </si>
+  <si>
+    <t>ems/fcasts/update</t>
+  </si>
+  <si>
+    <t>6qwgumJMmVbXDI7</t>
+  </si>
+  <si>
+    <t>4nnq3O1PEZp6dWM</t>
+  </si>
+  <si>
+    <t>BnqcT6hxtti70uH</t>
+  </si>
+  <si>
+    <t>9eFSrzr91OSowvp</t>
+  </si>
+  <si>
+    <t>0AzUwdxZZptibiO</t>
+  </si>
+  <si>
+    <t>geow5OY76tEO7e0</t>
+  </si>
+  <si>
+    <t>KATyPT8EDCK0ESt</t>
+  </si>
+  <si>
+    <t>E8G6EOAJkfvUjJH</t>
+  </si>
+  <si>
+    <t>NXvRT9GPioxZO0u</t>
+  </si>
+  <si>
+    <t>206Y66Ba67yqGSQ</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2012_3.csv</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
   </si>
   <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2896_0.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -676,40 +678,46 @@
     <t>[1, 0, 0]</t>
   </si>
   <si>
-    <t>heat_2532_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
   </si>
   <si>
     <t>heat_3296_0.csv</t>
   </si>
   <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2896_0.csv</t>
+    <t>heat_2012_3.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
   </si>
   <si>
     <t>dhw_gen_4_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
+    <t>dhw_gen_3_pu.csv</t>
   </si>
   <si>
     <t>pv_config.json</t>
@@ -721,31 +729,28 @@
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_1.csv</t>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
   </si>
   <si>
     <t>ev_parttime_89.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_42.csv</t>
+    <t>ev_freetime_3.csv</t>
   </si>
   <si>
     <t>ev_parttime_90.csv</t>
   </si>
   <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_43.csv</t>
+    <t>ev_fulltime_44.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_41.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_49.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -763,10 +768,10 @@
     <t>['linear']</t>
   </si>
   <si>
-    <t>[10800, 21600, 32400, 43200]</t>
-  </si>
-  <si>
     <t>naive</t>
+  </si>
+  <si>
+    <t>['naive', 'naive']</t>
   </si>
   <si>
     <t>general/sub_id</t>
@@ -853,8 +858,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -917,21 +922,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -969,7 +966,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1003,7 +1000,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1038,10 +1034,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1214,209 +1209,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GJ11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:GP11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ED1" workbookViewId="0">
-      <selection activeCell="EQ2" sqref="EQ2:EQ11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.90625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.36328125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="9" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="22" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="21.6328125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="25" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="24" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="149" max="149" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="14" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="24" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="14" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="161" max="161" width="40.6328125" bestFit="1" customWidth="1"/>
-    <col min="162" max="162" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="164" max="164" width="35.6328125" bestFit="1" customWidth="1"/>
-    <col min="165" max="165" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="166" max="166" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="167" max="167" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="168" max="168" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="170" max="170" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="172" max="172" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="173" max="173" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="174" max="175" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="176" max="176" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="177" max="177" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="178" max="178" width="16.6328125" bestFit="1" customWidth="1"/>
-    <col min="179" max="179" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="27.26953125" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="182" max="182" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="183" max="183" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="184" max="184" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="185" max="185" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="186" max="186" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="187" max="187" width="19" bestFit="1" customWidth="1"/>
-    <col min="188" max="188" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="189" max="189" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="190" max="190" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="191" max="191" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="192" max="192" width="23.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:198">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,13 +1790,31 @@
       <c r="GJ1" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="GK1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="2" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:198">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -2023,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2532000</v>
+        <v>3863000</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2044,25 +1862,25 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W2">
         <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y2">
         <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -2074,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -2089,25 +1907,25 @@
         <v>9</v>
       </c>
       <c r="AL2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN2">
         <v>90</v>
       </c>
       <c r="AO2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP2">
         <v>90</v>
       </c>
       <c r="AQ2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS2">
         <v>1</v>
@@ -2119,13 +1937,13 @@
         <v>19500000</v>
       </c>
       <c r="AV2" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AW2">
         <v>55</v>
       </c>
       <c r="AX2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -2140,25 +1958,25 @@
         <v>9</v>
       </c>
       <c r="BC2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE2">
         <v>90</v>
       </c>
       <c r="BF2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG2">
         <v>90</v>
       </c>
       <c r="BH2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ2">
         <v>1</v>
@@ -2167,16 +1985,16 @@
         <v>1</v>
       </c>
       <c r="BL2">
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
       <c r="BM2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="BN2">
         <v>55</v>
       </c>
       <c r="BO2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -2191,25 +2009,25 @@
         <v>9</v>
       </c>
       <c r="BT2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV2">
         <v>90</v>
       </c>
       <c r="BW2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX2">
         <v>90</v>
       </c>
       <c r="BY2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -2218,22 +2036,22 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>3800</v>
+        <v>6500</v>
       </c>
       <c r="CD2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG2" t="b">
         <v>1</v>
       </c>
       <c r="CH2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -2248,28 +2066,28 @@
         <v>9</v>
       </c>
       <c r="CM2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO2">
         <v>90</v>
       </c>
       <c r="CP2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ2">
         <v>90</v>
       </c>
       <c r="CR2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -2278,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -2293,28 +2111,28 @@
         <v>9</v>
       </c>
       <c r="DE2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG2">
         <v>90</v>
       </c>
       <c r="DH2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI2">
         <v>90</v>
       </c>
       <c r="DJ2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2323,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="DR2" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -2338,28 +2156,28 @@
         <v>9</v>
       </c>
       <c r="DW2" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY2">
         <v>90</v>
       </c>
       <c r="DZ2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA2">
         <v>90</v>
       </c>
       <c r="EB2" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC2" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2368,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ2">
         <v>1</v>
@@ -2377,19 +2195,19 @@
         <v>1</v>
       </c>
       <c r="EL2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="EM2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="EN2">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EO2">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="EP2">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="EQ2">
         <v>0.9</v>
@@ -2404,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="FD2" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2419,13 +2237,13 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ2" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL2">
         <v>1</v>
@@ -2434,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="FN2">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="FO2">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="FP2">
         <v>0.95</v>
@@ -2452,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="FT2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2461,48 +2279,66 @@
         <v>0</v>
       </c>
       <c r="GA2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF2">
+        <v>86400</v>
       </c>
       <c r="GG2" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH2" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI2">
+        <v>249</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN2">
         <v>86400</v>
       </c>
-      <c r="GJ2">
+      <c r="GO2">
+        <v>86400</v>
+      </c>
+      <c r="GP2">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:198">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2511,7 +2347,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2523,13 +2359,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3125000</v>
+        <v>3564000</v>
       </c>
       <c r="O3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2544,25 +2380,25 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W3">
         <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y3">
         <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2574,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2589,25 +2425,25 @@
         <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN3">
         <v>90</v>
       </c>
       <c r="AO3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP3">
         <v>90</v>
       </c>
       <c r="AQ3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS3">
         <v>1</v>
@@ -2616,16 +2452,16 @@
         <v>1</v>
       </c>
       <c r="AU3">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AV3" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AW3">
         <v>55</v>
       </c>
       <c r="AX3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -2640,25 +2476,25 @@
         <v>9</v>
       </c>
       <c r="BC3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE3">
         <v>90</v>
       </c>
       <c r="BF3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG3">
         <v>90</v>
       </c>
       <c r="BH3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ3">
         <v>1</v>
@@ -2670,13 +2506,13 @@
         <v>2400000</v>
       </c>
       <c r="BM3" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="BN3">
         <v>55</v>
       </c>
       <c r="BO3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -2691,25 +2527,25 @@
         <v>9</v>
       </c>
       <c r="BT3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV3">
         <v>90</v>
       </c>
       <c r="BW3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX3">
         <v>90</v>
       </c>
       <c r="BY3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA3">
         <v>1</v>
@@ -2718,22 +2554,22 @@
         <v>1</v>
       </c>
       <c r="CC3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="CD3" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE3">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG3" t="b">
         <v>1</v>
       </c>
       <c r="CH3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -2748,28 +2584,28 @@
         <v>9</v>
       </c>
       <c r="CM3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO3">
         <v>90</v>
       </c>
       <c r="CP3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ3">
         <v>90</v>
       </c>
       <c r="CR3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -2778,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA3">
         <v>1</v>
@@ -2793,28 +2629,28 @@
         <v>9</v>
       </c>
       <c r="DE3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG3">
         <v>90</v>
       </c>
       <c r="DH3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI3">
         <v>90</v>
       </c>
       <c r="DJ3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL3" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM3">
         <v>0</v>
@@ -2823,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="DR3" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS3">
         <v>1</v>
@@ -2838,28 +2674,28 @@
         <v>9</v>
       </c>
       <c r="DW3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY3">
         <v>90</v>
       </c>
       <c r="DZ3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA3">
         <v>90</v>
       </c>
       <c r="EB3" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC3" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2868,28 +2704,28 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ3">
         <v>1</v>
       </c>
       <c r="EK3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="EM3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="EN3">
         <v>7200</v>
       </c>
       <c r="EO3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EP3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="EQ3">
         <v>0.9</v>
@@ -2903,8 +2739,35 @@
       <c r="ET3" t="b">
         <v>0</v>
       </c>
+      <c r="EU3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EV3">
+        <v>50000</v>
+      </c>
+      <c r="EW3">
+        <v>7200</v>
+      </c>
+      <c r="EX3">
+        <v>7200</v>
+      </c>
+      <c r="EY3">
+        <v>50000</v>
+      </c>
+      <c r="EZ3">
+        <v>0.9</v>
+      </c>
+      <c r="FA3">
+        <v>0.8</v>
+      </c>
+      <c r="FB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="b">
+        <v>0</v>
+      </c>
       <c r="FD3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2919,13 +2782,13 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL3">
         <v>1</v>
@@ -2934,10 +2797,10 @@
         <v>1</v>
       </c>
       <c r="FN3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="FO3">
-        <v>3100</v>
+        <v>3600</v>
       </c>
       <c r="FP3">
         <v>0.95</v>
@@ -2952,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="FT3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -2961,48 +2824,66 @@
         <v>0</v>
       </c>
       <c r="GA3" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF3">
+        <v>86400</v>
       </c>
       <c r="GG3" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH3" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI3">
+        <v>249</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN3">
         <v>86400</v>
       </c>
-      <c r="GJ3">
+      <c r="GO3">
+        <v>86400</v>
+      </c>
+      <c r="GP3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:198">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3011,7 +2892,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3026,10 +2907,10 @@
         <v>5527000</v>
       </c>
       <c r="O4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3044,25 +2925,25 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W4">
         <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y4">
         <v>90</v>
       </c>
       <c r="Z4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -3074,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -3089,25 +2970,25 @@
         <v>9</v>
       </c>
       <c r="AL4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN4">
         <v>90</v>
       </c>
       <c r="AO4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP4">
         <v>90</v>
       </c>
       <c r="AQ4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS4">
         <v>1</v>
@@ -3116,16 +2997,16 @@
         <v>1</v>
       </c>
       <c r="AU4">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AV4" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AW4">
         <v>55</v>
       </c>
       <c r="AX4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -3140,25 +3021,25 @@
         <v>9</v>
       </c>
       <c r="BC4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE4">
         <v>90</v>
       </c>
       <c r="BF4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG4">
         <v>90</v>
       </c>
       <c r="BH4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ4">
         <v>1</v>
@@ -3170,13 +3051,13 @@
         <v>2400000</v>
       </c>
       <c r="BM4" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="BN4">
         <v>55</v>
       </c>
       <c r="BO4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -3191,25 +3072,25 @@
         <v>9</v>
       </c>
       <c r="BT4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV4">
         <v>90</v>
       </c>
       <c r="BW4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX4">
         <v>90</v>
       </c>
       <c r="BY4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA4">
         <v>1</v>
@@ -3218,10 +3099,10 @@
         <v>1</v>
       </c>
       <c r="CC4">
-        <v>7900</v>
+        <v>7000</v>
       </c>
       <c r="CD4" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE4">
         <v>0</v>
@@ -3233,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="CH4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -3248,28 +3129,28 @@
         <v>9</v>
       </c>
       <c r="CM4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO4">
         <v>90</v>
       </c>
       <c r="CP4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ4">
         <v>90</v>
       </c>
       <c r="CR4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -3278,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA4">
         <v>1</v>
@@ -3293,28 +3174,28 @@
         <v>9</v>
       </c>
       <c r="DE4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG4">
         <v>90</v>
       </c>
       <c r="DH4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI4">
         <v>90</v>
       </c>
       <c r="DJ4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL4" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -3323,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="DR4" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS4">
         <v>1</v>
@@ -3338,28 +3219,28 @@
         <v>9</v>
       </c>
       <c r="DW4" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY4">
         <v>90</v>
       </c>
       <c r="DZ4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA4">
         <v>90</v>
       </c>
       <c r="EB4" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC4" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -3368,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ4">
         <v>1</v>
       </c>
       <c r="EK4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL4" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="EM4">
         <v>75000</v>
@@ -3403,35 +3284,8 @@
       <c r="ET4" t="b">
         <v>0</v>
       </c>
-      <c r="EU4" t="s">
-        <v>234</v>
-      </c>
-      <c r="EV4">
-        <v>100000</v>
-      </c>
-      <c r="EW4">
-        <v>11000</v>
-      </c>
-      <c r="EX4">
-        <v>22000</v>
-      </c>
-      <c r="EY4">
-        <v>200000</v>
-      </c>
-      <c r="EZ4">
-        <v>90000</v>
-      </c>
-      <c r="FA4">
-        <v>80000</v>
-      </c>
-      <c r="FB4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC4" t="b">
-        <v>0</v>
-      </c>
       <c r="FD4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3446,13 +3300,13 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL4">
         <v>1</v>
@@ -3479,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3488,42 +3342,60 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF4">
+        <v>86400</v>
       </c>
       <c r="GG4" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH4" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI4">
+        <v>249</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN4">
         <v>86400</v>
       </c>
-      <c r="GJ4">
+      <c r="GO4">
+        <v>86400</v>
+      </c>
+      <c r="GP4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:198">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -3550,13 +3422,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4402000</v>
+        <v>3296000</v>
       </c>
       <c r="O5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3571,25 +3443,25 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W5">
         <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y5">
         <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -3601,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3616,25 +3488,25 @@
         <v>9</v>
       </c>
       <c r="AL5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN5">
         <v>90</v>
       </c>
       <c r="AO5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP5">
         <v>90</v>
       </c>
       <c r="AQ5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS5">
         <v>1</v>
@@ -3646,13 +3518,13 @@
         <v>5500000</v>
       </c>
       <c r="AV5" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="AW5">
         <v>55</v>
       </c>
       <c r="AX5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -3667,25 +3539,25 @@
         <v>9</v>
       </c>
       <c r="BC5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE5">
         <v>90</v>
       </c>
       <c r="BF5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG5">
         <v>90</v>
       </c>
       <c r="BH5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ5">
         <v>1</v>
@@ -3694,16 +3566,16 @@
         <v>1</v>
       </c>
       <c r="BL5">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="BM5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="BN5">
         <v>55</v>
       </c>
       <c r="BO5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -3718,25 +3590,25 @@
         <v>9</v>
       </c>
       <c r="BT5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV5">
         <v>90</v>
       </c>
       <c r="BW5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX5">
         <v>90</v>
       </c>
       <c r="BY5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -3745,22 +3617,22 @@
         <v>1</v>
       </c>
       <c r="CC5">
-        <v>6900</v>
+        <v>4200</v>
       </c>
       <c r="CD5" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG5" t="b">
         <v>1</v>
       </c>
       <c r="CH5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -3775,28 +3647,28 @@
         <v>9</v>
       </c>
       <c r="CM5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO5">
         <v>90</v>
       </c>
       <c r="CP5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ5">
         <v>90</v>
       </c>
       <c r="CR5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -3805,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA5">
         <v>1</v>
@@ -3820,28 +3692,28 @@
         <v>9</v>
       </c>
       <c r="DE5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG5">
         <v>90</v>
       </c>
       <c r="DH5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI5">
         <v>90</v>
       </c>
       <c r="DJ5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL5" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM5">
         <v>0</v>
@@ -3850,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="DR5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -3865,28 +3737,28 @@
         <v>9</v>
       </c>
       <c r="DW5" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY5">
         <v>90</v>
       </c>
       <c r="DZ5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA5">
         <v>90</v>
       </c>
       <c r="EB5" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC5" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3895,28 +3767,28 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ5">
         <v>1</v>
       </c>
       <c r="EK5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL5" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="EM5">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="EN5">
         <v>7200</v>
       </c>
       <c r="EO5">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EP5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="EQ5">
         <v>0.9</v>
@@ -3930,35 +3802,8 @@
       <c r="ET5" t="b">
         <v>0</v>
       </c>
-      <c r="EU5" t="s">
-        <v>235</v>
-      </c>
-      <c r="EV5">
-        <v>50000</v>
-      </c>
-      <c r="EW5">
-        <v>7200</v>
-      </c>
-      <c r="EX5">
-        <v>7200</v>
-      </c>
-      <c r="EY5">
-        <v>50000</v>
-      </c>
-      <c r="EZ5">
-        <v>90000</v>
-      </c>
-      <c r="FA5">
-        <v>80000</v>
-      </c>
-      <c r="FB5" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC5" t="b">
-        <v>0</v>
-      </c>
       <c r="FD5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3973,13 +3818,13 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL5">
         <v>1</v>
@@ -3988,10 +3833,10 @@
         <v>1</v>
       </c>
       <c r="FN5">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="FO5">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="FP5">
         <v>0.95</v>
@@ -4006,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -4015,48 +3860,66 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF5">
+        <v>86400</v>
       </c>
       <c r="GG5" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH5" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI5">
+        <v>249</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN5">
         <v>86400</v>
       </c>
-      <c r="GJ5">
+      <c r="GO5">
+        <v>86400</v>
+      </c>
+      <c r="GP5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:198">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4065,7 +3928,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4077,13 +3940,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3296000</v>
+        <v>5527000</v>
       </c>
       <c r="O6" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="P6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4098,25 +3961,25 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W6">
         <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y6">
         <v>90</v>
       </c>
       <c r="Z6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -4128,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -4143,25 +4006,25 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN6">
         <v>90</v>
       </c>
       <c r="AO6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP6">
         <v>90</v>
       </c>
       <c r="AQ6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS6">
         <v>1</v>
@@ -4170,16 +4033,16 @@
         <v>1</v>
       </c>
       <c r="AU6">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AV6" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AW6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AX6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -4194,25 +4057,25 @@
         <v>9</v>
       </c>
       <c r="BC6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE6">
         <v>90</v>
       </c>
       <c r="BF6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG6">
         <v>90</v>
       </c>
       <c r="BH6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ6">
         <v>1</v>
@@ -4221,16 +4084,16 @@
         <v>1</v>
       </c>
       <c r="BL6">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="BM6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BN6">
         <v>55</v>
       </c>
       <c r="BO6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -4245,25 +4108,25 @@
         <v>9</v>
       </c>
       <c r="BT6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV6">
         <v>90</v>
       </c>
       <c r="BW6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX6">
         <v>90</v>
       </c>
       <c r="BY6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -4272,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>4000</v>
+        <v>8900</v>
       </c>
       <c r="CD6" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -4287,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="CH6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -4302,28 +4165,28 @@
         <v>9</v>
       </c>
       <c r="CM6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO6">
         <v>90</v>
       </c>
       <c r="CP6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ6">
         <v>90</v>
       </c>
       <c r="CR6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -4332,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA6">
         <v>1</v>
@@ -4347,28 +4210,28 @@
         <v>9</v>
       </c>
       <c r="DE6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG6">
         <v>90</v>
       </c>
       <c r="DH6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI6">
         <v>90</v>
       </c>
       <c r="DJ6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL6" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -4377,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="DR6" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -4392,28 +4255,28 @@
         <v>9</v>
       </c>
       <c r="DW6" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY6">
         <v>90</v>
       </c>
       <c r="DZ6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA6">
         <v>90</v>
       </c>
       <c r="EB6" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC6" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -4422,16 +4285,16 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ6">
         <v>1</v>
       </c>
       <c r="EK6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL6" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="EM6">
         <v>50000</v>
@@ -4457,8 +4320,35 @@
       <c r="ET6" t="b">
         <v>0</v>
       </c>
+      <c r="EU6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EV6">
+        <v>75000</v>
+      </c>
+      <c r="EW6">
+        <v>7200</v>
+      </c>
+      <c r="EX6">
+        <v>11000</v>
+      </c>
+      <c r="EY6">
+        <v>100000</v>
+      </c>
+      <c r="EZ6">
+        <v>0.9</v>
+      </c>
+      <c r="FA6">
+        <v>0.8</v>
+      </c>
+      <c r="FB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="b">
+        <v>0</v>
+      </c>
       <c r="FD6" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -4473,13 +4363,13 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ6" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL6">
         <v>1</v>
@@ -4488,10 +4378,10 @@
         <v>1</v>
       </c>
       <c r="FN6">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="FO6">
-        <v>3300</v>
+        <v>5500</v>
       </c>
       <c r="FP6">
         <v>0.95</v>
@@ -4506,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="FT6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU6">
         <v>0</v>
@@ -4515,42 +4405,60 @@
         <v>0</v>
       </c>
       <c r="GA6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC6" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF6">
+        <v>86400</v>
       </c>
       <c r="GG6" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH6" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI6">
+        <v>249</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN6">
         <v>86400</v>
       </c>
-      <c r="GJ6">
+      <c r="GO6">
+        <v>86400</v>
+      </c>
+      <c r="GP6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:198">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -4577,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3296000</v>
+        <v>2012000</v>
       </c>
       <c r="O7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4598,25 +4506,25 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W7">
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y7">
         <v>90</v>
       </c>
       <c r="Z7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -4628,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4643,25 +4551,25 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN7">
         <v>90</v>
       </c>
       <c r="AO7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP7">
         <v>90</v>
       </c>
       <c r="AQ7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS7">
         <v>1</v>
@@ -4673,13 +4581,13 @@
         <v>19500000</v>
       </c>
       <c r="AV7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="AW7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="AX7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -4694,25 +4602,25 @@
         <v>9</v>
       </c>
       <c r="BC7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE7">
         <v>90</v>
       </c>
       <c r="BF7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG7">
         <v>90</v>
       </c>
       <c r="BH7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ7">
         <v>1</v>
@@ -4724,13 +4632,13 @@
         <v>2800000</v>
       </c>
       <c r="BM7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="BN7">
         <v>55</v>
       </c>
       <c r="BO7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -4745,25 +4653,25 @@
         <v>9</v>
       </c>
       <c r="BT7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV7">
         <v>90</v>
       </c>
       <c r="BW7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX7">
         <v>90</v>
       </c>
       <c r="BY7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -4772,22 +4680,22 @@
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>5900</v>
+        <v>3400</v>
       </c>
       <c r="CD7" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG7" t="b">
         <v>1</v>
       </c>
       <c r="CH7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -4802,28 +4710,28 @@
         <v>9</v>
       </c>
       <c r="CM7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO7">
         <v>90</v>
       </c>
       <c r="CP7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ7">
         <v>90</v>
       </c>
       <c r="CR7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -4832,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -4847,28 +4755,28 @@
         <v>9</v>
       </c>
       <c r="DE7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG7">
         <v>90</v>
       </c>
       <c r="DH7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI7">
         <v>90</v>
       </c>
       <c r="DJ7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM7">
         <v>0</v>
@@ -4877,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="DR7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -4892,28 +4800,28 @@
         <v>9</v>
       </c>
       <c r="DW7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY7">
         <v>90</v>
       </c>
       <c r="DZ7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA7">
         <v>90</v>
       </c>
       <c r="EB7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4922,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ7">
         <v>1</v>
@@ -4931,19 +4839,19 @@
         <v>1</v>
       </c>
       <c r="EL7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="EM7">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EN7">
         <v>7200</v>
       </c>
       <c r="EO7">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EP7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EQ7">
         <v>0.9</v>
@@ -4958,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4973,13 +4881,13 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL7">
         <v>1</v>
@@ -4988,10 +4896,10 @@
         <v>1</v>
       </c>
       <c r="FN7">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="FO7">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="FP7">
         <v>0.95</v>
@@ -5006,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="FT7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU7">
         <v>0</v>
@@ -5015,42 +4923,60 @@
         <v>0</v>
       </c>
       <c r="GA7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF7">
+        <v>86400</v>
       </c>
       <c r="GG7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH7" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI7">
+        <v>249</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN7">
         <v>86400</v>
       </c>
-      <c r="GJ7">
+      <c r="GO7">
+        <v>86400</v>
+      </c>
+      <c r="GP7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:198">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -5077,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3564000</v>
+        <v>2959000</v>
       </c>
       <c r="O8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="P8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5098,25 +5024,25 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W8">
         <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y8">
         <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -5128,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -5143,25 +5069,25 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN8">
         <v>90</v>
       </c>
       <c r="AO8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP8">
         <v>90</v>
       </c>
       <c r="AQ8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS8">
         <v>1</v>
@@ -5173,13 +5099,13 @@
         <v>5500000</v>
       </c>
       <c r="AV8" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AW8">
         <v>55</v>
       </c>
       <c r="AX8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -5194,25 +5120,25 @@
         <v>9</v>
       </c>
       <c r="BC8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE8">
         <v>90</v>
       </c>
       <c r="BF8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG8">
         <v>90</v>
       </c>
       <c r="BH8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ8">
         <v>1</v>
@@ -5221,16 +5147,16 @@
         <v>1</v>
       </c>
       <c r="BL8">
-        <v>2100000</v>
+        <v>1800000</v>
       </c>
       <c r="BM8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="BN8">
         <v>55</v>
       </c>
       <c r="BO8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -5245,25 +5171,25 @@
         <v>9</v>
       </c>
       <c r="BT8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV8">
         <v>90</v>
       </c>
       <c r="BW8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX8">
         <v>90</v>
       </c>
       <c r="BY8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -5272,22 +5198,22 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>4700</v>
+        <v>4000</v>
       </c>
       <c r="CD8" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG8" t="b">
         <v>1</v>
       </c>
       <c r="CH8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -5302,28 +5228,28 @@
         <v>9</v>
       </c>
       <c r="CM8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO8">
         <v>90</v>
       </c>
       <c r="CP8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ8">
         <v>90</v>
       </c>
       <c r="CR8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -5332,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -5347,28 +5273,28 @@
         <v>9</v>
       </c>
       <c r="DE8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG8">
         <v>90</v>
       </c>
       <c r="DH8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI8">
         <v>90</v>
       </c>
       <c r="DJ8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM8">
         <v>0</v>
@@ -5377,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="DR8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -5392,28 +5318,28 @@
         <v>9</v>
       </c>
       <c r="DW8" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY8">
         <v>90</v>
       </c>
       <c r="DZ8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA8">
         <v>90</v>
       </c>
       <c r="EB8" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -5422,7 +5348,7 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ8">
         <v>1</v>
@@ -5431,7 +5357,7 @@
         <v>1</v>
       </c>
       <c r="EL8" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="EM8">
         <v>100000</v>
@@ -5458,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -5473,13 +5399,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ8" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -5488,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="FN8">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="FO8">
-        <v>3600</v>
+        <v>3000</v>
       </c>
       <c r="FP8">
         <v>0.95</v>
@@ -5506,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -5515,48 +5441,66 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC8" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF8" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF8">
+        <v>86400</v>
       </c>
       <c r="GG8" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH8" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI8">
+        <v>249</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN8">
         <v>86400</v>
       </c>
-      <c r="GJ8">
+      <c r="GO8">
+        <v>86400</v>
+      </c>
+      <c r="GP8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:198">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -5565,7 +5509,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -5577,13 +5521,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3296000</v>
+        <v>3648000</v>
       </c>
       <c r="O9" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="P9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -5598,25 +5542,25 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W9">
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -5628,7 +5572,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -5643,25 +5587,25 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN9">
         <v>90</v>
       </c>
       <c r="AO9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP9">
         <v>90</v>
       </c>
       <c r="AQ9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS9">
         <v>1</v>
@@ -5670,16 +5614,16 @@
         <v>1</v>
       </c>
       <c r="AU9">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AV9" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="AW9">
         <v>35</v>
       </c>
       <c r="AX9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -5694,25 +5638,25 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE9">
         <v>90</v>
       </c>
       <c r="BF9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG9">
         <v>90</v>
       </c>
       <c r="BH9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ9">
         <v>1</v>
@@ -5721,16 +5665,16 @@
         <v>1</v>
       </c>
       <c r="BL9">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="BM9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="BN9">
         <v>55</v>
       </c>
       <c r="BO9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -5745,25 +5689,25 @@
         <v>9</v>
       </c>
       <c r="BT9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV9">
         <v>90</v>
       </c>
       <c r="BW9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX9">
         <v>90</v>
       </c>
       <c r="BY9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5772,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="CC9">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="CD9" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5787,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="CH9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -5802,28 +5746,28 @@
         <v>9</v>
       </c>
       <c r="CM9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO9">
         <v>90</v>
       </c>
       <c r="CP9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ9">
         <v>90</v>
       </c>
       <c r="CR9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT9" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -5832,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA9">
         <v>1</v>
@@ -5847,28 +5791,28 @@
         <v>9</v>
       </c>
       <c r="DE9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG9">
         <v>90</v>
       </c>
       <c r="DH9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI9">
         <v>90</v>
       </c>
       <c r="DJ9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL9" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM9">
         <v>0</v>
@@ -5877,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="DR9" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS9">
         <v>1</v>
@@ -5892,28 +5836,28 @@
         <v>9</v>
       </c>
       <c r="DW9" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY9">
         <v>90</v>
       </c>
       <c r="DZ9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA9">
         <v>90</v>
       </c>
       <c r="EB9" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC9" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5922,16 +5866,16 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ9">
         <v>1</v>
       </c>
       <c r="EK9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL9" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="EM9">
         <v>75000</v>
@@ -5957,35 +5901,8 @@
       <c r="ET9" t="b">
         <v>0</v>
       </c>
-      <c r="EU9" t="s">
-        <v>230</v>
-      </c>
-      <c r="EV9">
-        <v>75000</v>
-      </c>
-      <c r="EW9">
-        <v>7200</v>
-      </c>
-      <c r="EX9">
-        <v>11000</v>
-      </c>
-      <c r="EY9">
-        <v>100000</v>
-      </c>
-      <c r="EZ9">
-        <v>90000</v>
-      </c>
-      <c r="FA9">
-        <v>80000</v>
-      </c>
-      <c r="FB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="b">
-        <v>0</v>
-      </c>
       <c r="FD9" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -6000,13 +5917,13 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL9">
         <v>1</v>
@@ -6015,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="FN9">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="FO9">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="FP9">
         <v>0.95</v>
@@ -6033,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="FT9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU9">
         <v>0</v>
@@ -6042,48 +5959,66 @@
         <v>0</v>
       </c>
       <c r="GA9" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC9" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF9">
+        <v>86400</v>
       </c>
       <c r="GG9" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH9" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI9">
+        <v>249</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN9">
         <v>86400</v>
       </c>
-      <c r="GJ9">
+      <c r="GO9">
+        <v>86400</v>
+      </c>
+      <c r="GP9">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:198">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -6092,7 +6027,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -6104,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="O10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -6125,25 +6060,25 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W10">
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y10">
         <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -6155,7 +6090,7 @@
         <v>6</v>
       </c>
       <c r="AG10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -6170,25 +6105,25 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN10">
         <v>90</v>
       </c>
       <c r="AO10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP10">
         <v>90</v>
       </c>
       <c r="AQ10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS10">
         <v>1</v>
@@ -6197,16 +6132,16 @@
         <v>1</v>
       </c>
       <c r="AU10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="AV10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AW10">
         <v>35</v>
       </c>
       <c r="AX10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -6221,25 +6156,25 @@
         <v>9</v>
       </c>
       <c r="BC10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE10">
         <v>90</v>
       </c>
       <c r="BF10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG10">
         <v>90</v>
       </c>
       <c r="BH10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ10">
         <v>1</v>
@@ -6251,13 +6186,13 @@
         <v>2400000</v>
       </c>
       <c r="BM10" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="BN10">
         <v>55</v>
       </c>
       <c r="BO10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -6272,25 +6207,25 @@
         <v>9</v>
       </c>
       <c r="BT10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV10">
         <v>90</v>
       </c>
       <c r="BW10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX10">
         <v>90</v>
       </c>
       <c r="BY10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA10">
         <v>1</v>
@@ -6299,22 +6234,22 @@
         <v>1</v>
       </c>
       <c r="CC10">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="CD10" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE10">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG10" t="b">
         <v>1</v>
       </c>
       <c r="CH10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -6329,28 +6264,28 @@
         <v>9</v>
       </c>
       <c r="CM10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO10">
         <v>90</v>
       </c>
       <c r="CP10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ10">
         <v>90</v>
       </c>
       <c r="CR10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -6359,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA10">
         <v>1</v>
@@ -6374,28 +6309,28 @@
         <v>9</v>
       </c>
       <c r="DE10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG10">
         <v>90</v>
       </c>
       <c r="DH10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI10">
         <v>90</v>
       </c>
       <c r="DJ10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM10">
         <v>0</v>
@@ -6404,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="DR10" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS10">
         <v>1</v>
@@ -6419,28 +6354,28 @@
         <v>9</v>
       </c>
       <c r="DW10" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY10">
         <v>90</v>
       </c>
       <c r="DZ10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA10">
         <v>90</v>
       </c>
       <c r="EB10" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC10" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -6449,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ10">
         <v>1</v>
@@ -6458,19 +6393,19 @@
         <v>1</v>
       </c>
       <c r="EL10" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="EM10">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EN10">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EO10">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="EP10">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="EQ10">
         <v>0.9</v>
@@ -6485,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -6500,13 +6435,13 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ10" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL10">
         <v>1</v>
@@ -6515,10 +6450,10 @@
         <v>1</v>
       </c>
       <c r="FN10">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="FO10">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="FP10">
         <v>0.95</v>
@@ -6533,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="FT10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU10">
         <v>0</v>
@@ -6542,48 +6477,66 @@
         <v>0</v>
       </c>
       <c r="GA10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC10" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF10" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF10">
+        <v>86400</v>
       </c>
       <c r="GG10" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH10" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI10">
+        <v>249</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN10">
         <v>86400</v>
       </c>
-      <c r="GJ10">
+      <c r="GO10">
+        <v>86400</v>
+      </c>
+      <c r="GP10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:192" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:198">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -6592,7 +6545,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -6604,13 +6557,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2896000</v>
+        <v>3125000</v>
       </c>
       <c r="O11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -6625,25 +6578,25 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="V11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="W11">
         <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Y11">
         <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AA11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -6655,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -6670,25 +6623,25 @@
         <v>9</v>
       </c>
       <c r="AL11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="AM11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AN11">
         <v>90</v>
       </c>
       <c r="AO11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AP11">
         <v>90</v>
       </c>
       <c r="AQ11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="AR11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AS11">
         <v>1</v>
@@ -6697,16 +6650,16 @@
         <v>1</v>
       </c>
       <c r="AU11">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="AV11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AW11">
         <v>55</v>
       </c>
       <c r="AX11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -6721,25 +6674,25 @@
         <v>9</v>
       </c>
       <c r="BC11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BD11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BE11">
         <v>90</v>
       </c>
       <c r="BF11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BG11">
         <v>90</v>
       </c>
       <c r="BH11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BI11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="BJ11">
         <v>1</v>
@@ -6748,16 +6701,16 @@
         <v>1</v>
       </c>
       <c r="BL11">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="BM11" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="BN11">
         <v>55</v>
       </c>
       <c r="BO11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -6772,25 +6725,25 @@
         <v>9</v>
       </c>
       <c r="BT11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="BU11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BV11">
         <v>90</v>
       </c>
       <c r="BW11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BX11">
         <v>90</v>
       </c>
       <c r="BY11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="BZ11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -6799,10 +6752,10 @@
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="CD11" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -6814,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="CH11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="CI11">
         <v>1</v>
@@ -6829,28 +6782,28 @@
         <v>9</v>
       </c>
       <c r="CM11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="CN11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CO11">
         <v>90</v>
       </c>
       <c r="CP11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CQ11">
         <v>90</v>
       </c>
       <c r="CR11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="CS11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="CT11" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -6859,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DA11">
         <v>1</v>
@@ -6874,28 +6827,28 @@
         <v>9</v>
       </c>
       <c r="DE11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DF11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DG11">
         <v>90</v>
       </c>
       <c r="DH11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DI11">
         <v>90</v>
       </c>
       <c r="DJ11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DK11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="DL11" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="DM11">
         <v>0</v>
@@ -6904,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="DR11" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="DS11">
         <v>1</v>
@@ -6919,28 +6872,28 @@
         <v>9</v>
       </c>
       <c r="DW11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="DX11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="DY11">
         <v>90</v>
       </c>
       <c r="DZ11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EA11">
         <v>90</v>
       </c>
       <c r="EB11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="EC11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="ED11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6949,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="EJ11">
         <v>1</v>
@@ -6958,19 +6911,19 @@
         <v>1</v>
       </c>
       <c r="EL11" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="EM11">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EN11">
         <v>7200</v>
       </c>
       <c r="EO11">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EP11">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EQ11">
         <v>0.9</v>
@@ -6985,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="FD11" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -7000,13 +6953,13 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="FJ11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="FK11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FL11">
         <v>1</v>
@@ -7015,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="FN11">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="FO11">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="FP11">
         <v>0.95</v>
@@ -7033,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -7042,33 +6995,51 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="GB11" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GC11" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>240</v>
-      </c>
-      <c r="GF11" t="s">
-        <v>241</v>
+        <v>248</v>
+      </c>
+      <c r="GF11">
+        <v>86400</v>
       </c>
       <c r="GG11" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="GH11" t="s">
-        <v>242</v>
-      </c>
-      <c r="GI11">
+        <v>249</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN11">
         <v>86400</v>
       </c>
-      <c r="GJ11">
+      <c r="GO11">
+        <v>86400</v>
+      </c>
+      <c r="GP11">
         <v>3600</v>
       </c>
     </row>
@@ -7078,14 +7049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:GM1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:GS1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:195" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:201">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7099,13 +7070,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -7667,6 +7638,24 @@
       </c>
       <c r="GM1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7675,14 +7664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:ED1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:EJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:134" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:140">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7696,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8008,22 +7997,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -8081,6 +8070,24 @@
       </c>
       <c r="ED1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8089,14 +8096,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:EM1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:ES1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:143" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:149">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8110,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -8522,6 +8529,24 @@
       </c>
       <c r="EM1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8530,14 +8555,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:CB1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:CH1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:80" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:86">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8774,6 +8799,24 @@
       </c>
       <c r="CB1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8782,14 +8825,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:AP1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:AV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:42" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8833,58 +8876,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>
@@ -8912,6 +8955,24 @@
       </c>
       <c r="AP1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="278">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -588,40 +588,61 @@
     <t>ems/market/fcast/wholesale</t>
   </si>
   <si>
-    <t>ems/fcasts/retraining_period</t>
-  </si>
-  <si>
-    <t>ems/fcasts/update_period</t>
-  </si>
-  <si>
-    <t>1lIPbXNxrtcHbuq</t>
-  </si>
-  <si>
-    <t>1dMs8E6si6MYUqb</t>
-  </si>
-  <si>
-    <t>rZwqUNsMzDDl8Hy</t>
-  </si>
-  <si>
-    <t>n0w3DxDsc0KicUT</t>
-  </si>
-  <si>
-    <t>f9HuzbnqNCXzIlC</t>
-  </si>
-  <si>
-    <t>QRbLyCB6X1yb4BY</t>
-  </si>
-  <si>
-    <t>DbC1ILMdile5yIl</t>
-  </si>
-  <si>
-    <t>MdfdWyPPzFrkYvW</t>
-  </si>
-  <si>
-    <t>Nj2p967l9Vt9bjg</t>
-  </si>
-  <si>
-    <t>DubKsoLCiW6BzEv</t>
+    <t>ems/market/fcast/retailer/energy</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/local</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/retail</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/levies</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/balancing</t>
+  </si>
+  <si>
+    <t>ems/fcasts/horizon</t>
+  </si>
+  <si>
+    <t>ems/fcasts/retraining</t>
+  </si>
+  <si>
+    <t>ems/fcasts/update</t>
+  </si>
+  <si>
+    <t>6qwgumJMmVbXDI7</t>
+  </si>
+  <si>
+    <t>4nnq3O1PEZp6dWM</t>
+  </si>
+  <si>
+    <t>BnqcT6hxtti70uH</t>
+  </si>
+  <si>
+    <t>9eFSrzr91OSowvp</t>
+  </si>
+  <si>
+    <t>0AzUwdxZZptibiO</t>
+  </si>
+  <si>
+    <t>geow5OY76tEO7e0</t>
+  </si>
+  <si>
+    <t>KATyPT8EDCK0ESt</t>
+  </si>
+  <si>
+    <t>E8G6EOAJkfvUjJH</t>
+  </si>
+  <si>
+    <t>NXvRT9GPioxZO0u</t>
+  </si>
+  <si>
+    <t>206Y66Ba67yqGSQ</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
   </si>
   <si>
     <t>hh_3564_0.csv</t>
@@ -630,24 +651,21 @@
     <t>hh_5527_0.csv</t>
   </si>
   <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2012_3.csv</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
     <t>hh_3648_0.csv</t>
   </si>
   <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -660,6 +678,48 @@
     <t>[1, 0, 0]</t>
   </si>
   <si>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2012_3.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
     <t>pv_config.json</t>
   </si>
   <si>
@@ -669,16 +729,28 @@
     <t>local</t>
   </si>
   <si>
-    <t>ev_freetime_1.csv</t>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
   </si>
   <si>
     <t>ev_fulltime_41.csv</t>
   </si>
   <si>
-    <t>ev_parttime_90.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_0.csv</t>
+    <t>ev_fulltime_49.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -696,10 +768,10 @@
     <t>['linear']</t>
   </si>
   <si>
-    <t>[10800, 21600, 32400, 43200]</t>
-  </si>
-  <si>
     <t>naive</t>
+  </si>
+  <si>
+    <t>['naive', 'naive']</t>
   </si>
   <si>
     <t>general/sub_id</t>
@@ -1138,13 +1210,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GJ11"/>
+  <dimension ref="A1:GP11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:192">
+    <row r="1" spans="1:198">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1718,19 +1790,37 @@
       <c r="GJ1" s="1" t="s">
         <v>190</v>
       </c>
+      <c r="GK1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GL1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GM1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="2" spans="1:192">
+    <row r="2" spans="1:198">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1739,7 +1829,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -1751,13 +1841,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3564000</v>
+        <v>3863000</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1772,25 +1862,25 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W2">
         <v>90</v>
       </c>
       <c r="X2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y2">
         <v>90</v>
       </c>
       <c r="Z2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -1802,7 +1892,7 @@
         <v>6</v>
       </c>
       <c r="AG2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1817,34 +1907,43 @@
         <v>9</v>
       </c>
       <c r="AL2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN2">
         <v>90</v>
       </c>
       <c r="AO2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP2">
         <v>90</v>
       </c>
       <c r="AQ2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU2">
+        <v>19500000</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW2">
+        <v>55</v>
       </c>
       <c r="AX2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY2">
         <v>1</v>
@@ -1859,34 +1958,43 @@
         <v>9</v>
       </c>
       <c r="BC2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE2">
         <v>90</v>
       </c>
       <c r="BF2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG2">
         <v>90</v>
       </c>
       <c r="BH2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL2">
+        <v>3200000</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN2">
+        <v>55</v>
       </c>
       <c r="BO2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP2">
         <v>1</v>
@@ -1901,25 +2009,25 @@
         <v>9</v>
       </c>
       <c r="BT2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV2">
         <v>90</v>
       </c>
       <c r="BW2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX2">
         <v>90</v>
       </c>
       <c r="BY2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -1928,22 +2036,22 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>5200</v>
+        <v>6500</v>
       </c>
       <c r="CD2" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CF2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="CG2" t="b">
         <v>1</v>
       </c>
       <c r="CH2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI2">
         <v>1</v>
@@ -1958,28 +2066,28 @@
         <v>9</v>
       </c>
       <c r="CM2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO2">
         <v>90</v>
       </c>
       <c r="CP2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ2">
         <v>90</v>
       </c>
       <c r="CR2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU2">
         <v>0</v>
@@ -1988,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA2">
         <v>1</v>
@@ -2003,28 +2111,28 @@
         <v>9</v>
       </c>
       <c r="DE2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG2">
         <v>90</v>
       </c>
       <c r="DH2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI2">
         <v>90</v>
       </c>
       <c r="DJ2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL2" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM2">
         <v>0</v>
@@ -2033,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="DR2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS2">
         <v>1</v>
@@ -2048,28 +2156,28 @@
         <v>9</v>
       </c>
       <c r="DW2" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY2">
         <v>90</v>
       </c>
       <c r="DZ2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA2">
         <v>90</v>
       </c>
       <c r="EB2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC2" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE2">
         <v>0</v>
@@ -2078,16 +2186,43 @@
         <v>0</v>
       </c>
       <c r="EI2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK2">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="s">
+        <v>236</v>
+      </c>
+      <c r="EM2">
+        <v>100000</v>
+      </c>
+      <c r="EN2">
+        <v>11000</v>
+      </c>
+      <c r="EO2">
+        <v>22000</v>
+      </c>
+      <c r="EP2">
+        <v>200000</v>
+      </c>
+      <c r="EQ2">
+        <v>0.9</v>
+      </c>
+      <c r="ER2">
+        <v>0.8</v>
+      </c>
+      <c r="ES2" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET2" t="b">
         <v>0</v>
       </c>
       <c r="FD2" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE2">
         <v>0.05</v>
@@ -2102,13 +2237,13 @@
         <v>8.5</v>
       </c>
       <c r="FI2" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ2" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL2">
         <v>1</v>
@@ -2117,10 +2252,10 @@
         <v>1</v>
       </c>
       <c r="FN2">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="FO2">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="FP2">
         <v>0.95</v>
@@ -2135,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="FT2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU2">
         <v>0</v>
@@ -2144,42 +2279,60 @@
         <v>0</v>
       </c>
       <c r="GA2" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC2" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD2">
         <v>86400</v>
       </c>
       <c r="GE2" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF2" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF2">
+        <v>86400</v>
       </c>
       <c r="GG2" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH2" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI2">
+        <v>249</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL2" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN2">
         <v>86400</v>
       </c>
-      <c r="GJ2">
+      <c r="GO2">
+        <v>86400</v>
+      </c>
+      <c r="GP2">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:192">
+    <row r="3" spans="1:198">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2206,13 +2359,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>5527000</v>
+        <v>3564000</v>
       </c>
       <c r="O3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2227,25 +2380,25 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W3">
         <v>90</v>
       </c>
       <c r="X3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y3">
         <v>90</v>
       </c>
       <c r="Z3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -2257,7 +2410,7 @@
         <v>6</v>
       </c>
       <c r="AG3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2272,34 +2425,43 @@
         <v>9</v>
       </c>
       <c r="AL3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN3">
         <v>90</v>
       </c>
       <c r="AO3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP3">
         <v>90</v>
       </c>
       <c r="AQ3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>5500000</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW3">
+        <v>55</v>
       </c>
       <c r="AX3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY3">
         <v>1</v>
@@ -2314,34 +2476,43 @@
         <v>9</v>
       </c>
       <c r="BC3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE3">
         <v>90</v>
       </c>
       <c r="BF3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG3">
         <v>90</v>
       </c>
       <c r="BH3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL3">
+        <v>2400000</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN3">
+        <v>55</v>
       </c>
       <c r="BO3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP3">
         <v>1</v>
@@ -2356,34 +2527,49 @@
         <v>9</v>
       </c>
       <c r="BT3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV3">
         <v>90</v>
       </c>
       <c r="BW3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX3">
         <v>90</v>
       </c>
       <c r="BY3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>5800</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE3">
+        <v>-20</v>
+      </c>
+      <c r="CF3">
+        <v>50</v>
+      </c>
+      <c r="CG3" t="b">
+        <v>1</v>
       </c>
       <c r="CH3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI3">
         <v>1</v>
@@ -2398,28 +2584,28 @@
         <v>9</v>
       </c>
       <c r="CM3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO3">
         <v>90</v>
       </c>
       <c r="CP3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ3">
         <v>90</v>
       </c>
       <c r="CR3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU3">
         <v>0</v>
@@ -2428,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA3">
         <v>1</v>
@@ -2443,28 +2629,28 @@
         <v>9</v>
       </c>
       <c r="DE3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG3">
         <v>90</v>
       </c>
       <c r="DH3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI3">
         <v>90</v>
       </c>
       <c r="DJ3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL3" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM3">
         <v>0</v>
@@ -2473,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="DR3" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS3">
         <v>1</v>
@@ -2488,28 +2674,28 @@
         <v>9</v>
       </c>
       <c r="DW3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY3">
         <v>90</v>
       </c>
       <c r="DZ3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA3">
         <v>90</v>
       </c>
       <c r="EB3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC3" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE3">
         <v>0</v>
@@ -2518,43 +2704,70 @@
         <v>0</v>
       </c>
       <c r="EI3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ3">
         <v>1</v>
       </c>
       <c r="EK3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="EL3" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="EM3">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="EN3">
         <v>7200</v>
       </c>
       <c r="EO3">
+        <v>11000</v>
+      </c>
+      <c r="EP3">
+        <v>100000</v>
+      </c>
+      <c r="EQ3">
+        <v>0.9</v>
+      </c>
+      <c r="ER3">
+        <v>0.8</v>
+      </c>
+      <c r="ES3" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EV3">
+        <v>50000</v>
+      </c>
+      <c r="EW3">
         <v>7200</v>
       </c>
-      <c r="EP3">
+      <c r="EX3">
+        <v>7200</v>
+      </c>
+      <c r="EY3">
         <v>50000</v>
       </c>
-      <c r="EQ3">
-        <v>90000</v>
-      </c>
-      <c r="ER3">
-        <v>80000</v>
-      </c>
-      <c r="ES3" t="b">
-        <v>0</v>
-      </c>
-      <c r="ET3" t="b">
+      <c r="EZ3">
+        <v>0.9</v>
+      </c>
+      <c r="FA3">
+        <v>0.8</v>
+      </c>
+      <c r="FB3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="b">
         <v>0</v>
       </c>
       <c r="FD3" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE3">
         <v>0.05</v>
@@ -2569,22 +2782,40 @@
         <v>8.5</v>
       </c>
       <c r="FI3" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ3" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM3">
+        <v>1</v>
+      </c>
+      <c r="FN3">
+        <v>3600</v>
+      </c>
+      <c r="FO3">
+        <v>3600</v>
+      </c>
+      <c r="FP3">
+        <v>0.95</v>
+      </c>
+      <c r="FQ3">
+        <v>0.1</v>
+      </c>
+      <c r="FR3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="b">
         <v>0</v>
       </c>
       <c r="FT3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU3">
         <v>0</v>
@@ -2593,48 +2824,66 @@
         <v>0</v>
       </c>
       <c r="GA3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB3" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC3" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD3">
         <v>86400</v>
       </c>
       <c r="GE3" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF3">
+        <v>86400</v>
       </c>
       <c r="GG3" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH3" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI3">
+        <v>249</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL3" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN3">
         <v>86400</v>
       </c>
-      <c r="GJ3">
+      <c r="GO3">
+        <v>86400</v>
+      </c>
+      <c r="GP3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:192">
+    <row r="4" spans="1:198">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -2643,7 +2892,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -2655,13 +2904,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3648000</v>
+        <v>5527000</v>
       </c>
       <c r="O4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2676,25 +2925,25 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W4">
         <v>90</v>
       </c>
       <c r="X4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y4">
         <v>90</v>
       </c>
       <c r="Z4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -2706,7 +2955,7 @@
         <v>6</v>
       </c>
       <c r="AG4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH4">
         <v>1</v>
@@ -2721,34 +2970,43 @@
         <v>9</v>
       </c>
       <c r="AL4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN4">
         <v>90</v>
       </c>
       <c r="AO4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP4">
         <v>90</v>
       </c>
       <c r="AQ4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU4">
+        <v>19500000</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW4">
+        <v>55</v>
       </c>
       <c r="AX4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY4">
         <v>1</v>
@@ -2763,34 +3021,43 @@
         <v>9</v>
       </c>
       <c r="BC4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE4">
         <v>90</v>
       </c>
       <c r="BF4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG4">
         <v>90</v>
       </c>
       <c r="BH4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL4">
+        <v>2400000</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>228</v>
+      </c>
+      <c r="BN4">
+        <v>55</v>
       </c>
       <c r="BO4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP4">
         <v>1</v>
@@ -2805,25 +3072,25 @@
         <v>9</v>
       </c>
       <c r="BT4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV4">
         <v>90</v>
       </c>
       <c r="BW4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX4">
         <v>90</v>
       </c>
       <c r="BY4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA4">
         <v>1</v>
@@ -2832,22 +3099,22 @@
         <v>1</v>
       </c>
       <c r="CC4">
-        <v>5200</v>
+        <v>7000</v>
       </c>
       <c r="CD4" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE4">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG4" t="b">
         <v>1</v>
       </c>
       <c r="CH4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI4">
         <v>1</v>
@@ -2862,28 +3129,28 @@
         <v>9</v>
       </c>
       <c r="CM4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO4">
         <v>90</v>
       </c>
       <c r="CP4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ4">
         <v>90</v>
       </c>
       <c r="CR4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU4">
         <v>0</v>
@@ -2892,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA4">
         <v>1</v>
@@ -2907,28 +3174,28 @@
         <v>9</v>
       </c>
       <c r="DE4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG4">
         <v>90</v>
       </c>
       <c r="DH4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI4">
         <v>90</v>
       </c>
       <c r="DJ4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM4">
         <v>0</v>
@@ -2937,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="DR4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS4">
         <v>1</v>
@@ -2952,28 +3219,28 @@
         <v>9</v>
       </c>
       <c r="DW4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY4">
         <v>90</v>
       </c>
       <c r="DZ4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA4">
         <v>90</v>
       </c>
       <c r="EB4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE4">
         <v>0</v>
@@ -2982,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="EI4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ4">
         <v>1</v>
@@ -2991,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="EL4" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="EM4">
         <v>75000</v>
@@ -3006,10 +3273,10 @@
         <v>100000</v>
       </c>
       <c r="EQ4">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER4">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES4" t="b">
         <v>0</v>
@@ -3018,7 +3285,7 @@
         <v>0</v>
       </c>
       <c r="FD4" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE4">
         <v>0.05</v>
@@ -3033,22 +3300,40 @@
         <v>8.5</v>
       </c>
       <c r="FI4" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ4" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM4">
+        <v>1</v>
+      </c>
+      <c r="FN4">
+        <v>5500</v>
+      </c>
+      <c r="FO4">
+        <v>5500</v>
+      </c>
+      <c r="FP4">
+        <v>0.95</v>
+      </c>
+      <c r="FQ4">
+        <v>0.1</v>
+      </c>
+      <c r="FR4" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS4" t="b">
         <v>0</v>
       </c>
       <c r="FT4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU4">
         <v>0</v>
@@ -3057,48 +3342,66 @@
         <v>0</v>
       </c>
       <c r="GA4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC4" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD4">
         <v>86400</v>
       </c>
       <c r="GE4" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF4">
+        <v>86400</v>
       </c>
       <c r="GG4" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH4" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI4">
+        <v>249</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL4" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN4">
         <v>86400</v>
       </c>
-      <c r="GJ4">
+      <c r="GO4">
+        <v>86400</v>
+      </c>
+      <c r="GP4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:192">
+    <row r="5" spans="1:198">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3107,7 +3410,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3122,10 +3425,10 @@
         <v>3296000</v>
       </c>
       <c r="O5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3140,25 +3443,25 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W5">
         <v>90</v>
       </c>
       <c r="X5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y5">
         <v>90</v>
       </c>
       <c r="Z5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB5">
         <v>0</v>
@@ -3170,7 +3473,7 @@
         <v>6</v>
       </c>
       <c r="AG5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -3185,34 +3488,43 @@
         <v>9</v>
       </c>
       <c r="AL5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN5">
         <v>90</v>
       </c>
       <c r="AO5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP5">
         <v>90</v>
       </c>
       <c r="AQ5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>5500000</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW5">
+        <v>55</v>
       </c>
       <c r="AX5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY5">
         <v>1</v>
@@ -3227,34 +3539,43 @@
         <v>9</v>
       </c>
       <c r="BC5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE5">
         <v>90</v>
       </c>
       <c r="BF5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG5">
         <v>90</v>
       </c>
       <c r="BH5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL5">
+        <v>2100000</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN5">
+        <v>55</v>
       </c>
       <c r="BO5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP5">
         <v>1</v>
@@ -3269,25 +3590,25 @@
         <v>9</v>
       </c>
       <c r="BT5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV5">
         <v>90</v>
       </c>
       <c r="BW5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX5">
         <v>90</v>
       </c>
       <c r="BY5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -3296,10 +3617,10 @@
         <v>1</v>
       </c>
       <c r="CC5">
-        <v>5800</v>
+        <v>4200</v>
       </c>
       <c r="CD5" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE5">
         <v>0</v>
@@ -3311,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="CH5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI5">
         <v>1</v>
@@ -3326,28 +3647,28 @@
         <v>9</v>
       </c>
       <c r="CM5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO5">
         <v>90</v>
       </c>
       <c r="CP5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ5">
         <v>90</v>
       </c>
       <c r="CR5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU5">
         <v>0</v>
@@ -3356,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA5">
         <v>1</v>
@@ -3371,28 +3692,28 @@
         <v>9</v>
       </c>
       <c r="DE5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG5">
         <v>90</v>
       </c>
       <c r="DH5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI5">
         <v>90</v>
       </c>
       <c r="DJ5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL5" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM5">
         <v>0</v>
@@ -3401,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="DR5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS5">
         <v>1</v>
@@ -3416,28 +3737,28 @@
         <v>9</v>
       </c>
       <c r="DW5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY5">
         <v>90</v>
       </c>
       <c r="DZ5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA5">
         <v>90</v>
       </c>
       <c r="EB5" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE5">
         <v>0</v>
@@ -3446,16 +3767,43 @@
         <v>0</v>
       </c>
       <c r="EI5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK5">
+        <v>1</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>239</v>
+      </c>
+      <c r="EM5">
+        <v>75000</v>
+      </c>
+      <c r="EN5">
+        <v>7200</v>
+      </c>
+      <c r="EO5">
+        <v>11000</v>
+      </c>
+      <c r="EP5">
+        <v>100000</v>
+      </c>
+      <c r="EQ5">
+        <v>0.9</v>
+      </c>
+      <c r="ER5">
+        <v>0.8</v>
+      </c>
+      <c r="ES5" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET5" t="b">
         <v>0</v>
       </c>
       <c r="FD5" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE5">
         <v>0.05</v>
@@ -3470,13 +3818,13 @@
         <v>8.5</v>
       </c>
       <c r="FI5" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ5" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL5">
         <v>1</v>
@@ -3503,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="FT5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU5">
         <v>0</v>
@@ -3512,42 +3860,60 @@
         <v>0</v>
       </c>
       <c r="GA5" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB5" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC5" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD5">
         <v>86400</v>
       </c>
       <c r="GE5" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF5">
+        <v>86400</v>
       </c>
       <c r="GG5" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH5" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI5">
+        <v>249</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL5" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN5">
         <v>86400</v>
       </c>
-      <c r="GJ5">
+      <c r="GO5">
+        <v>86400</v>
+      </c>
+      <c r="GP5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:192">
+    <row r="6" spans="1:198">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3577,10 +3943,10 @@
         <v>5527000</v>
       </c>
       <c r="O6" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -3595,25 +3961,25 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W6">
         <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y6">
         <v>90</v>
       </c>
       <c r="Z6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB6">
         <v>0</v>
@@ -3625,7 +3991,7 @@
         <v>6</v>
       </c>
       <c r="AG6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH6">
         <v>1</v>
@@ -3640,34 +4006,43 @@
         <v>9</v>
       </c>
       <c r="AL6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN6">
         <v>90</v>
       </c>
       <c r="AO6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP6">
         <v>90</v>
       </c>
       <c r="AQ6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>19500000</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW6">
+        <v>35</v>
       </c>
       <c r="AX6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY6">
         <v>1</v>
@@ -3682,34 +4057,43 @@
         <v>9</v>
       </c>
       <c r="BC6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE6">
         <v>90</v>
       </c>
       <c r="BF6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG6">
         <v>90</v>
       </c>
       <c r="BH6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL6">
+        <v>2800000</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN6">
+        <v>55</v>
       </c>
       <c r="BO6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP6">
         <v>1</v>
@@ -3724,25 +4108,25 @@
         <v>9</v>
       </c>
       <c r="BT6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV6">
         <v>90</v>
       </c>
       <c r="BW6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX6">
         <v>90</v>
       </c>
       <c r="BY6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -3751,10 +4135,10 @@
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>7800</v>
+        <v>8900</v>
       </c>
       <c r="CD6" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -3766,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="CH6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI6">
         <v>1</v>
@@ -3781,28 +4165,28 @@
         <v>9</v>
       </c>
       <c r="CM6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO6">
         <v>90</v>
       </c>
       <c r="CP6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ6">
         <v>90</v>
       </c>
       <c r="CR6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT6" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU6">
         <v>0</v>
@@ -3811,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA6">
         <v>1</v>
@@ -3826,28 +4210,28 @@
         <v>9</v>
       </c>
       <c r="DE6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG6">
         <v>90</v>
       </c>
       <c r="DH6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI6">
         <v>90</v>
       </c>
       <c r="DJ6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL6" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM6">
         <v>0</v>
@@ -3856,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="DR6" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS6">
         <v>1</v>
@@ -3871,28 +4255,28 @@
         <v>9</v>
       </c>
       <c r="DW6" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY6">
         <v>90</v>
       </c>
       <c r="DZ6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA6">
         <v>90</v>
       </c>
       <c r="EB6" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -3901,16 +4285,70 @@
         <v>0</v>
       </c>
       <c r="EI6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK6">
+        <v>2</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>239</v>
+      </c>
+      <c r="EM6">
+        <v>50000</v>
+      </c>
+      <c r="EN6">
+        <v>7200</v>
+      </c>
+      <c r="EO6">
+        <v>7200</v>
+      </c>
+      <c r="EP6">
+        <v>50000</v>
+      </c>
+      <c r="EQ6">
+        <v>0.9</v>
+      </c>
+      <c r="ER6">
+        <v>0.8</v>
+      </c>
+      <c r="ES6" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET6" t="b">
+        <v>0</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>240</v>
+      </c>
+      <c r="EV6">
+        <v>75000</v>
+      </c>
+      <c r="EW6">
+        <v>7200</v>
+      </c>
+      <c r="EX6">
+        <v>11000</v>
+      </c>
+      <c r="EY6">
+        <v>100000</v>
+      </c>
+      <c r="EZ6">
+        <v>0.9</v>
+      </c>
+      <c r="FA6">
+        <v>0.8</v>
+      </c>
+      <c r="FB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="FC6" t="b">
         <v>0</v>
       </c>
       <c r="FD6" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE6">
         <v>0.05</v>
@@ -3925,13 +4363,13 @@
         <v>8.5</v>
       </c>
       <c r="FI6" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ6" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL6">
         <v>1</v>
@@ -3958,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="FT6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU6">
         <v>0</v>
@@ -3967,48 +4405,66 @@
         <v>0</v>
       </c>
       <c r="GA6" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB6" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC6" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD6">
         <v>86400</v>
       </c>
       <c r="GE6" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF6">
+        <v>86400</v>
       </c>
       <c r="GG6" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH6" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI6">
+        <v>249</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL6" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN6">
         <v>86400</v>
       </c>
-      <c r="GJ6">
+      <c r="GO6">
+        <v>86400</v>
+      </c>
+      <c r="GP6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:192">
+    <row r="7" spans="1:198">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -4017,7 +4473,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4029,13 +4485,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3648000</v>
+        <v>2012000</v>
       </c>
       <c r="O7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="P7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -4050,25 +4506,25 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W7">
         <v>90</v>
       </c>
       <c r="X7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y7">
         <v>90</v>
       </c>
       <c r="Z7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -4080,7 +4536,7 @@
         <v>6</v>
       </c>
       <c r="AG7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH7">
         <v>1</v>
@@ -4095,34 +4551,43 @@
         <v>9</v>
       </c>
       <c r="AL7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN7">
         <v>90</v>
       </c>
       <c r="AO7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP7">
         <v>90</v>
       </c>
       <c r="AQ7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU7">
+        <v>19500000</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW7">
+        <v>55</v>
       </c>
       <c r="AX7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY7">
         <v>1</v>
@@ -4137,34 +4602,43 @@
         <v>9</v>
       </c>
       <c r="BC7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE7">
         <v>90</v>
       </c>
       <c r="BF7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG7">
         <v>90</v>
       </c>
       <c r="BH7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL7">
+        <v>2800000</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN7">
+        <v>55</v>
       </c>
       <c r="BO7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP7">
         <v>1</v>
@@ -4179,25 +4653,25 @@
         <v>9</v>
       </c>
       <c r="BT7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV7">
         <v>90</v>
       </c>
       <c r="BW7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX7">
         <v>90</v>
       </c>
       <c r="BY7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -4206,10 +4680,10 @@
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>5000</v>
+        <v>3400</v>
       </c>
       <c r="CD7" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE7">
         <v>0</v>
@@ -4221,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="CH7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI7">
         <v>1</v>
@@ -4236,28 +4710,28 @@
         <v>9</v>
       </c>
       <c r="CM7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO7">
         <v>90</v>
       </c>
       <c r="CP7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ7">
         <v>90</v>
       </c>
       <c r="CR7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU7">
         <v>0</v>
@@ -4266,7 +4740,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA7">
         <v>1</v>
@@ -4281,28 +4755,28 @@
         <v>9</v>
       </c>
       <c r="DE7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG7">
         <v>90</v>
       </c>
       <c r="DH7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI7">
         <v>90</v>
       </c>
       <c r="DJ7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM7">
         <v>0</v>
@@ -4311,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="DR7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS7">
         <v>1</v>
@@ -4326,28 +4800,28 @@
         <v>9</v>
       </c>
       <c r="DW7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY7">
         <v>90</v>
       </c>
       <c r="DZ7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA7">
         <v>90</v>
       </c>
       <c r="EB7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE7">
         <v>0</v>
@@ -4356,16 +4830,43 @@
         <v>0</v>
       </c>
       <c r="EI7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK7">
+        <v>1</v>
+      </c>
+      <c r="EL7" t="s">
+        <v>240</v>
+      </c>
+      <c r="EM7">
+        <v>50000</v>
+      </c>
+      <c r="EN7">
+        <v>7200</v>
+      </c>
+      <c r="EO7">
+        <v>7200</v>
+      </c>
+      <c r="EP7">
+        <v>50000</v>
+      </c>
+      <c r="EQ7">
+        <v>0.9</v>
+      </c>
+      <c r="ER7">
+        <v>0.8</v>
+      </c>
+      <c r="ES7" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET7" t="b">
         <v>0</v>
       </c>
       <c r="FD7" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE7">
         <v>0.05</v>
@@ -4380,22 +4881,40 @@
         <v>8.5</v>
       </c>
       <c r="FI7" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ7" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM7">
+        <v>1</v>
+      </c>
+      <c r="FN7">
+        <v>2000</v>
+      </c>
+      <c r="FO7">
+        <v>2000</v>
+      </c>
+      <c r="FP7">
+        <v>0.95</v>
+      </c>
+      <c r="FQ7">
+        <v>0.1</v>
+      </c>
+      <c r="FR7" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS7" t="b">
         <v>0</v>
       </c>
       <c r="FT7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU7">
         <v>0</v>
@@ -4404,42 +4923,60 @@
         <v>0</v>
       </c>
       <c r="GA7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD7">
         <v>86400</v>
       </c>
       <c r="GE7" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF7">
+        <v>86400</v>
       </c>
       <c r="GG7" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH7" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI7">
+        <v>249</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN7">
         <v>86400</v>
       </c>
-      <c r="GJ7">
+      <c r="GO7">
+        <v>86400</v>
+      </c>
+      <c r="GP7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:192">
+    <row r="8" spans="1:198">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F8">
         <v>3</v>
@@ -4466,13 +5003,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3125000</v>
+        <v>2959000</v>
       </c>
       <c r="O8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -4487,25 +5024,25 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W8">
         <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y8">
         <v>90</v>
       </c>
       <c r="Z8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB8">
         <v>0</v>
@@ -4517,7 +5054,7 @@
         <v>6</v>
       </c>
       <c r="AG8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH8">
         <v>1</v>
@@ -4532,34 +5069,43 @@
         <v>9</v>
       </c>
       <c r="AL8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN8">
         <v>90</v>
       </c>
       <c r="AO8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP8">
         <v>90</v>
       </c>
       <c r="AQ8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU8">
+        <v>5500000</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AW8">
+        <v>55</v>
       </c>
       <c r="AX8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY8">
         <v>1</v>
@@ -4574,34 +5120,43 @@
         <v>9</v>
       </c>
       <c r="BC8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE8">
         <v>90</v>
       </c>
       <c r="BF8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG8">
         <v>90</v>
       </c>
       <c r="BH8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL8">
+        <v>1800000</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>232</v>
+      </c>
+      <c r="BN8">
+        <v>55</v>
       </c>
       <c r="BO8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP8">
         <v>1</v>
@@ -4616,25 +5171,25 @@
         <v>9</v>
       </c>
       <c r="BT8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV8">
         <v>90</v>
       </c>
       <c r="BW8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX8">
         <v>90</v>
       </c>
       <c r="BY8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -4643,22 +5198,22 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>5400</v>
+        <v>4000</v>
       </c>
       <c r="CD8" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CF8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="CG8" t="b">
         <v>1</v>
       </c>
       <c r="CH8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI8">
         <v>1</v>
@@ -4673,28 +5228,28 @@
         <v>9</v>
       </c>
       <c r="CM8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO8">
         <v>90</v>
       </c>
       <c r="CP8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ8">
         <v>90</v>
       </c>
       <c r="CR8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT8" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU8">
         <v>0</v>
@@ -4703,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA8">
         <v>1</v>
@@ -4718,28 +5273,28 @@
         <v>9</v>
       </c>
       <c r="DE8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG8">
         <v>90</v>
       </c>
       <c r="DH8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI8">
         <v>90</v>
       </c>
       <c r="DJ8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL8" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM8">
         <v>0</v>
@@ -4748,7 +5303,7 @@
         <v>0</v>
       </c>
       <c r="DR8" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS8">
         <v>1</v>
@@ -4763,28 +5318,28 @@
         <v>9</v>
       </c>
       <c r="DW8" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY8">
         <v>90</v>
       </c>
       <c r="DZ8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA8">
         <v>90</v>
       </c>
       <c r="EB8" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC8" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE8">
         <v>0</v>
@@ -4793,16 +5348,43 @@
         <v>0</v>
       </c>
       <c r="EI8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EK8">
+        <v>1</v>
+      </c>
+      <c r="EL8" t="s">
+        <v>241</v>
+      </c>
+      <c r="EM8">
+        <v>100000</v>
+      </c>
+      <c r="EN8">
+        <v>11000</v>
+      </c>
+      <c r="EO8">
+        <v>22000</v>
+      </c>
+      <c r="EP8">
+        <v>200000</v>
+      </c>
+      <c r="EQ8">
+        <v>0.9</v>
+      </c>
+      <c r="ER8">
+        <v>0.8</v>
+      </c>
+      <c r="ES8" t="b">
+        <v>0</v>
+      </c>
+      <c r="ET8" t="b">
         <v>0</v>
       </c>
       <c r="FD8" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE8">
         <v>0.05</v>
@@ -4817,13 +5399,13 @@
         <v>8.5</v>
       </c>
       <c r="FI8" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ8" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL8">
         <v>1</v>
@@ -4832,10 +5414,10 @@
         <v>1</v>
       </c>
       <c r="FN8">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="FO8">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="FP8">
         <v>0.95</v>
@@ -4850,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="FT8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU8">
         <v>0</v>
@@ -4859,48 +5441,66 @@
         <v>0</v>
       </c>
       <c r="GA8" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC8" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD8">
         <v>86400</v>
       </c>
       <c r="GE8" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF8" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF8">
+        <v>86400</v>
       </c>
       <c r="GG8" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH8" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI8">
+        <v>249</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN8">
         <v>86400</v>
       </c>
-      <c r="GJ8">
+      <c r="GO8">
+        <v>86400</v>
+      </c>
+      <c r="GP8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:192">
+    <row r="9" spans="1:198">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -4909,7 +5509,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4921,13 +5521,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>2687000</v>
+        <v>3648000</v>
       </c>
       <c r="O9" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -4942,25 +5542,25 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W9">
         <v>90</v>
       </c>
       <c r="X9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y9">
         <v>90</v>
       </c>
       <c r="Z9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -4972,7 +5572,7 @@
         <v>6</v>
       </c>
       <c r="AG9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH9">
         <v>1</v>
@@ -4987,34 +5587,43 @@
         <v>9</v>
       </c>
       <c r="AL9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN9">
         <v>90</v>
       </c>
       <c r="AO9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP9">
         <v>90</v>
       </c>
       <c r="AQ9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU9">
+        <v>5500000</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW9">
+        <v>35</v>
       </c>
       <c r="AX9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY9">
         <v>1</v>
@@ -5029,34 +5638,43 @@
         <v>9</v>
       </c>
       <c r="BC9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE9">
         <v>90</v>
       </c>
       <c r="BF9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG9">
         <v>90</v>
       </c>
       <c r="BH9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK9">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL9">
+        <v>2100000</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>227</v>
+      </c>
+      <c r="BN9">
+        <v>55</v>
       </c>
       <c r="BO9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP9">
         <v>1</v>
@@ -5071,25 +5689,25 @@
         <v>9</v>
       </c>
       <c r="BT9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV9">
         <v>90</v>
       </c>
       <c r="BW9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX9">
         <v>90</v>
       </c>
       <c r="BY9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -5098,10 +5716,10 @@
         <v>1</v>
       </c>
       <c r="CC9">
-        <v>3800</v>
+        <v>5600</v>
       </c>
       <c r="CD9" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE9">
         <v>0</v>
@@ -5113,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="CH9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI9">
         <v>1</v>
@@ -5128,28 +5746,28 @@
         <v>9</v>
       </c>
       <c r="CM9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO9">
         <v>90</v>
       </c>
       <c r="CP9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ9">
         <v>90</v>
       </c>
       <c r="CR9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT9" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU9">
         <v>0</v>
@@ -5158,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA9">
         <v>1</v>
@@ -5173,28 +5791,28 @@
         <v>9</v>
       </c>
       <c r="DE9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG9">
         <v>90</v>
       </c>
       <c r="DH9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI9">
         <v>90</v>
       </c>
       <c r="DJ9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL9" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM9">
         <v>0</v>
@@ -5203,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="DR9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS9">
         <v>1</v>
@@ -5218,28 +5836,28 @@
         <v>9</v>
       </c>
       <c r="DW9" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY9">
         <v>90</v>
       </c>
       <c r="DZ9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA9">
         <v>90</v>
       </c>
       <c r="EB9" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC9" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE9">
         <v>0</v>
@@ -5248,34 +5866,34 @@
         <v>0</v>
       </c>
       <c r="EI9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ9">
         <v>1</v>
       </c>
       <c r="EK9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="EL9" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="EM9">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="EN9">
         <v>7200</v>
       </c>
       <c r="EO9">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="EP9">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="EQ9">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER9">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES9" t="b">
         <v>0</v>
@@ -5283,35 +5901,8 @@
       <c r="ET9" t="b">
         <v>0</v>
       </c>
-      <c r="EU9" t="s">
-        <v>219</v>
-      </c>
-      <c r="EV9">
-        <v>50000</v>
-      </c>
-      <c r="EW9">
-        <v>7200</v>
-      </c>
-      <c r="EX9">
-        <v>7200</v>
-      </c>
-      <c r="EY9">
-        <v>50000</v>
-      </c>
-      <c r="EZ9">
-        <v>90000</v>
-      </c>
-      <c r="FA9">
-        <v>80000</v>
-      </c>
-      <c r="FB9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FC9" t="b">
-        <v>0</v>
-      </c>
       <c r="FD9" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE9">
         <v>0.05</v>
@@ -5326,13 +5917,13 @@
         <v>8.5</v>
       </c>
       <c r="FI9" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ9" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL9">
         <v>1</v>
@@ -5341,10 +5932,10 @@
         <v>1</v>
       </c>
       <c r="FN9">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="FO9">
-        <v>2700</v>
+        <v>3600</v>
       </c>
       <c r="FP9">
         <v>0.95</v>
@@ -5359,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="FT9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU9">
         <v>0</v>
@@ -5368,42 +5959,60 @@
         <v>0</v>
       </c>
       <c r="GA9" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB9" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC9" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD9">
         <v>86400</v>
       </c>
       <c r="GE9" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF9">
+        <v>86400</v>
       </c>
       <c r="GG9" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH9" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI9">
+        <v>249</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL9" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN9">
         <v>86400</v>
       </c>
-      <c r="GJ9">
+      <c r="GO9">
+        <v>86400</v>
+      </c>
+      <c r="GP9">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:192">
+    <row r="10" spans="1:198">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -5430,13 +6039,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2262000</v>
+        <v>3863000</v>
       </c>
       <c r="O10" t="s">
         <v>207</v>
       </c>
       <c r="P10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -5451,25 +6060,25 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W10">
         <v>90</v>
       </c>
       <c r="X10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y10">
         <v>90</v>
       </c>
       <c r="Z10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -5481,7 +6090,7 @@
         <v>6</v>
       </c>
       <c r="AG10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -5496,34 +6105,43 @@
         <v>9</v>
       </c>
       <c r="AL10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN10">
         <v>90</v>
       </c>
       <c r="AO10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP10">
         <v>90</v>
       </c>
       <c r="AQ10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU10">
+        <v>19500000</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AW10">
+        <v>35</v>
       </c>
       <c r="AX10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY10">
         <v>1</v>
@@ -5538,34 +6156,43 @@
         <v>9</v>
       </c>
       <c r="BC10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE10">
         <v>90</v>
       </c>
       <c r="BF10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG10">
         <v>90</v>
       </c>
       <c r="BH10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL10">
+        <v>2400000</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN10">
+        <v>55</v>
       </c>
       <c r="BO10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP10">
         <v>1</v>
@@ -5580,34 +6207,49 @@
         <v>9</v>
       </c>
       <c r="BT10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV10">
         <v>90</v>
       </c>
       <c r="BW10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX10">
         <v>90</v>
       </c>
       <c r="BY10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB10">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>5800</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>233</v>
+      </c>
+      <c r="CE10">
+        <v>-20</v>
+      </c>
+      <c r="CF10">
+        <v>50</v>
+      </c>
+      <c r="CG10" t="b">
+        <v>1</v>
       </c>
       <c r="CH10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI10">
         <v>1</v>
@@ -5622,28 +6264,28 @@
         <v>9</v>
       </c>
       <c r="CM10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO10">
         <v>90</v>
       </c>
       <c r="CP10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ10">
         <v>90</v>
       </c>
       <c r="CR10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT10" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU10">
         <v>0</v>
@@ -5652,7 +6294,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA10">
         <v>1</v>
@@ -5667,28 +6309,28 @@
         <v>9</v>
       </c>
       <c r="DE10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG10">
         <v>90</v>
       </c>
       <c r="DH10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI10">
         <v>90</v>
       </c>
       <c r="DJ10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL10" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM10">
         <v>0</v>
@@ -5697,7 +6339,7 @@
         <v>0</v>
       </c>
       <c r="DR10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS10">
         <v>1</v>
@@ -5712,28 +6354,28 @@
         <v>9</v>
       </c>
       <c r="DW10" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY10">
         <v>90</v>
       </c>
       <c r="DZ10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA10">
         <v>90</v>
       </c>
       <c r="EB10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC10" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED10" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE10">
         <v>0</v>
@@ -5742,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="EI10" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ10">
         <v>1</v>
@@ -5751,25 +6393,25 @@
         <v>1</v>
       </c>
       <c r="EL10" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="EM10">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="EN10">
         <v>7200</v>
       </c>
       <c r="EO10">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EP10">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EQ10">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER10">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES10" t="b">
         <v>0</v>
@@ -5778,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="FD10" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE10">
         <v>0.05</v>
@@ -5793,22 +6435,40 @@
         <v>8.5</v>
       </c>
       <c r="FI10" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ10" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK10" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FM10">
+        <v>1</v>
+      </c>
+      <c r="FN10">
+        <v>3900</v>
+      </c>
+      <c r="FO10">
+        <v>3900</v>
+      </c>
+      <c r="FP10">
+        <v>0.95</v>
+      </c>
+      <c r="FQ10">
+        <v>0.1</v>
+      </c>
+      <c r="FR10" t="b">
+        <v>0</v>
+      </c>
+      <c r="FS10" t="b">
         <v>0</v>
       </c>
       <c r="FT10" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU10">
         <v>0</v>
@@ -5817,48 +6477,66 @@
         <v>0</v>
       </c>
       <c r="GA10" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB10" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC10" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD10">
         <v>86400</v>
       </c>
       <c r="GE10" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF10" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF10">
+        <v>86400</v>
       </c>
       <c r="GG10" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH10" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI10">
+        <v>249</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL10" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN10">
         <v>86400</v>
       </c>
-      <c r="GJ10">
+      <c r="GO10">
+        <v>86400</v>
+      </c>
+      <c r="GP10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:192">
+    <row r="11" spans="1:198">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -5867,7 +6545,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -5879,13 +6557,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>3863000</v>
+        <v>3125000</v>
       </c>
       <c r="O11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="P11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -5900,25 +6578,25 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="V11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="W11">
         <v>90</v>
       </c>
       <c r="X11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Y11">
         <v>90</v>
       </c>
       <c r="Z11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AA11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -5930,7 +6608,7 @@
         <v>6</v>
       </c>
       <c r="AG11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AH11">
         <v>1</v>
@@ -5945,34 +6623,43 @@
         <v>9</v>
       </c>
       <c r="AL11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="AM11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AN11">
         <v>90</v>
       </c>
       <c r="AO11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AP11">
         <v>90</v>
       </c>
       <c r="AQ11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AR11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AU11">
+        <v>5500000</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>226</v>
+      </c>
+      <c r="AW11">
+        <v>55</v>
       </c>
       <c r="AX11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AY11">
         <v>1</v>
@@ -5987,34 +6674,43 @@
         <v>9</v>
       </c>
       <c r="BC11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BD11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BE11">
         <v>90</v>
       </c>
       <c r="BF11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BG11">
         <v>90</v>
       </c>
       <c r="BH11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BI11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="BL11">
+        <v>2400000</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>231</v>
+      </c>
+      <c r="BN11">
+        <v>55</v>
       </c>
       <c r="BO11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BP11">
         <v>1</v>
@@ -6029,25 +6725,25 @@
         <v>9</v>
       </c>
       <c r="BT11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="BU11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BV11">
         <v>90</v>
       </c>
       <c r="BW11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BX11">
         <v>90</v>
       </c>
       <c r="BY11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="BZ11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -6056,10 +6752,10 @@
         <v>1</v>
       </c>
       <c r="CC11">
-        <v>5400</v>
+        <v>4800</v>
       </c>
       <c r="CD11" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="CE11">
         <v>0</v>
@@ -6071,7 +6767,7 @@
         <v>1</v>
       </c>
       <c r="CH11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="CI11">
         <v>1</v>
@@ -6086,28 +6782,28 @@
         <v>9</v>
       </c>
       <c r="CM11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CN11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CO11">
         <v>90</v>
       </c>
       <c r="CP11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CQ11">
         <v>90</v>
       </c>
       <c r="CR11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="CS11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="CT11" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="CU11">
         <v>0</v>
@@ -6116,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DA11">
         <v>1</v>
@@ -6131,28 +6827,28 @@
         <v>9</v>
       </c>
       <c r="DE11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DF11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DG11">
         <v>90</v>
       </c>
       <c r="DH11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DI11">
         <v>90</v>
       </c>
       <c r="DJ11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DK11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="DL11" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="DM11">
         <v>0</v>
@@ -6161,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="DR11" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="DS11">
         <v>1</v>
@@ -6176,28 +6872,28 @@
         <v>9</v>
       </c>
       <c r="DW11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="DX11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="DY11">
         <v>90</v>
       </c>
       <c r="DZ11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EA11">
         <v>90</v>
       </c>
       <c r="EB11" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="EC11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="ED11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EE11">
         <v>0</v>
@@ -6206,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="EI11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="EJ11">
         <v>1</v>
@@ -6215,25 +6911,25 @@
         <v>1</v>
       </c>
       <c r="EL11" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="EM11">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="EN11">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="EO11">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="EP11">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="EQ11">
-        <v>90000</v>
+        <v>0.9</v>
       </c>
       <c r="ER11">
-        <v>80000</v>
+        <v>0.8</v>
       </c>
       <c r="ES11" t="b">
         <v>0</v>
@@ -6242,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="FD11" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="FE11">
         <v>0.05</v>
@@ -6257,13 +6953,13 @@
         <v>8.5</v>
       </c>
       <c r="FI11" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="FJ11" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="FK11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FL11">
         <v>1</v>
@@ -6272,10 +6968,10 @@
         <v>1</v>
       </c>
       <c r="FN11">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="FO11">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="FP11">
         <v>0.95</v>
@@ -6290,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="FT11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="FU11">
         <v>0</v>
@@ -6299,33 +6995,51 @@
         <v>0</v>
       </c>
       <c r="GA11" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="GB11" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GC11" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="GD11">
         <v>86400</v>
       </c>
       <c r="GE11" t="s">
-        <v>224</v>
-      </c>
-      <c r="GF11" t="s">
-        <v>225</v>
+        <v>248</v>
+      </c>
+      <c r="GF11">
+        <v>86400</v>
       </c>
       <c r="GG11" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="GH11" t="s">
-        <v>226</v>
-      </c>
-      <c r="GI11">
+        <v>249</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>250</v>
+      </c>
+      <c r="GJ11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL11" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>250</v>
+      </c>
+      <c r="GN11">
         <v>86400</v>
       </c>
-      <c r="GJ11">
+      <c r="GO11">
+        <v>86400</v>
+      </c>
+      <c r="GP11">
         <v>3600</v>
       </c>
     </row>
@@ -6336,13 +7050,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:GM1"/>
+  <dimension ref="B1:GS1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:195">
+    <row r="1" spans="2:201">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6356,13 +7070,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -6924,6 +7638,24 @@
       </c>
       <c r="GM1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="GN1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="GO1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="GP1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GQ1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="GR1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="GS1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6933,13 +7665,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:ED1"/>
+  <dimension ref="B1:EJ1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:134">
+    <row r="1" spans="2:140">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6953,7 +7685,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7265,22 +7997,22 @@
         <v>158</v>
       </c>
       <c r="DF1" s="1" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="DG1" s="1" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="DH1" s="1" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="DI1" s="1" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>163</v>
       </c>
       <c r="DK1" s="1" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="DL1" s="1" t="s">
         <v>165</v>
@@ -7338,6 +8070,24 @@
       </c>
       <c r="ED1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EH1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="EI1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="EJ1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7347,13 +8097,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:EM1"/>
+  <dimension ref="B1:ES1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:143">
+    <row r="1" spans="2:149">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7367,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -7779,6 +8529,24 @@
       </c>
       <c r="EM1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="EN1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="EO1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="EP1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EQ1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="ES1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -7788,13 +8556,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:CB1"/>
+  <dimension ref="B1:CH1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:80">
+    <row r="1" spans="2:86">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8031,6 +8799,24 @@
       </c>
       <c r="CB1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8040,13 +8826,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AP1"/>
+  <dimension ref="B1:AV1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:42">
+    <row r="1" spans="2:48">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8090,58 +8876,58 @@
         <v>174</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>182</v>
@@ -8169,6 +8955,24 @@
       </c>
       <c r="AP1" s="1" t="s">
         <v>190</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="320">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -717,54 +717,60 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>AiAVqbLxriY9rjA</t>
-  </si>
-  <si>
-    <t>mvWCYJg2v4k5jfT</t>
-  </si>
-  <si>
-    <t>1R2RodLeMOThH8a</t>
-  </si>
-  <si>
-    <t>LdjQVpYWOOU1AFV</t>
-  </si>
-  <si>
-    <t>F1LEVSr9AlPrA13</t>
-  </si>
-  <si>
-    <t>3ggHJl2QsI6I6lY</t>
-  </si>
-  <si>
-    <t>R1X3lcBByP6o9rl</t>
-  </si>
-  <si>
-    <t>yOzvJCxV1YSchjY</t>
-  </si>
-  <si>
-    <t>tBGZl2VmSEMvbUm</t>
-  </si>
-  <si>
-    <t>WlaIGNabXASq7fB</t>
+    <t>AqWXE9DEO8hByue</t>
+  </si>
+  <si>
+    <t>aM0cFJcGazmTn74</t>
+  </si>
+  <si>
+    <t>dGjALyULMFUj8m3</t>
+  </si>
+  <si>
+    <t>g2wXSWhRgXPfwXM</t>
+  </si>
+  <si>
+    <t>V0ADANY7ClQZ4lm</t>
+  </si>
+  <si>
+    <t>wuhhnp1FBrx3XSL</t>
+  </si>
+  <si>
+    <t>QVlvnKyFkva8qU4</t>
+  </si>
+  <si>
+    <t>Xdq8WMnHTivaCxj</t>
+  </si>
+  <si>
+    <t>zsgQNT5cOwiWLqg</t>
+  </si>
+  <si>
+    <t>kn47c0hnjvJ11j0</t>
+  </si>
+  <si>
+    <t>hh_2262_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
   </si>
   <si>
     <t>hh_4402_0.csv</t>
   </si>
   <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
   </si>
   <si>
     <t>hh_4536_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -780,51 +786,48 @@
     <t>rfr</t>
   </si>
   <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
     <t>heat_4402_0.csv</t>
   </si>
   <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2262_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3863_0.csv</t>
   </si>
   <si>
     <t>heat_4536_0.csv</t>
   </si>
   <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_2_pu.csv</t>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_2687_0.csv</t>
   </si>
   <si>
     <t>naive</t>
   </si>
   <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
     <t>dhw_gen_2_pu.csv</t>
   </si>
   <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
     <t>dhw_gen_4_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -834,43 +837,49 @@
     <t>green_local</t>
   </si>
   <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
   </si>
   <si>
     <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
   </si>
   <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
+    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
   </si>
   <si>
     <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
   </si>
   <si>
-    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
-  </si>
-  <si>
     <t>rnn</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_48.csv</t>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_46.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_43.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_42.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
   </si>
   <si>
     <t>ev_freetime_0.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_42.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_89.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_44.csv</t>
+    <t>ev_parttime_90.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -2063,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4402000</v>
+        <v>2262000</v>
       </c>
       <c r="O2" t="s">
         <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2084,10 +2093,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2099,7 +2108,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2111,13 +2120,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2129,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -2144,10 +2153,10 @@
         <v>9</v>
       </c>
       <c r="AQ2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS2">
         <v>3</v>
@@ -2159,7 +2168,7 @@
         <v>20</v>
       </c>
       <c r="AV2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW2">
         <v>3</v>
@@ -2171,13 +2180,13 @@
         <v>20</v>
       </c>
       <c r="AZ2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA2">
         <v>3</v>
       </c>
       <c r="BB2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC2">
         <v>1</v>
@@ -2189,10 +2198,10 @@
         <v>5500000</v>
       </c>
       <c r="BF2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="BG2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH2" t="s">
         <v>262</v>
@@ -2210,10 +2219,10 @@
         <v>9</v>
       </c>
       <c r="BM2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO2">
         <v>3</v>
@@ -2225,7 +2234,7 @@
         <v>20</v>
       </c>
       <c r="BR2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS2">
         <v>3</v>
@@ -2237,13 +2246,13 @@
         <v>20</v>
       </c>
       <c r="BV2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW2">
         <v>3</v>
       </c>
       <c r="BX2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY2">
         <v>1</v>
@@ -2261,7 +2270,7 @@
         <v>55</v>
       </c>
       <c r="CD2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE2">
         <v>1</v>
@@ -2276,10 +2285,10 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK2">
         <v>3</v>
@@ -2291,7 +2300,7 @@
         <v>20</v>
       </c>
       <c r="CN2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO2">
         <v>3</v>
@@ -2303,13 +2312,13 @@
         <v>20</v>
       </c>
       <c r="CR2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS2">
         <v>3</v>
       </c>
       <c r="CT2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU2">
         <v>1</v>
@@ -2318,10 +2327,10 @@
         <v>1</v>
       </c>
       <c r="CW2">
-        <v>6900</v>
+        <v>3700</v>
       </c>
       <c r="CX2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY2">
         <v>-20</v>
@@ -2333,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="DB2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC2">
         <v>1</v>
@@ -2348,10 +2357,10 @@
         <v>9</v>
       </c>
       <c r="DG2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI2">
         <v>3</v>
@@ -2363,7 +2372,7 @@
         <v>20</v>
       </c>
       <c r="DL2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM2">
         <v>3</v>
@@ -2375,16 +2384,16 @@
         <v>20</v>
       </c>
       <c r="DP2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ2">
         <v>3</v>
       </c>
       <c r="DR2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -2393,16 +2402,16 @@
         <v>1</v>
       </c>
       <c r="DV2">
-        <v>3600</v>
+        <v>1400</v>
       </c>
       <c r="DW2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="DX2" t="b">
         <v>1</v>
       </c>
       <c r="DY2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -2417,10 +2426,10 @@
         <v>9</v>
       </c>
       <c r="ED2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF2">
         <v>3</v>
@@ -2432,7 +2441,7 @@
         <v>20</v>
       </c>
       <c r="EI2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2444,16 +2453,16 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN2">
         <v>3</v>
       </c>
       <c r="EO2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -2462,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="EV2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW2">
         <v>1</v>
@@ -2477,10 +2486,10 @@
         <v>9</v>
       </c>
       <c r="FA2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC2">
         <v>3</v>
@@ -2492,7 +2501,7 @@
         <v>20</v>
       </c>
       <c r="FF2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG2">
         <v>3</v>
@@ -2504,16 +2513,16 @@
         <v>20</v>
       </c>
       <c r="FJ2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK2">
         <v>3</v>
       </c>
       <c r="FL2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN2">
         <v>0</v>
@@ -2522,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="FR2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS2">
         <v>1</v>
@@ -2531,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="FU2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="FV2">
         <v>75000</v>
@@ -2558,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="GM2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN2">
         <v>0.05</v>
@@ -2573,13 +2582,13 @@
         <v>8.5</v>
       </c>
       <c r="GR2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU2">
         <v>1</v>
@@ -2588,10 +2597,10 @@
         <v>1</v>
       </c>
       <c r="GW2">
-        <v>4400</v>
+        <v>2300</v>
       </c>
       <c r="GX2">
-        <v>4400</v>
+        <v>2300</v>
       </c>
       <c r="GY2">
         <v>0.95</v>
@@ -2606,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="HC2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD2">
         <v>0</v>
@@ -2615,19 +2624,19 @@
         <v>0</v>
       </c>
       <c r="HJ2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM2">
         <v>86400</v>
       </c>
       <c r="HN2" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO2">
         <v>86400</v>
@@ -2639,7 +2648,7 @@
         <v>262</v>
       </c>
       <c r="HR2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS2" t="s">
         <v>262</v>
@@ -2651,7 +2660,7 @@
         <v>262</v>
       </c>
       <c r="HV2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW2">
         <v>86400</v>
@@ -2695,13 +2704,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3648000</v>
+        <v>3564000</v>
       </c>
       <c r="O3" t="s">
         <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2716,10 +2725,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2731,7 +2740,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2743,13 +2752,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2761,7 +2770,7 @@
         <v>6</v>
       </c>
       <c r="AL3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -2776,10 +2785,10 @@
         <v>9</v>
       </c>
       <c r="AQ3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS3">
         <v>3</v>
@@ -2791,7 +2800,7 @@
         <v>20</v>
       </c>
       <c r="AV3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW3">
         <v>3</v>
@@ -2803,13 +2812,13 @@
         <v>20</v>
       </c>
       <c r="AZ3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA3">
         <v>3</v>
       </c>
       <c r="BB3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC3">
         <v>1</v>
@@ -2821,7 +2830,7 @@
         <v>19500000</v>
       </c>
       <c r="BF3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BG3">
         <v>55</v>
@@ -2842,10 +2851,10 @@
         <v>9</v>
       </c>
       <c r="BM3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO3">
         <v>3</v>
@@ -2857,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="BR3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS3">
         <v>3</v>
@@ -2869,13 +2878,13 @@
         <v>20</v>
       </c>
       <c r="BV3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW3">
         <v>3</v>
       </c>
       <c r="BX3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY3">
         <v>1</v>
@@ -2884,7 +2893,7 @@
         <v>1</v>
       </c>
       <c r="CA3">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="CB3" t="s">
         <v>264</v>
@@ -2893,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="CD3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE3">
         <v>1</v>
@@ -2908,10 +2917,10 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK3">
         <v>3</v>
@@ -2923,7 +2932,7 @@
         <v>20</v>
       </c>
       <c r="CN3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO3">
         <v>3</v>
@@ -2935,13 +2944,13 @@
         <v>20</v>
       </c>
       <c r="CR3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS3">
         <v>3</v>
       </c>
       <c r="CT3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU3">
         <v>1</v>
@@ -2950,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="CW3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="CX3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY3">
         <v>0</v>
@@ -2965,7 +2974,7 @@
         <v>1</v>
       </c>
       <c r="DB3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC3">
         <v>1</v>
@@ -2980,10 +2989,10 @@
         <v>9</v>
       </c>
       <c r="DG3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI3">
         <v>3</v>
@@ -2995,7 +3004,7 @@
         <v>20</v>
       </c>
       <c r="DL3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM3">
         <v>3</v>
@@ -3007,16 +3016,16 @@
         <v>20</v>
       </c>
       <c r="DP3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ3">
         <v>3</v>
       </c>
       <c r="DR3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT3">
         <v>1</v>
@@ -3025,16 +3034,16 @@
         <v>1</v>
       </c>
       <c r="DV3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="DW3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="DX3" t="b">
         <v>1</v>
       </c>
       <c r="DY3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ3">
         <v>1</v>
@@ -3049,10 +3058,10 @@
         <v>9</v>
       </c>
       <c r="ED3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF3">
         <v>3</v>
@@ -3064,7 +3073,7 @@
         <v>20</v>
       </c>
       <c r="EI3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3076,16 +3085,16 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN3">
         <v>3</v>
       </c>
       <c r="EO3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ3">
         <v>0</v>
@@ -3094,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="EV3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW3">
         <v>1</v>
@@ -3109,10 +3118,10 @@
         <v>9</v>
       </c>
       <c r="FA3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC3">
         <v>3</v>
@@ -3124,7 +3133,7 @@
         <v>20</v>
       </c>
       <c r="FF3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG3">
         <v>3</v>
@@ -3136,16 +3145,16 @@
         <v>20</v>
       </c>
       <c r="FJ3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK3">
         <v>3</v>
       </c>
       <c r="FL3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN3">
         <v>0</v>
@@ -3154,28 +3163,28 @@
         <v>0</v>
       </c>
       <c r="FR3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS3">
         <v>1</v>
       </c>
       <c r="FT3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="FV3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX3">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ3">
         <v>0.9</v>
@@ -3189,8 +3198,35 @@
       <c r="GC3" t="b">
         <v>0</v>
       </c>
+      <c r="GD3" t="s">
+        <v>286</v>
+      </c>
+      <c r="GE3">
+        <v>100000</v>
+      </c>
+      <c r="GF3">
+        <v>11000</v>
+      </c>
+      <c r="GG3">
+        <v>22000</v>
+      </c>
+      <c r="GH3">
+        <v>200000</v>
+      </c>
+      <c r="GI3">
+        <v>0.9</v>
+      </c>
+      <c r="GJ3">
+        <v>0.8</v>
+      </c>
+      <c r="GK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL3" t="b">
+        <v>0</v>
+      </c>
       <c r="GM3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN3">
         <v>0.05</v>
@@ -3205,13 +3241,13 @@
         <v>8.5</v>
       </c>
       <c r="GR3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU3">
         <v>1</v>
@@ -3238,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="HC3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD3">
         <v>0</v>
@@ -3247,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="HJ3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM3">
         <v>86400</v>
       </c>
       <c r="HN3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO3">
         <v>86400</v>
@@ -3271,7 +3307,7 @@
         <v>262</v>
       </c>
       <c r="HR3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS3" t="s">
         <v>262</v>
@@ -3283,7 +3319,7 @@
         <v>262</v>
       </c>
       <c r="HV3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW3">
         <v>86400</v>
@@ -3327,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2262000</v>
+        <v>4402000</v>
       </c>
       <c r="O4" t="s">
         <v>244</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3348,10 +3384,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3363,7 +3399,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3375,13 +3411,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3393,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="AL4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -3408,10 +3444,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS4">
         <v>3</v>
@@ -3423,7 +3459,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW4">
         <v>3</v>
@@ -3435,13 +3471,13 @@
         <v>20</v>
       </c>
       <c r="AZ4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA4">
         <v>3</v>
       </c>
       <c r="BB4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC4">
         <v>1</v>
@@ -3453,10 +3489,10 @@
         <v>19500000</v>
       </c>
       <c r="BF4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BG4">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH4" t="s">
         <v>262</v>
@@ -3474,10 +3510,10 @@
         <v>9</v>
       </c>
       <c r="BM4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO4">
         <v>3</v>
@@ -3489,7 +3525,7 @@
         <v>20</v>
       </c>
       <c r="BR4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS4">
         <v>3</v>
@@ -3501,13 +3537,13 @@
         <v>20</v>
       </c>
       <c r="BV4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW4">
         <v>3</v>
       </c>
       <c r="BX4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -3516,16 +3552,16 @@
         <v>1</v>
       </c>
       <c r="CA4">
-        <v>3200000</v>
+        <v>2800000</v>
       </c>
       <c r="CB4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CC4">
         <v>55</v>
       </c>
       <c r="CD4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE4">
         <v>1</v>
@@ -3540,10 +3576,10 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK4">
         <v>3</v>
@@ -3555,7 +3591,7 @@
         <v>20</v>
       </c>
       <c r="CN4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO4">
         <v>3</v>
@@ -3567,13 +3603,13 @@
         <v>20</v>
       </c>
       <c r="CR4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS4">
         <v>3</v>
       </c>
       <c r="CT4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU4">
         <v>1</v>
@@ -3582,10 +3618,10 @@
         <v>1</v>
       </c>
       <c r="CW4">
-        <v>3200</v>
+        <v>6300</v>
       </c>
       <c r="CX4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY4">
         <v>0</v>
@@ -3597,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="DB4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC4">
         <v>1</v>
@@ -3612,10 +3648,10 @@
         <v>9</v>
       </c>
       <c r="DG4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI4">
         <v>3</v>
@@ -3627,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="DL4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM4">
         <v>3</v>
@@ -3639,16 +3675,16 @@
         <v>20</v>
       </c>
       <c r="DP4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ4">
         <v>3</v>
       </c>
       <c r="DR4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -3657,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="DV4">
-        <v>1800</v>
+        <v>2900</v>
       </c>
       <c r="DW4" t="s">
         <v>273</v>
@@ -3666,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="DY4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ4">
         <v>1</v>
@@ -3681,10 +3717,10 @@
         <v>9</v>
       </c>
       <c r="ED4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF4">
         <v>3</v>
@@ -3696,7 +3732,7 @@
         <v>20</v>
       </c>
       <c r="EI4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3708,16 +3744,16 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN4">
         <v>3</v>
       </c>
       <c r="EO4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -3726,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="EV4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW4">
         <v>1</v>
@@ -3741,10 +3777,10 @@
         <v>9</v>
       </c>
       <c r="FA4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC4">
         <v>3</v>
@@ -3756,7 +3792,7 @@
         <v>20</v>
       </c>
       <c r="FF4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG4">
         <v>3</v>
@@ -3768,16 +3804,16 @@
         <v>20</v>
       </c>
       <c r="FJ4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK4">
         <v>3</v>
       </c>
       <c r="FL4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN4">
         <v>0</v>
@@ -3786,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="FR4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS4">
         <v>1</v>
@@ -3795,19 +3831,19 @@
         <v>1</v>
       </c>
       <c r="FU4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="FV4">
+        <v>75000</v>
+      </c>
+      <c r="FW4">
+        <v>7200</v>
+      </c>
+      <c r="FX4">
+        <v>11000</v>
+      </c>
+      <c r="FY4">
         <v>100000</v>
-      </c>
-      <c r="FW4">
-        <v>11000</v>
-      </c>
-      <c r="FX4">
-        <v>22000</v>
-      </c>
-      <c r="FY4">
-        <v>200000</v>
       </c>
       <c r="FZ4">
         <v>0.9</v>
@@ -3822,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="GM4" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN4">
         <v>0.05</v>
@@ -3837,13 +3873,13 @@
         <v>8.5</v>
       </c>
       <c r="GR4" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU4">
         <v>1</v>
@@ -3852,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="GW4">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="GX4">
-        <v>2300</v>
+        <v>4400</v>
       </c>
       <c r="GY4">
         <v>0.95</v>
@@ -3870,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="HC4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD4">
         <v>0</v>
@@ -3879,19 +3915,19 @@
         <v>0</v>
       </c>
       <c r="HJ4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM4">
         <v>86400</v>
       </c>
       <c r="HN4" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO4">
         <v>86400</v>
@@ -3903,7 +3939,7 @@
         <v>262</v>
       </c>
       <c r="HR4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS4" t="s">
         <v>262</v>
@@ -3915,7 +3951,7 @@
         <v>262</v>
       </c>
       <c r="HV4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW4">
         <v>86400</v>
@@ -3935,10 +3971,10 @@
         <v>235</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3947,7 +3983,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3959,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4402000</v>
+        <v>5527000</v>
       </c>
       <c r="O5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -3980,10 +4016,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -3995,7 +4031,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -4007,13 +4043,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4025,7 +4061,7 @@
         <v>6</v>
       </c>
       <c r="AL5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -4040,10 +4076,10 @@
         <v>9</v>
       </c>
       <c r="AQ5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS5">
         <v>3</v>
@@ -4055,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="AV5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW5">
         <v>3</v>
@@ -4067,13 +4103,13 @@
         <v>20</v>
       </c>
       <c r="AZ5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA5">
         <v>3</v>
       </c>
       <c r="BB5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -4082,10 +4118,10 @@
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG5">
         <v>55</v>
@@ -4106,10 +4142,10 @@
         <v>9</v>
       </c>
       <c r="BM5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO5">
         <v>3</v>
@@ -4121,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="BR5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS5">
         <v>3</v>
@@ -4133,13 +4169,13 @@
         <v>20</v>
       </c>
       <c r="BV5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW5">
         <v>3</v>
       </c>
       <c r="BX5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY5">
         <v>1</v>
@@ -4148,16 +4184,16 @@
         <v>1</v>
       </c>
       <c r="CA5">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="CB5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CC5">
         <v>55</v>
       </c>
       <c r="CD5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE5">
         <v>1</v>
@@ -4172,10 +4208,10 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK5">
         <v>3</v>
@@ -4187,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="CN5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO5">
         <v>3</v>
@@ -4199,13 +4235,13 @@
         <v>20</v>
       </c>
       <c r="CR5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS5">
         <v>3</v>
       </c>
       <c r="CT5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU5">
         <v>1</v>
@@ -4214,22 +4250,22 @@
         <v>1</v>
       </c>
       <c r="CW5">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="CX5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY5">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA5" t="b">
         <v>1</v>
       </c>
       <c r="DB5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC5">
         <v>1</v>
@@ -4244,10 +4280,10 @@
         <v>9</v>
       </c>
       <c r="DG5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI5">
         <v>3</v>
@@ -4259,7 +4295,7 @@
         <v>20</v>
       </c>
       <c r="DL5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM5">
         <v>3</v>
@@ -4271,16 +4307,16 @@
         <v>20</v>
       </c>
       <c r="DP5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ5">
         <v>3</v>
       </c>
       <c r="DR5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT5">
         <v>1</v>
@@ -4289,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="DV5">
-        <v>2100</v>
+        <v>2600</v>
       </c>
       <c r="DW5" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="DX5" t="b">
         <v>1</v>
       </c>
       <c r="DY5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ5">
         <v>1</v>
@@ -4313,10 +4349,10 @@
         <v>9</v>
       </c>
       <c r="ED5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF5">
         <v>3</v>
@@ -4328,7 +4364,7 @@
         <v>20</v>
       </c>
       <c r="EI5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4340,16 +4376,16 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN5">
         <v>3</v>
       </c>
       <c r="EO5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ5">
         <v>0</v>
@@ -4358,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="EV5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW5">
         <v>1</v>
@@ -4373,10 +4409,10 @@
         <v>9</v>
       </c>
       <c r="FA5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC5">
         <v>3</v>
@@ -4388,7 +4424,7 @@
         <v>20</v>
       </c>
       <c r="FF5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG5">
         <v>3</v>
@@ -4400,16 +4436,16 @@
         <v>20</v>
       </c>
       <c r="FJ5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK5">
         <v>3</v>
       </c>
       <c r="FL5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN5">
         <v>0</v>
@@ -4418,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="FR5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS5">
         <v>1</v>
@@ -4427,19 +4463,19 @@
         <v>1</v>
       </c>
       <c r="FU5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="FV5">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="FW5">
         <v>7200</v>
       </c>
       <c r="FX5">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FY5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FZ5">
         <v>0.9</v>
@@ -4454,7 +4490,7 @@
         <v>0</v>
       </c>
       <c r="GM5" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN5">
         <v>0.05</v>
@@ -4469,13 +4505,13 @@
         <v>8.5</v>
       </c>
       <c r="GR5" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS5" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU5">
         <v>1</v>
@@ -4484,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="GW5">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GX5">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GY5">
         <v>0.95</v>
@@ -4502,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="HC5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD5">
         <v>0</v>
@@ -4511,19 +4547,19 @@
         <v>0</v>
       </c>
       <c r="HJ5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM5">
         <v>86400</v>
       </c>
       <c r="HN5" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO5">
         <v>86400</v>
@@ -4535,7 +4571,7 @@
         <v>262</v>
       </c>
       <c r="HR5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS5" t="s">
         <v>262</v>
@@ -4547,7 +4583,7 @@
         <v>262</v>
       </c>
       <c r="HV5" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW5">
         <v>86400</v>
@@ -4567,10 +4603,10 @@
         <v>236</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4579,7 +4615,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4591,13 +4627,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>4536000</v>
+        <v>4402000</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4612,10 +4648,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4627,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -4639,13 +4675,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -4657,7 +4693,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -4672,10 +4708,10 @@
         <v>9</v>
       </c>
       <c r="AQ6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS6">
         <v>3</v>
@@ -4687,7 +4723,7 @@
         <v>20</v>
       </c>
       <c r="AV6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW6">
         <v>3</v>
@@ -4699,13 +4735,13 @@
         <v>20</v>
       </c>
       <c r="AZ6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA6">
         <v>3</v>
       </c>
       <c r="BB6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -4714,13 +4750,13 @@
         <v>1</v>
       </c>
       <c r="BE6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BG6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH6" t="s">
         <v>262</v>
@@ -4738,10 +4774,10 @@
         <v>9</v>
       </c>
       <c r="BM6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO6">
         <v>3</v>
@@ -4753,7 +4789,7 @@
         <v>20</v>
       </c>
       <c r="BR6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS6">
         <v>3</v>
@@ -4765,13 +4801,13 @@
         <v>20</v>
       </c>
       <c r="BV6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW6">
         <v>3</v>
       </c>
       <c r="BX6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY6">
         <v>1</v>
@@ -4780,16 +4816,16 @@
         <v>1</v>
       </c>
       <c r="CA6">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="CB6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="CC6">
         <v>55</v>
       </c>
       <c r="CD6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE6">
         <v>1</v>
@@ -4804,10 +4840,10 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK6">
         <v>3</v>
@@ -4819,7 +4855,7 @@
         <v>20</v>
       </c>
       <c r="CN6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO6">
         <v>3</v>
@@ -4831,13 +4867,13 @@
         <v>20</v>
       </c>
       <c r="CR6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS6">
         <v>3</v>
       </c>
       <c r="CT6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU6">
         <v>1</v>
@@ -4846,22 +4882,22 @@
         <v>1</v>
       </c>
       <c r="CW6">
-        <v>7900</v>
+        <v>6000</v>
       </c>
       <c r="CX6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY6">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA6" t="b">
         <v>1</v>
       </c>
       <c r="DB6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC6">
         <v>1</v>
@@ -4876,10 +4912,10 @@
         <v>9</v>
       </c>
       <c r="DG6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI6">
         <v>3</v>
@@ -4891,7 +4927,7 @@
         <v>20</v>
       </c>
       <c r="DL6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM6">
         <v>3</v>
@@ -4903,16 +4939,16 @@
         <v>20</v>
       </c>
       <c r="DP6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ6">
         <v>3</v>
       </c>
       <c r="DR6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -4921,16 +4957,16 @@
         <v>1</v>
       </c>
       <c r="DV6">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="DW6" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="DX6" t="b">
         <v>1</v>
       </c>
       <c r="DY6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ6">
         <v>1</v>
@@ -4945,10 +4981,10 @@
         <v>9</v>
       </c>
       <c r="ED6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF6">
         <v>3</v>
@@ -4960,7 +4996,7 @@
         <v>20</v>
       </c>
       <c r="EI6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -4972,16 +5008,16 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN6">
         <v>3</v>
       </c>
       <c r="EO6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ6">
         <v>0</v>
@@ -4990,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="EV6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW6">
         <v>1</v>
@@ -5005,10 +5041,10 @@
         <v>9</v>
       </c>
       <c r="FA6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC6">
         <v>3</v>
@@ -5020,7 +5056,7 @@
         <v>20</v>
       </c>
       <c r="FF6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG6">
         <v>3</v>
@@ -5032,16 +5068,16 @@
         <v>20</v>
       </c>
       <c r="FJ6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK6">
         <v>3</v>
       </c>
       <c r="FL6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN6">
         <v>0</v>
@@ -5050,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="FR6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS6">
         <v>1</v>
@@ -5059,19 +5095,19 @@
         <v>1</v>
       </c>
       <c r="FU6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="FV6">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="FW6">
         <v>7200</v>
       </c>
       <c r="FX6">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FY6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FZ6">
         <v>0.9</v>
@@ -5086,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="GM6" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN6">
         <v>0.05</v>
@@ -5101,13 +5137,13 @@
         <v>8.5</v>
       </c>
       <c r="GR6" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS6" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU6">
         <v>1</v>
@@ -5116,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="GW6">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="GX6">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="GY6">
         <v>0.95</v>
@@ -5134,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="HC6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD6">
         <v>0</v>
@@ -5143,19 +5179,19 @@
         <v>0</v>
       </c>
       <c r="HJ6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM6">
         <v>86400</v>
       </c>
       <c r="HN6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO6">
         <v>86400</v>
@@ -5167,7 +5203,7 @@
         <v>262</v>
       </c>
       <c r="HR6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS6" t="s">
         <v>262</v>
@@ -5179,7 +5215,7 @@
         <v>262</v>
       </c>
       <c r="HV6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW6">
         <v>86400</v>
@@ -5223,13 +5259,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="O7" t="s">
         <v>246</v>
       </c>
       <c r="P7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5244,10 +5280,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5259,7 +5295,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5271,13 +5307,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -5289,7 +5325,7 @@
         <v>6</v>
       </c>
       <c r="AL7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -5304,10 +5340,10 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS7">
         <v>3</v>
@@ -5319,7 +5355,7 @@
         <v>20</v>
       </c>
       <c r="AV7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW7">
         <v>3</v>
@@ -5331,13 +5367,13 @@
         <v>20</v>
       </c>
       <c r="AZ7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA7">
         <v>3</v>
       </c>
       <c r="BB7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -5352,7 +5388,7 @@
         <v>258</v>
       </c>
       <c r="BG7">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH7" t="s">
         <v>262</v>
@@ -5370,10 +5406,10 @@
         <v>9</v>
       </c>
       <c r="BM7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO7">
         <v>3</v>
@@ -5385,7 +5421,7 @@
         <v>20</v>
       </c>
       <c r="BR7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS7">
         <v>3</v>
@@ -5397,13 +5433,13 @@
         <v>20</v>
       </c>
       <c r="BV7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW7">
         <v>3</v>
       </c>
       <c r="BX7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY7">
         <v>1</v>
@@ -5412,16 +5448,16 @@
         <v>1</v>
       </c>
       <c r="CA7">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="CB7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CC7">
         <v>55</v>
       </c>
       <c r="CD7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE7">
         <v>1</v>
@@ -5436,10 +5472,10 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK7">
         <v>3</v>
@@ -5451,7 +5487,7 @@
         <v>20</v>
       </c>
       <c r="CN7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO7">
         <v>3</v>
@@ -5463,13 +5499,13 @@
         <v>20</v>
       </c>
       <c r="CR7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS7">
         <v>3</v>
       </c>
       <c r="CT7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU7">
         <v>1</v>
@@ -5478,10 +5514,10 @@
         <v>1</v>
       </c>
       <c r="CW7">
-        <v>9900</v>
+        <v>6100</v>
       </c>
       <c r="CX7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY7">
         <v>0</v>
@@ -5493,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="DB7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC7">
         <v>1</v>
@@ -5508,10 +5544,10 @@
         <v>9</v>
       </c>
       <c r="DG7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI7">
         <v>3</v>
@@ -5523,7 +5559,7 @@
         <v>20</v>
       </c>
       <c r="DL7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM7">
         <v>3</v>
@@ -5535,16 +5571,16 @@
         <v>20</v>
       </c>
       <c r="DP7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ7">
         <v>3</v>
       </c>
       <c r="DR7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT7">
         <v>1</v>
@@ -5553,16 +5589,16 @@
         <v>1</v>
       </c>
       <c r="DV7">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="DW7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="DX7" t="b">
         <v>1</v>
       </c>
       <c r="DY7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ7">
         <v>1</v>
@@ -5577,10 +5613,10 @@
         <v>9</v>
       </c>
       <c r="ED7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF7">
         <v>3</v>
@@ -5592,7 +5628,7 @@
         <v>20</v>
       </c>
       <c r="EI7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -5604,16 +5640,16 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN7">
         <v>3</v>
       </c>
       <c r="EO7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ7">
         <v>0</v>
@@ -5622,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="EV7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW7">
         <v>1</v>
@@ -5637,10 +5673,10 @@
         <v>9</v>
       </c>
       <c r="FA7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC7">
         <v>3</v>
@@ -5652,7 +5688,7 @@
         <v>20</v>
       </c>
       <c r="FF7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG7">
         <v>3</v>
@@ -5664,16 +5700,16 @@
         <v>20</v>
       </c>
       <c r="FJ7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK7">
         <v>3</v>
       </c>
       <c r="FL7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN7">
         <v>0</v>
@@ -5682,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="FR7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS7">
         <v>1</v>
@@ -5691,19 +5727,19 @@
         <v>1</v>
       </c>
       <c r="FU7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="FV7">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FW7">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FX7">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="FY7">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="FZ7">
         <v>0.9</v>
@@ -5718,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="GM7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN7">
         <v>0.05</v>
@@ -5733,13 +5769,13 @@
         <v>8.5</v>
       </c>
       <c r="GR7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU7">
         <v>1</v>
@@ -5748,10 +5784,10 @@
         <v>1</v>
       </c>
       <c r="GW7">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="GX7">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="GY7">
         <v>0.95</v>
@@ -5766,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="HC7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD7">
         <v>0</v>
@@ -5775,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="HJ7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM7">
         <v>86400</v>
       </c>
       <c r="HN7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO7">
         <v>86400</v>
@@ -5799,7 +5835,7 @@
         <v>262</v>
       </c>
       <c r="HR7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS7" t="s">
         <v>262</v>
@@ -5811,7 +5847,7 @@
         <v>262</v>
       </c>
       <c r="HV7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW7">
         <v>86400</v>
@@ -5855,13 +5891,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3125000</v>
+        <v>4536000</v>
       </c>
       <c r="O8" t="s">
         <v>247</v>
       </c>
       <c r="P8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5876,10 +5912,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -5891,7 +5927,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -5903,13 +5939,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -5921,7 +5957,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -5936,10 +5972,10 @@
         <v>9</v>
       </c>
       <c r="AQ8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS8">
         <v>3</v>
@@ -5951,7 +5987,7 @@
         <v>20</v>
       </c>
       <c r="AV8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW8">
         <v>3</v>
@@ -5963,13 +5999,13 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA8">
         <v>3</v>
       </c>
       <c r="BB8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC8">
         <v>1</v>
@@ -6002,10 +6038,10 @@
         <v>9</v>
       </c>
       <c r="BM8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO8">
         <v>3</v>
@@ -6017,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="BR8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS8">
         <v>3</v>
@@ -6029,13 +6065,13 @@
         <v>20</v>
       </c>
       <c r="BV8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW8">
         <v>3</v>
       </c>
       <c r="BX8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY8">
         <v>1</v>
@@ -6044,16 +6080,16 @@
         <v>1</v>
       </c>
       <c r="CA8">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="CB8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CC8">
         <v>55</v>
       </c>
       <c r="CD8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE8">
         <v>1</v>
@@ -6068,10 +6104,10 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK8">
         <v>3</v>
@@ -6083,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="CN8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO8">
         <v>3</v>
@@ -6095,13 +6131,13 @@
         <v>20</v>
       </c>
       <c r="CR8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS8">
         <v>3</v>
       </c>
       <c r="CT8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU8">
         <v>1</v>
@@ -6110,22 +6146,22 @@
         <v>1</v>
       </c>
       <c r="CW8">
-        <v>4700</v>
+        <v>5900</v>
       </c>
       <c r="CX8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY8">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA8" t="b">
         <v>1</v>
       </c>
       <c r="DB8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC8">
         <v>1</v>
@@ -6140,10 +6176,10 @@
         <v>9</v>
       </c>
       <c r="DG8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI8">
         <v>3</v>
@@ -6155,7 +6191,7 @@
         <v>20</v>
       </c>
       <c r="DL8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM8">
         <v>3</v>
@@ -6167,16 +6203,16 @@
         <v>20</v>
       </c>
       <c r="DP8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ8">
         <v>3</v>
       </c>
       <c r="DR8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT8">
         <v>1</v>
@@ -6185,16 +6221,16 @@
         <v>1</v>
       </c>
       <c r="DV8">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="DW8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="DX8" t="b">
         <v>1</v>
       </c>
       <c r="DY8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ8">
         <v>1</v>
@@ -6209,10 +6245,10 @@
         <v>9</v>
       </c>
       <c r="ED8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF8">
         <v>3</v>
@@ -6224,7 +6260,7 @@
         <v>20</v>
       </c>
       <c r="EI8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6236,16 +6272,16 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN8">
         <v>3</v>
       </c>
       <c r="EO8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ8">
         <v>0</v>
@@ -6254,7 +6290,7 @@
         <v>0</v>
       </c>
       <c r="EV8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW8">
         <v>1</v>
@@ -6269,10 +6305,10 @@
         <v>9</v>
       </c>
       <c r="FA8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC8">
         <v>3</v>
@@ -6284,7 +6320,7 @@
         <v>20</v>
       </c>
       <c r="FF8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG8">
         <v>3</v>
@@ -6296,16 +6332,16 @@
         <v>20</v>
       </c>
       <c r="FJ8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK8">
         <v>3</v>
       </c>
       <c r="FL8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN8">
         <v>0</v>
@@ -6314,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="FR8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS8">
         <v>1</v>
@@ -6323,7 +6359,7 @@
         <v>1</v>
       </c>
       <c r="FU8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="FV8">
         <v>75000</v>
@@ -6350,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="GM8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN8">
         <v>0.05</v>
@@ -6365,13 +6401,13 @@
         <v>8.5</v>
       </c>
       <c r="GR8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU8">
         <v>1</v>
@@ -6380,10 +6416,10 @@
         <v>1</v>
       </c>
       <c r="GW8">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="GX8">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="GY8">
         <v>0.95</v>
@@ -6398,7 +6434,7 @@
         <v>0</v>
       </c>
       <c r="HC8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD8">
         <v>0</v>
@@ -6407,19 +6443,19 @@
         <v>0</v>
       </c>
       <c r="HJ8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM8">
         <v>86400</v>
       </c>
       <c r="HN8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO8">
         <v>86400</v>
@@ -6431,7 +6467,7 @@
         <v>262</v>
       </c>
       <c r="HR8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS8" t="s">
         <v>262</v>
@@ -6443,7 +6479,7 @@
         <v>262</v>
       </c>
       <c r="HV8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW8">
         <v>86400</v>
@@ -6463,10 +6499,10 @@
         <v>239</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6475,7 +6511,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6487,13 +6523,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>2262000</v>
+        <v>3125000</v>
       </c>
       <c r="O9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6508,10 +6544,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -6523,7 +6559,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -6535,13 +6571,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -6553,7 +6589,7 @@
         <v>6</v>
       </c>
       <c r="AL9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -6568,10 +6604,10 @@
         <v>9</v>
       </c>
       <c r="AQ9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS9">
         <v>3</v>
@@ -6583,7 +6619,7 @@
         <v>20</v>
       </c>
       <c r="AV9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW9">
         <v>3</v>
@@ -6595,13 +6631,13 @@
         <v>20</v>
       </c>
       <c r="AZ9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA9">
         <v>3</v>
       </c>
       <c r="BB9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC9">
         <v>1</v>
@@ -6610,7 +6646,7 @@
         <v>1</v>
       </c>
       <c r="BE9">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF9" t="s">
         <v>260</v>
@@ -6634,10 +6670,10 @@
         <v>9</v>
       </c>
       <c r="BM9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO9">
         <v>3</v>
@@ -6649,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="BR9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS9">
         <v>3</v>
@@ -6661,13 +6697,13 @@
         <v>20</v>
       </c>
       <c r="BV9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW9">
         <v>3</v>
       </c>
       <c r="BX9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY9">
         <v>1</v>
@@ -6676,16 +6712,16 @@
         <v>1</v>
       </c>
       <c r="CA9">
-        <v>2400000</v>
+        <v>2800000</v>
       </c>
       <c r="CB9" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="CC9">
         <v>55</v>
       </c>
       <c r="CD9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE9">
         <v>1</v>
@@ -6700,10 +6736,10 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK9">
         <v>3</v>
@@ -6715,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="CN9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO9">
         <v>3</v>
@@ -6727,13 +6763,13 @@
         <v>20</v>
       </c>
       <c r="CR9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS9">
         <v>3</v>
       </c>
       <c r="CT9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU9">
         <v>1</v>
@@ -6742,10 +6778,10 @@
         <v>1</v>
       </c>
       <c r="CW9">
-        <v>3200</v>
+        <v>4800</v>
       </c>
       <c r="CX9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY9">
         <v>0</v>
@@ -6757,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="DB9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC9">
         <v>1</v>
@@ -6772,10 +6808,10 @@
         <v>9</v>
       </c>
       <c r="DG9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI9">
         <v>3</v>
@@ -6787,7 +6823,7 @@
         <v>20</v>
       </c>
       <c r="DL9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM9">
         <v>3</v>
@@ -6799,16 +6835,16 @@
         <v>20</v>
       </c>
       <c r="DP9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ9">
         <v>3</v>
       </c>
       <c r="DR9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT9">
         <v>1</v>
@@ -6817,16 +6853,16 @@
         <v>1</v>
       </c>
       <c r="DV9">
-        <v>1400</v>
+        <v>2000</v>
       </c>
       <c r="DW9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="DX9" t="b">
         <v>1</v>
       </c>
       <c r="DY9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ9">
         <v>1</v>
@@ -6841,10 +6877,10 @@
         <v>9</v>
       </c>
       <c r="ED9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF9">
         <v>3</v>
@@ -6856,7 +6892,7 @@
         <v>20</v>
       </c>
       <c r="EI9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -6868,16 +6904,16 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN9">
         <v>3</v>
       </c>
       <c r="EO9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ9">
         <v>0</v>
@@ -6886,7 +6922,7 @@
         <v>0</v>
       </c>
       <c r="EV9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW9">
         <v>1</v>
@@ -6901,10 +6937,10 @@
         <v>9</v>
       </c>
       <c r="FA9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC9">
         <v>3</v>
@@ -6916,7 +6952,7 @@
         <v>20</v>
       </c>
       <c r="FF9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG9">
         <v>3</v>
@@ -6928,16 +6964,16 @@
         <v>20</v>
       </c>
       <c r="FJ9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK9">
         <v>3</v>
       </c>
       <c r="FL9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN9">
         <v>0</v>
@@ -6946,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="FR9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS9">
         <v>1</v>
@@ -6955,19 +6991,19 @@
         <v>1</v>
       </c>
       <c r="FU9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="FV9">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="FW9">
         <v>7200</v>
       </c>
       <c r="FX9">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FY9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FZ9">
         <v>0.9</v>
@@ -6982,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="GM9" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN9">
         <v>0.05</v>
@@ -6997,13 +7033,13 @@
         <v>8.5</v>
       </c>
       <c r="GR9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS9" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU9">
         <v>1</v>
@@ -7012,10 +7048,10 @@
         <v>1</v>
       </c>
       <c r="GW9">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="GX9">
-        <v>2300</v>
+        <v>3100</v>
       </c>
       <c r="GY9">
         <v>0.95</v>
@@ -7030,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="HC9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD9">
         <v>0</v>
@@ -7039,19 +7075,19 @@
         <v>0</v>
       </c>
       <c r="HJ9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM9">
         <v>86400</v>
       </c>
       <c r="HN9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO9">
         <v>86400</v>
@@ -7063,7 +7099,7 @@
         <v>262</v>
       </c>
       <c r="HR9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS9" t="s">
         <v>262</v>
@@ -7075,7 +7111,7 @@
         <v>262</v>
       </c>
       <c r="HV9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW9">
         <v>86400</v>
@@ -7119,13 +7155,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>5527000</v>
+        <v>2687000</v>
       </c>
       <c r="O10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7140,10 +7176,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7155,7 +7191,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -7167,13 +7203,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -7185,7 +7221,7 @@
         <v>6</v>
       </c>
       <c r="AL10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -7200,10 +7236,10 @@
         <v>9</v>
       </c>
       <c r="AQ10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS10">
         <v>3</v>
@@ -7215,7 +7251,7 @@
         <v>20</v>
       </c>
       <c r="AV10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW10">
         <v>3</v>
@@ -7227,13 +7263,13 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA10">
         <v>3</v>
       </c>
       <c r="BB10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC10">
         <v>1</v>
@@ -7245,10 +7281,10 @@
         <v>5500000</v>
       </c>
       <c r="BF10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BG10">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH10" t="s">
         <v>262</v>
@@ -7266,10 +7302,10 @@
         <v>9</v>
       </c>
       <c r="BM10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO10">
         <v>3</v>
@@ -7281,7 +7317,7 @@
         <v>20</v>
       </c>
       <c r="BR10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS10">
         <v>3</v>
@@ -7293,13 +7329,13 @@
         <v>20</v>
       </c>
       <c r="BV10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW10">
         <v>3</v>
       </c>
       <c r="BX10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY10">
         <v>1</v>
@@ -7308,16 +7344,16 @@
         <v>1</v>
       </c>
       <c r="CA10">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="CB10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="CC10">
         <v>55</v>
       </c>
       <c r="CD10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE10">
         <v>1</v>
@@ -7332,10 +7368,10 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK10">
         <v>3</v>
@@ -7347,7 +7383,7 @@
         <v>20</v>
       </c>
       <c r="CN10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO10">
         <v>3</v>
@@ -7359,13 +7395,13 @@
         <v>20</v>
       </c>
       <c r="CR10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS10">
         <v>3</v>
       </c>
       <c r="CT10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU10">
         <v>1</v>
@@ -7374,10 +7410,10 @@
         <v>1</v>
       </c>
       <c r="CW10">
-        <v>8800</v>
+        <v>4800</v>
       </c>
       <c r="CX10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY10">
         <v>0</v>
@@ -7389,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="DB10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC10">
         <v>1</v>
@@ -7404,10 +7440,10 @@
         <v>9</v>
       </c>
       <c r="DG10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI10">
         <v>3</v>
@@ -7419,7 +7455,7 @@
         <v>20</v>
       </c>
       <c r="DL10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM10">
         <v>3</v>
@@ -7431,16 +7467,16 @@
         <v>20</v>
       </c>
       <c r="DP10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ10">
         <v>3</v>
       </c>
       <c r="DR10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -7449,16 +7485,16 @@
         <v>1</v>
       </c>
       <c r="DV10">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="DW10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DX10" t="b">
         <v>1</v>
       </c>
       <c r="DY10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ10">
         <v>1</v>
@@ -7473,10 +7509,10 @@
         <v>9</v>
       </c>
       <c r="ED10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF10">
         <v>3</v>
@@ -7488,7 +7524,7 @@
         <v>20</v>
       </c>
       <c r="EI10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -7500,16 +7536,16 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN10">
         <v>3</v>
       </c>
       <c r="EO10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ10">
         <v>0</v>
@@ -7518,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="EV10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW10">
         <v>1</v>
@@ -7533,10 +7569,10 @@
         <v>9</v>
       </c>
       <c r="FA10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC10">
         <v>3</v>
@@ -7548,7 +7584,7 @@
         <v>20</v>
       </c>
       <c r="FF10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG10">
         <v>3</v>
@@ -7560,16 +7596,16 @@
         <v>20</v>
       </c>
       <c r="FJ10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK10">
         <v>3</v>
       </c>
       <c r="FL10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN10">
         <v>0</v>
@@ -7578,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="FR10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS10">
         <v>1</v>
@@ -7587,7 +7623,7 @@
         <v>1</v>
       </c>
       <c r="FU10" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="FV10">
         <v>50000</v>
@@ -7614,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="GM10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN10">
         <v>0.05</v>
@@ -7629,13 +7665,13 @@
         <v>8.5</v>
       </c>
       <c r="GR10" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU10">
         <v>1</v>
@@ -7644,10 +7680,10 @@
         <v>1</v>
       </c>
       <c r="GW10">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="GX10">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="GY10">
         <v>0.95</v>
@@ -7662,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="HC10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD10">
         <v>0</v>
@@ -7671,19 +7707,19 @@
         <v>0</v>
       </c>
       <c r="HJ10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM10">
         <v>86400</v>
       </c>
       <c r="HN10" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO10">
         <v>86400</v>
@@ -7695,7 +7731,7 @@
         <v>262</v>
       </c>
       <c r="HR10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS10" t="s">
         <v>262</v>
@@ -7707,7 +7743,7 @@
         <v>262</v>
       </c>
       <c r="HV10" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW10">
         <v>86400</v>
@@ -7727,10 +7763,10 @@
         <v>241</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -7739,7 +7775,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7751,13 +7787,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>4536000</v>
+        <v>5527000</v>
       </c>
       <c r="O11" t="s">
         <v>245</v>
       </c>
       <c r="P11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -7772,10 +7808,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="V11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -7787,7 +7823,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -7799,13 +7835,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -7817,7 +7853,7 @@
         <v>6</v>
       </c>
       <c r="AL11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -7832,10 +7868,10 @@
         <v>9</v>
       </c>
       <c r="AQ11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AR11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AS11">
         <v>3</v>
@@ -7847,7 +7883,7 @@
         <v>20</v>
       </c>
       <c r="AV11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AW11">
         <v>3</v>
@@ -7859,13 +7895,13 @@
         <v>20</v>
       </c>
       <c r="AZ11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BA11">
         <v>3</v>
       </c>
       <c r="BB11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BC11">
         <v>1</v>
@@ -7874,13 +7910,13 @@
         <v>1</v>
       </c>
       <c r="BE11">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF11" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="BG11">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH11" t="s">
         <v>262</v>
@@ -7898,10 +7934,10 @@
         <v>9</v>
       </c>
       <c r="BM11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="BN11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BO11">
         <v>3</v>
@@ -7913,7 +7949,7 @@
         <v>20</v>
       </c>
       <c r="BR11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BS11">
         <v>3</v>
@@ -7925,13 +7961,13 @@
         <v>20</v>
       </c>
       <c r="BV11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BW11">
         <v>3</v>
       </c>
       <c r="BX11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BY11">
         <v>1</v>
@@ -7943,13 +7979,13 @@
         <v>2400000</v>
       </c>
       <c r="CB11" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="CC11">
         <v>55</v>
       </c>
       <c r="CD11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -7964,10 +8000,10 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="CJ11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CK11">
         <v>3</v>
@@ -7979,7 +8015,7 @@
         <v>20</v>
       </c>
       <c r="CN11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CO11">
         <v>3</v>
@@ -7991,13 +8027,13 @@
         <v>20</v>
       </c>
       <c r="CR11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CS11">
         <v>3</v>
       </c>
       <c r="CT11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CU11">
         <v>1</v>
@@ -8006,22 +8042,22 @@
         <v>1</v>
       </c>
       <c r="CW11">
-        <v>6100</v>
+        <v>9400</v>
       </c>
       <c r="CX11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="CY11">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA11" t="b">
         <v>1</v>
       </c>
       <c r="DB11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DC11">
         <v>1</v>
@@ -8036,10 +8072,10 @@
         <v>9</v>
       </c>
       <c r="DG11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="DH11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DI11">
         <v>3</v>
@@ -8051,7 +8087,7 @@
         <v>20</v>
       </c>
       <c r="DL11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DM11">
         <v>3</v>
@@ -8063,16 +8099,16 @@
         <v>20</v>
       </c>
       <c r="DP11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DQ11">
         <v>3</v>
       </c>
       <c r="DR11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DS11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="DT11">
         <v>1</v>
@@ -8081,16 +8117,16 @@
         <v>1</v>
       </c>
       <c r="DV11">
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="DW11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="DX11" t="b">
         <v>1</v>
       </c>
       <c r="DY11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="DZ11">
         <v>1</v>
@@ -8105,10 +8141,10 @@
         <v>9</v>
       </c>
       <c r="ED11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="EE11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EF11">
         <v>3</v>
@@ -8120,7 +8156,7 @@
         <v>20</v>
       </c>
       <c r="EI11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -8132,16 +8168,16 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EN11">
         <v>3</v>
       </c>
       <c r="EO11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EP11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="EQ11">
         <v>0</v>
@@ -8150,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="EV11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW11">
         <v>1</v>
@@ -8165,10 +8201,10 @@
         <v>9</v>
       </c>
       <c r="FA11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="FB11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FC11">
         <v>3</v>
@@ -8180,7 +8216,7 @@
         <v>20</v>
       </c>
       <c r="FF11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FG11">
         <v>3</v>
@@ -8192,16 +8228,16 @@
         <v>20</v>
       </c>
       <c r="FJ11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FK11">
         <v>3</v>
       </c>
       <c r="FL11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FM11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FN11">
         <v>0</v>
@@ -8210,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="FR11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FS11">
         <v>1</v>
@@ -8219,19 +8255,19 @@
         <v>1</v>
       </c>
       <c r="FU11" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="FV11">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW11">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX11">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY11">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ11">
         <v>0.9</v>
@@ -8246,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="GM11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="GN11">
         <v>0.05</v>
@@ -8261,13 +8297,13 @@
         <v>8.5</v>
       </c>
       <c r="GR11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="GS11" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="GT11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="GU11">
         <v>1</v>
@@ -8276,10 +8312,10 @@
         <v>1</v>
       </c>
       <c r="GW11">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="GX11">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="GY11">
         <v>0.95</v>
@@ -8294,7 +8330,7 @@
         <v>0</v>
       </c>
       <c r="HC11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HD11">
         <v>0</v>
@@ -8303,19 +8339,19 @@
         <v>0</v>
       </c>
       <c r="HJ11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="HK11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HL11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="HM11">
         <v>86400</v>
       </c>
       <c r="HN11" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="HO11">
         <v>86400</v>
@@ -8327,7 +8363,7 @@
         <v>262</v>
       </c>
       <c r="HR11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HS11" t="s">
         <v>262</v>
@@ -8339,7 +8375,7 @@
         <v>262</v>
       </c>
       <c r="HV11" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="HW11">
         <v>86400</v>
@@ -8378,13 +8414,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -9098,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9485,22 +9521,22 @@
         <v>193</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>200</v>
@@ -9605,7 +9641,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10484,58 +10520,58 @@
         <v>209</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>217</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="320">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -717,60 +717,57 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>AqWXE9DEO8hByue</t>
-  </si>
-  <si>
-    <t>aM0cFJcGazmTn74</t>
-  </si>
-  <si>
-    <t>dGjALyULMFUj8m3</t>
-  </si>
-  <si>
-    <t>g2wXSWhRgXPfwXM</t>
-  </si>
-  <si>
-    <t>V0ADANY7ClQZ4lm</t>
-  </si>
-  <si>
-    <t>wuhhnp1FBrx3XSL</t>
-  </si>
-  <si>
-    <t>QVlvnKyFkva8qU4</t>
-  </si>
-  <si>
-    <t>Xdq8WMnHTivaCxj</t>
-  </si>
-  <si>
-    <t>zsgQNT5cOwiWLqg</t>
-  </si>
-  <si>
-    <t>kn47c0hnjvJ11j0</t>
+    <t>Xsg719VWbzc8WGq</t>
+  </si>
+  <si>
+    <t>tlndEuosN2YTsfi</t>
+  </si>
+  <si>
+    <t>eSoMCS0UISzmJjZ</t>
+  </si>
+  <si>
+    <t>zc3xI9GvdO0JEmA</t>
+  </si>
+  <si>
+    <t>A3GbC1RuCSzwfsB</t>
+  </si>
+  <si>
+    <t>b1LwgBQqloIH4Ia</t>
+  </si>
+  <si>
+    <t>EWHJ2Ztf4uf7kXD</t>
+  </si>
+  <si>
+    <t>WWosr6A645WT33L</t>
+  </si>
+  <si>
+    <t>rnExJsXYZDHNtOh</t>
+  </si>
+  <si>
+    <t>xiEjT08QnVwRPwo</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
   </si>
   <si>
     <t>hh_2262_0.csv</t>
   </si>
   <si>
-    <t>hh_3564_0.csv</t>
+    <t>hh_2012_3.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
   </si>
   <si>
     <t>hh_4402_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -786,48 +783,51 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_gen_5_pu.csv</t>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2262_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2012_3.csv</t>
+  </si>
+  <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_4_pu.csv</t>
   </si>
   <si>
     <t>heat_4402_0.csv</t>
   </si>
   <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_4536_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_2687_0.csv</t>
-  </si>
-  <si>
     <t>naive</t>
   </si>
   <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
     <t>dhw_gen_3_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
     <t>dhw_gen_1_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -837,49 +837,49 @@
     <t>green_local</t>
   </si>
   <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
     <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
   </si>
   <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
     <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
   </si>
   <si>
-    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
-  </si>
-  <si>
-    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
-  </si>
-  <si>
-    <t>rnn</t>
+    <t>arima</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_47.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
     <t>ev_freetime_3.csv</t>
   </si>
   <si>
     <t>ev_fulltime_46.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_43.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_42.csv</t>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
   </si>
   <si>
     <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_0.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_90.csv</t>
   </si>
   <si>
     <t>price_sensitive</t>
@@ -2072,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2262000</v>
+        <v>3863000</v>
       </c>
       <c r="O2" t="s">
         <v>242</v>
       </c>
       <c r="P2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2093,40 +2093,40 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V2" t="s">
+        <v>251</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
         <v>252</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>20</v>
-      </c>
-      <c r="Y2">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2">
-        <v>20</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>253</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -2153,40 +2153,40 @@
         <v>9</v>
       </c>
       <c r="AQ2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS2">
+        <v>3</v>
+      </c>
+      <c r="AT2">
+        <v>20</v>
+      </c>
+      <c r="AU2">
+        <v>20</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW2">
+        <v>3</v>
+      </c>
+      <c r="AX2">
+        <v>20</v>
+      </c>
+      <c r="AY2">
+        <v>20</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
+      <c r="BB2" t="s">
         <v>252</v>
-      </c>
-      <c r="AS2">
-        <v>3</v>
-      </c>
-      <c r="AT2">
-        <v>20</v>
-      </c>
-      <c r="AU2">
-        <v>20</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW2">
-        <v>3</v>
-      </c>
-      <c r="AX2">
-        <v>20</v>
-      </c>
-      <c r="AY2">
-        <v>20</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA2">
-        <v>3</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>253</v>
       </c>
       <c r="BC2">
         <v>1</v>
@@ -2198,13 +2198,13 @@
         <v>5500000</v>
       </c>
       <c r="BF2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BG2">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -2219,40 +2219,40 @@
         <v>9</v>
       </c>
       <c r="BM2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO2">
+        <v>3</v>
+      </c>
+      <c r="BP2">
+        <v>20</v>
+      </c>
+      <c r="BQ2">
+        <v>20</v>
+      </c>
+      <c r="BR2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS2">
+        <v>3</v>
+      </c>
+      <c r="BT2">
+        <v>20</v>
+      </c>
+      <c r="BU2">
+        <v>20</v>
+      </c>
+      <c r="BV2" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW2">
+        <v>3</v>
+      </c>
+      <c r="BX2" t="s">
         <v>252</v>
-      </c>
-      <c r="BO2">
-        <v>3</v>
-      </c>
-      <c r="BP2">
-        <v>20</v>
-      </c>
-      <c r="BQ2">
-        <v>20</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS2">
-        <v>3</v>
-      </c>
-      <c r="BT2">
-        <v>20</v>
-      </c>
-      <c r="BU2">
-        <v>20</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW2">
-        <v>3</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>253</v>
       </c>
       <c r="BY2">
         <v>1</v>
@@ -2264,7 +2264,7 @@
         <v>1800000</v>
       </c>
       <c r="CB2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="CC2">
         <v>55</v>
@@ -2285,41 +2285,41 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK2">
+        <v>3</v>
+      </c>
+      <c r="CL2">
+        <v>20</v>
+      </c>
+      <c r="CM2">
+        <v>20</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO2">
+        <v>3</v>
+      </c>
+      <c r="CP2">
+        <v>20</v>
+      </c>
+      <c r="CQ2">
+        <v>20</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS2">
+        <v>3</v>
+      </c>
+      <c r="CT2" t="s">
         <v>252</v>
       </c>
-      <c r="CK2">
-        <v>3</v>
-      </c>
-      <c r="CL2">
-        <v>20</v>
-      </c>
-      <c r="CM2">
-        <v>20</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO2">
-        <v>3</v>
-      </c>
-      <c r="CP2">
-        <v>20</v>
-      </c>
-      <c r="CQ2">
-        <v>20</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS2">
-        <v>3</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>253</v>
-      </c>
       <c r="CU2">
         <v>1</v>
       </c>
@@ -2327,22 +2327,22 @@
         <v>1</v>
       </c>
       <c r="CW2">
-        <v>3700</v>
+        <v>6200</v>
       </c>
       <c r="CX2" t="s">
         <v>270</v>
       </c>
       <c r="CY2">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA2" t="b">
         <v>1</v>
       </c>
       <c r="DB2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC2">
         <v>1</v>
@@ -2357,40 +2357,40 @@
         <v>9</v>
       </c>
       <c r="DG2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI2">
+        <v>3</v>
+      </c>
+      <c r="DJ2">
+        <v>20</v>
+      </c>
+      <c r="DK2">
+        <v>20</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM2">
+        <v>3</v>
+      </c>
+      <c r="DN2">
+        <v>20</v>
+      </c>
+      <c r="DO2">
+        <v>20</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ2">
+        <v>3</v>
+      </c>
+      <c r="DR2" t="s">
         <v>252</v>
-      </c>
-      <c r="DI2">
-        <v>3</v>
-      </c>
-      <c r="DJ2">
-        <v>20</v>
-      </c>
-      <c r="DK2">
-        <v>20</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM2">
-        <v>3</v>
-      </c>
-      <c r="DN2">
-        <v>20</v>
-      </c>
-      <c r="DO2">
-        <v>20</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ2">
-        <v>3</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>253</v>
       </c>
       <c r="DS2" t="s">
         <v>271</v>
@@ -2402,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="DV2">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="DW2" t="s">
         <v>272</v>
@@ -2411,7 +2411,7 @@
         <v>1</v>
       </c>
       <c r="DY2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -2426,40 +2426,40 @@
         <v>9</v>
       </c>
       <c r="ED2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF2">
+        <v>3</v>
+      </c>
+      <c r="EG2">
+        <v>20</v>
+      </c>
+      <c r="EH2">
+        <v>20</v>
+      </c>
+      <c r="EI2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ2">
+        <v>3</v>
+      </c>
+      <c r="EK2">
+        <v>20</v>
+      </c>
+      <c r="EL2">
+        <v>20</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN2">
+        <v>3</v>
+      </c>
+      <c r="EO2" t="s">
         <v>252</v>
-      </c>
-      <c r="EF2">
-        <v>3</v>
-      </c>
-      <c r="EG2">
-        <v>20</v>
-      </c>
-      <c r="EH2">
-        <v>20</v>
-      </c>
-      <c r="EI2" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ2">
-        <v>3</v>
-      </c>
-      <c r="EK2">
-        <v>20</v>
-      </c>
-      <c r="EL2">
-        <v>20</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN2">
-        <v>3</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>253</v>
       </c>
       <c r="EP2" t="s">
         <v>271</v>
@@ -2486,73 +2486,73 @@
         <v>9</v>
       </c>
       <c r="FA2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC2">
+        <v>3</v>
+      </c>
+      <c r="FD2">
+        <v>20</v>
+      </c>
+      <c r="FE2">
+        <v>20</v>
+      </c>
+      <c r="FF2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG2">
+        <v>3</v>
+      </c>
+      <c r="FH2">
+        <v>20</v>
+      </c>
+      <c r="FI2">
+        <v>20</v>
+      </c>
+      <c r="FJ2" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK2">
+        <v>3</v>
+      </c>
+      <c r="FL2" t="s">
         <v>252</v>
       </c>
-      <c r="FC2">
-        <v>3</v>
-      </c>
-      <c r="FD2">
-        <v>20</v>
-      </c>
-      <c r="FE2">
-        <v>20</v>
-      </c>
-      <c r="FF2" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG2">
-        <v>3</v>
-      </c>
-      <c r="FH2">
-        <v>20</v>
-      </c>
-      <c r="FI2">
-        <v>20</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK2">
-        <v>3</v>
-      </c>
-      <c r="FL2" t="s">
-        <v>253</v>
-      </c>
       <c r="FM2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FN2">
+        <v>0</v>
+      </c>
+      <c r="FO2">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="s">
+        <v>277</v>
+      </c>
+      <c r="FS2">
+        <v>1</v>
+      </c>
+      <c r="FT2">
+        <v>2</v>
+      </c>
+      <c r="FU2" t="s">
         <v>278</v>
       </c>
-      <c r="FN2">
-        <v>0</v>
-      </c>
-      <c r="FO2">
-        <v>0</v>
-      </c>
-      <c r="FR2" t="s">
-        <v>278</v>
-      </c>
-      <c r="FS2">
-        <v>1</v>
-      </c>
-      <c r="FT2">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>279</v>
-      </c>
       <c r="FV2">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="FW2">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX2">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="FY2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="FZ2">
         <v>0.9</v>
@@ -2566,6 +2566,33 @@
       <c r="GC2" t="b">
         <v>0</v>
       </c>
+      <c r="GD2" t="s">
+        <v>286</v>
+      </c>
+      <c r="GE2">
+        <v>75000</v>
+      </c>
+      <c r="GF2">
+        <v>7200</v>
+      </c>
+      <c r="GG2">
+        <v>11000</v>
+      </c>
+      <c r="GH2">
+        <v>100000</v>
+      </c>
+      <c r="GI2">
+        <v>0.9</v>
+      </c>
+      <c r="GJ2">
+        <v>0.8</v>
+      </c>
+      <c r="GK2" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL2" t="b">
+        <v>0</v>
+      </c>
       <c r="GM2" t="s">
         <v>287</v>
       </c>
@@ -2588,7 +2615,7 @@
         <v>289</v>
       </c>
       <c r="GT2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU2">
         <v>1</v>
@@ -2597,10 +2624,10 @@
         <v>1</v>
       </c>
       <c r="GW2">
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="GX2">
-        <v>2300</v>
+        <v>3900</v>
       </c>
       <c r="GY2">
         <v>0.95</v>
@@ -2615,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="HC2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD2">
         <v>0</v>
@@ -2624,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="HJ2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK2" t="s">
         <v>290</v>
@@ -2642,22 +2669,22 @@
         <v>86400</v>
       </c>
       <c r="HP2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR2" t="s">
         <v>292</v>
       </c>
       <c r="HS2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV2" t="s">
         <v>292</v>
@@ -2680,10 +2707,10 @@
         <v>233</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2692,7 +2719,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2704,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3564000</v>
+        <v>2262000</v>
       </c>
       <c r="O3" t="s">
         <v>243</v>
       </c>
       <c r="P3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2725,40 +2752,40 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V3" t="s">
+        <v>251</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>20</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="s">
         <v>252</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>20</v>
-      </c>
-      <c r="Y3">
-        <v>20</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
-        <v>20</v>
-      </c>
-      <c r="AC3">
-        <v>20</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>253</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2770,7 +2797,7 @@
         <v>6</v>
       </c>
       <c r="AL3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -2785,41 +2812,41 @@
         <v>9</v>
       </c>
       <c r="AQ3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>20</v>
+      </c>
+      <c r="AU3">
+        <v>20</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>20</v>
+      </c>
+      <c r="AY3">
+        <v>20</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA3">
+        <v>3</v>
+      </c>
+      <c r="BB3" t="s">
         <v>252</v>
       </c>
-      <c r="AS3">
-        <v>3</v>
-      </c>
-      <c r="AT3">
-        <v>20</v>
-      </c>
-      <c r="AU3">
-        <v>20</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW3">
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <v>20</v>
-      </c>
-      <c r="AY3">
-        <v>20</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA3">
-        <v>3</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>253</v>
-      </c>
       <c r="BC3">
         <v>1</v>
       </c>
@@ -2827,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="BE3">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF3" t="s">
         <v>255</v>
@@ -2836,7 +2863,7 @@
         <v>55</v>
       </c>
       <c r="BH3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -2851,41 +2878,41 @@
         <v>9</v>
       </c>
       <c r="BM3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO3">
+        <v>3</v>
+      </c>
+      <c r="BP3">
+        <v>20</v>
+      </c>
+      <c r="BQ3">
+        <v>20</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS3">
+        <v>3</v>
+      </c>
+      <c r="BT3">
+        <v>20</v>
+      </c>
+      <c r="BU3">
+        <v>20</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW3">
+        <v>3</v>
+      </c>
+      <c r="BX3" t="s">
         <v>252</v>
       </c>
-      <c r="BO3">
-        <v>3</v>
-      </c>
-      <c r="BP3">
-        <v>20</v>
-      </c>
-      <c r="BQ3">
-        <v>20</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS3">
-        <v>3</v>
-      </c>
-      <c r="BT3">
-        <v>20</v>
-      </c>
-      <c r="BU3">
-        <v>20</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW3">
-        <v>3</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>253</v>
-      </c>
       <c r="BY3">
         <v>1</v>
       </c>
@@ -2893,10 +2920,10 @@
         <v>1</v>
       </c>
       <c r="CA3">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="CB3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="CC3">
         <v>55</v>
@@ -2917,41 +2944,41 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK3">
+        <v>3</v>
+      </c>
+      <c r="CL3">
+        <v>20</v>
+      </c>
+      <c r="CM3">
+        <v>20</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO3">
+        <v>3</v>
+      </c>
+      <c r="CP3">
+        <v>20</v>
+      </c>
+      <c r="CQ3">
+        <v>20</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS3">
+        <v>3</v>
+      </c>
+      <c r="CT3" t="s">
         <v>252</v>
       </c>
-      <c r="CK3">
-        <v>3</v>
-      </c>
-      <c r="CL3">
-        <v>20</v>
-      </c>
-      <c r="CM3">
-        <v>20</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO3">
-        <v>3</v>
-      </c>
-      <c r="CP3">
-        <v>20</v>
-      </c>
-      <c r="CQ3">
-        <v>20</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS3">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>253</v>
-      </c>
       <c r="CU3">
         <v>1</v>
       </c>
@@ -2959,7 +2986,7 @@
         <v>1</v>
       </c>
       <c r="CW3">
-        <v>4500</v>
+        <v>3400</v>
       </c>
       <c r="CX3" t="s">
         <v>270</v>
@@ -2974,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="DB3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC3">
         <v>1</v>
@@ -2989,40 +3016,40 @@
         <v>9</v>
       </c>
       <c r="DG3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH3" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI3">
+        <v>3</v>
+      </c>
+      <c r="DJ3">
+        <v>20</v>
+      </c>
+      <c r="DK3">
+        <v>20</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM3">
+        <v>3</v>
+      </c>
+      <c r="DN3">
+        <v>20</v>
+      </c>
+      <c r="DO3">
+        <v>20</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ3">
+        <v>3</v>
+      </c>
+      <c r="DR3" t="s">
         <v>252</v>
-      </c>
-      <c r="DI3">
-        <v>3</v>
-      </c>
-      <c r="DJ3">
-        <v>20</v>
-      </c>
-      <c r="DK3">
-        <v>20</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM3">
-        <v>3</v>
-      </c>
-      <c r="DN3">
-        <v>20</v>
-      </c>
-      <c r="DO3">
-        <v>20</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ3">
-        <v>3</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>253</v>
       </c>
       <c r="DS3" t="s">
         <v>271</v>
@@ -3034,7 +3061,7 @@
         <v>1</v>
       </c>
       <c r="DV3">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="DW3" t="s">
         <v>273</v>
@@ -3043,7 +3070,7 @@
         <v>1</v>
       </c>
       <c r="DY3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ3">
         <v>1</v>
@@ -3058,40 +3085,40 @@
         <v>9</v>
       </c>
       <c r="ED3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE3" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF3">
+        <v>3</v>
+      </c>
+      <c r="EG3">
+        <v>20</v>
+      </c>
+      <c r="EH3">
+        <v>20</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ3">
+        <v>3</v>
+      </c>
+      <c r="EK3">
+        <v>20</v>
+      </c>
+      <c r="EL3">
+        <v>20</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN3">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="s">
         <v>252</v>
-      </c>
-      <c r="EF3">
-        <v>3</v>
-      </c>
-      <c r="EG3">
-        <v>20</v>
-      </c>
-      <c r="EH3">
-        <v>20</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ3">
-        <v>3</v>
-      </c>
-      <c r="EK3">
-        <v>20</v>
-      </c>
-      <c r="EL3">
-        <v>20</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN3">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>253</v>
       </c>
       <c r="EP3" t="s">
         <v>271</v>
@@ -3118,43 +3145,43 @@
         <v>9</v>
       </c>
       <c r="FA3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB3" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC3">
+        <v>3</v>
+      </c>
+      <c r="FD3">
+        <v>20</v>
+      </c>
+      <c r="FE3">
+        <v>20</v>
+      </c>
+      <c r="FF3" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG3">
+        <v>3</v>
+      </c>
+      <c r="FH3">
+        <v>20</v>
+      </c>
+      <c r="FI3">
+        <v>20</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK3">
+        <v>3</v>
+      </c>
+      <c r="FL3" t="s">
         <v>252</v>
       </c>
-      <c r="FC3">
-        <v>3</v>
-      </c>
-      <c r="FD3">
-        <v>20</v>
-      </c>
-      <c r="FE3">
-        <v>20</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG3">
-        <v>3</v>
-      </c>
-      <c r="FH3">
-        <v>20</v>
-      </c>
-      <c r="FI3">
-        <v>20</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK3">
-        <v>3</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>253</v>
-      </c>
       <c r="FM3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN3">
         <v>0</v>
@@ -3163,28 +3190,28 @@
         <v>0</v>
       </c>
       <c r="FR3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS3">
         <v>1</v>
       </c>
       <c r="FT3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="FV3">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FW3">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FX3">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="FY3">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="FZ3">
         <v>0.9</v>
@@ -3198,33 +3225,6 @@
       <c r="GC3" t="b">
         <v>0</v>
       </c>
-      <c r="GD3" t="s">
-        <v>286</v>
-      </c>
-      <c r="GE3">
-        <v>100000</v>
-      </c>
-      <c r="GF3">
-        <v>11000</v>
-      </c>
-      <c r="GG3">
-        <v>22000</v>
-      </c>
-      <c r="GH3">
-        <v>200000</v>
-      </c>
-      <c r="GI3">
-        <v>0.9</v>
-      </c>
-      <c r="GJ3">
-        <v>0.8</v>
-      </c>
-      <c r="GK3" t="b">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="b">
-        <v>0</v>
-      </c>
       <c r="GM3" t="s">
         <v>287</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>289</v>
       </c>
       <c r="GT3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU3">
         <v>1</v>
@@ -3256,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="GW3">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="GX3">
-        <v>3600</v>
+        <v>2300</v>
       </c>
       <c r="GY3">
         <v>0.95</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="HC3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD3">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="HJ3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK3" t="s">
         <v>290</v>
@@ -3301,22 +3301,22 @@
         <v>86400</v>
       </c>
       <c r="HP3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR3" t="s">
         <v>292</v>
       </c>
       <c r="HS3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV3" t="s">
         <v>292</v>
@@ -3363,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>4402000</v>
+        <v>2012000</v>
       </c>
       <c r="O4" t="s">
         <v>244</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3384,40 +3384,40 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V4" t="s">
+        <v>251</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
         <v>252</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>20</v>
-      </c>
-      <c r="Y4">
-        <v>20</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
-      <c r="AB4">
-        <v>20</v>
-      </c>
-      <c r="AC4">
-        <v>20</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>253</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>6</v>
       </c>
       <c r="AL4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -3444,40 +3444,40 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>20</v>
+      </c>
+      <c r="AU4">
+        <v>20</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW4">
+        <v>3</v>
+      </c>
+      <c r="AX4">
+        <v>20</v>
+      </c>
+      <c r="AY4">
+        <v>20</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA4">
+        <v>3</v>
+      </c>
+      <c r="BB4" t="s">
         <v>252</v>
-      </c>
-      <c r="AS4">
-        <v>3</v>
-      </c>
-      <c r="AT4">
-        <v>20</v>
-      </c>
-      <c r="AU4">
-        <v>20</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW4">
-        <v>3</v>
-      </c>
-      <c r="AX4">
-        <v>20</v>
-      </c>
-      <c r="AY4">
-        <v>20</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA4">
-        <v>3</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>253</v>
       </c>
       <c r="BC4">
         <v>1</v>
@@ -3495,7 +3495,7 @@
         <v>35</v>
       </c>
       <c r="BH4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -3510,40 +3510,40 @@
         <v>9</v>
       </c>
       <c r="BM4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO4">
+        <v>3</v>
+      </c>
+      <c r="BP4">
+        <v>20</v>
+      </c>
+      <c r="BQ4">
+        <v>20</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS4">
+        <v>3</v>
+      </c>
+      <c r="BT4">
+        <v>20</v>
+      </c>
+      <c r="BU4">
+        <v>20</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW4">
+        <v>3</v>
+      </c>
+      <c r="BX4" t="s">
         <v>252</v>
-      </c>
-      <c r="BO4">
-        <v>3</v>
-      </c>
-      <c r="BP4">
-        <v>20</v>
-      </c>
-      <c r="BQ4">
-        <v>20</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS4">
-        <v>3</v>
-      </c>
-      <c r="BT4">
-        <v>20</v>
-      </c>
-      <c r="BU4">
-        <v>20</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW4">
-        <v>3</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>253</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -3576,41 +3576,41 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK4">
+        <v>3</v>
+      </c>
+      <c r="CL4">
+        <v>20</v>
+      </c>
+      <c r="CM4">
+        <v>20</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO4">
+        <v>3</v>
+      </c>
+      <c r="CP4">
+        <v>20</v>
+      </c>
+      <c r="CQ4">
+        <v>20</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS4">
+        <v>3</v>
+      </c>
+      <c r="CT4" t="s">
         <v>252</v>
       </c>
-      <c r="CK4">
-        <v>3</v>
-      </c>
-      <c r="CL4">
-        <v>20</v>
-      </c>
-      <c r="CM4">
-        <v>20</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO4">
-        <v>3</v>
-      </c>
-      <c r="CP4">
-        <v>20</v>
-      </c>
-      <c r="CQ4">
-        <v>20</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS4">
-        <v>3</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>253</v>
-      </c>
       <c r="CU4">
         <v>1</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
       <c r="CW4">
-        <v>6300</v>
+        <v>3200</v>
       </c>
       <c r="CX4" t="s">
         <v>270</v>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="DB4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC4">
         <v>1</v>
@@ -3648,40 +3648,40 @@
         <v>9</v>
       </c>
       <c r="DG4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH4" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI4">
+        <v>3</v>
+      </c>
+      <c r="DJ4">
+        <v>20</v>
+      </c>
+      <c r="DK4">
+        <v>20</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM4">
+        <v>3</v>
+      </c>
+      <c r="DN4">
+        <v>20</v>
+      </c>
+      <c r="DO4">
+        <v>20</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ4">
+        <v>3</v>
+      </c>
+      <c r="DR4" t="s">
         <v>252</v>
-      </c>
-      <c r="DI4">
-        <v>3</v>
-      </c>
-      <c r="DJ4">
-        <v>20</v>
-      </c>
-      <c r="DK4">
-        <v>20</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM4">
-        <v>3</v>
-      </c>
-      <c r="DN4">
-        <v>20</v>
-      </c>
-      <c r="DO4">
-        <v>20</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ4">
-        <v>3</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>253</v>
       </c>
       <c r="DS4" t="s">
         <v>271</v>
@@ -3693,16 +3693,16 @@
         <v>1</v>
       </c>
       <c r="DV4">
-        <v>2900</v>
+        <v>1700</v>
       </c>
       <c r="DW4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="DX4" t="b">
         <v>1</v>
       </c>
       <c r="DY4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ4">
         <v>1</v>
@@ -3717,40 +3717,40 @@
         <v>9</v>
       </c>
       <c r="ED4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE4" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF4">
+        <v>3</v>
+      </c>
+      <c r="EG4">
+        <v>20</v>
+      </c>
+      <c r="EH4">
+        <v>20</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ4">
+        <v>3</v>
+      </c>
+      <c r="EK4">
+        <v>20</v>
+      </c>
+      <c r="EL4">
+        <v>20</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN4">
+        <v>3</v>
+      </c>
+      <c r="EO4" t="s">
         <v>252</v>
-      </c>
-      <c r="EF4">
-        <v>3</v>
-      </c>
-      <c r="EG4">
-        <v>20</v>
-      </c>
-      <c r="EH4">
-        <v>20</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ4">
-        <v>3</v>
-      </c>
-      <c r="EK4">
-        <v>20</v>
-      </c>
-      <c r="EL4">
-        <v>20</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN4">
-        <v>3</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>253</v>
       </c>
       <c r="EP4" t="s">
         <v>271</v>
@@ -3777,43 +3777,43 @@
         <v>9</v>
       </c>
       <c r="FA4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB4" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC4">
+        <v>3</v>
+      </c>
+      <c r="FD4">
+        <v>20</v>
+      </c>
+      <c r="FE4">
+        <v>20</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG4">
+        <v>3</v>
+      </c>
+      <c r="FH4">
+        <v>20</v>
+      </c>
+      <c r="FI4">
+        <v>20</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK4">
+        <v>3</v>
+      </c>
+      <c r="FL4" t="s">
         <v>252</v>
       </c>
-      <c r="FC4">
-        <v>3</v>
-      </c>
-      <c r="FD4">
-        <v>20</v>
-      </c>
-      <c r="FE4">
-        <v>20</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG4">
-        <v>3</v>
-      </c>
-      <c r="FH4">
-        <v>20</v>
-      </c>
-      <c r="FI4">
-        <v>20</v>
-      </c>
-      <c r="FJ4" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK4">
-        <v>3</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>253</v>
-      </c>
       <c r="FM4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN4">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="FR4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS4">
         <v>1</v>
@@ -3831,7 +3831,7 @@
         <v>1</v>
       </c>
       <c r="FU4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="FV4">
         <v>75000</v>
@@ -3879,7 +3879,7 @@
         <v>289</v>
       </c>
       <c r="GT4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU4">
         <v>1</v>
@@ -3888,10 +3888,10 @@
         <v>1</v>
       </c>
       <c r="GW4">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="GX4">
-        <v>4400</v>
+        <v>2000</v>
       </c>
       <c r="GY4">
         <v>0.95</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="HC4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD4">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="HJ4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK4" t="s">
         <v>290</v>
@@ -3933,22 +3933,22 @@
         <v>86400</v>
       </c>
       <c r="HP4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR4" t="s">
         <v>292</v>
       </c>
       <c r="HS4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV4" t="s">
         <v>292</v>
@@ -3971,10 +3971,10 @@
         <v>235</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3983,7 +3983,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3995,13 +3995,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>5527000</v>
+        <v>4536000</v>
       </c>
       <c r="O5" t="s">
         <v>245</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4016,40 +4016,40 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V5" t="s">
+        <v>251</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>20</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
         <v>252</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>20</v>
-      </c>
-      <c r="Y5">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>20</v>
-      </c>
-      <c r="AC5">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>253</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>6</v>
       </c>
       <c r="AL5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -4076,41 +4076,41 @@
         <v>9</v>
       </c>
       <c r="AQ5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS5">
+        <v>3</v>
+      </c>
+      <c r="AT5">
+        <v>20</v>
+      </c>
+      <c r="AU5">
+        <v>20</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW5">
+        <v>3</v>
+      </c>
+      <c r="AX5">
+        <v>20</v>
+      </c>
+      <c r="AY5">
+        <v>20</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA5">
+        <v>3</v>
+      </c>
+      <c r="BB5" t="s">
         <v>252</v>
       </c>
-      <c r="AS5">
-        <v>3</v>
-      </c>
-      <c r="AT5">
-        <v>20</v>
-      </c>
-      <c r="AU5">
-        <v>20</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW5">
-        <v>3</v>
-      </c>
-      <c r="AX5">
-        <v>20</v>
-      </c>
-      <c r="AY5">
-        <v>20</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA5">
-        <v>3</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>253</v>
-      </c>
       <c r="BC5">
         <v>1</v>
       </c>
@@ -4118,16 +4118,16 @@
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF5" t="s">
         <v>257</v>
       </c>
       <c r="BG5">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -4142,41 +4142,41 @@
         <v>9</v>
       </c>
       <c r="BM5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO5">
+        <v>3</v>
+      </c>
+      <c r="BP5">
+        <v>20</v>
+      </c>
+      <c r="BQ5">
+        <v>20</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS5">
+        <v>3</v>
+      </c>
+      <c r="BT5">
+        <v>20</v>
+      </c>
+      <c r="BU5">
+        <v>20</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW5">
+        <v>3</v>
+      </c>
+      <c r="BX5" t="s">
         <v>252</v>
       </c>
-      <c r="BO5">
-        <v>3</v>
-      </c>
-      <c r="BP5">
-        <v>20</v>
-      </c>
-      <c r="BQ5">
-        <v>20</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS5">
-        <v>3</v>
-      </c>
-      <c r="BT5">
-        <v>20</v>
-      </c>
-      <c r="BU5">
-        <v>20</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW5">
-        <v>3</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>253</v>
-      </c>
       <c r="BY5">
         <v>1</v>
       </c>
@@ -4184,10 +4184,10 @@
         <v>1</v>
       </c>
       <c r="CA5">
-        <v>2400000</v>
+        <v>2100000</v>
       </c>
       <c r="CB5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="CC5">
         <v>55</v>
@@ -4208,41 +4208,41 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ5" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK5">
+        <v>3</v>
+      </c>
+      <c r="CL5">
+        <v>20</v>
+      </c>
+      <c r="CM5">
+        <v>20</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO5">
+        <v>3</v>
+      </c>
+      <c r="CP5">
+        <v>20</v>
+      </c>
+      <c r="CQ5">
+        <v>20</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS5">
+        <v>3</v>
+      </c>
+      <c r="CT5" t="s">
         <v>252</v>
       </c>
-      <c r="CK5">
-        <v>3</v>
-      </c>
-      <c r="CL5">
-        <v>20</v>
-      </c>
-      <c r="CM5">
-        <v>20</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO5">
-        <v>3</v>
-      </c>
-      <c r="CP5">
-        <v>20</v>
-      </c>
-      <c r="CQ5">
-        <v>20</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS5">
-        <v>3</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>253</v>
-      </c>
       <c r="CU5">
         <v>1</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>1</v>
       </c>
       <c r="CW5">
-        <v>7400</v>
+        <v>5700</v>
       </c>
       <c r="CX5" t="s">
         <v>270</v>
@@ -4265,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="DB5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC5">
         <v>1</v>
@@ -4280,40 +4280,40 @@
         <v>9</v>
       </c>
       <c r="DG5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH5" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI5">
+        <v>3</v>
+      </c>
+      <c r="DJ5">
+        <v>20</v>
+      </c>
+      <c r="DK5">
+        <v>20</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM5">
+        <v>3</v>
+      </c>
+      <c r="DN5">
+        <v>20</v>
+      </c>
+      <c r="DO5">
+        <v>20</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ5">
+        <v>3</v>
+      </c>
+      <c r="DR5" t="s">
         <v>252</v>
-      </c>
-      <c r="DI5">
-        <v>3</v>
-      </c>
-      <c r="DJ5">
-        <v>20</v>
-      </c>
-      <c r="DK5">
-        <v>20</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM5">
-        <v>3</v>
-      </c>
-      <c r="DN5">
-        <v>20</v>
-      </c>
-      <c r="DO5">
-        <v>20</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ5">
-        <v>3</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>253</v>
       </c>
       <c r="DS5" t="s">
         <v>271</v>
@@ -4325,16 +4325,16 @@
         <v>1</v>
       </c>
       <c r="DV5">
-        <v>2600</v>
+        <v>3500</v>
       </c>
       <c r="DW5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="DX5" t="b">
         <v>1</v>
       </c>
       <c r="DY5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ5">
         <v>1</v>
@@ -4349,40 +4349,40 @@
         <v>9</v>
       </c>
       <c r="ED5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE5" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF5">
+        <v>3</v>
+      </c>
+      <c r="EG5">
+        <v>20</v>
+      </c>
+      <c r="EH5">
+        <v>20</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ5">
+        <v>3</v>
+      </c>
+      <c r="EK5">
+        <v>20</v>
+      </c>
+      <c r="EL5">
+        <v>20</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN5">
+        <v>3</v>
+      </c>
+      <c r="EO5" t="s">
         <v>252</v>
-      </c>
-      <c r="EF5">
-        <v>3</v>
-      </c>
-      <c r="EG5">
-        <v>20</v>
-      </c>
-      <c r="EH5">
-        <v>20</v>
-      </c>
-      <c r="EI5" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ5">
-        <v>3</v>
-      </c>
-      <c r="EK5">
-        <v>20</v>
-      </c>
-      <c r="EL5">
-        <v>20</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN5">
-        <v>3</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>253</v>
       </c>
       <c r="EP5" t="s">
         <v>271</v>
@@ -4409,43 +4409,43 @@
         <v>9</v>
       </c>
       <c r="FA5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC5">
+        <v>3</v>
+      </c>
+      <c r="FD5">
+        <v>20</v>
+      </c>
+      <c r="FE5">
+        <v>20</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG5">
+        <v>3</v>
+      </c>
+      <c r="FH5">
+        <v>20</v>
+      </c>
+      <c r="FI5">
+        <v>20</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK5">
+        <v>3</v>
+      </c>
+      <c r="FL5" t="s">
         <v>252</v>
       </c>
-      <c r="FC5">
-        <v>3</v>
-      </c>
-      <c r="FD5">
-        <v>20</v>
-      </c>
-      <c r="FE5">
-        <v>20</v>
-      </c>
-      <c r="FF5" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG5">
-        <v>3</v>
-      </c>
-      <c r="FH5">
-        <v>20</v>
-      </c>
-      <c r="FI5">
-        <v>20</v>
-      </c>
-      <c r="FJ5" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK5">
-        <v>3</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>253</v>
-      </c>
       <c r="FM5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN5">
         <v>0</v>
@@ -4454,7 +4454,7 @@
         <v>0</v>
       </c>
       <c r="FR5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS5">
         <v>1</v>
@@ -4463,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="FU5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="FV5">
         <v>75000</v>
@@ -4511,7 +4511,7 @@
         <v>289</v>
       </c>
       <c r="GT5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU5">
         <v>1</v>
@@ -4520,10 +4520,10 @@
         <v>1</v>
       </c>
       <c r="GW5">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="GX5">
-        <v>5500</v>
+        <v>4500</v>
       </c>
       <c r="GY5">
         <v>0.95</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="HC5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD5">
         <v>0</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="HJ5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK5" t="s">
         <v>290</v>
@@ -4565,22 +4565,22 @@
         <v>86400</v>
       </c>
       <c r="HP5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR5" t="s">
         <v>292</v>
       </c>
       <c r="HS5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV5" t="s">
         <v>292</v>
@@ -4627,13 +4627,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>4402000</v>
+        <v>3296000</v>
       </c>
       <c r="O6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4648,40 +4648,40 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V6" t="s">
+        <v>251</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>20</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
         <v>252</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
-      <c r="Y6">
-        <v>20</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA6">
-        <v>3</v>
-      </c>
-      <c r="AB6">
-        <v>20</v>
-      </c>
-      <c r="AC6">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE6">
-        <v>3</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>253</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -4708,40 +4708,40 @@
         <v>9</v>
       </c>
       <c r="AQ6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS6">
+        <v>3</v>
+      </c>
+      <c r="AT6">
+        <v>20</v>
+      </c>
+      <c r="AU6">
+        <v>20</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW6">
+        <v>3</v>
+      </c>
+      <c r="AX6">
+        <v>20</v>
+      </c>
+      <c r="AY6">
+        <v>20</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6" t="s">
         <v>252</v>
-      </c>
-      <c r="AS6">
-        <v>3</v>
-      </c>
-      <c r="AT6">
-        <v>20</v>
-      </c>
-      <c r="AU6">
-        <v>20</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW6">
-        <v>3</v>
-      </c>
-      <c r="AX6">
-        <v>20</v>
-      </c>
-      <c r="AY6">
-        <v>20</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA6">
-        <v>3</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>253</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -4753,13 +4753,13 @@
         <v>5500000</v>
       </c>
       <c r="BF6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG6">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -4774,41 +4774,41 @@
         <v>9</v>
       </c>
       <c r="BM6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO6">
+        <v>3</v>
+      </c>
+      <c r="BP6">
+        <v>20</v>
+      </c>
+      <c r="BQ6">
+        <v>20</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS6">
+        <v>3</v>
+      </c>
+      <c r="BT6">
+        <v>20</v>
+      </c>
+      <c r="BU6">
+        <v>20</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW6">
+        <v>3</v>
+      </c>
+      <c r="BX6" t="s">
         <v>252</v>
       </c>
-      <c r="BO6">
-        <v>3</v>
-      </c>
-      <c r="BP6">
-        <v>20</v>
-      </c>
-      <c r="BQ6">
-        <v>20</v>
-      </c>
-      <c r="BR6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS6">
-        <v>3</v>
-      </c>
-      <c r="BT6">
-        <v>20</v>
-      </c>
-      <c r="BU6">
-        <v>20</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW6">
-        <v>3</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>253</v>
-      </c>
       <c r="BY6">
         <v>1</v>
       </c>
@@ -4816,10 +4816,10 @@
         <v>1</v>
       </c>
       <c r="CA6">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="CB6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CC6">
         <v>55</v>
@@ -4840,41 +4840,41 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK6">
+        <v>3</v>
+      </c>
+      <c r="CL6">
+        <v>20</v>
+      </c>
+      <c r="CM6">
+        <v>20</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO6">
+        <v>3</v>
+      </c>
+      <c r="CP6">
+        <v>20</v>
+      </c>
+      <c r="CQ6">
+        <v>20</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS6">
+        <v>3</v>
+      </c>
+      <c r="CT6" t="s">
         <v>252</v>
       </c>
-      <c r="CK6">
-        <v>3</v>
-      </c>
-      <c r="CL6">
-        <v>20</v>
-      </c>
-      <c r="CM6">
-        <v>20</v>
-      </c>
-      <c r="CN6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO6">
-        <v>3</v>
-      </c>
-      <c r="CP6">
-        <v>20</v>
-      </c>
-      <c r="CQ6">
-        <v>20</v>
-      </c>
-      <c r="CR6" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS6">
-        <v>3</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>253</v>
-      </c>
       <c r="CU6">
         <v>1</v>
       </c>
@@ -4882,22 +4882,22 @@
         <v>1</v>
       </c>
       <c r="CW6">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="CX6" t="s">
         <v>270</v>
       </c>
       <c r="CY6">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ6">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA6" t="b">
         <v>1</v>
       </c>
       <c r="DB6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC6">
         <v>1</v>
@@ -4912,40 +4912,40 @@
         <v>9</v>
       </c>
       <c r="DG6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH6" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI6">
+        <v>3</v>
+      </c>
+      <c r="DJ6">
+        <v>20</v>
+      </c>
+      <c r="DK6">
+        <v>20</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM6">
+        <v>3</v>
+      </c>
+      <c r="DN6">
+        <v>20</v>
+      </c>
+      <c r="DO6">
+        <v>20</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ6">
+        <v>3</v>
+      </c>
+      <c r="DR6" t="s">
         <v>252</v>
-      </c>
-      <c r="DI6">
-        <v>3</v>
-      </c>
-      <c r="DJ6">
-        <v>20</v>
-      </c>
-      <c r="DK6">
-        <v>20</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM6">
-        <v>3</v>
-      </c>
-      <c r="DN6">
-        <v>20</v>
-      </c>
-      <c r="DO6">
-        <v>20</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ6">
-        <v>3</v>
-      </c>
-      <c r="DR6" t="s">
-        <v>253</v>
       </c>
       <c r="DS6" t="s">
         <v>271</v>
@@ -4957,16 +4957,16 @@
         <v>1</v>
       </c>
       <c r="DV6">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="DW6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="DX6" t="b">
         <v>1</v>
       </c>
       <c r="DY6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ6">
         <v>1</v>
@@ -4981,40 +4981,40 @@
         <v>9</v>
       </c>
       <c r="ED6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE6" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF6">
+        <v>3</v>
+      </c>
+      <c r="EG6">
+        <v>20</v>
+      </c>
+      <c r="EH6">
+        <v>20</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ6">
+        <v>3</v>
+      </c>
+      <c r="EK6">
+        <v>20</v>
+      </c>
+      <c r="EL6">
+        <v>20</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN6">
+        <v>3</v>
+      </c>
+      <c r="EO6" t="s">
         <v>252</v>
-      </c>
-      <c r="EF6">
-        <v>3</v>
-      </c>
-      <c r="EG6">
-        <v>20</v>
-      </c>
-      <c r="EH6">
-        <v>20</v>
-      </c>
-      <c r="EI6" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ6">
-        <v>3</v>
-      </c>
-      <c r="EK6">
-        <v>20</v>
-      </c>
-      <c r="EL6">
-        <v>20</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN6">
-        <v>3</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>253</v>
       </c>
       <c r="EP6" t="s">
         <v>271</v>
@@ -5041,43 +5041,43 @@
         <v>9</v>
       </c>
       <c r="FA6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB6" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC6">
+        <v>3</v>
+      </c>
+      <c r="FD6">
+        <v>20</v>
+      </c>
+      <c r="FE6">
+        <v>20</v>
+      </c>
+      <c r="FF6" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG6">
+        <v>3</v>
+      </c>
+      <c r="FH6">
+        <v>20</v>
+      </c>
+      <c r="FI6">
+        <v>20</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK6">
+        <v>3</v>
+      </c>
+      <c r="FL6" t="s">
         <v>252</v>
       </c>
-      <c r="FC6">
-        <v>3</v>
-      </c>
-      <c r="FD6">
-        <v>20</v>
-      </c>
-      <c r="FE6">
-        <v>20</v>
-      </c>
-      <c r="FF6" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG6">
-        <v>3</v>
-      </c>
-      <c r="FH6">
-        <v>20</v>
-      </c>
-      <c r="FI6">
-        <v>20</v>
-      </c>
-      <c r="FJ6" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK6">
-        <v>3</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>253</v>
-      </c>
       <c r="FM6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN6">
         <v>0</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="FR6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS6">
         <v>1</v>
@@ -5143,7 +5143,7 @@
         <v>289</v>
       </c>
       <c r="GT6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU6">
         <v>1</v>
@@ -5152,10 +5152,10 @@
         <v>1</v>
       </c>
       <c r="GW6">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="GX6">
-        <v>4400</v>
+        <v>3300</v>
       </c>
       <c r="GY6">
         <v>0.95</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="HC6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD6">
         <v>0</v>
@@ -5179,7 +5179,7 @@
         <v>0</v>
       </c>
       <c r="HJ6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK6" t="s">
         <v>290</v>
@@ -5197,22 +5197,22 @@
         <v>86400</v>
       </c>
       <c r="HP6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR6" t="s">
         <v>292</v>
       </c>
       <c r="HS6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV6" t="s">
         <v>292</v>
@@ -5235,10 +5235,10 @@
         <v>237</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5247,7 +5247,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5259,13 +5259,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3863000</v>
+        <v>3296000</v>
       </c>
       <c r="O7" t="s">
         <v>246</v>
       </c>
       <c r="P7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5280,40 +5280,40 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V7" t="s">
+        <v>251</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>20</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
         <v>252</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>20</v>
-      </c>
-      <c r="Y7">
-        <v>20</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>20</v>
-      </c>
-      <c r="AC7">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE7">
-        <v>3</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>253</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>6</v>
       </c>
       <c r="AL7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -5340,41 +5340,41 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS7">
+        <v>3</v>
+      </c>
+      <c r="AT7">
+        <v>20</v>
+      </c>
+      <c r="AU7">
+        <v>20</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW7">
+        <v>3</v>
+      </c>
+      <c r="AX7">
+        <v>20</v>
+      </c>
+      <c r="AY7">
+        <v>20</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA7">
+        <v>3</v>
+      </c>
+      <c r="BB7" t="s">
         <v>252</v>
       </c>
-      <c r="AS7">
-        <v>3</v>
-      </c>
-      <c r="AT7">
-        <v>20</v>
-      </c>
-      <c r="AU7">
-        <v>20</v>
-      </c>
-      <c r="AV7" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW7">
-        <v>3</v>
-      </c>
-      <c r="AX7">
-        <v>20</v>
-      </c>
-      <c r="AY7">
-        <v>20</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA7">
-        <v>3</v>
-      </c>
-      <c r="BB7" t="s">
-        <v>253</v>
-      </c>
       <c r="BC7">
         <v>1</v>
       </c>
@@ -5382,16 +5382,16 @@
         <v>1</v>
       </c>
       <c r="BE7">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BG7">
         <v>55</v>
       </c>
       <c r="BH7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -5406,41 +5406,41 @@
         <v>9</v>
       </c>
       <c r="BM7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO7">
+        <v>3</v>
+      </c>
+      <c r="BP7">
+        <v>20</v>
+      </c>
+      <c r="BQ7">
+        <v>20</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS7">
+        <v>3</v>
+      </c>
+      <c r="BT7">
+        <v>20</v>
+      </c>
+      <c r="BU7">
+        <v>20</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW7">
+        <v>3</v>
+      </c>
+      <c r="BX7" t="s">
         <v>252</v>
       </c>
-      <c r="BO7">
-        <v>3</v>
-      </c>
-      <c r="BP7">
-        <v>20</v>
-      </c>
-      <c r="BQ7">
-        <v>20</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS7">
-        <v>3</v>
-      </c>
-      <c r="BT7">
-        <v>20</v>
-      </c>
-      <c r="BU7">
-        <v>20</v>
-      </c>
-      <c r="BV7" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW7">
-        <v>3</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>253</v>
-      </c>
       <c r="BY7">
         <v>1</v>
       </c>
@@ -5448,10 +5448,10 @@
         <v>1</v>
       </c>
       <c r="CA7">
-        <v>2100000</v>
+        <v>2800000</v>
       </c>
       <c r="CB7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="CC7">
         <v>55</v>
@@ -5472,41 +5472,41 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK7">
+        <v>3</v>
+      </c>
+      <c r="CL7">
+        <v>20</v>
+      </c>
+      <c r="CM7">
+        <v>20</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO7">
+        <v>3</v>
+      </c>
+      <c r="CP7">
+        <v>20</v>
+      </c>
+      <c r="CQ7">
+        <v>20</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS7">
+        <v>3</v>
+      </c>
+      <c r="CT7" t="s">
         <v>252</v>
       </c>
-      <c r="CK7">
-        <v>3</v>
-      </c>
-      <c r="CL7">
-        <v>20</v>
-      </c>
-      <c r="CM7">
-        <v>20</v>
-      </c>
-      <c r="CN7" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO7">
-        <v>3</v>
-      </c>
-      <c r="CP7">
-        <v>20</v>
-      </c>
-      <c r="CQ7">
-        <v>20</v>
-      </c>
-      <c r="CR7" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS7">
-        <v>3</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>253</v>
-      </c>
       <c r="CU7">
         <v>1</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>1</v>
       </c>
       <c r="CW7">
-        <v>6100</v>
+        <v>4400</v>
       </c>
       <c r="CX7" t="s">
         <v>270</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="DB7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC7">
         <v>1</v>
@@ -5544,40 +5544,40 @@
         <v>9</v>
       </c>
       <c r="DG7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH7" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI7">
+        <v>3</v>
+      </c>
+      <c r="DJ7">
+        <v>20</v>
+      </c>
+      <c r="DK7">
+        <v>20</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM7">
+        <v>3</v>
+      </c>
+      <c r="DN7">
+        <v>20</v>
+      </c>
+      <c r="DO7">
+        <v>20</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ7">
+        <v>3</v>
+      </c>
+      <c r="DR7" t="s">
         <v>252</v>
-      </c>
-      <c r="DI7">
-        <v>3</v>
-      </c>
-      <c r="DJ7">
-        <v>20</v>
-      </c>
-      <c r="DK7">
-        <v>20</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM7">
-        <v>3</v>
-      </c>
-      <c r="DN7">
-        <v>20</v>
-      </c>
-      <c r="DO7">
-        <v>20</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ7">
-        <v>3</v>
-      </c>
-      <c r="DR7" t="s">
-        <v>253</v>
       </c>
       <c r="DS7" t="s">
         <v>271</v>
@@ -5592,13 +5592,13 @@
         <v>1700</v>
       </c>
       <c r="DW7" t="s">
+        <v>273</v>
+      </c>
+      <c r="DX7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DY7" t="s">
         <v>276</v>
-      </c>
-      <c r="DX7" t="b">
-        <v>1</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>277</v>
       </c>
       <c r="DZ7">
         <v>1</v>
@@ -5613,40 +5613,40 @@
         <v>9</v>
       </c>
       <c r="ED7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE7" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF7">
+        <v>3</v>
+      </c>
+      <c r="EG7">
+        <v>20</v>
+      </c>
+      <c r="EH7">
+        <v>20</v>
+      </c>
+      <c r="EI7" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ7">
+        <v>3</v>
+      </c>
+      <c r="EK7">
+        <v>20</v>
+      </c>
+      <c r="EL7">
+        <v>20</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN7">
+        <v>3</v>
+      </c>
+      <c r="EO7" t="s">
         <v>252</v>
-      </c>
-      <c r="EF7">
-        <v>3</v>
-      </c>
-      <c r="EG7">
-        <v>20</v>
-      </c>
-      <c r="EH7">
-        <v>20</v>
-      </c>
-      <c r="EI7" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ7">
-        <v>3</v>
-      </c>
-      <c r="EK7">
-        <v>20</v>
-      </c>
-      <c r="EL7">
-        <v>20</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN7">
-        <v>3</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>253</v>
       </c>
       <c r="EP7" t="s">
         <v>271</v>
@@ -5673,43 +5673,43 @@
         <v>9</v>
       </c>
       <c r="FA7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB7" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC7">
+        <v>3</v>
+      </c>
+      <c r="FD7">
+        <v>20</v>
+      </c>
+      <c r="FE7">
+        <v>20</v>
+      </c>
+      <c r="FF7" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG7">
+        <v>3</v>
+      </c>
+      <c r="FH7">
+        <v>20</v>
+      </c>
+      <c r="FI7">
+        <v>20</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK7">
+        <v>3</v>
+      </c>
+      <c r="FL7" t="s">
         <v>252</v>
       </c>
-      <c r="FC7">
-        <v>3</v>
-      </c>
-      <c r="FD7">
-        <v>20</v>
-      </c>
-      <c r="FE7">
-        <v>20</v>
-      </c>
-      <c r="FF7" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG7">
-        <v>3</v>
-      </c>
-      <c r="FH7">
-        <v>20</v>
-      </c>
-      <c r="FI7">
-        <v>20</v>
-      </c>
-      <c r="FJ7" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK7">
-        <v>3</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>253</v>
-      </c>
       <c r="FM7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN7">
         <v>0</v>
@@ -5718,16 +5718,16 @@
         <v>0</v>
       </c>
       <c r="FR7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS7">
         <v>1</v>
       </c>
       <c r="FT7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="FV7">
         <v>50000</v>
@@ -5753,6 +5753,33 @@
       <c r="GC7" t="b">
         <v>0</v>
       </c>
+      <c r="GD7" t="s">
+        <v>281</v>
+      </c>
+      <c r="GE7">
+        <v>50000</v>
+      </c>
+      <c r="GF7">
+        <v>7200</v>
+      </c>
+      <c r="GG7">
+        <v>7200</v>
+      </c>
+      <c r="GH7">
+        <v>50000</v>
+      </c>
+      <c r="GI7">
+        <v>0.9</v>
+      </c>
+      <c r="GJ7">
+        <v>0.8</v>
+      </c>
+      <c r="GK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL7" t="b">
+        <v>0</v>
+      </c>
       <c r="GM7" t="s">
         <v>287</v>
       </c>
@@ -5775,7 +5802,7 @@
         <v>289</v>
       </c>
       <c r="GT7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU7">
         <v>1</v>
@@ -5784,10 +5811,10 @@
         <v>1</v>
       </c>
       <c r="GW7">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="GX7">
-        <v>3900</v>
+        <v>3300</v>
       </c>
       <c r="GY7">
         <v>0.95</v>
@@ -5802,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="HC7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD7">
         <v>0</v>
@@ -5811,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="HJ7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK7" t="s">
         <v>290</v>
@@ -5829,22 +5856,22 @@
         <v>86400</v>
       </c>
       <c r="HP7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR7" t="s">
         <v>292</v>
       </c>
       <c r="HS7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV7" t="s">
         <v>292</v>
@@ -5891,13 +5918,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>4536000</v>
+        <v>5527000</v>
       </c>
       <c r="O8" t="s">
         <v>247</v>
       </c>
       <c r="P8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5912,40 +5939,40 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V8" t="s">
+        <v>251</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>20</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
         <v>252</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>20</v>
-      </c>
-      <c r="AC8">
-        <v>20</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE8">
-        <v>3</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>253</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -5957,7 +5984,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -5972,40 +5999,40 @@
         <v>9</v>
       </c>
       <c r="AQ8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS8">
+        <v>3</v>
+      </c>
+      <c r="AT8">
+        <v>20</v>
+      </c>
+      <c r="AU8">
+        <v>20</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
+        <v>20</v>
+      </c>
+      <c r="AY8">
+        <v>20</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA8">
+        <v>3</v>
+      </c>
+      <c r="BB8" t="s">
         <v>252</v>
-      </c>
-      <c r="AS8">
-        <v>3</v>
-      </c>
-      <c r="AT8">
-        <v>20</v>
-      </c>
-      <c r="AU8">
-        <v>20</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW8">
-        <v>3</v>
-      </c>
-      <c r="AX8">
-        <v>20</v>
-      </c>
-      <c r="AY8">
-        <v>20</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA8">
-        <v>3</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>253</v>
       </c>
       <c r="BC8">
         <v>1</v>
@@ -6017,13 +6044,13 @@
         <v>19500000</v>
       </c>
       <c r="BF8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BG8">
         <v>55</v>
       </c>
       <c r="BH8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI8">
         <v>1</v>
@@ -6038,41 +6065,41 @@
         <v>9</v>
       </c>
       <c r="BM8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN8" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO8">
+        <v>3</v>
+      </c>
+      <c r="BP8">
+        <v>20</v>
+      </c>
+      <c r="BQ8">
+        <v>20</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS8">
+        <v>3</v>
+      </c>
+      <c r="BT8">
+        <v>20</v>
+      </c>
+      <c r="BU8">
+        <v>20</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW8">
+        <v>3</v>
+      </c>
+      <c r="BX8" t="s">
         <v>252</v>
       </c>
-      <c r="BO8">
-        <v>3</v>
-      </c>
-      <c r="BP8">
-        <v>20</v>
-      </c>
-      <c r="BQ8">
-        <v>20</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS8">
-        <v>3</v>
-      </c>
-      <c r="BT8">
-        <v>20</v>
-      </c>
-      <c r="BU8">
-        <v>20</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW8">
-        <v>3</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>253</v>
-      </c>
       <c r="BY8">
         <v>1</v>
       </c>
@@ -6080,10 +6107,10 @@
         <v>1</v>
       </c>
       <c r="CA8">
-        <v>3200000</v>
+        <v>2400000</v>
       </c>
       <c r="CB8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CC8">
         <v>55</v>
@@ -6104,41 +6131,41 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ8" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK8">
+        <v>3</v>
+      </c>
+      <c r="CL8">
+        <v>20</v>
+      </c>
+      <c r="CM8">
+        <v>20</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO8">
+        <v>3</v>
+      </c>
+      <c r="CP8">
+        <v>20</v>
+      </c>
+      <c r="CQ8">
+        <v>20</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS8">
+        <v>3</v>
+      </c>
+      <c r="CT8" t="s">
         <v>252</v>
       </c>
-      <c r="CK8">
-        <v>3</v>
-      </c>
-      <c r="CL8">
-        <v>20</v>
-      </c>
-      <c r="CM8">
-        <v>20</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO8">
-        <v>3</v>
-      </c>
-      <c r="CP8">
-        <v>20</v>
-      </c>
-      <c r="CQ8">
-        <v>20</v>
-      </c>
-      <c r="CR8" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS8">
-        <v>3</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>253</v>
-      </c>
       <c r="CU8">
         <v>1</v>
       </c>
@@ -6146,7 +6173,7 @@
         <v>1</v>
       </c>
       <c r="CW8">
-        <v>5900</v>
+        <v>7000</v>
       </c>
       <c r="CX8" t="s">
         <v>270</v>
@@ -6161,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="DB8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC8">
         <v>1</v>
@@ -6176,40 +6203,40 @@
         <v>9</v>
       </c>
       <c r="DG8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH8" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI8">
+        <v>3</v>
+      </c>
+      <c r="DJ8">
+        <v>20</v>
+      </c>
+      <c r="DK8">
+        <v>20</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM8">
+        <v>3</v>
+      </c>
+      <c r="DN8">
+        <v>20</v>
+      </c>
+      <c r="DO8">
+        <v>20</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ8">
+        <v>3</v>
+      </c>
+      <c r="DR8" t="s">
         <v>252</v>
-      </c>
-      <c r="DI8">
-        <v>3</v>
-      </c>
-      <c r="DJ8">
-        <v>20</v>
-      </c>
-      <c r="DK8">
-        <v>20</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM8">
-        <v>3</v>
-      </c>
-      <c r="DN8">
-        <v>20</v>
-      </c>
-      <c r="DO8">
-        <v>20</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ8">
-        <v>3</v>
-      </c>
-      <c r="DR8" t="s">
-        <v>253</v>
       </c>
       <c r="DS8" t="s">
         <v>271</v>
@@ -6221,16 +6248,16 @@
         <v>1</v>
       </c>
       <c r="DV8">
-        <v>2600</v>
+        <v>4000</v>
       </c>
       <c r="DW8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="DX8" t="b">
         <v>1</v>
       </c>
       <c r="DY8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ8">
         <v>1</v>
@@ -6245,40 +6272,40 @@
         <v>9</v>
       </c>
       <c r="ED8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE8" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF8">
+        <v>3</v>
+      </c>
+      <c r="EG8">
+        <v>20</v>
+      </c>
+      <c r="EH8">
+        <v>20</v>
+      </c>
+      <c r="EI8" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ8">
+        <v>3</v>
+      </c>
+      <c r="EK8">
+        <v>20</v>
+      </c>
+      <c r="EL8">
+        <v>20</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN8">
+        <v>3</v>
+      </c>
+      <c r="EO8" t="s">
         <v>252</v>
-      </c>
-      <c r="EF8">
-        <v>3</v>
-      </c>
-      <c r="EG8">
-        <v>20</v>
-      </c>
-      <c r="EH8">
-        <v>20</v>
-      </c>
-      <c r="EI8" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ8">
-        <v>3</v>
-      </c>
-      <c r="EK8">
-        <v>20</v>
-      </c>
-      <c r="EL8">
-        <v>20</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN8">
-        <v>3</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>253</v>
       </c>
       <c r="EP8" t="s">
         <v>271</v>
@@ -6305,43 +6332,43 @@
         <v>9</v>
       </c>
       <c r="FA8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB8" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC8">
+        <v>3</v>
+      </c>
+      <c r="FD8">
+        <v>20</v>
+      </c>
+      <c r="FE8">
+        <v>20</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG8">
+        <v>3</v>
+      </c>
+      <c r="FH8">
+        <v>20</v>
+      </c>
+      <c r="FI8">
+        <v>20</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK8">
+        <v>3</v>
+      </c>
+      <c r="FL8" t="s">
         <v>252</v>
       </c>
-      <c r="FC8">
-        <v>3</v>
-      </c>
-      <c r="FD8">
-        <v>20</v>
-      </c>
-      <c r="FE8">
-        <v>20</v>
-      </c>
-      <c r="FF8" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG8">
-        <v>3</v>
-      </c>
-      <c r="FH8">
-        <v>20</v>
-      </c>
-      <c r="FI8">
-        <v>20</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK8">
-        <v>3</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>253</v>
-      </c>
       <c r="FM8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN8">
         <v>0</v>
@@ -6350,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="FR8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS8">
         <v>1</v>
@@ -6362,16 +6389,16 @@
         <v>283</v>
       </c>
       <c r="FV8">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="FW8">
         <v>7200</v>
       </c>
       <c r="FX8">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FY8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FZ8">
         <v>0.9</v>
@@ -6407,7 +6434,7 @@
         <v>289</v>
       </c>
       <c r="GT8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU8">
         <v>1</v>
@@ -6416,10 +6443,10 @@
         <v>1</v>
       </c>
       <c r="GW8">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="GX8">
-        <v>4500</v>
+        <v>5500</v>
       </c>
       <c r="GY8">
         <v>0.95</v>
@@ -6434,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="HC8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD8">
         <v>0</v>
@@ -6443,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="HJ8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK8" t="s">
         <v>290</v>
@@ -6461,22 +6488,22 @@
         <v>86400</v>
       </c>
       <c r="HP8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR8" t="s">
         <v>292</v>
       </c>
       <c r="HS8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV8" t="s">
         <v>292</v>
@@ -6499,10 +6526,10 @@
         <v>239</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6511,7 +6538,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6523,13 +6550,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3125000</v>
+        <v>3863000</v>
       </c>
       <c r="O9" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="P9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6544,40 +6571,40 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V9" t="s">
+        <v>251</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>20</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
         <v>252</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>20</v>
-      </c>
-      <c r="Y9">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
-      <c r="AB9">
-        <v>20</v>
-      </c>
-      <c r="AC9">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>253</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -6589,7 +6616,7 @@
         <v>6</v>
       </c>
       <c r="AL9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -6604,41 +6631,41 @@
         <v>9</v>
       </c>
       <c r="AQ9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS9">
+        <v>3</v>
+      </c>
+      <c r="AT9">
+        <v>20</v>
+      </c>
+      <c r="AU9">
+        <v>20</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW9">
+        <v>3</v>
+      </c>
+      <c r="AX9">
+        <v>20</v>
+      </c>
+      <c r="AY9">
+        <v>20</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA9">
+        <v>3</v>
+      </c>
+      <c r="BB9" t="s">
         <v>252</v>
       </c>
-      <c r="AS9">
-        <v>3</v>
-      </c>
-      <c r="AT9">
-        <v>20</v>
-      </c>
-      <c r="AU9">
-        <v>20</v>
-      </c>
-      <c r="AV9" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW9">
-        <v>3</v>
-      </c>
-      <c r="AX9">
-        <v>20</v>
-      </c>
-      <c r="AY9">
-        <v>20</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA9">
-        <v>3</v>
-      </c>
-      <c r="BB9" t="s">
-        <v>253</v>
-      </c>
       <c r="BC9">
         <v>1</v>
       </c>
@@ -6646,16 +6673,16 @@
         <v>1</v>
       </c>
       <c r="BE9">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BG9">
         <v>55</v>
       </c>
       <c r="BH9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI9">
         <v>1</v>
@@ -6670,41 +6697,41 @@
         <v>9</v>
       </c>
       <c r="BM9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN9" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO9">
+        <v>3</v>
+      </c>
+      <c r="BP9">
+        <v>20</v>
+      </c>
+      <c r="BQ9">
+        <v>20</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS9">
+        <v>3</v>
+      </c>
+      <c r="BT9">
+        <v>20</v>
+      </c>
+      <c r="BU9">
+        <v>20</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW9">
+        <v>3</v>
+      </c>
+      <c r="BX9" t="s">
         <v>252</v>
       </c>
-      <c r="BO9">
-        <v>3</v>
-      </c>
-      <c r="BP9">
-        <v>20</v>
-      </c>
-      <c r="BQ9">
-        <v>20</v>
-      </c>
-      <c r="BR9" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS9">
-        <v>3</v>
-      </c>
-      <c r="BT9">
-        <v>20</v>
-      </c>
-      <c r="BU9">
-        <v>20</v>
-      </c>
-      <c r="BV9" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW9">
-        <v>3</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>253</v>
-      </c>
       <c r="BY9">
         <v>1</v>
       </c>
@@ -6712,10 +6739,10 @@
         <v>1</v>
       </c>
       <c r="CA9">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="CB9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="CC9">
         <v>55</v>
@@ -6736,41 +6763,41 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK9">
+        <v>3</v>
+      </c>
+      <c r="CL9">
+        <v>20</v>
+      </c>
+      <c r="CM9">
+        <v>20</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO9">
+        <v>3</v>
+      </c>
+      <c r="CP9">
+        <v>20</v>
+      </c>
+      <c r="CQ9">
+        <v>20</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS9">
+        <v>3</v>
+      </c>
+      <c r="CT9" t="s">
         <v>252</v>
       </c>
-      <c r="CK9">
-        <v>3</v>
-      </c>
-      <c r="CL9">
-        <v>20</v>
-      </c>
-      <c r="CM9">
-        <v>20</v>
-      </c>
-      <c r="CN9" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO9">
-        <v>3</v>
-      </c>
-      <c r="CP9">
-        <v>20</v>
-      </c>
-      <c r="CQ9">
-        <v>20</v>
-      </c>
-      <c r="CR9" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS9">
-        <v>3</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>253</v>
-      </c>
       <c r="CU9">
         <v>1</v>
       </c>
@@ -6778,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="CW9">
-        <v>4800</v>
+        <v>5600</v>
       </c>
       <c r="CX9" t="s">
         <v>270</v>
@@ -6793,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="DB9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC9">
         <v>1</v>
@@ -6808,40 +6835,40 @@
         <v>9</v>
       </c>
       <c r="DG9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH9" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI9">
+        <v>3</v>
+      </c>
+      <c r="DJ9">
+        <v>20</v>
+      </c>
+      <c r="DK9">
+        <v>20</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM9">
+        <v>3</v>
+      </c>
+      <c r="DN9">
+        <v>20</v>
+      </c>
+      <c r="DO9">
+        <v>20</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ9">
+        <v>3</v>
+      </c>
+      <c r="DR9" t="s">
         <v>252</v>
-      </c>
-      <c r="DI9">
-        <v>3</v>
-      </c>
-      <c r="DJ9">
-        <v>20</v>
-      </c>
-      <c r="DK9">
-        <v>20</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM9">
-        <v>3</v>
-      </c>
-      <c r="DN9">
-        <v>20</v>
-      </c>
-      <c r="DO9">
-        <v>20</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ9">
-        <v>3</v>
-      </c>
-      <c r="DR9" t="s">
-        <v>253</v>
       </c>
       <c r="DS9" t="s">
         <v>271</v>
@@ -6853,7 +6880,7 @@
         <v>1</v>
       </c>
       <c r="DV9">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="DW9" t="s">
         <v>272</v>
@@ -6862,7 +6889,7 @@
         <v>1</v>
       </c>
       <c r="DY9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ9">
         <v>1</v>
@@ -6877,40 +6904,40 @@
         <v>9</v>
       </c>
       <c r="ED9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE9" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF9">
+        <v>3</v>
+      </c>
+      <c r="EG9">
+        <v>20</v>
+      </c>
+      <c r="EH9">
+        <v>20</v>
+      </c>
+      <c r="EI9" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ9">
+        <v>3</v>
+      </c>
+      <c r="EK9">
+        <v>20</v>
+      </c>
+      <c r="EL9">
+        <v>20</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN9">
+        <v>3</v>
+      </c>
+      <c r="EO9" t="s">
         <v>252</v>
-      </c>
-      <c r="EF9">
-        <v>3</v>
-      </c>
-      <c r="EG9">
-        <v>20</v>
-      </c>
-      <c r="EH9">
-        <v>20</v>
-      </c>
-      <c r="EI9" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ9">
-        <v>3</v>
-      </c>
-      <c r="EK9">
-        <v>20</v>
-      </c>
-      <c r="EL9">
-        <v>20</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN9">
-        <v>3</v>
-      </c>
-      <c r="EO9" t="s">
-        <v>253</v>
       </c>
       <c r="EP9" t="s">
         <v>271</v>
@@ -6937,43 +6964,43 @@
         <v>9</v>
       </c>
       <c r="FA9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB9" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC9">
+        <v>3</v>
+      </c>
+      <c r="FD9">
+        <v>20</v>
+      </c>
+      <c r="FE9">
+        <v>20</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG9">
+        <v>3</v>
+      </c>
+      <c r="FH9">
+        <v>20</v>
+      </c>
+      <c r="FI9">
+        <v>20</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK9">
+        <v>3</v>
+      </c>
+      <c r="FL9" t="s">
         <v>252</v>
       </c>
-      <c r="FC9">
-        <v>3</v>
-      </c>
-      <c r="FD9">
-        <v>20</v>
-      </c>
-      <c r="FE9">
-        <v>20</v>
-      </c>
-      <c r="FF9" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG9">
-        <v>3</v>
-      </c>
-      <c r="FH9">
-        <v>20</v>
-      </c>
-      <c r="FI9">
-        <v>20</v>
-      </c>
-      <c r="FJ9" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK9">
-        <v>3</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>253</v>
-      </c>
       <c r="FM9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN9">
         <v>0</v>
@@ -6982,7 +7009,7 @@
         <v>0</v>
       </c>
       <c r="FR9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS9">
         <v>1</v>
@@ -6994,16 +7021,16 @@
         <v>284</v>
       </c>
       <c r="FV9">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW9">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX9">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY9">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ9">
         <v>0.9</v>
@@ -7039,7 +7066,7 @@
         <v>289</v>
       </c>
       <c r="GT9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU9">
         <v>1</v>
@@ -7048,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="GW9">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="GX9">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="GY9">
         <v>0.95</v>
@@ -7066,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="HC9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD9">
         <v>0</v>
@@ -7075,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="HJ9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK9" t="s">
         <v>290</v>
@@ -7093,22 +7120,22 @@
         <v>86400</v>
       </c>
       <c r="HP9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR9" t="s">
         <v>292</v>
       </c>
       <c r="HS9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU9" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV9" t="s">
         <v>292</v>
@@ -7131,10 +7158,10 @@
         <v>240</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7143,7 +7170,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7155,13 +7182,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2687000</v>
+        <v>5527000</v>
       </c>
       <c r="O10" t="s">
+        <v>247</v>
+      </c>
+      <c r="P10" t="s">
         <v>249</v>
-      </c>
-      <c r="P10" t="s">
-        <v>250</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7176,40 +7203,40 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V10" t="s">
+        <v>251</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
         <v>252</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>20</v>
-      </c>
-      <c r="Y10">
-        <v>20</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>20</v>
-      </c>
-      <c r="AC10">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE10">
-        <v>3</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>253</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -7221,7 +7248,7 @@
         <v>6</v>
       </c>
       <c r="AL10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -7236,41 +7263,41 @@
         <v>9</v>
       </c>
       <c r="AQ10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS10">
+        <v>3</v>
+      </c>
+      <c r="AT10">
+        <v>20</v>
+      </c>
+      <c r="AU10">
+        <v>20</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW10">
+        <v>3</v>
+      </c>
+      <c r="AX10">
+        <v>20</v>
+      </c>
+      <c r="AY10">
+        <v>20</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA10">
+        <v>3</v>
+      </c>
+      <c r="BB10" t="s">
         <v>252</v>
       </c>
-      <c r="AS10">
-        <v>3</v>
-      </c>
-      <c r="AT10">
-        <v>20</v>
-      </c>
-      <c r="AU10">
-        <v>20</v>
-      </c>
-      <c r="AV10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW10">
-        <v>3</v>
-      </c>
-      <c r="AX10">
-        <v>20</v>
-      </c>
-      <c r="AY10">
-        <v>20</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA10">
-        <v>3</v>
-      </c>
-      <c r="BB10" t="s">
-        <v>253</v>
-      </c>
       <c r="BC10">
         <v>1</v>
       </c>
@@ -7278,16 +7305,16 @@
         <v>1</v>
       </c>
       <c r="BE10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="BG10">
         <v>55</v>
       </c>
       <c r="BH10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -7302,41 +7329,41 @@
         <v>9</v>
       </c>
       <c r="BM10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO10">
+        <v>3</v>
+      </c>
+      <c r="BP10">
+        <v>20</v>
+      </c>
+      <c r="BQ10">
+        <v>20</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS10">
+        <v>3</v>
+      </c>
+      <c r="BT10">
+        <v>20</v>
+      </c>
+      <c r="BU10">
+        <v>20</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW10">
+        <v>3</v>
+      </c>
+      <c r="BX10" t="s">
         <v>252</v>
       </c>
-      <c r="BO10">
-        <v>3</v>
-      </c>
-      <c r="BP10">
-        <v>20</v>
-      </c>
-      <c r="BQ10">
-        <v>20</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS10">
-        <v>3</v>
-      </c>
-      <c r="BT10">
-        <v>20</v>
-      </c>
-      <c r="BU10">
-        <v>20</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW10">
-        <v>3</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>253</v>
-      </c>
       <c r="BY10">
         <v>1</v>
       </c>
@@ -7344,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="CA10">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="CB10" t="s">
         <v>268</v>
@@ -7368,41 +7395,41 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ10" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK10">
+        <v>3</v>
+      </c>
+      <c r="CL10">
+        <v>20</v>
+      </c>
+      <c r="CM10">
+        <v>20</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO10">
+        <v>3</v>
+      </c>
+      <c r="CP10">
+        <v>20</v>
+      </c>
+      <c r="CQ10">
+        <v>20</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS10">
+        <v>3</v>
+      </c>
+      <c r="CT10" t="s">
         <v>252</v>
       </c>
-      <c r="CK10">
-        <v>3</v>
-      </c>
-      <c r="CL10">
-        <v>20</v>
-      </c>
-      <c r="CM10">
-        <v>20</v>
-      </c>
-      <c r="CN10" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO10">
-        <v>3</v>
-      </c>
-      <c r="CP10">
-        <v>20</v>
-      </c>
-      <c r="CQ10">
-        <v>20</v>
-      </c>
-      <c r="CR10" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS10">
-        <v>3</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>253</v>
-      </c>
       <c r="CU10">
         <v>1</v>
       </c>
@@ -7410,7 +7437,7 @@
         <v>1</v>
       </c>
       <c r="CW10">
-        <v>4800</v>
+        <v>8500</v>
       </c>
       <c r="CX10" t="s">
         <v>270</v>
@@ -7425,7 +7452,7 @@
         <v>1</v>
       </c>
       <c r="DB10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC10">
         <v>1</v>
@@ -7440,40 +7467,40 @@
         <v>9</v>
       </c>
       <c r="DG10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH10" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI10">
+        <v>3</v>
+      </c>
+      <c r="DJ10">
+        <v>20</v>
+      </c>
+      <c r="DK10">
+        <v>20</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM10">
+        <v>3</v>
+      </c>
+      <c r="DN10">
+        <v>20</v>
+      </c>
+      <c r="DO10">
+        <v>20</v>
+      </c>
+      <c r="DP10" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ10">
+        <v>3</v>
+      </c>
+      <c r="DR10" t="s">
         <v>252</v>
-      </c>
-      <c r="DI10">
-        <v>3</v>
-      </c>
-      <c r="DJ10">
-        <v>20</v>
-      </c>
-      <c r="DK10">
-        <v>20</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM10">
-        <v>3</v>
-      </c>
-      <c r="DN10">
-        <v>20</v>
-      </c>
-      <c r="DO10">
-        <v>20</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ10">
-        <v>3</v>
-      </c>
-      <c r="DR10" t="s">
-        <v>253</v>
       </c>
       <c r="DS10" t="s">
         <v>271</v>
@@ -7485,7 +7512,7 @@
         <v>1</v>
       </c>
       <c r="DV10">
-        <v>2100</v>
+        <v>4200</v>
       </c>
       <c r="DW10" t="s">
         <v>275</v>
@@ -7494,7 +7521,7 @@
         <v>1</v>
       </c>
       <c r="DY10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ10">
         <v>1</v>
@@ -7509,40 +7536,40 @@
         <v>9</v>
       </c>
       <c r="ED10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE10" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF10">
+        <v>3</v>
+      </c>
+      <c r="EG10">
+        <v>20</v>
+      </c>
+      <c r="EH10">
+        <v>20</v>
+      </c>
+      <c r="EI10" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ10">
+        <v>3</v>
+      </c>
+      <c r="EK10">
+        <v>20</v>
+      </c>
+      <c r="EL10">
+        <v>20</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN10">
+        <v>3</v>
+      </c>
+      <c r="EO10" t="s">
         <v>252</v>
-      </c>
-      <c r="EF10">
-        <v>3</v>
-      </c>
-      <c r="EG10">
-        <v>20</v>
-      </c>
-      <c r="EH10">
-        <v>20</v>
-      </c>
-      <c r="EI10" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ10">
-        <v>3</v>
-      </c>
-      <c r="EK10">
-        <v>20</v>
-      </c>
-      <c r="EL10">
-        <v>20</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN10">
-        <v>3</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>253</v>
       </c>
       <c r="EP10" t="s">
         <v>271</v>
@@ -7569,43 +7596,43 @@
         <v>9</v>
       </c>
       <c r="FA10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB10" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC10">
+        <v>3</v>
+      </c>
+      <c r="FD10">
+        <v>20</v>
+      </c>
+      <c r="FE10">
+        <v>20</v>
+      </c>
+      <c r="FF10" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG10">
+        <v>3</v>
+      </c>
+      <c r="FH10">
+        <v>20</v>
+      </c>
+      <c r="FI10">
+        <v>20</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK10">
+        <v>3</v>
+      </c>
+      <c r="FL10" t="s">
         <v>252</v>
       </c>
-      <c r="FC10">
-        <v>3</v>
-      </c>
-      <c r="FD10">
-        <v>20</v>
-      </c>
-      <c r="FE10">
-        <v>20</v>
-      </c>
-      <c r="FF10" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG10">
-        <v>3</v>
-      </c>
-      <c r="FH10">
-        <v>20</v>
-      </c>
-      <c r="FI10">
-        <v>20</v>
-      </c>
-      <c r="FJ10" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK10">
-        <v>3</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>253</v>
-      </c>
       <c r="FM10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN10">
         <v>0</v>
@@ -7614,28 +7641,28 @@
         <v>0</v>
       </c>
       <c r="FR10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS10">
         <v>1</v>
       </c>
       <c r="FT10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU10" t="s">
         <v>285</v>
       </c>
       <c r="FV10">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="FW10">
         <v>7200</v>
       </c>
       <c r="FX10">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FY10">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FZ10">
         <v>0.9</v>
@@ -7649,6 +7676,33 @@
       <c r="GC10" t="b">
         <v>0</v>
       </c>
+      <c r="GD10" t="s">
+        <v>279</v>
+      </c>
+      <c r="GE10">
+        <v>100000</v>
+      </c>
+      <c r="GF10">
+        <v>11000</v>
+      </c>
+      <c r="GG10">
+        <v>22000</v>
+      </c>
+      <c r="GH10">
+        <v>200000</v>
+      </c>
+      <c r="GI10">
+        <v>0.9</v>
+      </c>
+      <c r="GJ10">
+        <v>0.8</v>
+      </c>
+      <c r="GK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL10" t="b">
+        <v>0</v>
+      </c>
       <c r="GM10" t="s">
         <v>287</v>
       </c>
@@ -7671,7 +7725,7 @@
         <v>289</v>
       </c>
       <c r="GT10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU10">
         <v>1</v>
@@ -7680,10 +7734,10 @@
         <v>1</v>
       </c>
       <c r="GW10">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="GX10">
-        <v>2700</v>
+        <v>5500</v>
       </c>
       <c r="GY10">
         <v>0.95</v>
@@ -7698,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="HC10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD10">
         <v>0</v>
@@ -7707,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="HJ10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK10" t="s">
         <v>290</v>
@@ -7725,22 +7779,22 @@
         <v>86400</v>
       </c>
       <c r="HP10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR10" t="s">
         <v>292</v>
       </c>
       <c r="HS10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV10" t="s">
         <v>292</v>
@@ -7763,10 +7817,10 @@
         <v>241</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -7775,7 +7829,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7787,13 +7841,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>5527000</v>
+        <v>4402000</v>
       </c>
       <c r="O11" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -7808,40 +7862,40 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="V11" t="s">
+        <v>251</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>20</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="s">
         <v>252</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11">
-        <v>20</v>
-      </c>
-      <c r="Y11">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AA11">
-        <v>3</v>
-      </c>
-      <c r="AB11">
-        <v>20</v>
-      </c>
-      <c r="AC11">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>253</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -7853,7 +7907,7 @@
         <v>6</v>
       </c>
       <c r="AL11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -7868,41 +7922,41 @@
         <v>9</v>
       </c>
       <c r="AQ11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>20</v>
+      </c>
+      <c r="AU11">
+        <v>20</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>251</v>
+      </c>
+      <c r="AW11">
+        <v>3</v>
+      </c>
+      <c r="AX11">
+        <v>20</v>
+      </c>
+      <c r="AY11">
+        <v>20</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA11">
+        <v>3</v>
+      </c>
+      <c r="BB11" t="s">
         <v>252</v>
       </c>
-      <c r="AS11">
-        <v>3</v>
-      </c>
-      <c r="AT11">
-        <v>20</v>
-      </c>
-      <c r="AU11">
-        <v>20</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AW11">
-        <v>3</v>
-      </c>
-      <c r="AX11">
-        <v>20</v>
-      </c>
-      <c r="AY11">
-        <v>20</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA11">
-        <v>3</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>253</v>
-      </c>
       <c r="BC11">
         <v>1</v>
       </c>
@@ -7910,16 +7964,16 @@
         <v>1</v>
       </c>
       <c r="BE11">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="BG11">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -7934,41 +7988,41 @@
         <v>9</v>
       </c>
       <c r="BM11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BN11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BO11">
+        <v>3</v>
+      </c>
+      <c r="BP11">
+        <v>20</v>
+      </c>
+      <c r="BQ11">
+        <v>20</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BS11">
+        <v>3</v>
+      </c>
+      <c r="BT11">
+        <v>20</v>
+      </c>
+      <c r="BU11">
+        <v>20</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>251</v>
+      </c>
+      <c r="BW11">
+        <v>3</v>
+      </c>
+      <c r="BX11" t="s">
         <v>252</v>
       </c>
-      <c r="BO11">
-        <v>3</v>
-      </c>
-      <c r="BP11">
-        <v>20</v>
-      </c>
-      <c r="BQ11">
-        <v>20</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>252</v>
-      </c>
-      <c r="BS11">
-        <v>3</v>
-      </c>
-      <c r="BT11">
-        <v>20</v>
-      </c>
-      <c r="BU11">
-        <v>20</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW11">
-        <v>3</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>253</v>
-      </c>
       <c r="BY11">
         <v>1</v>
       </c>
@@ -7976,10 +8030,10 @@
         <v>1</v>
       </c>
       <c r="CA11">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="CB11" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="CC11">
         <v>55</v>
@@ -8000,41 +8054,41 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="CJ11" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK11">
+        <v>3</v>
+      </c>
+      <c r="CL11">
+        <v>20</v>
+      </c>
+      <c r="CM11">
+        <v>20</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO11">
+        <v>3</v>
+      </c>
+      <c r="CP11">
+        <v>20</v>
+      </c>
+      <c r="CQ11">
+        <v>20</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS11">
+        <v>3</v>
+      </c>
+      <c r="CT11" t="s">
         <v>252</v>
       </c>
-      <c r="CK11">
-        <v>3</v>
-      </c>
-      <c r="CL11">
-        <v>20</v>
-      </c>
-      <c r="CM11">
-        <v>20</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>252</v>
-      </c>
-      <c r="CO11">
-        <v>3</v>
-      </c>
-      <c r="CP11">
-        <v>20</v>
-      </c>
-      <c r="CQ11">
-        <v>20</v>
-      </c>
-      <c r="CR11" t="s">
-        <v>252</v>
-      </c>
-      <c r="CS11">
-        <v>3</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>253</v>
-      </c>
       <c r="CU11">
         <v>1</v>
       </c>
@@ -8042,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="CW11">
-        <v>9400</v>
+        <v>7800</v>
       </c>
       <c r="CX11" t="s">
         <v>270</v>
@@ -8057,7 +8111,7 @@
         <v>1</v>
       </c>
       <c r="DB11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="DC11">
         <v>1</v>
@@ -8072,40 +8126,40 @@
         <v>9</v>
       </c>
       <c r="DG11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="DH11" t="s">
+        <v>251</v>
+      </c>
+      <c r="DI11">
+        <v>3</v>
+      </c>
+      <c r="DJ11">
+        <v>20</v>
+      </c>
+      <c r="DK11">
+        <v>20</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>251</v>
+      </c>
+      <c r="DM11">
+        <v>3</v>
+      </c>
+      <c r="DN11">
+        <v>20</v>
+      </c>
+      <c r="DO11">
+        <v>20</v>
+      </c>
+      <c r="DP11" t="s">
+        <v>251</v>
+      </c>
+      <c r="DQ11">
+        <v>3</v>
+      </c>
+      <c r="DR11" t="s">
         <v>252</v>
-      </c>
-      <c r="DI11">
-        <v>3</v>
-      </c>
-      <c r="DJ11">
-        <v>20</v>
-      </c>
-      <c r="DK11">
-        <v>20</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM11">
-        <v>3</v>
-      </c>
-      <c r="DN11">
-        <v>20</v>
-      </c>
-      <c r="DO11">
-        <v>20</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>252</v>
-      </c>
-      <c r="DQ11">
-        <v>3</v>
-      </c>
-      <c r="DR11" t="s">
-        <v>253</v>
       </c>
       <c r="DS11" t="s">
         <v>271</v>
@@ -8117,16 +8171,16 @@
         <v>1</v>
       </c>
       <c r="DV11">
-        <v>3900</v>
+        <v>2800</v>
       </c>
       <c r="DW11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="DX11" t="b">
         <v>1</v>
       </c>
       <c r="DY11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DZ11">
         <v>1</v>
@@ -8141,40 +8195,40 @@
         <v>9</v>
       </c>
       <c r="ED11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="EE11" t="s">
+        <v>251</v>
+      </c>
+      <c r="EF11">
+        <v>3</v>
+      </c>
+      <c r="EG11">
+        <v>20</v>
+      </c>
+      <c r="EH11">
+        <v>20</v>
+      </c>
+      <c r="EI11" t="s">
+        <v>251</v>
+      </c>
+      <c r="EJ11">
+        <v>3</v>
+      </c>
+      <c r="EK11">
+        <v>20</v>
+      </c>
+      <c r="EL11">
+        <v>20</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>251</v>
+      </c>
+      <c r="EN11">
+        <v>3</v>
+      </c>
+      <c r="EO11" t="s">
         <v>252</v>
-      </c>
-      <c r="EF11">
-        <v>3</v>
-      </c>
-      <c r="EG11">
-        <v>20</v>
-      </c>
-      <c r="EH11">
-        <v>20</v>
-      </c>
-      <c r="EI11" t="s">
-        <v>252</v>
-      </c>
-      <c r="EJ11">
-        <v>3</v>
-      </c>
-      <c r="EK11">
-        <v>20</v>
-      </c>
-      <c r="EL11">
-        <v>20</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>252</v>
-      </c>
-      <c r="EN11">
-        <v>3</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>253</v>
       </c>
       <c r="EP11" t="s">
         <v>271</v>
@@ -8201,43 +8255,43 @@
         <v>9</v>
       </c>
       <c r="FA11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="FB11" t="s">
+        <v>251</v>
+      </c>
+      <c r="FC11">
+        <v>3</v>
+      </c>
+      <c r="FD11">
+        <v>20</v>
+      </c>
+      <c r="FE11">
+        <v>20</v>
+      </c>
+      <c r="FF11" t="s">
+        <v>251</v>
+      </c>
+      <c r="FG11">
+        <v>3</v>
+      </c>
+      <c r="FH11">
+        <v>20</v>
+      </c>
+      <c r="FI11">
+        <v>20</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>251</v>
+      </c>
+      <c r="FK11">
+        <v>3</v>
+      </c>
+      <c r="FL11" t="s">
         <v>252</v>
       </c>
-      <c r="FC11">
-        <v>3</v>
-      </c>
-      <c r="FD11">
-        <v>20</v>
-      </c>
-      <c r="FE11">
-        <v>20</v>
-      </c>
-      <c r="FF11" t="s">
-        <v>252</v>
-      </c>
-      <c r="FG11">
-        <v>3</v>
-      </c>
-      <c r="FH11">
-        <v>20</v>
-      </c>
-      <c r="FI11">
-        <v>20</v>
-      </c>
-      <c r="FJ11" t="s">
-        <v>252</v>
-      </c>
-      <c r="FK11">
-        <v>3</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>253</v>
-      </c>
       <c r="FM11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FN11">
         <v>0</v>
@@ -8246,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="FR11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="FS11">
         <v>1</v>
@@ -8255,19 +8309,19 @@
         <v>1</v>
       </c>
       <c r="FU11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="FV11">
+        <v>75000</v>
+      </c>
+      <c r="FW11">
+        <v>7200</v>
+      </c>
+      <c r="FX11">
+        <v>11000</v>
+      </c>
+      <c r="FY11">
         <v>100000</v>
-      </c>
-      <c r="FW11">
-        <v>11000</v>
-      </c>
-      <c r="FX11">
-        <v>22000</v>
-      </c>
-      <c r="FY11">
-        <v>200000</v>
       </c>
       <c r="FZ11">
         <v>0.9</v>
@@ -8303,7 +8357,7 @@
         <v>289</v>
       </c>
       <c r="GT11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="GU11">
         <v>1</v>
@@ -8312,10 +8366,10 @@
         <v>1</v>
       </c>
       <c r="GW11">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="GX11">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="GY11">
         <v>0.95</v>
@@ -8330,7 +8384,7 @@
         <v>0</v>
       </c>
       <c r="HC11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HD11">
         <v>0</v>
@@ -8339,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="HJ11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="HK11" t="s">
         <v>290</v>
@@ -8357,22 +8411,22 @@
         <v>86400</v>
       </c>
       <c r="HP11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HQ11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HR11" t="s">
         <v>292</v>
       </c>
       <c r="HS11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HT11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HU11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="HV11" t="s">
         <v>292</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="322">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -717,57 +717,57 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>Xsg719VWbzc8WGq</t>
-  </si>
-  <si>
-    <t>tlndEuosN2YTsfi</t>
-  </si>
-  <si>
-    <t>eSoMCS0UISzmJjZ</t>
-  </si>
-  <si>
-    <t>zc3xI9GvdO0JEmA</t>
-  </si>
-  <si>
-    <t>A3GbC1RuCSzwfsB</t>
-  </si>
-  <si>
-    <t>b1LwgBQqloIH4Ia</t>
-  </si>
-  <si>
-    <t>EWHJ2Ztf4uf7kXD</t>
-  </si>
-  <si>
-    <t>WWosr6A645WT33L</t>
-  </si>
-  <si>
-    <t>rnExJsXYZDHNtOh</t>
-  </si>
-  <si>
-    <t>xiEjT08QnVwRPwo</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
+    <t>rW9Bi4f1AbGBCtO</t>
+  </si>
+  <si>
+    <t>Jq4Y5Afz7yd3pjK</t>
+  </si>
+  <si>
+    <t>S6DjdLlEFYi5V5p</t>
+  </si>
+  <si>
+    <t>ZPaCL1szWJW6uw8</t>
+  </si>
+  <si>
+    <t>pL6jAjPWyJofFLv</t>
+  </si>
+  <si>
+    <t>1Vr1dXuWgexa3Zr</t>
+  </si>
+  <si>
+    <t>UcyV1AOXfAmBPSw</t>
+  </si>
+  <si>
+    <t>d5uiSwAOqPU9zwX</t>
+  </si>
+  <si>
+    <t>6G9Udy7Ll56HIud</t>
+  </si>
+  <si>
+    <t>UkKBPJGYQw9gFHU</t>
+  </si>
+  <si>
+    <t>hh_2687_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3564_0.csv</t>
   </si>
   <si>
     <t>hh_2012_3.csv</t>
   </si>
   <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4402_0.csv</t>
   </si>
   <si>
     <t>hh_5527_0.csv</t>
   </si>
   <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -783,106 +783,112 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2262_0.csv</t>
+    <t>heat_2687_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3296_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3564_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
   </si>
   <si>
     <t>heat_2012_3.csv</t>
   </si>
   <si>
-    <t>heat_4536_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3296_0.csv</t>
+    <t>heat_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_4402_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
   </si>
   <si>
     <t>heat_5527_0.csv</t>
   </si>
   <si>
-    <t>heat_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4402_0.csv</t>
-  </si>
-  <si>
     <t>naive</t>
   </si>
   <si>
-    <t>dhw_gen_2_pu.csv</t>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
   </si>
   <si>
     <t>dhw_gen_6_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
     <t>dhw_gen_3_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
-    <t>pv_config.json</t>
+    <t>pv_3_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_1_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_2_pu.csv</t>
   </si>
   <si>
     <t>green_local</t>
   </si>
   <si>
+    <t>wind_Nordex_MM92_3300000_131.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
     <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
   </si>
   <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
-  </si>
-  <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>arima</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
+  </si>
+  <si>
     <t>ev_fulltime_45.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
     <t>ev_parttime_88.csv</t>
   </si>
   <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_90.csv</t>
+    <t>ev_fulltime_49.csv</t>
   </si>
   <si>
     <t>ev_freetime_1.csv</t>
   </si>
   <si>
-    <t>ev_fulltime_44.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>price_sensitive</t>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_0.csv</t>
+  </si>
+  <si>
+    <t>min_soc</t>
   </si>
   <si>
     <t>arrival</t>
@@ -894,7 +900,7 @@
     <t>linopy</t>
   </si>
   <si>
-    <t>['linear']</t>
+    <t>linear</t>
   </si>
   <si>
     <t>['naive', 'naive']</t>
@@ -2048,10 +2054,10 @@
         <v>232</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2060,7 +2066,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2072,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3863000</v>
+        <v>2687000</v>
       </c>
       <c r="O2" t="s">
         <v>242</v>
@@ -2195,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="BE2">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF2" t="s">
         <v>254</v>
       </c>
       <c r="BG2">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH2" t="s">
         <v>263</v>
@@ -2261,7 +2267,7 @@
         <v>1</v>
       </c>
       <c r="CA2">
-        <v>1800000</v>
+        <v>2800000</v>
       </c>
       <c r="CB2" t="s">
         <v>264</v>
@@ -2327,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="CW2">
-        <v>6200</v>
+        <v>4000</v>
       </c>
       <c r="CX2" t="s">
         <v>270</v>
@@ -2393,7 +2399,7 @@
         <v>252</v>
       </c>
       <c r="DS2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -2402,16 +2408,16 @@
         <v>1</v>
       </c>
       <c r="DV2">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="DW2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="DX2" t="b">
         <v>1</v>
       </c>
       <c r="DY2" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -2462,7 +2468,7 @@
         <v>252</v>
       </c>
       <c r="EP2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -2522,7 +2528,7 @@
         <v>252</v>
       </c>
       <c r="FM2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN2">
         <v>0</v>
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="FR2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS2">
         <v>1</v>
@@ -2540,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="FU2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="FV2">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FW2">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FX2">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="FY2">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="FZ2">
         <v>0.9</v>
@@ -2567,19 +2573,19 @@
         <v>0</v>
       </c>
       <c r="GD2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="GE2">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="GF2">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GG2">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="GH2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="GI2">
         <v>0.9</v>
@@ -2594,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="GM2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN2">
         <v>0.05</v>
@@ -2609,13 +2615,13 @@
         <v>8.5</v>
       </c>
       <c r="GR2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU2">
         <v>1</v>
@@ -2624,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="GW2">
-        <v>3900</v>
+        <v>2700</v>
       </c>
       <c r="GX2">
-        <v>3900</v>
+        <v>2700</v>
       </c>
       <c r="GY2">
         <v>0.95</v>
@@ -2642,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="HC2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD2">
         <v>0</v>
@@ -2651,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="HJ2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM2">
         <v>86400</v>
       </c>
       <c r="HN2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO2">
         <v>86400</v>
@@ -2675,7 +2681,7 @@
         <v>263</v>
       </c>
       <c r="HR2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS2" t="s">
         <v>263</v>
@@ -2687,7 +2693,7 @@
         <v>263</v>
       </c>
       <c r="HV2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW2">
         <v>86400</v>
@@ -2731,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>2262000</v>
+        <v>3296000</v>
       </c>
       <c r="O3" t="s">
         <v>243</v>
@@ -2860,7 +2866,7 @@
         <v>255</v>
       </c>
       <c r="BG3">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH3" t="s">
         <v>263</v>
@@ -2986,7 +2992,7 @@
         <v>1</v>
       </c>
       <c r="CW3">
-        <v>3400</v>
+        <v>5100</v>
       </c>
       <c r="CX3" t="s">
         <v>270</v>
@@ -3052,7 +3058,7 @@
         <v>252</v>
       </c>
       <c r="DS3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT3">
         <v>1</v>
@@ -3061,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="DV3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="DW3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DX3" t="b">
         <v>1</v>
       </c>
       <c r="DY3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ3">
         <v>1</v>
@@ -3121,7 +3127,7 @@
         <v>252</v>
       </c>
       <c r="EP3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ3">
         <v>0</v>
@@ -3181,7 +3187,7 @@
         <v>252</v>
       </c>
       <c r="FM3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN3">
         <v>0</v>
@@ -3190,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="FR3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS3">
         <v>1</v>
@@ -3199,19 +3205,19 @@
         <v>1</v>
       </c>
       <c r="FU3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="FV3">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW3">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX3">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY3">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ3">
         <v>0.9</v>
@@ -3226,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="GM3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN3">
         <v>0.05</v>
@@ -3241,13 +3247,13 @@
         <v>8.5</v>
       </c>
       <c r="GR3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU3">
         <v>1</v>
@@ -3256,10 +3262,10 @@
         <v>1</v>
       </c>
       <c r="GW3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="GX3">
-        <v>2300</v>
+        <v>3300</v>
       </c>
       <c r="GY3">
         <v>0.95</v>
@@ -3274,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="HC3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD3">
         <v>0</v>
@@ -3283,19 +3289,19 @@
         <v>0</v>
       </c>
       <c r="HJ3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM3">
         <v>86400</v>
       </c>
       <c r="HN3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO3">
         <v>86400</v>
@@ -3307,7 +3313,7 @@
         <v>263</v>
       </c>
       <c r="HR3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS3" t="s">
         <v>263</v>
@@ -3319,7 +3325,7 @@
         <v>263</v>
       </c>
       <c r="HV3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW3">
         <v>86400</v>
@@ -3363,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>2012000</v>
+        <v>3564000</v>
       </c>
       <c r="O4" t="s">
         <v>244</v>
@@ -3555,7 +3561,7 @@
         <v>2800000</v>
       </c>
       <c r="CB4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="CC4">
         <v>55</v>
@@ -3618,7 +3624,7 @@
         <v>1</v>
       </c>
       <c r="CW4">
-        <v>3200</v>
+        <v>5100</v>
       </c>
       <c r="CX4" t="s">
         <v>270</v>
@@ -3684,7 +3690,7 @@
         <v>252</v>
       </c>
       <c r="DS4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -3693,16 +3699,16 @@
         <v>1</v>
       </c>
       <c r="DV4">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="DW4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="DX4" t="b">
         <v>1</v>
       </c>
       <c r="DY4" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ4">
         <v>1</v>
@@ -3753,7 +3759,7 @@
         <v>252</v>
       </c>
       <c r="EP4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -3813,7 +3819,7 @@
         <v>252</v>
       </c>
       <c r="FM4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN4">
         <v>0</v>
@@ -3822,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="FR4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS4">
         <v>1</v>
@@ -3831,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="FU4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="FV4">
         <v>75000</v>
@@ -3858,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="GM4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN4">
         <v>0.05</v>
@@ -3873,13 +3879,13 @@
         <v>8.5</v>
       </c>
       <c r="GR4" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU4">
         <v>1</v>
@@ -3888,10 +3894,10 @@
         <v>1</v>
       </c>
       <c r="GW4">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="GX4">
-        <v>2000</v>
+        <v>3600</v>
       </c>
       <c r="GY4">
         <v>0.95</v>
@@ -3906,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="HC4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD4">
         <v>0</v>
@@ -3915,19 +3921,19 @@
         <v>0</v>
       </c>
       <c r="HJ4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM4">
         <v>86400</v>
       </c>
       <c r="HN4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO4">
         <v>86400</v>
@@ -3939,7 +3945,7 @@
         <v>263</v>
       </c>
       <c r="HR4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS4" t="s">
         <v>263</v>
@@ -3951,7 +3957,7 @@
         <v>263</v>
       </c>
       <c r="HV4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW4">
         <v>86400</v>
@@ -3971,10 +3977,10 @@
         <v>235</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -3983,7 +3989,7 @@
         <v>2.6</v>
       </c>
       <c r="J5">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -3995,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>4536000</v>
+        <v>3564000</v>
       </c>
       <c r="O5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P5" t="s">
         <v>249</v>
@@ -4118,13 +4124,13 @@
         <v>1</v>
       </c>
       <c r="BE5">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF5" t="s">
         <v>257</v>
       </c>
       <c r="BG5">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH5" t="s">
         <v>263</v>
@@ -4184,10 +4190,10 @@
         <v>1</v>
       </c>
       <c r="CA5">
-        <v>2100000</v>
+        <v>3200000</v>
       </c>
       <c r="CB5" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="CC5">
         <v>55</v>
@@ -4250,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="CW5">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="CX5" t="s">
         <v>270</v>
@@ -4316,7 +4322,7 @@
         <v>252</v>
       </c>
       <c r="DS5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT5">
         <v>1</v>
@@ -4325,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="DV5">
-        <v>3500</v>
+        <v>2900</v>
       </c>
       <c r="DW5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="DX5" t="b">
         <v>1</v>
       </c>
       <c r="DY5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ5">
         <v>1</v>
@@ -4385,7 +4391,7 @@
         <v>252</v>
       </c>
       <c r="EP5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ5">
         <v>0</v>
@@ -4445,7 +4451,7 @@
         <v>252</v>
       </c>
       <c r="FM5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN5">
         <v>0</v>
@@ -4454,16 +4460,16 @@
         <v>0</v>
       </c>
       <c r="FR5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS5">
         <v>1</v>
       </c>
       <c r="FT5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="FV5">
         <v>75000</v>
@@ -4489,8 +4495,35 @@
       <c r="GC5" t="b">
         <v>0</v>
       </c>
+      <c r="GD5" t="s">
+        <v>281</v>
+      </c>
+      <c r="GE5">
+        <v>75000</v>
+      </c>
+      <c r="GF5">
+        <v>7200</v>
+      </c>
+      <c r="GG5">
+        <v>11000</v>
+      </c>
+      <c r="GH5">
+        <v>100000</v>
+      </c>
+      <c r="GI5">
+        <v>0.9</v>
+      </c>
+      <c r="GJ5">
+        <v>0.8</v>
+      </c>
+      <c r="GK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL5" t="b">
+        <v>0</v>
+      </c>
       <c r="GM5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN5">
         <v>0.05</v>
@@ -4505,13 +4538,13 @@
         <v>8.5</v>
       </c>
       <c r="GR5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU5">
         <v>1</v>
@@ -4520,10 +4553,10 @@
         <v>1</v>
       </c>
       <c r="GW5">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="GX5">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="GY5">
         <v>0.95</v>
@@ -4538,7 +4571,7 @@
         <v>0</v>
       </c>
       <c r="HC5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD5">
         <v>0</v>
@@ -4547,19 +4580,19 @@
         <v>0</v>
       </c>
       <c r="HJ5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM5">
         <v>86400</v>
       </c>
       <c r="HN5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO5">
         <v>86400</v>
@@ -4571,7 +4604,7 @@
         <v>263</v>
       </c>
       <c r="HR5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS5" t="s">
         <v>263</v>
@@ -4583,7 +4616,7 @@
         <v>263</v>
       </c>
       <c r="HV5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW5">
         <v>86400</v>
@@ -4603,10 +4636,10 @@
         <v>236</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4615,7 +4648,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4627,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3296000</v>
+        <v>2012000</v>
       </c>
       <c r="O6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P6" t="s">
         <v>249</v>
@@ -4750,13 +4783,13 @@
         <v>1</v>
       </c>
       <c r="BE6">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF6" t="s">
         <v>258</v>
       </c>
       <c r="BG6">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH6" t="s">
         <v>263</v>
@@ -4819,7 +4852,7 @@
         <v>2400000</v>
       </c>
       <c r="CB6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="CC6">
         <v>55</v>
@@ -4882,16 +4915,16 @@
         <v>1</v>
       </c>
       <c r="CW6">
-        <v>5600</v>
+        <v>2800</v>
       </c>
       <c r="CX6" t="s">
         <v>270</v>
       </c>
       <c r="CY6">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA6" t="b">
         <v>1</v>
@@ -4948,7 +4981,7 @@
         <v>252</v>
       </c>
       <c r="DS6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -4957,16 +4990,16 @@
         <v>1</v>
       </c>
       <c r="DV6">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="DW6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="DX6" t="b">
         <v>1</v>
       </c>
       <c r="DY6" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ6">
         <v>1</v>
@@ -5017,7 +5050,7 @@
         <v>252</v>
       </c>
       <c r="EP6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ6">
         <v>0</v>
@@ -5077,7 +5110,7 @@
         <v>252</v>
       </c>
       <c r="FM6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN6">
         <v>0</v>
@@ -5086,16 +5119,16 @@
         <v>0</v>
       </c>
       <c r="FR6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS6">
         <v>1</v>
       </c>
       <c r="FT6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="FV6">
         <v>50000</v>
@@ -5121,8 +5154,35 @@
       <c r="GC6" t="b">
         <v>0</v>
       </c>
+      <c r="GD6" t="s">
+        <v>286</v>
+      </c>
+      <c r="GE6">
+        <v>50000</v>
+      </c>
+      <c r="GF6">
+        <v>7200</v>
+      </c>
+      <c r="GG6">
+        <v>7200</v>
+      </c>
+      <c r="GH6">
+        <v>50000</v>
+      </c>
+      <c r="GI6">
+        <v>0.9</v>
+      </c>
+      <c r="GJ6">
+        <v>0.8</v>
+      </c>
+      <c r="GK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL6" t="b">
+        <v>0</v>
+      </c>
       <c r="GM6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN6">
         <v>0.05</v>
@@ -5137,13 +5197,13 @@
         <v>8.5</v>
       </c>
       <c r="GR6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU6">
         <v>1</v>
@@ -5152,10 +5212,10 @@
         <v>1</v>
       </c>
       <c r="GW6">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="GX6">
-        <v>3300</v>
+        <v>2000</v>
       </c>
       <c r="GY6">
         <v>0.95</v>
@@ -5170,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="HC6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD6">
         <v>0</v>
@@ -5179,19 +5239,19 @@
         <v>0</v>
       </c>
       <c r="HJ6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM6">
         <v>86400</v>
       </c>
       <c r="HN6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO6">
         <v>86400</v>
@@ -5203,7 +5263,7 @@
         <v>263</v>
       </c>
       <c r="HR6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS6" t="s">
         <v>263</v>
@@ -5215,7 +5275,7 @@
         <v>263</v>
       </c>
       <c r="HV6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW6">
         <v>86400</v>
@@ -5259,7 +5319,7 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3296000</v>
+        <v>3125000</v>
       </c>
       <c r="O7" t="s">
         <v>246</v>
@@ -5448,10 +5508,10 @@
         <v>1</v>
       </c>
       <c r="CA7">
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
       <c r="CB7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CC7">
         <v>55</v>
@@ -5514,16 +5574,16 @@
         <v>1</v>
       </c>
       <c r="CW7">
-        <v>4400</v>
+        <v>4700</v>
       </c>
       <c r="CX7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="CY7">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ7">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA7" t="b">
         <v>1</v>
@@ -5580,7 +5640,7 @@
         <v>252</v>
       </c>
       <c r="DS7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT7">
         <v>1</v>
@@ -5589,16 +5649,16 @@
         <v>1</v>
       </c>
       <c r="DV7">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="DW7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DX7" t="b">
         <v>1</v>
       </c>
       <c r="DY7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ7">
         <v>1</v>
@@ -5649,7 +5709,7 @@
         <v>252</v>
       </c>
       <c r="EP7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ7">
         <v>0</v>
@@ -5709,7 +5769,7 @@
         <v>252</v>
       </c>
       <c r="FM7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN7">
         <v>0</v>
@@ -5718,28 +5778,28 @@
         <v>0</v>
       </c>
       <c r="FR7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS7">
         <v>1</v>
       </c>
       <c r="FT7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU7" t="s">
         <v>283</v>
       </c>
       <c r="FV7">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="FW7">
         <v>7200</v>
       </c>
       <c r="FX7">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FY7">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FZ7">
         <v>0.9</v>
@@ -5753,35 +5813,8 @@
       <c r="GC7" t="b">
         <v>0</v>
       </c>
-      <c r="GD7" t="s">
-        <v>281</v>
-      </c>
-      <c r="GE7">
-        <v>50000</v>
-      </c>
-      <c r="GF7">
-        <v>7200</v>
-      </c>
-      <c r="GG7">
-        <v>7200</v>
-      </c>
-      <c r="GH7">
-        <v>50000</v>
-      </c>
-      <c r="GI7">
-        <v>0.9</v>
-      </c>
-      <c r="GJ7">
-        <v>0.8</v>
-      </c>
-      <c r="GK7" t="b">
-        <v>0</v>
-      </c>
-      <c r="GL7" t="b">
-        <v>0</v>
-      </c>
       <c r="GM7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN7">
         <v>0.05</v>
@@ -5796,13 +5829,13 @@
         <v>8.5</v>
       </c>
       <c r="GR7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU7">
         <v>1</v>
@@ -5811,10 +5844,10 @@
         <v>1</v>
       </c>
       <c r="GW7">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="GX7">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="GY7">
         <v>0.95</v>
@@ -5829,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="HC7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD7">
         <v>0</v>
@@ -5838,19 +5871,19 @@
         <v>0</v>
       </c>
       <c r="HJ7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM7">
         <v>86400</v>
       </c>
       <c r="HN7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO7">
         <v>86400</v>
@@ -5862,7 +5895,7 @@
         <v>263</v>
       </c>
       <c r="HR7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS7" t="s">
         <v>263</v>
@@ -5874,7 +5907,7 @@
         <v>263</v>
       </c>
       <c r="HV7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW7">
         <v>86400</v>
@@ -5894,10 +5927,10 @@
         <v>238</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -5906,7 +5939,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5918,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>5527000</v>
+        <v>4402000</v>
       </c>
       <c r="O8" t="s">
         <v>247</v>
@@ -6041,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="BE8">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF8" t="s">
         <v>260</v>
@@ -6107,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="CA8">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="CB8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="CC8">
         <v>55</v>
@@ -6173,10 +6206,10 @@
         <v>1</v>
       </c>
       <c r="CW8">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="CX8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="CY8">
         <v>0</v>
@@ -6239,7 +6272,7 @@
         <v>252</v>
       </c>
       <c r="DS8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT8">
         <v>1</v>
@@ -6248,16 +6281,16 @@
         <v>1</v>
       </c>
       <c r="DV8">
-        <v>4000</v>
+        <v>2200</v>
       </c>
       <c r="DW8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="DX8" t="b">
         <v>1</v>
       </c>
       <c r="DY8" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ8">
         <v>1</v>
@@ -6308,7 +6341,7 @@
         <v>252</v>
       </c>
       <c r="EP8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ8">
         <v>0</v>
@@ -6368,7 +6401,7 @@
         <v>252</v>
       </c>
       <c r="FM8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN8">
         <v>0</v>
@@ -6377,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="FR8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS8">
         <v>1</v>
@@ -6386,19 +6419,19 @@
         <v>1</v>
       </c>
       <c r="FU8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="FV8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW8">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX8">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY8">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ8">
         <v>0.9</v>
@@ -6413,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="GM8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN8">
         <v>0.05</v>
@@ -6428,13 +6461,13 @@
         <v>8.5</v>
       </c>
       <c r="GR8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU8">
         <v>1</v>
@@ -6443,10 +6476,10 @@
         <v>1</v>
       </c>
       <c r="GW8">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="GX8">
-        <v>5500</v>
+        <v>4400</v>
       </c>
       <c r="GY8">
         <v>0.95</v>
@@ -6461,7 +6494,7 @@
         <v>0</v>
       </c>
       <c r="HC8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD8">
         <v>0</v>
@@ -6470,19 +6503,19 @@
         <v>0</v>
       </c>
       <c r="HJ8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM8">
         <v>86400</v>
       </c>
       <c r="HN8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO8">
         <v>86400</v>
@@ -6494,7 +6527,7 @@
         <v>263</v>
       </c>
       <c r="HR8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS8" t="s">
         <v>263</v>
@@ -6506,7 +6539,7 @@
         <v>263</v>
       </c>
       <c r="HV8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW8">
         <v>86400</v>
@@ -6550,10 +6583,10 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3863000</v>
+        <v>3564000</v>
       </c>
       <c r="O9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P9" t="s">
         <v>249</v>
@@ -6676,7 +6709,7 @@
         <v>5500000</v>
       </c>
       <c r="BF9" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="BG9">
         <v>55</v>
@@ -6805,16 +6838,16 @@
         <v>1</v>
       </c>
       <c r="CW9">
-        <v>5600</v>
+        <v>4700</v>
       </c>
       <c r="CX9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="CY9">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ9">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA9" t="b">
         <v>1</v>
@@ -6871,7 +6904,7 @@
         <v>252</v>
       </c>
       <c r="DS9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT9">
         <v>1</v>
@@ -6880,16 +6913,16 @@
         <v>1</v>
       </c>
       <c r="DV9">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="DW9" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="DX9" t="b">
         <v>1</v>
       </c>
       <c r="DY9" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ9">
         <v>1</v>
@@ -6940,7 +6973,7 @@
         <v>252</v>
       </c>
       <c r="EP9" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ9">
         <v>0</v>
@@ -7000,7 +7033,7 @@
         <v>252</v>
       </c>
       <c r="FM9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN9">
         <v>0</v>
@@ -7009,7 +7042,7 @@
         <v>0</v>
       </c>
       <c r="FR9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS9">
         <v>1</v>
@@ -7018,19 +7051,19 @@
         <v>1</v>
       </c>
       <c r="FU9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="FV9">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FW9">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FX9">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="FY9">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="FZ9">
         <v>0.9</v>
@@ -7045,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="GM9" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN9">
         <v>0.05</v>
@@ -7060,13 +7093,13 @@
         <v>8.5</v>
       </c>
       <c r="GR9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU9">
         <v>1</v>
@@ -7075,10 +7108,10 @@
         <v>1</v>
       </c>
       <c r="GW9">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="GX9">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="GY9">
         <v>0.95</v>
@@ -7093,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="HC9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD9">
         <v>0</v>
@@ -7102,19 +7135,19 @@
         <v>0</v>
       </c>
       <c r="HJ9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM9">
         <v>86400</v>
       </c>
       <c r="HN9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO9">
         <v>86400</v>
@@ -7126,7 +7159,7 @@
         <v>263</v>
       </c>
       <c r="HR9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS9" t="s">
         <v>263</v>
@@ -7138,7 +7171,7 @@
         <v>263</v>
       </c>
       <c r="HV9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW9">
         <v>86400</v>
@@ -7158,10 +7191,10 @@
         <v>240</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7170,7 +7203,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7185,7 +7218,7 @@
         <v>5527000</v>
       </c>
       <c r="O10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P10" t="s">
         <v>249</v>
@@ -7305,10 +7338,10 @@
         <v>1</v>
       </c>
       <c r="BE10">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="BG10">
         <v>55</v>
@@ -7371,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="CA10">
-        <v>3200000</v>
+        <v>2100000</v>
       </c>
       <c r="CB10" t="s">
         <v>268</v>
@@ -7437,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="CW10">
-        <v>8500</v>
+        <v>9900</v>
       </c>
       <c r="CX10" t="s">
         <v>270</v>
@@ -7503,7 +7536,7 @@
         <v>252</v>
       </c>
       <c r="DS10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -7512,7 +7545,7 @@
         <v>1</v>
       </c>
       <c r="DV10">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="DW10" t="s">
         <v>275</v>
@@ -7521,7 +7554,7 @@
         <v>1</v>
       </c>
       <c r="DY10" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ10">
         <v>1</v>
@@ -7572,7 +7605,7 @@
         <v>252</v>
       </c>
       <c r="EP10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ10">
         <v>0</v>
@@ -7632,7 +7665,7 @@
         <v>252</v>
       </c>
       <c r="FM10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN10">
         <v>0</v>
@@ -7641,16 +7674,16 @@
         <v>0</v>
       </c>
       <c r="FR10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS10">
         <v>1</v>
       </c>
       <c r="FT10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FV10">
         <v>75000</v>
@@ -7676,35 +7709,8 @@
       <c r="GC10" t="b">
         <v>0</v>
       </c>
-      <c r="GD10" t="s">
-        <v>279</v>
-      </c>
-      <c r="GE10">
-        <v>100000</v>
-      </c>
-      <c r="GF10">
-        <v>11000</v>
-      </c>
-      <c r="GG10">
-        <v>22000</v>
-      </c>
-      <c r="GH10">
-        <v>200000</v>
-      </c>
-      <c r="GI10">
-        <v>0.9</v>
-      </c>
-      <c r="GJ10">
-        <v>0.8</v>
-      </c>
-      <c r="GK10" t="b">
-        <v>0</v>
-      </c>
-      <c r="GL10" t="b">
-        <v>0</v>
-      </c>
       <c r="GM10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN10">
         <v>0.05</v>
@@ -7719,13 +7725,13 @@
         <v>8.5</v>
       </c>
       <c r="GR10" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU10">
         <v>1</v>
@@ -7752,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="HC10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD10">
         <v>0</v>
@@ -7761,19 +7767,19 @@
         <v>0</v>
       </c>
       <c r="HJ10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM10">
         <v>86400</v>
       </c>
       <c r="HN10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO10">
         <v>86400</v>
@@ -7785,7 +7791,7 @@
         <v>263</v>
       </c>
       <c r="HR10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS10" t="s">
         <v>263</v>
@@ -7797,7 +7803,7 @@
         <v>263</v>
       </c>
       <c r="HV10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW10">
         <v>86400</v>
@@ -7817,10 +7823,10 @@
         <v>241</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -7829,7 +7835,7 @@
         <v>2.6</v>
       </c>
       <c r="J11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -7841,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>4402000</v>
+        <v>5527000</v>
       </c>
       <c r="O11" t="s">
         <v>248</v>
@@ -7964,7 +7970,7 @@
         <v>1</v>
       </c>
       <c r="BE11">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF11" t="s">
         <v>262</v>
@@ -8030,7 +8036,7 @@
         <v>1</v>
       </c>
       <c r="CA11">
-        <v>3200000</v>
+        <v>2400000</v>
       </c>
       <c r="CB11" t="s">
         <v>268</v>
@@ -8096,16 +8102,16 @@
         <v>1</v>
       </c>
       <c r="CW11">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="CX11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CY11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA11" t="b">
         <v>1</v>
@@ -8162,7 +8168,7 @@
         <v>252</v>
       </c>
       <c r="DS11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="DT11">
         <v>1</v>
@@ -8171,16 +8177,16 @@
         <v>1</v>
       </c>
       <c r="DV11">
-        <v>2800</v>
+        <v>4400</v>
       </c>
       <c r="DW11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="DX11" t="b">
         <v>1</v>
       </c>
       <c r="DY11" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="DZ11">
         <v>1</v>
@@ -8231,7 +8237,7 @@
         <v>252</v>
       </c>
       <c r="EP11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="EQ11">
         <v>0</v>
@@ -8291,7 +8297,7 @@
         <v>252</v>
       </c>
       <c r="FM11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FN11">
         <v>0</v>
@@ -8300,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="FR11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="FS11">
         <v>1</v>
@@ -8309,19 +8315,19 @@
         <v>1</v>
       </c>
       <c r="FU11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="FV11">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="FW11">
         <v>7200</v>
       </c>
       <c r="FX11">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FY11">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FZ11">
         <v>0.9</v>
@@ -8336,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="GM11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GN11">
         <v>0.05</v>
@@ -8351,13 +8357,13 @@
         <v>8.5</v>
       </c>
       <c r="GR11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GS11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GT11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="GU11">
         <v>1</v>
@@ -8366,10 +8372,10 @@
         <v>1</v>
       </c>
       <c r="GW11">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GX11">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GY11">
         <v>0.95</v>
@@ -8384,7 +8390,7 @@
         <v>0</v>
       </c>
       <c r="HC11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HD11">
         <v>0</v>
@@ -8393,19 +8399,19 @@
         <v>0</v>
       </c>
       <c r="HJ11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="HK11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HL11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="HM11">
         <v>86400</v>
       </c>
       <c r="HN11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="HO11">
         <v>86400</v>
@@ -8417,7 +8423,7 @@
         <v>263</v>
       </c>
       <c r="HR11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HS11" t="s">
         <v>263</v>
@@ -8429,7 +8435,7 @@
         <v>263</v>
       </c>
       <c r="HV11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HW11">
         <v>86400</v>
@@ -8468,13 +8474,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -9188,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9575,22 +9581,22 @@
         <v>193</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>200</v>
@@ -9695,7 +9701,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10574,58 +10580,58 @@
         <v>209</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>217</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="326">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -687,232 +687,244 @@
     <t>ems/market/horizon</t>
   </si>
   <si>
+    <t>ems/market/fcast/local/method</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/local/naive/offset</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/wholesale/method</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/wholesale/naive/offset</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/energy</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/local</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/grid/retail</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/levies</t>
+  </si>
+  <si>
+    <t>ems/market/fcast/retailer/balancing</t>
+  </si>
+  <si>
+    <t>ems/fcasts/horizon</t>
+  </si>
+  <si>
+    <t>ems/fcasts/retraining</t>
+  </si>
+  <si>
+    <t>ems/fcasts/update</t>
+  </si>
+  <si>
+    <t>jyFGsACyxp4M2bF</t>
+  </si>
+  <si>
+    <t>NF1R1X5xLHc5oai</t>
+  </si>
+  <si>
+    <t>f6gRFkqafMoslOh</t>
+  </si>
+  <si>
+    <t>I60jAo0thuY7TM6</t>
+  </si>
+  <si>
+    <t>w5LxCx7amBPhKab</t>
+  </si>
+  <si>
+    <t>NmWj0SV2dIIMv1Q</t>
+  </si>
+  <si>
+    <t>HC22h0DOauutOsq</t>
+  </si>
+  <si>
+    <t>gLGXThmj1lHuDe9</t>
+  </si>
+  <si>
+    <t>RiFtEzMHKOmLYK4</t>
+  </si>
+  <si>
+    <t>h2L2NbbwFFcbX5m</t>
+  </si>
+  <si>
+    <t>hh_2896_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4536_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3863_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
+  </si>
+  <si>
+    <t>['temp', 'time']</t>
+  </si>
+  <si>
+    <t>[1, 0, 0]</t>
+  </si>
+  <si>
+    <t>rfr</t>
+  </si>
+  <si>
+    <t>heat_gen_5_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_4536_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_3863_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2959_0.csv</t>
+  </si>
+  <si>
+    <t>heat_5527_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>naive</t>
+  </si>
+  <si>
+    <t>dhw_gen_2_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_3_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_6_pu.csv</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>pv_3_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_1_pu.csv</t>
+  </si>
+  <si>
+    <t>pv_2_pu.csv</t>
+  </si>
+  <si>
+    <t>green_local</t>
+  </si>
+  <si>
+    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
+  </si>
+  <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_47.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_43.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_44.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_2.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_90.csv</t>
+  </si>
+  <si>
+    <t>min_soc</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>['time']</t>
+  </si>
+  <si>
+    <t>linopy</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>['naive', 'naive']</t>
+  </si>
+  <si>
+    <t>general/sub_id</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments_independent</t>
+  </si>
+  <si>
+    <t>general/parameters/apartments</t>
+  </si>
+  <si>
     <t>ems/market/fcast/local</t>
   </si>
   <si>
     <t>ems/market/fcast/wholesale</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retailer/energy</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retailer/grid/local</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retailer/grid/retail</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retailer/levies</t>
-  </si>
-  <si>
-    <t>ems/market/fcast/retailer/balancing</t>
-  </si>
-  <si>
-    <t>ems/fcasts/horizon</t>
-  </si>
-  <si>
-    <t>ems/fcasts/retraining</t>
-  </si>
-  <si>
-    <t>ems/fcasts/update</t>
-  </si>
-  <si>
-    <t>rW9Bi4f1AbGBCtO</t>
-  </si>
-  <si>
-    <t>Jq4Y5Afz7yd3pjK</t>
-  </si>
-  <si>
-    <t>S6DjdLlEFYi5V5p</t>
-  </si>
-  <si>
-    <t>ZPaCL1szWJW6uw8</t>
-  </si>
-  <si>
-    <t>pL6jAjPWyJofFLv</t>
-  </si>
-  <si>
-    <t>1Vr1dXuWgexa3Zr</t>
-  </si>
-  <si>
-    <t>UcyV1AOXfAmBPSw</t>
-  </si>
-  <si>
-    <t>d5uiSwAOqPU9zwX</t>
-  </si>
-  <si>
-    <t>6G9Udy7Ll56HIud</t>
-  </si>
-  <si>
-    <t>UkKBPJGYQw9gFHU</t>
-  </si>
-  <si>
-    <t>hh_2687_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3296_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3564_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_3125_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>[2, 0, 2, 2, 0, 0, 96, 2, 0, 0, 672]</t>
-  </si>
-  <si>
-    <t>['temp', 'time']</t>
-  </si>
-  <si>
-    <t>[1, 0, 0]</t>
-  </si>
-  <si>
-    <t>rfr</t>
-  </si>
-  <si>
-    <t>heat_2687_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3296_0.csv</t>
-  </si>
-  <si>
-    <t>heat_3564_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_2012_3.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4402_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>naive</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_3_pu.csv</t>
-  </si>
-  <si>
-    <t>average</t>
-  </si>
-  <si>
-    <t>pv_3_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_1_pu.csv</t>
-  </si>
-  <si>
-    <t>pv_2_pu.csv</t>
-  </si>
-  <si>
-    <t>green_local</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
-  </si>
-  <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_44.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_49.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_1.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_48.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_0.csv</t>
-  </si>
-  <si>
-    <t>min_soc</t>
-  </si>
-  <si>
-    <t>arrival</t>
-  </si>
-  <si>
-    <t>['time']</t>
-  </si>
-  <si>
-    <t>linopy</t>
-  </si>
-  <si>
-    <t>linear</t>
-  </si>
-  <si>
-    <t>['naive', 'naive']</t>
-  </si>
-  <si>
-    <t>general/sub_id</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments_independent</t>
-  </si>
-  <si>
-    <t>general/parameters/apartments</t>
   </si>
   <si>
     <t>general/parameters/type</t>
@@ -1342,13 +1354,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:HY11"/>
+  <dimension ref="A1:IA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:233">
+    <row r="1" spans="1:235">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2045,13 +2057,19 @@
       <c r="HY1" s="1" t="s">
         <v>231</v>
       </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
-    <row r="2" spans="1:233">
+    <row r="2" spans="1:235">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -2078,13 +2096,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>2687000</v>
+        <v>2896000</v>
       </c>
       <c r="O2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2099,10 +2117,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2114,7 +2132,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2126,13 +2144,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG2">
         <v>0</v>
@@ -2144,7 +2162,7 @@
         <v>6</v>
       </c>
       <c r="AL2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM2">
         <v>1</v>
@@ -2159,10 +2177,10 @@
         <v>9</v>
       </c>
       <c r="AQ2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS2">
         <v>3</v>
@@ -2174,7 +2192,7 @@
         <v>20</v>
       </c>
       <c r="AV2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW2">
         <v>3</v>
@@ -2186,13 +2204,13 @@
         <v>20</v>
       </c>
       <c r="AZ2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA2">
         <v>3</v>
       </c>
       <c r="BB2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC2">
         <v>1</v>
@@ -2204,13 +2222,13 @@
         <v>19500000</v>
       </c>
       <c r="BF2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="BG2">
         <v>55</v>
       </c>
       <c r="BH2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI2">
         <v>1</v>
@@ -2225,10 +2243,10 @@
         <v>9</v>
       </c>
       <c r="BM2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO2">
         <v>3</v>
@@ -2240,7 +2258,7 @@
         <v>20</v>
       </c>
       <c r="BR2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS2">
         <v>3</v>
@@ -2252,13 +2270,13 @@
         <v>20</v>
       </c>
       <c r="BV2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW2">
         <v>3</v>
       </c>
       <c r="BX2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY2">
         <v>1</v>
@@ -2267,16 +2285,16 @@
         <v>1</v>
       </c>
       <c r="CA2">
-        <v>2800000</v>
+        <v>3200000</v>
       </c>
       <c r="CB2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="CC2">
         <v>55</v>
       </c>
       <c r="CD2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE2">
         <v>1</v>
@@ -2291,10 +2309,10 @@
         <v>9</v>
       </c>
       <c r="CI2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK2">
         <v>3</v>
@@ -2306,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="CN2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO2">
         <v>3</v>
@@ -2318,13 +2336,13 @@
         <v>20</v>
       </c>
       <c r="CR2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS2">
         <v>3</v>
       </c>
       <c r="CT2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU2">
         <v>1</v>
@@ -2333,10 +2351,10 @@
         <v>1</v>
       </c>
       <c r="CW2">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="CX2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="CY2">
         <v>0</v>
@@ -2348,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="DB2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC2">
         <v>1</v>
@@ -2363,10 +2381,10 @@
         <v>9</v>
       </c>
       <c r="DG2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI2">
         <v>3</v>
@@ -2378,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="DL2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM2">
         <v>3</v>
@@ -2390,16 +2408,16 @@
         <v>20</v>
       </c>
       <c r="DP2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ2">
         <v>3</v>
       </c>
       <c r="DR2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT2">
         <v>1</v>
@@ -2411,13 +2429,13 @@
         <v>2000</v>
       </c>
       <c r="DW2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="DX2" t="b">
         <v>1</v>
       </c>
       <c r="DY2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -2432,10 +2450,10 @@
         <v>9</v>
       </c>
       <c r="ED2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF2">
         <v>3</v>
@@ -2447,7 +2465,7 @@
         <v>20</v>
       </c>
       <c r="EI2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2459,16 +2477,16 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN2">
         <v>3</v>
       </c>
       <c r="EO2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -2477,7 +2495,7 @@
         <v>0</v>
       </c>
       <c r="EV2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW2">
         <v>1</v>
@@ -2492,10 +2510,10 @@
         <v>9</v>
       </c>
       <c r="FA2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC2">
         <v>3</v>
@@ -2507,7 +2525,7 @@
         <v>20</v>
       </c>
       <c r="FF2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG2">
         <v>3</v>
@@ -2519,13 +2537,13 @@
         <v>20</v>
       </c>
       <c r="FJ2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK2">
         <v>3</v>
       </c>
       <c r="FL2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM2" t="s">
         <v>280</v>
@@ -2543,22 +2561,22 @@
         <v>1</v>
       </c>
       <c r="FT2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="s">
         <v>281</v>
       </c>
       <c r="FV2">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="FW2">
         <v>7200</v>
       </c>
       <c r="FX2">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FY2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FZ2">
         <v>0.9</v>
@@ -2572,35 +2590,8 @@
       <c r="GC2" t="b">
         <v>0</v>
       </c>
-      <c r="GD2" t="s">
-        <v>288</v>
-      </c>
-      <c r="GE2">
-        <v>100000</v>
-      </c>
-      <c r="GF2">
-        <v>11000</v>
-      </c>
-      <c r="GG2">
-        <v>22000</v>
-      </c>
-      <c r="GH2">
-        <v>200000</v>
-      </c>
-      <c r="GI2">
-        <v>0.9</v>
-      </c>
-      <c r="GJ2">
-        <v>0.8</v>
-      </c>
-      <c r="GK2" t="b">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="b">
-        <v>0</v>
-      </c>
       <c r="GM2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN2">
         <v>0.05</v>
@@ -2615,10 +2606,10 @@
         <v>8.5</v>
       </c>
       <c r="GR2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT2" t="s">
         <v>280</v>
@@ -2630,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="GW2">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="GX2">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="GY2">
         <v>0.95</v>
@@ -2660,57 +2651,63 @@
         <v>280</v>
       </c>
       <c r="HK2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM2">
         <v>86400</v>
       </c>
       <c r="HN2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO2">
         <v>86400</v>
       </c>
       <c r="HP2" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ2" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ2">
+        <v>1</v>
       </c>
       <c r="HR2" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS2" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS2">
+        <v>1</v>
       </c>
       <c r="HT2" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV2" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW2">
+        <v>265</v>
+      </c>
+      <c r="HW2" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX2" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY2">
         <v>86400</v>
       </c>
-      <c r="HX2">
+      <c r="HZ2">
         <v>86400</v>
       </c>
-      <c r="HY2">
+      <c r="IA2">
         <v>3600</v>
       </c>
     </row>
-    <row r="3" spans="1:233">
+    <row r="3" spans="1:235">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -2737,13 +2734,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3296000</v>
+        <v>4536000</v>
       </c>
       <c r="O3" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2758,10 +2755,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2773,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2785,13 +2782,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG3">
         <v>0</v>
@@ -2803,7 +2800,7 @@
         <v>6</v>
       </c>
       <c r="AL3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM3">
         <v>1</v>
@@ -2818,10 +2815,10 @@
         <v>9</v>
       </c>
       <c r="AQ3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS3">
         <v>3</v>
@@ -2833,7 +2830,7 @@
         <v>20</v>
       </c>
       <c r="AV3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW3">
         <v>3</v>
@@ -2845,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="AZ3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA3">
         <v>3</v>
       </c>
       <c r="BB3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC3">
         <v>1</v>
@@ -2863,13 +2860,13 @@
         <v>5500000</v>
       </c>
       <c r="BF3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="BG3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI3">
         <v>1</v>
@@ -2884,10 +2881,10 @@
         <v>9</v>
       </c>
       <c r="BM3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO3">
         <v>3</v>
@@ -2899,7 +2896,7 @@
         <v>20</v>
       </c>
       <c r="BR3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS3">
         <v>3</v>
@@ -2911,13 +2908,13 @@
         <v>20</v>
       </c>
       <c r="BV3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW3">
         <v>3</v>
       </c>
       <c r="BX3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY3">
         <v>1</v>
@@ -2926,16 +2923,16 @@
         <v>1</v>
       </c>
       <c r="CA3">
-        <v>1800000</v>
+        <v>2100000</v>
       </c>
       <c r="CB3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="CC3">
         <v>55</v>
       </c>
       <c r="CD3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE3">
         <v>1</v>
@@ -2950,10 +2947,10 @@
         <v>9</v>
       </c>
       <c r="CI3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK3">
         <v>3</v>
@@ -2965,7 +2962,7 @@
         <v>20</v>
       </c>
       <c r="CN3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO3">
         <v>3</v>
@@ -2977,13 +2974,13 @@
         <v>20</v>
       </c>
       <c r="CR3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS3">
         <v>3</v>
       </c>
       <c r="CT3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU3">
         <v>1</v>
@@ -2992,10 +2989,10 @@
         <v>1</v>
       </c>
       <c r="CW3">
-        <v>5100</v>
+        <v>7500</v>
       </c>
       <c r="CX3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CY3">
         <v>0</v>
@@ -3007,7 +3004,7 @@
         <v>1</v>
       </c>
       <c r="DB3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC3">
         <v>1</v>
@@ -3022,10 +3019,10 @@
         <v>9</v>
       </c>
       <c r="DG3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI3">
         <v>3</v>
@@ -3037,7 +3034,7 @@
         <v>20</v>
       </c>
       <c r="DL3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM3">
         <v>3</v>
@@ -3049,16 +3046,16 @@
         <v>20</v>
       </c>
       <c r="DP3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ3">
         <v>3</v>
       </c>
       <c r="DR3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT3">
         <v>1</v>
@@ -3067,16 +3064,16 @@
         <v>1</v>
       </c>
       <c r="DV3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="DW3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="DX3" t="b">
         <v>1</v>
       </c>
       <c r="DY3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ3">
         <v>1</v>
@@ -3091,10 +3088,10 @@
         <v>9</v>
       </c>
       <c r="ED3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF3">
         <v>3</v>
@@ -3106,7 +3103,7 @@
         <v>20</v>
       </c>
       <c r="EI3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3118,16 +3115,16 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN3">
         <v>3</v>
       </c>
       <c r="EO3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ3">
         <v>0</v>
@@ -3136,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="EV3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW3">
         <v>1</v>
@@ -3151,10 +3148,10 @@
         <v>9</v>
       </c>
       <c r="FA3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC3">
         <v>3</v>
@@ -3166,7 +3163,7 @@
         <v>20</v>
       </c>
       <c r="FF3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG3">
         <v>3</v>
@@ -3178,13 +3175,13 @@
         <v>20</v>
       </c>
       <c r="FJ3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK3">
         <v>3</v>
       </c>
       <c r="FL3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM3" t="s">
         <v>280</v>
@@ -3208,16 +3205,16 @@
         <v>282</v>
       </c>
       <c r="FV3">
+        <v>75000</v>
+      </c>
+      <c r="FW3">
+        <v>7200</v>
+      </c>
+      <c r="FX3">
+        <v>11000</v>
+      </c>
+      <c r="FY3">
         <v>100000</v>
-      </c>
-      <c r="FW3">
-        <v>11000</v>
-      </c>
-      <c r="FX3">
-        <v>22000</v>
-      </c>
-      <c r="FY3">
-        <v>200000</v>
       </c>
       <c r="FZ3">
         <v>0.9</v>
@@ -3232,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="GM3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN3">
         <v>0.05</v>
@@ -3247,10 +3244,10 @@
         <v>8.5</v>
       </c>
       <c r="GR3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT3" t="s">
         <v>280</v>
@@ -3262,10 +3259,10 @@
         <v>1</v>
       </c>
       <c r="GW3">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="GX3">
-        <v>3300</v>
+        <v>4500</v>
       </c>
       <c r="GY3">
         <v>0.95</v>
@@ -3292,63 +3289,69 @@
         <v>280</v>
       </c>
       <c r="HK3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM3">
         <v>86400</v>
       </c>
       <c r="HN3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO3">
         <v>86400</v>
       </c>
       <c r="HP3" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ3" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ3">
+        <v>1</v>
       </c>
       <c r="HR3" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS3" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS3">
+        <v>1</v>
       </c>
       <c r="HT3" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV3" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW3">
+        <v>265</v>
+      </c>
+      <c r="HW3" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX3" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY3">
         <v>86400</v>
       </c>
-      <c r="HX3">
+      <c r="HZ3">
         <v>86400</v>
       </c>
-      <c r="HY3">
+      <c r="IA3">
         <v>3600</v>
       </c>
     </row>
-    <row r="4" spans="1:233">
+    <row r="4" spans="1:235">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3357,7 +3360,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3369,13 +3372,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3564000</v>
+        <v>3125000</v>
       </c>
       <c r="O4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3390,10 +3393,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3405,7 +3408,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3417,13 +3420,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3435,7 +3438,7 @@
         <v>6</v>
       </c>
       <c r="AL4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM4">
         <v>1</v>
@@ -3450,10 +3453,10 @@
         <v>9</v>
       </c>
       <c r="AQ4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS4">
         <v>3</v>
@@ -3465,7 +3468,7 @@
         <v>20</v>
       </c>
       <c r="AV4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW4">
         <v>3</v>
@@ -3477,13 +3480,13 @@
         <v>20</v>
       </c>
       <c r="AZ4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA4">
         <v>3</v>
       </c>
       <c r="BB4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC4">
         <v>1</v>
@@ -3492,16 +3495,16 @@
         <v>1</v>
       </c>
       <c r="BE4">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF4" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="BG4">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BH4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI4">
         <v>1</v>
@@ -3516,10 +3519,10 @@
         <v>9</v>
       </c>
       <c r="BM4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO4">
         <v>3</v>
@@ -3531,7 +3534,7 @@
         <v>20</v>
       </c>
       <c r="BR4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS4">
         <v>3</v>
@@ -3543,13 +3546,13 @@
         <v>20</v>
       </c>
       <c r="BV4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW4">
         <v>3</v>
       </c>
       <c r="BX4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY4">
         <v>1</v>
@@ -3558,16 +3561,16 @@
         <v>1</v>
       </c>
       <c r="CA4">
-        <v>2800000</v>
+        <v>2400000</v>
       </c>
       <c r="CB4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="CC4">
         <v>55</v>
       </c>
       <c r="CD4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE4">
         <v>1</v>
@@ -3582,10 +3585,10 @@
         <v>9</v>
       </c>
       <c r="CI4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK4">
         <v>3</v>
@@ -3597,7 +3600,7 @@
         <v>20</v>
       </c>
       <c r="CN4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO4">
         <v>3</v>
@@ -3609,13 +3612,13 @@
         <v>20</v>
       </c>
       <c r="CR4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS4">
         <v>3</v>
       </c>
       <c r="CT4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU4">
         <v>1</v>
@@ -3624,22 +3627,22 @@
         <v>1</v>
       </c>
       <c r="CW4">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="CX4" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CY4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA4" t="b">
         <v>1</v>
       </c>
       <c r="DB4" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC4">
         <v>1</v>
@@ -3654,10 +3657,10 @@
         <v>9</v>
       </c>
       <c r="DG4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI4">
         <v>3</v>
@@ -3669,7 +3672,7 @@
         <v>20</v>
       </c>
       <c r="DL4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM4">
         <v>3</v>
@@ -3681,16 +3684,16 @@
         <v>20</v>
       </c>
       <c r="DP4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ4">
         <v>3</v>
       </c>
       <c r="DR4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT4">
         <v>1</v>
@@ -3699,16 +3702,16 @@
         <v>1</v>
       </c>
       <c r="DV4">
-        <v>2900</v>
+        <v>1400</v>
       </c>
       <c r="DW4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="DX4" t="b">
         <v>1</v>
       </c>
       <c r="DY4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ4">
         <v>1</v>
@@ -3723,10 +3726,10 @@
         <v>9</v>
       </c>
       <c r="ED4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF4">
         <v>3</v>
@@ -3738,7 +3741,7 @@
         <v>20</v>
       </c>
       <c r="EI4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3750,16 +3753,16 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN4">
         <v>3</v>
       </c>
       <c r="EO4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -3768,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="EV4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW4">
         <v>1</v>
@@ -3783,10 +3786,10 @@
         <v>9</v>
       </c>
       <c r="FA4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC4">
         <v>3</v>
@@ -3798,7 +3801,7 @@
         <v>20</v>
       </c>
       <c r="FF4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG4">
         <v>3</v>
@@ -3810,13 +3813,13 @@
         <v>20</v>
       </c>
       <c r="FJ4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK4">
         <v>3</v>
       </c>
       <c r="FL4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM4" t="s">
         <v>280</v>
@@ -3840,16 +3843,16 @@
         <v>283</v>
       </c>
       <c r="FV4">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="FW4">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX4">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="FY4">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="FZ4">
         <v>0.9</v>
@@ -3864,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="GM4" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN4">
         <v>0.05</v>
@@ -3879,10 +3882,10 @@
         <v>8.5</v>
       </c>
       <c r="GR4" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS4" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT4" t="s">
         <v>280</v>
@@ -3894,10 +3897,10 @@
         <v>1</v>
       </c>
       <c r="GW4">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="GX4">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="GY4">
         <v>0.95</v>
@@ -3924,57 +3927,63 @@
         <v>280</v>
       </c>
       <c r="HK4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM4">
         <v>86400</v>
       </c>
       <c r="HN4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO4">
         <v>86400</v>
       </c>
       <c r="HP4" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ4" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ4">
+        <v>1</v>
       </c>
       <c r="HR4" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS4" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS4">
+        <v>1</v>
       </c>
       <c r="HT4" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU4" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV4" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW4">
+        <v>265</v>
+      </c>
+      <c r="HW4" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX4" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY4">
         <v>86400</v>
       </c>
-      <c r="HX4">
+      <c r="HZ4">
         <v>86400</v>
       </c>
-      <c r="HY4">
+      <c r="IA4">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:233">
+    <row r="5" spans="1:235">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -4001,13 +4010,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3564000</v>
+        <v>3648000</v>
       </c>
       <c r="O5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4022,10 +4031,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -4037,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -4049,13 +4058,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG5">
         <v>0</v>
@@ -4067,7 +4076,7 @@
         <v>6</v>
       </c>
       <c r="AL5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM5">
         <v>1</v>
@@ -4082,10 +4091,10 @@
         <v>9</v>
       </c>
       <c r="AQ5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS5">
         <v>3</v>
@@ -4097,7 +4106,7 @@
         <v>20</v>
       </c>
       <c r="AV5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW5">
         <v>3</v>
@@ -4109,13 +4118,13 @@
         <v>20</v>
       </c>
       <c r="AZ5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA5">
         <v>3</v>
       </c>
       <c r="BB5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC5">
         <v>1</v>
@@ -4127,13 +4136,13 @@
         <v>19500000</v>
       </c>
       <c r="BF5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="BG5">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI5">
         <v>1</v>
@@ -4148,10 +4157,10 @@
         <v>9</v>
       </c>
       <c r="BM5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO5">
         <v>3</v>
@@ -4163,7 +4172,7 @@
         <v>20</v>
       </c>
       <c r="BR5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS5">
         <v>3</v>
@@ -4175,13 +4184,13 @@
         <v>20</v>
       </c>
       <c r="BV5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW5">
         <v>3</v>
       </c>
       <c r="BX5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY5">
         <v>1</v>
@@ -4190,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="CA5">
-        <v>3200000</v>
+        <v>2800000</v>
       </c>
       <c r="CB5" t="s">
         <v>267</v>
@@ -4199,7 +4208,7 @@
         <v>55</v>
       </c>
       <c r="CD5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE5">
         <v>1</v>
@@ -4214,10 +4223,10 @@
         <v>9</v>
       </c>
       <c r="CI5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK5">
         <v>3</v>
@@ -4229,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="CN5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO5">
         <v>3</v>
@@ -4241,13 +4250,13 @@
         <v>20</v>
       </c>
       <c r="CR5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS5">
         <v>3</v>
       </c>
       <c r="CT5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU5">
         <v>1</v>
@@ -4256,22 +4265,22 @@
         <v>1</v>
       </c>
       <c r="CW5">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="CX5" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="CY5">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA5" t="b">
         <v>1</v>
       </c>
       <c r="DB5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC5">
         <v>1</v>
@@ -4286,10 +4295,10 @@
         <v>9</v>
       </c>
       <c r="DG5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI5">
         <v>3</v>
@@ -4301,7 +4310,7 @@
         <v>20</v>
       </c>
       <c r="DL5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM5">
         <v>3</v>
@@ -4313,16 +4322,16 @@
         <v>20</v>
       </c>
       <c r="DP5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ5">
         <v>3</v>
       </c>
       <c r="DR5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT5">
         <v>1</v>
@@ -4331,16 +4340,16 @@
         <v>1</v>
       </c>
       <c r="DV5">
-        <v>2900</v>
+        <v>2300</v>
       </c>
       <c r="DW5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="DX5" t="b">
         <v>1</v>
       </c>
       <c r="DY5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ5">
         <v>1</v>
@@ -4355,10 +4364,10 @@
         <v>9</v>
       </c>
       <c r="ED5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF5">
         <v>3</v>
@@ -4370,7 +4379,7 @@
         <v>20</v>
       </c>
       <c r="EI5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4382,16 +4391,16 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN5">
         <v>3</v>
       </c>
       <c r="EO5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ5">
         <v>0</v>
@@ -4400,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="EV5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW5">
         <v>1</v>
@@ -4415,10 +4424,10 @@
         <v>9</v>
       </c>
       <c r="FA5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC5">
         <v>3</v>
@@ -4430,7 +4439,7 @@
         <v>20</v>
       </c>
       <c r="FF5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG5">
         <v>3</v>
@@ -4442,13 +4451,13 @@
         <v>20</v>
       </c>
       <c r="FJ5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK5">
         <v>3</v>
       </c>
       <c r="FL5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM5" t="s">
         <v>280</v>
@@ -4466,22 +4475,22 @@
         <v>1</v>
       </c>
       <c r="FT5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="FU5" t="s">
         <v>284</v>
       </c>
       <c r="FV5">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="FW5">
         <v>7200</v>
       </c>
       <c r="FX5">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FY5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FZ5">
         <v>0.9</v>
@@ -4495,35 +4504,8 @@
       <c r="GC5" t="b">
         <v>0</v>
       </c>
-      <c r="GD5" t="s">
-        <v>281</v>
-      </c>
-      <c r="GE5">
-        <v>75000</v>
-      </c>
-      <c r="GF5">
-        <v>7200</v>
-      </c>
-      <c r="GG5">
-        <v>11000</v>
-      </c>
-      <c r="GH5">
-        <v>100000</v>
-      </c>
-      <c r="GI5">
-        <v>0.9</v>
-      </c>
-      <c r="GJ5">
-        <v>0.8</v>
-      </c>
-      <c r="GK5" t="b">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="b">
-        <v>0</v>
-      </c>
       <c r="GM5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN5">
         <v>0.05</v>
@@ -4538,10 +4520,10 @@
         <v>8.5</v>
       </c>
       <c r="GR5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT5" t="s">
         <v>280</v>
@@ -4583,63 +4565,69 @@
         <v>280</v>
       </c>
       <c r="HK5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM5">
         <v>86400</v>
       </c>
       <c r="HN5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO5">
         <v>86400</v>
       </c>
       <c r="HP5" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ5" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ5">
+        <v>1</v>
       </c>
       <c r="HR5" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS5" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS5">
+        <v>1</v>
       </c>
       <c r="HT5" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV5" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW5">
+        <v>265</v>
+      </c>
+      <c r="HW5" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX5" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY5">
         <v>86400</v>
       </c>
-      <c r="HX5">
+      <c r="HZ5">
         <v>86400</v>
       </c>
-      <c r="HY5">
+      <c r="IA5">
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:233">
+    <row r="6" spans="1:235">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4648,7 +4636,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4660,13 +4648,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>2012000</v>
+        <v>3863000</v>
       </c>
       <c r="O6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4681,10 +4669,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4696,7 +4684,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -4708,13 +4696,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -4726,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="AL6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -4741,10 +4729,10 @@
         <v>9</v>
       </c>
       <c r="AQ6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS6">
         <v>3</v>
@@ -4756,7 +4744,7 @@
         <v>20</v>
       </c>
       <c r="AV6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW6">
         <v>3</v>
@@ -4768,13 +4756,13 @@
         <v>20</v>
       </c>
       <c r="AZ6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA6">
         <v>3</v>
       </c>
       <c r="BB6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -4783,16 +4771,16 @@
         <v>1</v>
       </c>
       <c r="BE6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="BG6">
         <v>35</v>
       </c>
       <c r="BH6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI6">
         <v>1</v>
@@ -4807,10 +4795,10 @@
         <v>9</v>
       </c>
       <c r="BM6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO6">
         <v>3</v>
@@ -4822,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="BR6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS6">
         <v>3</v>
@@ -4834,13 +4822,13 @@
         <v>20</v>
       </c>
       <c r="BV6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW6">
         <v>3</v>
       </c>
       <c r="BX6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY6">
         <v>1</v>
@@ -4849,16 +4837,16 @@
         <v>1</v>
       </c>
       <c r="CA6">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="CB6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="CC6">
         <v>55</v>
       </c>
       <c r="CD6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE6">
         <v>1</v>
@@ -4873,10 +4861,10 @@
         <v>9</v>
       </c>
       <c r="CI6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK6">
         <v>3</v>
@@ -4888,7 +4876,7 @@
         <v>20</v>
       </c>
       <c r="CN6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO6">
         <v>3</v>
@@ -4900,13 +4888,13 @@
         <v>20</v>
       </c>
       <c r="CR6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS6">
         <v>3</v>
       </c>
       <c r="CT6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU6">
         <v>1</v>
@@ -4915,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="CW6">
-        <v>2800</v>
+        <v>6900</v>
       </c>
       <c r="CX6" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CY6">
         <v>0</v>
@@ -4930,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="DB6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC6">
         <v>1</v>
@@ -4945,10 +4933,10 @@
         <v>9</v>
       </c>
       <c r="DG6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI6">
         <v>3</v>
@@ -4960,7 +4948,7 @@
         <v>20</v>
       </c>
       <c r="DL6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM6">
         <v>3</v>
@@ -4972,16 +4960,16 @@
         <v>20</v>
       </c>
       <c r="DP6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ6">
         <v>3</v>
       </c>
       <c r="DR6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT6">
         <v>1</v>
@@ -4990,16 +4978,16 @@
         <v>1</v>
       </c>
       <c r="DV6">
-        <v>1500</v>
+        <v>3200</v>
       </c>
       <c r="DW6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DX6" t="b">
         <v>1</v>
       </c>
       <c r="DY6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ6">
         <v>1</v>
@@ -5014,10 +5002,10 @@
         <v>9</v>
       </c>
       <c r="ED6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF6">
         <v>3</v>
@@ -5029,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="EI6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -5041,16 +5029,16 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN6">
         <v>3</v>
       </c>
       <c r="EO6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ6">
         <v>0</v>
@@ -5059,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="EV6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW6">
         <v>1</v>
@@ -5074,10 +5062,10 @@
         <v>9</v>
       </c>
       <c r="FA6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC6">
         <v>3</v>
@@ -5089,7 +5077,7 @@
         <v>20</v>
       </c>
       <c r="FF6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG6">
         <v>3</v>
@@ -5101,13 +5089,13 @@
         <v>20</v>
       </c>
       <c r="FJ6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK6">
         <v>3</v>
       </c>
       <c r="FL6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM6" t="s">
         <v>280</v>
@@ -5155,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="GD6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="GE6">
         <v>50000</v>
@@ -5182,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="GM6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN6">
         <v>0.05</v>
@@ -5197,10 +5185,10 @@
         <v>8.5</v>
       </c>
       <c r="GR6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT6" t="s">
         <v>280</v>
@@ -5212,10 +5200,10 @@
         <v>1</v>
       </c>
       <c r="GW6">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="GX6">
-        <v>2000</v>
+        <v>3900</v>
       </c>
       <c r="GY6">
         <v>0.95</v>
@@ -5242,63 +5230,69 @@
         <v>280</v>
       </c>
       <c r="HK6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM6">
         <v>86400</v>
       </c>
       <c r="HN6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO6">
         <v>86400</v>
       </c>
       <c r="HP6" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ6" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ6">
+        <v>1</v>
       </c>
       <c r="HR6" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS6" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS6">
+        <v>1</v>
       </c>
       <c r="HT6" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV6" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW6">
+        <v>265</v>
+      </c>
+      <c r="HW6" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX6" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY6">
         <v>86400</v>
       </c>
-      <c r="HX6">
+      <c r="HZ6">
         <v>86400</v>
       </c>
-      <c r="HY6">
+      <c r="IA6">
         <v>3600</v>
       </c>
     </row>
-    <row r="7" spans="1:233">
+    <row r="7" spans="1:235">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5307,7 +5301,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5319,13 +5313,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>3125000</v>
+        <v>2959000</v>
       </c>
       <c r="O7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5340,10 +5334,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5355,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5367,13 +5361,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -5385,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="AL7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM7">
         <v>1</v>
@@ -5400,10 +5394,10 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS7">
         <v>3</v>
@@ -5415,7 +5409,7 @@
         <v>20</v>
       </c>
       <c r="AV7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW7">
         <v>3</v>
@@ -5427,13 +5421,13 @@
         <v>20</v>
       </c>
       <c r="AZ7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA7">
         <v>3</v>
       </c>
       <c r="BB7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC7">
         <v>1</v>
@@ -5442,16 +5436,16 @@
         <v>1</v>
       </c>
       <c r="BE7">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BF7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="BG7">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BH7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI7">
         <v>1</v>
@@ -5466,10 +5460,10 @@
         <v>9</v>
       </c>
       <c r="BM7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO7">
         <v>3</v>
@@ -5481,7 +5475,7 @@
         <v>20</v>
       </c>
       <c r="BR7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS7">
         <v>3</v>
@@ -5493,13 +5487,13 @@
         <v>20</v>
       </c>
       <c r="BV7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW7">
         <v>3</v>
       </c>
       <c r="BX7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY7">
         <v>1</v>
@@ -5508,16 +5502,16 @@
         <v>1</v>
       </c>
       <c r="CA7">
-        <v>3200000</v>
+        <v>2100000</v>
       </c>
       <c r="CB7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="CC7">
         <v>55</v>
       </c>
       <c r="CD7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE7">
         <v>1</v>
@@ -5532,10 +5526,10 @@
         <v>9</v>
       </c>
       <c r="CI7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK7">
         <v>3</v>
@@ -5547,7 +5541,7 @@
         <v>20</v>
       </c>
       <c r="CN7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO7">
         <v>3</v>
@@ -5559,13 +5553,13 @@
         <v>20</v>
       </c>
       <c r="CR7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS7">
         <v>3</v>
       </c>
       <c r="CT7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU7">
         <v>1</v>
@@ -5577,19 +5571,19 @@
         <v>4700</v>
       </c>
       <c r="CX7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CY7">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ7">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA7" t="b">
         <v>1</v>
       </c>
       <c r="DB7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC7">
         <v>1</v>
@@ -5604,10 +5598,10 @@
         <v>9</v>
       </c>
       <c r="DG7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI7">
         <v>3</v>
@@ -5619,7 +5613,7 @@
         <v>20</v>
       </c>
       <c r="DL7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM7">
         <v>3</v>
@@ -5631,16 +5625,16 @@
         <v>20</v>
       </c>
       <c r="DP7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ7">
         <v>3</v>
       </c>
       <c r="DR7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT7">
         <v>1</v>
@@ -5652,13 +5646,13 @@
         <v>2400</v>
       </c>
       <c r="DW7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="DX7" t="b">
         <v>1</v>
       </c>
       <c r="DY7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ7">
         <v>1</v>
@@ -5673,10 +5667,10 @@
         <v>9</v>
       </c>
       <c r="ED7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF7">
         <v>3</v>
@@ -5688,7 +5682,7 @@
         <v>20</v>
       </c>
       <c r="EI7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -5700,16 +5694,16 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN7">
         <v>3</v>
       </c>
       <c r="EO7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ7">
         <v>0</v>
@@ -5718,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="EV7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW7">
         <v>1</v>
@@ -5733,10 +5727,10 @@
         <v>9</v>
       </c>
       <c r="FA7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC7">
         <v>3</v>
@@ -5748,7 +5742,7 @@
         <v>20</v>
       </c>
       <c r="FF7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG7">
         <v>3</v>
@@ -5760,13 +5754,13 @@
         <v>20</v>
       </c>
       <c r="FJ7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK7">
         <v>3</v>
       </c>
       <c r="FL7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM7" t="s">
         <v>280</v>
@@ -5787,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="FU7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="FV7">
         <v>75000</v>
@@ -5814,7 +5808,7 @@
         <v>0</v>
       </c>
       <c r="GM7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN7">
         <v>0.05</v>
@@ -5829,10 +5823,10 @@
         <v>8.5</v>
       </c>
       <c r="GR7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT7" t="s">
         <v>280</v>
@@ -5844,10 +5838,10 @@
         <v>1</v>
       </c>
       <c r="GW7">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="GX7">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="GY7">
         <v>0.95</v>
@@ -5874,63 +5868,69 @@
         <v>280</v>
       </c>
       <c r="HK7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM7">
         <v>86400</v>
       </c>
       <c r="HN7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO7">
         <v>86400</v>
       </c>
       <c r="HP7" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ7" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ7">
+        <v>1</v>
       </c>
       <c r="HR7" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS7" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS7">
+        <v>1</v>
       </c>
       <c r="HT7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV7" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW7">
+        <v>265</v>
+      </c>
+      <c r="HW7" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX7" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY7">
         <v>86400</v>
       </c>
-      <c r="HX7">
+      <c r="HZ7">
         <v>86400</v>
       </c>
-      <c r="HY7">
+      <c r="IA7">
         <v>3600</v>
       </c>
     </row>
-    <row r="8" spans="1:233">
+    <row r="8" spans="1:235">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -5939,7 +5939,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -5951,13 +5951,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>4402000</v>
+        <v>5527000</v>
       </c>
       <c r="O8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="P8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -5972,10 +5972,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -5987,7 +5987,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -5999,13 +5999,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>6</v>
       </c>
       <c r="AL8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM8">
         <v>1</v>
@@ -6032,10 +6032,10 @@
         <v>9</v>
       </c>
       <c r="AQ8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS8">
         <v>3</v>
@@ -6047,7 +6047,7 @@
         <v>20</v>
       </c>
       <c r="AV8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW8">
         <v>3</v>
@@ -6059,13 +6059,13 @@
         <v>20</v>
       </c>
       <c r="AZ8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA8">
         <v>3</v>
       </c>
       <c r="BB8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC8">
         <v>1</v>
@@ -6074,16 +6074,16 @@
         <v>1</v>
       </c>
       <c r="BE8">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="BG8">
         <v>55</v>
       </c>
       <c r="BH8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI8">
         <v>1</v>
@@ -6098,10 +6098,10 @@
         <v>9</v>
       </c>
       <c r="BM8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO8">
         <v>3</v>
@@ -6113,7 +6113,7 @@
         <v>20</v>
       </c>
       <c r="BR8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS8">
         <v>3</v>
@@ -6125,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="BV8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW8">
         <v>3</v>
       </c>
       <c r="BX8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY8">
         <v>1</v>
@@ -6140,16 +6140,16 @@
         <v>1</v>
       </c>
       <c r="CA8">
-        <v>1800000</v>
+        <v>2400000</v>
       </c>
       <c r="CB8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="CC8">
         <v>55</v>
       </c>
       <c r="CD8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE8">
         <v>1</v>
@@ -6164,10 +6164,10 @@
         <v>9</v>
       </c>
       <c r="CI8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK8">
         <v>3</v>
@@ -6179,7 +6179,7 @@
         <v>20</v>
       </c>
       <c r="CN8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO8">
         <v>3</v>
@@ -6191,13 +6191,13 @@
         <v>20</v>
       </c>
       <c r="CR8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS8">
         <v>3</v>
       </c>
       <c r="CT8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU8">
         <v>1</v>
@@ -6206,22 +6206,22 @@
         <v>1</v>
       </c>
       <c r="CW8">
-        <v>6000</v>
+        <v>6900</v>
       </c>
       <c r="CX8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CY8">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ8">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA8" t="b">
         <v>1</v>
       </c>
       <c r="DB8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC8">
         <v>1</v>
@@ -6236,10 +6236,10 @@
         <v>9</v>
       </c>
       <c r="DG8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI8">
         <v>3</v>
@@ -6251,7 +6251,7 @@
         <v>20</v>
       </c>
       <c r="DL8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM8">
         <v>3</v>
@@ -6263,16 +6263,16 @@
         <v>20</v>
       </c>
       <c r="DP8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ8">
         <v>3</v>
       </c>
       <c r="DR8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT8">
         <v>1</v>
@@ -6281,16 +6281,16 @@
         <v>1</v>
       </c>
       <c r="DV8">
-        <v>2200</v>
+        <v>3200</v>
       </c>
       <c r="DW8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DX8" t="b">
         <v>1</v>
       </c>
       <c r="DY8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ8">
         <v>1</v>
@@ -6305,10 +6305,10 @@
         <v>9</v>
       </c>
       <c r="ED8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF8">
         <v>3</v>
@@ -6320,7 +6320,7 @@
         <v>20</v>
       </c>
       <c r="EI8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6332,16 +6332,16 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN8">
         <v>3</v>
       </c>
       <c r="EO8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ8">
         <v>0</v>
@@ -6350,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="EV8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW8">
         <v>1</v>
@@ -6365,10 +6365,10 @@
         <v>9</v>
       </c>
       <c r="FA8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC8">
         <v>3</v>
@@ -6380,7 +6380,7 @@
         <v>20</v>
       </c>
       <c r="FF8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG8">
         <v>3</v>
@@ -6392,13 +6392,13 @@
         <v>20</v>
       </c>
       <c r="FJ8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK8">
         <v>3</v>
       </c>
       <c r="FL8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM8" t="s">
         <v>280</v>
@@ -6419,19 +6419,19 @@
         <v>1</v>
       </c>
       <c r="FU8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="FV8">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="FW8">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="FX8">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="FY8">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="FZ8">
         <v>0.9</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="GM8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN8">
         <v>0.05</v>
@@ -6461,10 +6461,10 @@
         <v>8.5</v>
       </c>
       <c r="GR8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT8" t="s">
         <v>280</v>
@@ -6476,10 +6476,10 @@
         <v>1</v>
       </c>
       <c r="GW8">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GX8">
-        <v>4400</v>
+        <v>5500</v>
       </c>
       <c r="GY8">
         <v>0.95</v>
@@ -6506,63 +6506,69 @@
         <v>280</v>
       </c>
       <c r="HK8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM8">
         <v>86400</v>
       </c>
       <c r="HN8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO8">
         <v>86400</v>
       </c>
       <c r="HP8" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ8" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ8">
+        <v>1</v>
       </c>
       <c r="HR8" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS8" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS8">
+        <v>1</v>
       </c>
       <c r="HT8" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV8" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW8">
+        <v>265</v>
+      </c>
+      <c r="HW8" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX8" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY8">
         <v>86400</v>
       </c>
-      <c r="HX8">
+      <c r="HZ8">
         <v>86400</v>
       </c>
-      <c r="HY8">
+      <c r="IA8">
         <v>3600</v>
       </c>
     </row>
-    <row r="9" spans="1:233">
+    <row r="9" spans="1:235">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6571,7 +6577,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6583,13 +6589,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3564000</v>
+        <v>4536000</v>
       </c>
       <c r="O9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6604,10 +6610,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -6619,7 +6625,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -6631,13 +6637,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -6649,7 +6655,7 @@
         <v>6</v>
       </c>
       <c r="AL9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM9">
         <v>1</v>
@@ -6664,10 +6670,10 @@
         <v>9</v>
       </c>
       <c r="AQ9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS9">
         <v>3</v>
@@ -6679,7 +6685,7 @@
         <v>20</v>
       </c>
       <c r="AV9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW9">
         <v>3</v>
@@ -6691,13 +6697,13 @@
         <v>20</v>
       </c>
       <c r="AZ9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA9">
         <v>3</v>
       </c>
       <c r="BB9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC9">
         <v>1</v>
@@ -6706,16 +6712,16 @@
         <v>1</v>
       </c>
       <c r="BE9">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BG9">
         <v>55</v>
       </c>
       <c r="BH9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI9">
         <v>1</v>
@@ -6730,10 +6736,10 @@
         <v>9</v>
       </c>
       <c r="BM9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO9">
         <v>3</v>
@@ -6745,7 +6751,7 @@
         <v>20</v>
       </c>
       <c r="BR9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS9">
         <v>3</v>
@@ -6757,13 +6763,13 @@
         <v>20</v>
       </c>
       <c r="BV9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW9">
         <v>3</v>
       </c>
       <c r="BX9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY9">
         <v>1</v>
@@ -6772,16 +6778,16 @@
         <v>1</v>
       </c>
       <c r="CA9">
-        <v>2100000</v>
+        <v>3200000</v>
       </c>
       <c r="CB9" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="CC9">
         <v>55</v>
       </c>
       <c r="CD9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE9">
         <v>1</v>
@@ -6796,10 +6802,10 @@
         <v>9</v>
       </c>
       <c r="CI9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK9">
         <v>3</v>
@@ -6811,7 +6817,7 @@
         <v>20</v>
       </c>
       <c r="CN9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO9">
         <v>3</v>
@@ -6823,13 +6829,13 @@
         <v>20</v>
       </c>
       <c r="CR9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS9">
         <v>3</v>
       </c>
       <c r="CT9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU9">
         <v>1</v>
@@ -6838,22 +6844,22 @@
         <v>1</v>
       </c>
       <c r="CW9">
-        <v>4700</v>
+        <v>7700</v>
       </c>
       <c r="CX9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="CY9">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="CZ9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DA9" t="b">
         <v>1</v>
       </c>
       <c r="DB9" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC9">
         <v>1</v>
@@ -6868,10 +6874,10 @@
         <v>9</v>
       </c>
       <c r="DG9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI9">
         <v>3</v>
@@ -6883,7 +6889,7 @@
         <v>20</v>
       </c>
       <c r="DL9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM9">
         <v>3</v>
@@ -6895,16 +6901,16 @@
         <v>20</v>
       </c>
       <c r="DP9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ9">
         <v>3</v>
       </c>
       <c r="DR9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT9">
         <v>1</v>
@@ -6913,16 +6919,16 @@
         <v>1</v>
       </c>
       <c r="DV9">
-        <v>1800</v>
+        <v>3000</v>
       </c>
       <c r="DW9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="DX9" t="b">
         <v>1</v>
       </c>
       <c r="DY9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ9">
         <v>1</v>
@@ -6937,10 +6943,10 @@
         <v>9</v>
       </c>
       <c r="ED9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF9">
         <v>3</v>
@@ -6952,7 +6958,7 @@
         <v>20</v>
       </c>
       <c r="EI9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -6964,16 +6970,16 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN9">
         <v>3</v>
       </c>
       <c r="EO9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ9">
         <v>0</v>
@@ -6982,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="EV9" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW9">
         <v>1</v>
@@ -6997,10 +7003,10 @@
         <v>9</v>
       </c>
       <c r="FA9" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC9">
         <v>3</v>
@@ -7012,7 +7018,7 @@
         <v>20</v>
       </c>
       <c r="FF9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG9">
         <v>3</v>
@@ -7024,13 +7030,13 @@
         <v>20</v>
       </c>
       <c r="FJ9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK9">
         <v>3</v>
       </c>
       <c r="FL9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM9" t="s">
         <v>280</v>
@@ -7048,10 +7054,10 @@
         <v>1</v>
       </c>
       <c r="FT9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FU9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FV9">
         <v>50000</v>
@@ -7077,8 +7083,35 @@
       <c r="GC9" t="b">
         <v>0</v>
       </c>
+      <c r="GD9" t="s">
+        <v>290</v>
+      </c>
+      <c r="GE9">
+        <v>75000</v>
+      </c>
+      <c r="GF9">
+        <v>7200</v>
+      </c>
+      <c r="GG9">
+        <v>11000</v>
+      </c>
+      <c r="GH9">
+        <v>100000</v>
+      </c>
+      <c r="GI9">
+        <v>0.9</v>
+      </c>
+      <c r="GJ9">
+        <v>0.8</v>
+      </c>
+      <c r="GK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="GL9" t="b">
+        <v>0</v>
+      </c>
       <c r="GM9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN9">
         <v>0.05</v>
@@ -7093,10 +7126,10 @@
         <v>8.5</v>
       </c>
       <c r="GR9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS9" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT9" t="s">
         <v>280</v>
@@ -7108,10 +7141,10 @@
         <v>1</v>
       </c>
       <c r="GW9">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="GX9">
-        <v>3600</v>
+        <v>4500</v>
       </c>
       <c r="GY9">
         <v>0.95</v>
@@ -7138,63 +7171,69 @@
         <v>280</v>
       </c>
       <c r="HK9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM9">
         <v>86400</v>
       </c>
       <c r="HN9" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO9">
         <v>86400</v>
       </c>
       <c r="HP9" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ9" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ9">
+        <v>1</v>
       </c>
       <c r="HR9" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS9" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS9">
+        <v>1</v>
       </c>
       <c r="HT9" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV9" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW9">
+        <v>265</v>
+      </c>
+      <c r="HW9" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX9" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY9">
         <v>86400</v>
       </c>
-      <c r="HX9">
+      <c r="HZ9">
         <v>86400</v>
       </c>
-      <c r="HY9">
+      <c r="IA9">
         <v>3600</v>
       </c>
     </row>
-    <row r="10" spans="1:233">
+    <row r="10" spans="1:235">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7203,7 +7242,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7218,10 +7257,10 @@
         <v>5527000</v>
       </c>
       <c r="O10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7236,10 +7275,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7251,7 +7290,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -7263,13 +7302,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -7281,7 +7320,7 @@
         <v>6</v>
       </c>
       <c r="AL10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM10">
         <v>1</v>
@@ -7296,10 +7335,10 @@
         <v>9</v>
       </c>
       <c r="AQ10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS10">
         <v>3</v>
@@ -7311,7 +7350,7 @@
         <v>20</v>
       </c>
       <c r="AV10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW10">
         <v>3</v>
@@ -7323,13 +7362,13 @@
         <v>20</v>
       </c>
       <c r="AZ10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA10">
         <v>3</v>
       </c>
       <c r="BB10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC10">
         <v>1</v>
@@ -7338,16 +7377,16 @@
         <v>1</v>
       </c>
       <c r="BE10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BF10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="BG10">
         <v>55</v>
       </c>
       <c r="BH10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI10">
         <v>1</v>
@@ -7362,10 +7401,10 @@
         <v>9</v>
       </c>
       <c r="BM10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO10">
         <v>3</v>
@@ -7377,7 +7416,7 @@
         <v>20</v>
       </c>
       <c r="BR10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS10">
         <v>3</v>
@@ -7389,13 +7428,13 @@
         <v>20</v>
       </c>
       <c r="BV10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW10">
         <v>3</v>
       </c>
       <c r="BX10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY10">
         <v>1</v>
@@ -7404,16 +7443,16 @@
         <v>1</v>
       </c>
       <c r="CA10">
-        <v>2100000</v>
+        <v>2800000</v>
       </c>
       <c r="CB10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="CC10">
         <v>55</v>
       </c>
       <c r="CD10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE10">
         <v>1</v>
@@ -7428,10 +7467,10 @@
         <v>9</v>
       </c>
       <c r="CI10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK10">
         <v>3</v>
@@ -7443,7 +7482,7 @@
         <v>20</v>
       </c>
       <c r="CN10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO10">
         <v>3</v>
@@ -7455,13 +7494,13 @@
         <v>20</v>
       </c>
       <c r="CR10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS10">
         <v>3</v>
       </c>
       <c r="CT10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU10">
         <v>1</v>
@@ -7470,10 +7509,10 @@
         <v>1</v>
       </c>
       <c r="CW10">
-        <v>9900</v>
+        <v>8800</v>
       </c>
       <c r="CX10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="CY10">
         <v>0</v>
@@ -7485,7 +7524,7 @@
         <v>1</v>
       </c>
       <c r="DB10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC10">
         <v>1</v>
@@ -7500,10 +7539,10 @@
         <v>9</v>
       </c>
       <c r="DG10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI10">
         <v>3</v>
@@ -7515,7 +7554,7 @@
         <v>20</v>
       </c>
       <c r="DL10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM10">
         <v>3</v>
@@ -7527,16 +7566,16 @@
         <v>20</v>
       </c>
       <c r="DP10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ10">
         <v>3</v>
       </c>
       <c r="DR10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT10">
         <v>1</v>
@@ -7545,16 +7584,16 @@
         <v>1</v>
       </c>
       <c r="DV10">
-        <v>3900</v>
+        <v>3100</v>
       </c>
       <c r="DW10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="DX10" t="b">
         <v>1</v>
       </c>
       <c r="DY10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ10">
         <v>1</v>
@@ -7569,10 +7608,10 @@
         <v>9</v>
       </c>
       <c r="ED10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF10">
         <v>3</v>
@@ -7584,7 +7623,7 @@
         <v>20</v>
       </c>
       <c r="EI10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -7596,16 +7635,16 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN10">
         <v>3</v>
       </c>
       <c r="EO10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ10">
         <v>0</v>
@@ -7614,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="EV10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW10">
         <v>1</v>
@@ -7629,10 +7668,10 @@
         <v>9</v>
       </c>
       <c r="FA10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC10">
         <v>3</v>
@@ -7644,7 +7683,7 @@
         <v>20</v>
       </c>
       <c r="FF10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG10">
         <v>3</v>
@@ -7656,13 +7695,13 @@
         <v>20</v>
       </c>
       <c r="FJ10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK10">
         <v>3</v>
       </c>
       <c r="FL10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM10" t="s">
         <v>280</v>
@@ -7683,7 +7722,7 @@
         <v>1</v>
       </c>
       <c r="FU10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="FV10">
         <v>75000</v>
@@ -7710,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="GM10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN10">
         <v>0.05</v>
@@ -7725,10 +7764,10 @@
         <v>8.5</v>
       </c>
       <c r="GR10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT10" t="s">
         <v>280</v>
@@ -7770,57 +7809,63 @@
         <v>280</v>
       </c>
       <c r="HK10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM10">
         <v>86400</v>
       </c>
       <c r="HN10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO10">
         <v>86400</v>
       </c>
       <c r="HP10" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ10" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ10">
+        <v>1</v>
       </c>
       <c r="HR10" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS10" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS10">
+        <v>1</v>
       </c>
       <c r="HT10" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV10" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW10">
+        <v>265</v>
+      </c>
+      <c r="HW10" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX10" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY10">
         <v>86400</v>
       </c>
-      <c r="HX10">
+      <c r="HZ10">
         <v>86400</v>
       </c>
-      <c r="HY10">
+      <c r="IA10">
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:233">
+    <row r="11" spans="1:235">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -7847,13 +7892,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>5527000</v>
+        <v>3648000</v>
       </c>
       <c r="O11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -7868,10 +7913,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="V11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -7883,7 +7928,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -7895,13 +7940,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -7913,7 +7958,7 @@
         <v>6</v>
       </c>
       <c r="AL11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AM11">
         <v>1</v>
@@ -7928,10 +7973,10 @@
         <v>9</v>
       </c>
       <c r="AQ11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AR11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AS11">
         <v>3</v>
@@ -7943,7 +7988,7 @@
         <v>20</v>
       </c>
       <c r="AV11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AW11">
         <v>3</v>
@@ -7955,13 +8000,13 @@
         <v>20</v>
       </c>
       <c r="AZ11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BA11">
         <v>3</v>
       </c>
       <c r="BB11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BC11">
         <v>1</v>
@@ -7973,13 +8018,13 @@
         <v>5500000</v>
       </c>
       <c r="BF11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="BG11">
         <v>55</v>
       </c>
       <c r="BH11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="BI11">
         <v>1</v>
@@ -7994,10 +8039,10 @@
         <v>9</v>
       </c>
       <c r="BM11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="BN11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BO11">
         <v>3</v>
@@ -8009,7 +8054,7 @@
         <v>20</v>
       </c>
       <c r="BR11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BS11">
         <v>3</v>
@@ -8021,13 +8066,13 @@
         <v>20</v>
       </c>
       <c r="BV11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="BW11">
         <v>3</v>
       </c>
       <c r="BX11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="BY11">
         <v>1</v>
@@ -8036,16 +8081,16 @@
         <v>1</v>
       </c>
       <c r="CA11">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="CB11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="CC11">
         <v>55</v>
       </c>
       <c r="CD11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="CE11">
         <v>1</v>
@@ -8060,10 +8105,10 @@
         <v>9</v>
       </c>
       <c r="CI11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="CJ11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CK11">
         <v>3</v>
@@ -8075,7 +8120,7 @@
         <v>20</v>
       </c>
       <c r="CN11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CO11">
         <v>3</v>
@@ -8087,13 +8132,13 @@
         <v>20</v>
       </c>
       <c r="CR11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="CS11">
         <v>3</v>
       </c>
       <c r="CT11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="CU11">
         <v>1</v>
@@ -8102,22 +8147,22 @@
         <v>1</v>
       </c>
       <c r="CW11">
-        <v>7100</v>
+        <v>4600</v>
       </c>
       <c r="CX11" t="s">
         <v>272</v>
       </c>
       <c r="CY11">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="CZ11">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DA11" t="b">
         <v>1</v>
       </c>
       <c r="DB11" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="DC11">
         <v>1</v>
@@ -8132,10 +8177,10 @@
         <v>9</v>
       </c>
       <c r="DG11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="DH11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DI11">
         <v>3</v>
@@ -8147,7 +8192,7 @@
         <v>20</v>
       </c>
       <c r="DL11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DM11">
         <v>3</v>
@@ -8159,16 +8204,16 @@
         <v>20</v>
       </c>
       <c r="DP11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="DQ11">
         <v>3</v>
       </c>
       <c r="DR11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="DS11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="DT11">
         <v>1</v>
@@ -8177,16 +8222,16 @@
         <v>1</v>
       </c>
       <c r="DV11">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="DW11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="DX11" t="b">
         <v>1</v>
       </c>
       <c r="DY11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="DZ11">
         <v>1</v>
@@ -8201,10 +8246,10 @@
         <v>9</v>
       </c>
       <c r="ED11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="EE11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EF11">
         <v>3</v>
@@ -8216,7 +8261,7 @@
         <v>20</v>
       </c>
       <c r="EI11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -8228,16 +8273,16 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="EN11">
         <v>3</v>
       </c>
       <c r="EO11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="EP11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="EQ11">
         <v>0</v>
@@ -8246,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="EV11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="EW11">
         <v>1</v>
@@ -8261,10 +8306,10 @@
         <v>9</v>
       </c>
       <c r="FA11" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="FB11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FC11">
         <v>3</v>
@@ -8276,7 +8321,7 @@
         <v>20</v>
       </c>
       <c r="FF11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FG11">
         <v>3</v>
@@ -8288,13 +8333,13 @@
         <v>20</v>
       </c>
       <c r="FJ11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="FK11">
         <v>3</v>
       </c>
       <c r="FL11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="FM11" t="s">
         <v>280</v>
@@ -8315,19 +8360,19 @@
         <v>1</v>
       </c>
       <c r="FU11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="FV11">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="FW11">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="FX11">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="FY11">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="FZ11">
         <v>0.9</v>
@@ -8342,7 +8387,7 @@
         <v>0</v>
       </c>
       <c r="GM11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GN11">
         <v>0.05</v>
@@ -8357,10 +8402,10 @@
         <v>8.5</v>
       </c>
       <c r="GR11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="GS11" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GT11" t="s">
         <v>280</v>
@@ -8372,10 +8417,10 @@
         <v>1</v>
       </c>
       <c r="GW11">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="GX11">
-        <v>5500</v>
+        <v>3600</v>
       </c>
       <c r="GY11">
         <v>0.95</v>
@@ -8402,48 +8447,54 @@
         <v>280</v>
       </c>
       <c r="HK11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HL11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="HM11">
         <v>86400</v>
       </c>
       <c r="HN11" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="HO11">
         <v>86400</v>
       </c>
       <c r="HP11" t="s">
-        <v>263</v>
-      </c>
-      <c r="HQ11" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HQ11">
+        <v>1</v>
       </c>
       <c r="HR11" t="s">
-        <v>294</v>
-      </c>
-      <c r="HS11" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="HS11">
+        <v>1</v>
       </c>
       <c r="HT11" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="HU11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="HV11" t="s">
-        <v>294</v>
-      </c>
-      <c r="HW11">
+        <v>265</v>
+      </c>
+      <c r="HW11" t="s">
+        <v>265</v>
+      </c>
+      <c r="HX11" t="s">
+        <v>296</v>
+      </c>
+      <c r="HY11">
         <v>86400</v>
       </c>
-      <c r="HX11">
+      <c r="HZ11">
         <v>86400</v>
       </c>
-      <c r="HY11">
+      <c r="IA11">
         <v>3600</v>
       </c>
     </row>
@@ -8474,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -9137,34 +9188,34 @@
         <v>221</v>
       </c>
       <c r="HS1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="HT1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="HU1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="HV1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="HW1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="HX1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="HY1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="IB1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -9194,7 +9245,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9581,22 +9632,22 @@
         <v>193</v>
       </c>
       <c r="EE1" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="EF1" s="1" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="EG1" s="1" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="EH1" s="1" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="EI1" s="1" t="s">
         <v>198</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>200</v>
@@ -9644,34 +9695,34 @@
         <v>221</v>
       </c>
       <c r="EZ1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="FA1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="FB1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FC1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FD1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FG1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FH1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -9701,7 +9752,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10178,34 +10229,34 @@
         <v>221</v>
       </c>
       <c r="FI1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="FJ1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="FK1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="FL1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="FM1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="FP1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="FQ1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="FR1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10493,34 +10544,34 @@
         <v>221</v>
       </c>
       <c r="CN1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="CO1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="CP1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="CS1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="CT1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="CU1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="CV1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="CW1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10580,58 +10631,58 @@
         <v>209</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>217</v>
@@ -10649,34 +10700,34 @@
         <v>221</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1672" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="331">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -741,55 +741,58 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>5H037HFdtfwXZUZ</t>
-  </si>
-  <si>
-    <t>r9XlEkjB03ngUIA</t>
-  </si>
-  <si>
-    <t>zqvGd5RqHVINoUX</t>
-  </si>
-  <si>
-    <t>wnjTcCEN6nPRCzQ</t>
-  </si>
-  <si>
-    <t>GbbvvEdaKgY1Fqa</t>
-  </si>
-  <si>
-    <t>Jvu0ynpoT3f78Kg</t>
-  </si>
-  <si>
-    <t>P9NgKpLx5RBto08</t>
-  </si>
-  <si>
-    <t>f72cz1ntdiFo2rn</t>
-  </si>
-  <si>
-    <t>2nLsNamutyl1ML2</t>
-  </si>
-  <si>
-    <t>2Vi4VyeJmIV3tKN</t>
+    <t>DYGMezeMcdBzkRE</t>
+  </si>
+  <si>
+    <t>3yZ7HjucQPUWBLV</t>
+  </si>
+  <si>
+    <t>CwxAe4i0Qo05kEy</t>
+  </si>
+  <si>
+    <t>bMNKj4RQXe3Bn5G</t>
+  </si>
+  <si>
+    <t>UfgFBNdFQIwN3aX</t>
+  </si>
+  <si>
+    <t>pzymfr2mXV8WUcn</t>
+  </si>
+  <si>
+    <t>QosLqiKD0U1v0co</t>
+  </si>
+  <si>
+    <t>A6Z44wNxl4MrGZO</t>
+  </si>
+  <si>
+    <t>W2oNQbQSIvLfC4j</t>
+  </si>
+  <si>
+    <t>OQxohNNX3xGnxLk</t>
+  </si>
+  <si>
+    <t>hh_3648_0.csv</t>
+  </si>
+  <si>
+    <t>hh_4402_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3125_0.csv</t>
+  </si>
+  <si>
+    <t>hh_2012_3.csv</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
   </si>
   <si>
     <t>hh_4536_0.csv</t>
   </si>
   <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
-  </si>
-  <si>
     <t>hh_3863_0.csv</t>
   </si>
   <si>
-    <t>hh_4402_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2455_0.csv</t>
-  </si>
-  <si>
-    <t>hh_2262_0.csv</t>
+    <t>hh_2687_0.csv</t>
   </si>
   <si>
     <t>perfect</t>
@@ -807,51 +810,51 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_4536_0.csv</t>
+    <t>heat_3648_0.csv</t>
+  </si>
+  <si>
+    <t>heat_gen_1_pu.csv</t>
+  </si>
+  <si>
+    <t>heat_3125_0.csv</t>
+  </si>
+  <si>
+    <t>heat_2012_3.csv</t>
   </si>
   <si>
     <t>heat_5527_0.csv</t>
   </si>
   <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
     <t>heat_gen_4_pu.csv</t>
   </si>
   <si>
-    <t>heat_4402_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2455_0.csv</t>
+    <t>heat_3863_0.csv</t>
   </si>
   <si>
     <t>heat_gen_0_pu.csv</t>
   </si>
   <si>
+    <t>heat_2687_0.csv</t>
+  </si>
+  <si>
     <t>naive</t>
   </si>
   <si>
-    <t>dhw_gen_3_pu.csv</t>
+    <t>dhw_gen_0_pu.csv</t>
+  </si>
+  <si>
+    <t>dhw_gen_5_pu.csv</t>
   </si>
   <si>
     <t>dhw_gen_6_pu.csv</t>
   </si>
   <si>
+    <t>dhw_gen_4_pu.csv</t>
+  </si>
+  <si>
     <t>dhw_gen_2_pu.csv</t>
   </si>
   <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -864,43 +867,43 @@
     <t>green_local</t>
   </si>
   <si>
+    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
+  </si>
+  <si>
+    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
+  </si>
+  <si>
+    <t>wind_Enercon_E-53-800_800000_53.json</t>
+  </si>
+  <si>
     <t>wind_Nordex_MM92_3300000_131.json</t>
   </si>
   <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-101-3500-E2_3500000_101.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
+    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
+    <t>ev_fulltime_45.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_49.csv</t>
+  </si>
+  <si>
     <t>ev_fulltime_47.csv</t>
   </si>
   <si>
-    <t>ev_parttime_88.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_2.csv</t>
+    <t>ev_freetime_1.csv</t>
+  </si>
+  <si>
+    <t>ev_fulltime_48.csv</t>
   </si>
   <si>
     <t>ev_fulltime_46.csv</t>
   </si>
   <si>
-    <t>ev_freetime_3.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_48.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_42.csv</t>
+    <t>ev_parttime_89.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -2126,13 +2129,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>4536000</v>
+        <v>3648000</v>
       </c>
       <c r="O2" t="s">
         <v>250</v>
       </c>
       <c r="P2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2147,10 +2150,10 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W2">
         <v>3</v>
@@ -2162,7 +2165,7 @@
         <v>20</v>
       </c>
       <c r="Z2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA2">
         <v>3</v>
@@ -2174,13 +2177,13 @@
         <v>20</v>
       </c>
       <c r="AD2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE2">
         <v>3</v>
       </c>
       <c r="AF2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -2195,7 +2198,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2210,10 +2213,10 @@
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -2225,7 +2228,7 @@
         <v>20</v>
       </c>
       <c r="AW2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX2">
         <v>3</v>
@@ -2237,13 +2240,13 @@
         <v>20</v>
       </c>
       <c r="BA2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB2">
         <v>3</v>
       </c>
       <c r="BC2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD2">
         <v>3</v>
@@ -2258,13 +2261,13 @@
         <v>5500000</v>
       </c>
       <c r="BH2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BI2">
         <v>55</v>
       </c>
       <c r="BJ2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -2279,10 +2282,10 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ2">
         <v>3</v>
@@ -2294,7 +2297,7 @@
         <v>20</v>
       </c>
       <c r="BT2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU2">
         <v>3</v>
@@ -2306,13 +2309,13 @@
         <v>20</v>
       </c>
       <c r="BX2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY2">
         <v>3</v>
       </c>
       <c r="BZ2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA2">
         <v>1</v>
@@ -2321,16 +2324,16 @@
         <v>1</v>
       </c>
       <c r="CC2">
-        <v>2400000</v>
+        <v>1800000</v>
       </c>
       <c r="CD2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="CE2">
         <v>55</v>
       </c>
       <c r="CF2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2345,10 +2348,10 @@
         <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM2">
         <v>3</v>
@@ -2360,7 +2363,7 @@
         <v>20</v>
       </c>
       <c r="CP2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ2">
         <v>3</v>
@@ -2372,13 +2375,13 @@
         <v>20</v>
       </c>
       <c r="CT2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU2">
         <v>3</v>
       </c>
       <c r="CV2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW2">
         <v>3</v>
@@ -2390,22 +2393,22 @@
         <v>1</v>
       </c>
       <c r="CZ2">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="DA2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB2">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD2" t="b">
         <v>1</v>
       </c>
       <c r="DE2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2420,10 +2423,10 @@
         <v>9</v>
       </c>
       <c r="DJ2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL2">
         <v>3</v>
@@ -2435,7 +2438,7 @@
         <v>20</v>
       </c>
       <c r="DO2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP2">
         <v>3</v>
@@ -2447,37 +2450,37 @@
         <v>20</v>
       </c>
       <c r="DS2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT2">
         <v>3</v>
       </c>
       <c r="DU2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV2">
         <v>3</v>
       </c>
       <c r="DW2" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX2">
+        <v>1</v>
+      </c>
+      <c r="DY2">
+        <v>1</v>
+      </c>
+      <c r="DZ2">
+        <v>2600</v>
+      </c>
+      <c r="EA2" t="s">
+        <v>282</v>
+      </c>
+      <c r="EB2" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="s">
         <v>280</v>
-      </c>
-      <c r="DX2">
-        <v>1</v>
-      </c>
-      <c r="DY2">
-        <v>1</v>
-      </c>
-      <c r="DZ2">
-        <v>2000</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>281</v>
-      </c>
-      <c r="EB2" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>279</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -2492,10 +2495,10 @@
         <v>9</v>
       </c>
       <c r="EH2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ2">
         <v>3</v>
@@ -2507,7 +2510,7 @@
         <v>20</v>
       </c>
       <c r="EM2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN2">
         <v>3</v>
@@ -2519,19 +2522,19 @@
         <v>20</v>
       </c>
       <c r="EQ2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER2">
         <v>3</v>
       </c>
       <c r="ES2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET2">
         <v>3</v>
       </c>
       <c r="EU2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -2540,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB2">
         <v>1</v>
@@ -2555,10 +2558,10 @@
         <v>9</v>
       </c>
       <c r="FF2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH2">
         <v>3</v>
@@ -2570,7 +2573,7 @@
         <v>20</v>
       </c>
       <c r="FK2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL2">
         <v>3</v>
@@ -2582,19 +2585,19 @@
         <v>20</v>
       </c>
       <c r="FO2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP2">
         <v>3</v>
       </c>
       <c r="FQ2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR2">
         <v>3</v>
       </c>
       <c r="FS2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT2">
         <v>0</v>
@@ -2603,16 +2606,16 @@
         <v>0</v>
       </c>
       <c r="FX2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY2">
         <v>1</v>
       </c>
       <c r="FZ2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GA2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="GB2">
         <v>50000</v>
@@ -2638,8 +2641,35 @@
       <c r="GI2" t="b">
         <v>0</v>
       </c>
+      <c r="GJ2" t="s">
+        <v>291</v>
+      </c>
+      <c r="GK2">
+        <v>50000</v>
+      </c>
+      <c r="GL2">
+        <v>7200</v>
+      </c>
+      <c r="GM2">
+        <v>7200</v>
+      </c>
+      <c r="GN2">
+        <v>50000</v>
+      </c>
+      <c r="GO2">
+        <v>0.9</v>
+      </c>
+      <c r="GP2">
+        <v>0.8</v>
+      </c>
+      <c r="GQ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="GR2" t="b">
+        <v>0</v>
+      </c>
       <c r="GS2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT2">
         <v>0.05</v>
@@ -2654,13 +2684,13 @@
         <v>8.5</v>
       </c>
       <c r="GX2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA2">
         <v>1</v>
@@ -2669,10 +2699,10 @@
         <v>1</v>
       </c>
       <c r="HC2">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="HD2">
-        <v>4500</v>
+        <v>3600</v>
       </c>
       <c r="HE2">
         <v>0.95</v>
@@ -2687,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="HI2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -2696,49 +2726,49 @@
         <v>0</v>
       </c>
       <c r="HP2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS2">
         <v>86400</v>
       </c>
       <c r="HT2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU2">
         <v>86400</v>
       </c>
       <c r="HV2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW2">
         <v>1</v>
       </c>
       <c r="HX2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY2">
         <v>1</v>
       </c>
       <c r="HZ2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE2">
         <v>86400</v>
@@ -2782,13 +2812,13 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>4536000</v>
+        <v>4402000</v>
       </c>
       <c r="O3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2803,10 +2833,10 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W3">
         <v>3</v>
@@ -2818,7 +2848,7 @@
         <v>20</v>
       </c>
       <c r="Z3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA3">
         <v>3</v>
@@ -2830,13 +2860,13 @@
         <v>20</v>
       </c>
       <c r="AD3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE3">
         <v>3</v>
       </c>
       <c r="AF3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2851,7 +2881,7 @@
         <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2866,10 +2896,10 @@
         <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT3">
         <v>3</v>
@@ -2881,7 +2911,7 @@
         <v>20</v>
       </c>
       <c r="AW3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX3">
         <v>3</v>
@@ -2893,13 +2923,13 @@
         <v>20</v>
       </c>
       <c r="BA3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB3">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD3">
         <v>3</v>
@@ -2914,13 +2944,13 @@
         <v>19500000</v>
       </c>
       <c r="BH3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="BI3">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -2935,10 +2965,10 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ3">
         <v>3</v>
@@ -2950,7 +2980,7 @@
         <v>20</v>
       </c>
       <c r="BT3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU3">
         <v>3</v>
@@ -2962,13 +2992,13 @@
         <v>20</v>
       </c>
       <c r="BX3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY3">
         <v>3</v>
       </c>
       <c r="BZ3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA3">
         <v>1</v>
@@ -2980,13 +3010,13 @@
         <v>3200000</v>
       </c>
       <c r="CD3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CE3">
         <v>55</v>
       </c>
       <c r="CF3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG3">
         <v>1</v>
@@ -3001,10 +3031,10 @@
         <v>9</v>
       </c>
       <c r="CK3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM3">
         <v>3</v>
@@ -3016,7 +3046,7 @@
         <v>20</v>
       </c>
       <c r="CP3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ3">
         <v>3</v>
@@ -3028,13 +3058,13 @@
         <v>20</v>
       </c>
       <c r="CT3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU3">
         <v>3</v>
       </c>
       <c r="CV3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW3">
         <v>3</v>
@@ -3046,22 +3076,22 @@
         <v>1</v>
       </c>
       <c r="CZ3">
-        <v>6200</v>
+        <v>5600</v>
       </c>
       <c r="DA3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB3">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD3" t="b">
         <v>1</v>
       </c>
       <c r="DE3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF3">
         <v>1</v>
@@ -3076,10 +3106,10 @@
         <v>9</v>
       </c>
       <c r="DJ3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL3">
         <v>3</v>
@@ -3091,7 +3121,7 @@
         <v>20</v>
       </c>
       <c r="DO3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP3">
         <v>3</v>
@@ -3103,37 +3133,37 @@
         <v>20</v>
       </c>
       <c r="DS3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT3">
         <v>3</v>
       </c>
       <c r="DU3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV3">
         <v>3</v>
       </c>
       <c r="DW3" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX3">
+        <v>1</v>
+      </c>
+      <c r="DY3">
+        <v>1</v>
+      </c>
+      <c r="DZ3">
+        <v>2900</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>283</v>
+      </c>
+      <c r="EB3" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC3" t="s">
         <v>280</v>
-      </c>
-      <c r="DX3">
-        <v>1</v>
-      </c>
-      <c r="DY3">
-        <v>1</v>
-      </c>
-      <c r="DZ3">
-        <v>2800</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>282</v>
-      </c>
-      <c r="EB3" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>279</v>
       </c>
       <c r="ED3">
         <v>1</v>
@@ -3148,10 +3178,10 @@
         <v>9</v>
       </c>
       <c r="EH3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ3">
         <v>3</v>
@@ -3163,7 +3193,7 @@
         <v>20</v>
       </c>
       <c r="EM3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN3">
         <v>3</v>
@@ -3175,19 +3205,19 @@
         <v>20</v>
       </c>
       <c r="EQ3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER3">
         <v>3</v>
       </c>
       <c r="ES3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET3">
         <v>3</v>
       </c>
       <c r="EU3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -3196,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="FA3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB3">
         <v>1</v>
@@ -3211,10 +3241,10 @@
         <v>9</v>
       </c>
       <c r="FF3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH3">
         <v>3</v>
@@ -3226,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="FK3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL3">
         <v>3</v>
@@ -3238,19 +3268,19 @@
         <v>20</v>
       </c>
       <c r="FO3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP3">
         <v>3</v>
       </c>
       <c r="FQ3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR3">
         <v>3</v>
       </c>
       <c r="FS3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -3259,28 +3289,28 @@
         <v>0</v>
       </c>
       <c r="FX3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY3">
         <v>1</v>
       </c>
       <c r="FZ3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="GA3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="GB3">
+        <v>75000</v>
+      </c>
+      <c r="GC3">
+        <v>7200</v>
+      </c>
+      <c r="GD3">
+        <v>11000</v>
+      </c>
+      <c r="GE3">
         <v>100000</v>
-      </c>
-      <c r="GC3">
-        <v>11000</v>
-      </c>
-      <c r="GD3">
-        <v>22000</v>
-      </c>
-      <c r="GE3">
-        <v>200000</v>
       </c>
       <c r="GF3">
         <v>0.9</v>
@@ -3294,8 +3324,35 @@
       <c r="GI3" t="b">
         <v>0</v>
       </c>
+      <c r="GJ3" t="s">
+        <v>292</v>
+      </c>
+      <c r="GK3">
+        <v>75000</v>
+      </c>
+      <c r="GL3">
+        <v>7200</v>
+      </c>
+      <c r="GM3">
+        <v>11000</v>
+      </c>
+      <c r="GN3">
+        <v>100000</v>
+      </c>
+      <c r="GO3">
+        <v>0.9</v>
+      </c>
+      <c r="GP3">
+        <v>0.8</v>
+      </c>
+      <c r="GQ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="b">
+        <v>0</v>
+      </c>
       <c r="GS3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT3">
         <v>0.05</v>
@@ -3310,13 +3367,13 @@
         <v>8.5</v>
       </c>
       <c r="GX3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA3">
         <v>1</v>
@@ -3325,10 +3382,10 @@
         <v>1</v>
       </c>
       <c r="HC3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="HD3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="HE3">
         <v>0.95</v>
@@ -3343,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="HI3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ3">
         <v>0</v>
@@ -3352,49 +3409,49 @@
         <v>0</v>
       </c>
       <c r="HP3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS3">
         <v>86400</v>
       </c>
       <c r="HT3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU3">
         <v>86400</v>
       </c>
       <c r="HV3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW3">
         <v>1</v>
       </c>
       <c r="HX3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY3">
         <v>1</v>
       </c>
       <c r="HZ3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE3">
         <v>86400</v>
@@ -3414,10 +3471,10 @@
         <v>242</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -3426,7 +3483,7 @@
         <v>2.6</v>
       </c>
       <c r="J4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3438,13 +3495,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>5527000</v>
+        <v>3125000</v>
       </c>
       <c r="O4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3459,10 +3516,10 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W4">
         <v>3</v>
@@ -3474,7 +3531,7 @@
         <v>20</v>
       </c>
       <c r="Z4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA4">
         <v>3</v>
@@ -3486,13 +3543,13 @@
         <v>20</v>
       </c>
       <c r="AD4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE4">
         <v>3</v>
       </c>
       <c r="AF4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -3507,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3522,10 +3579,10 @@
         <v>9</v>
       </c>
       <c r="AR4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT4">
         <v>3</v>
@@ -3537,7 +3594,7 @@
         <v>20</v>
       </c>
       <c r="AW4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX4">
         <v>3</v>
@@ -3549,13 +3606,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB4">
         <v>3</v>
       </c>
       <c r="BC4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD4">
         <v>3</v>
@@ -3567,16 +3624,16 @@
         <v>1</v>
       </c>
       <c r="BG4">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="BI4">
         <v>55</v>
       </c>
       <c r="BJ4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK4">
         <v>1</v>
@@ -3591,10 +3648,10 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ4">
         <v>3</v>
@@ -3606,7 +3663,7 @@
         <v>20</v>
       </c>
       <c r="BT4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU4">
         <v>3</v>
@@ -3618,13 +3675,13 @@
         <v>20</v>
       </c>
       <c r="BX4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY4">
         <v>3</v>
       </c>
       <c r="BZ4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA4">
         <v>1</v>
@@ -3636,13 +3693,13 @@
         <v>2400000</v>
       </c>
       <c r="CD4" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="CE4">
         <v>55</v>
       </c>
       <c r="CF4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -3657,10 +3714,10 @@
         <v>9</v>
       </c>
       <c r="CK4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM4">
         <v>3</v>
@@ -3672,7 +3729,7 @@
         <v>20</v>
       </c>
       <c r="CP4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ4">
         <v>3</v>
@@ -3684,13 +3741,13 @@
         <v>20</v>
       </c>
       <c r="CT4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU4">
         <v>3</v>
       </c>
       <c r="CV4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW4">
         <v>3</v>
@@ -3702,22 +3759,22 @@
         <v>1</v>
       </c>
       <c r="CZ4">
-        <v>8600</v>
+        <v>5600</v>
       </c>
       <c r="DA4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB4">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD4" t="b">
         <v>1</v>
       </c>
       <c r="DE4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -3732,10 +3789,10 @@
         <v>9</v>
       </c>
       <c r="DJ4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL4">
         <v>3</v>
@@ -3747,7 +3804,7 @@
         <v>20</v>
       </c>
       <c r="DO4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP4">
         <v>3</v>
@@ -3759,19 +3816,19 @@
         <v>20</v>
       </c>
       <c r="DS4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT4">
         <v>3</v>
       </c>
       <c r="DU4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV4">
         <v>3</v>
       </c>
       <c r="DW4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="DX4">
         <v>1</v>
@@ -3780,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="DZ4">
-        <v>4100</v>
+        <v>2500</v>
       </c>
       <c r="EA4" t="s">
         <v>283</v>
@@ -3789,7 +3846,7 @@
         <v>1</v>
       </c>
       <c r="EC4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="ED4">
         <v>1</v>
@@ -3804,10 +3861,10 @@
         <v>9</v>
       </c>
       <c r="EH4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ4">
         <v>3</v>
@@ -3819,7 +3876,7 @@
         <v>20</v>
       </c>
       <c r="EM4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN4">
         <v>3</v>
@@ -3831,19 +3888,19 @@
         <v>20</v>
       </c>
       <c r="EQ4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER4">
         <v>3</v>
       </c>
       <c r="ES4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET4">
         <v>3</v>
       </c>
       <c r="EU4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -3852,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="FA4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3867,10 +3924,10 @@
         <v>9</v>
       </c>
       <c r="FF4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH4">
         <v>3</v>
@@ -3882,7 +3939,7 @@
         <v>20</v>
       </c>
       <c r="FK4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL4">
         <v>3</v>
@@ -3894,19 +3951,19 @@
         <v>20</v>
       </c>
       <c r="FO4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP4">
         <v>3</v>
       </c>
       <c r="FQ4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR4">
         <v>3</v>
       </c>
       <c r="FS4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -3915,7 +3972,7 @@
         <v>0</v>
       </c>
       <c r="FX4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY4">
         <v>1</v>
@@ -3924,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="GA4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="GB4">
         <v>75000</v>
@@ -3951,7 +4008,7 @@
         <v>0</v>
       </c>
       <c r="GS4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT4">
         <v>0.05</v>
@@ -3966,13 +4023,13 @@
         <v>8.5</v>
       </c>
       <c r="GX4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA4">
         <v>1</v>
@@ -3981,10 +4038,10 @@
         <v>1</v>
       </c>
       <c r="HC4">
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="HD4">
-        <v>5500</v>
+        <v>3100</v>
       </c>
       <c r="HE4">
         <v>0.95</v>
@@ -3999,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="HI4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ4">
         <v>0</v>
@@ -4008,49 +4065,49 @@
         <v>0</v>
       </c>
       <c r="HP4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS4">
         <v>86400</v>
       </c>
       <c r="HT4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU4">
         <v>86400</v>
       </c>
       <c r="HV4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW4">
         <v>1</v>
       </c>
       <c r="HX4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY4">
         <v>1</v>
       </c>
       <c r="HZ4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE4">
         <v>86400</v>
@@ -4094,13 +4151,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>3648000</v>
+        <v>2012000</v>
       </c>
       <c r="O5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4115,10 +4172,10 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W5">
         <v>3</v>
@@ -4130,7 +4187,7 @@
         <v>20</v>
       </c>
       <c r="Z5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA5">
         <v>3</v>
@@ -4142,13 +4199,13 @@
         <v>20</v>
       </c>
       <c r="AD5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE5">
         <v>3</v>
       </c>
       <c r="AF5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG5">
         <v>3</v>
@@ -4163,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -4178,10 +4235,10 @@
         <v>9</v>
       </c>
       <c r="AR5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT5">
         <v>3</v>
@@ -4193,7 +4250,7 @@
         <v>20</v>
       </c>
       <c r="AW5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX5">
         <v>3</v>
@@ -4205,13 +4262,13 @@
         <v>20</v>
       </c>
       <c r="BA5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB5">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD5">
         <v>3</v>
@@ -4226,13 +4283,13 @@
         <v>5500000</v>
       </c>
       <c r="BH5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BI5">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -4247,10 +4304,10 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ5">
         <v>3</v>
@@ -4262,7 +4319,7 @@
         <v>20</v>
       </c>
       <c r="BT5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU5">
         <v>3</v>
@@ -4274,13 +4331,13 @@
         <v>20</v>
       </c>
       <c r="BX5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY5">
         <v>3</v>
       </c>
       <c r="BZ5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA5">
         <v>1</v>
@@ -4289,16 +4346,16 @@
         <v>1</v>
       </c>
       <c r="CC5">
-        <v>1800000</v>
+        <v>2100000</v>
       </c>
       <c r="CD5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="CE5">
         <v>55</v>
       </c>
       <c r="CF5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4313,10 +4370,10 @@
         <v>9</v>
       </c>
       <c r="CK5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM5">
         <v>3</v>
@@ -4328,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="CP5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ5">
         <v>3</v>
@@ -4340,13 +4397,13 @@
         <v>20</v>
       </c>
       <c r="CT5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU5">
         <v>3</v>
       </c>
       <c r="CV5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW5">
         <v>3</v>
@@ -4358,10 +4415,10 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>6000</v>
+        <v>3100</v>
       </c>
       <c r="DA5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB5">
         <v>0</v>
@@ -4373,7 +4430,7 @@
         <v>1</v>
       </c>
       <c r="DE5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF5">
         <v>1</v>
@@ -4388,10 +4445,10 @@
         <v>9</v>
       </c>
       <c r="DJ5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL5">
         <v>3</v>
@@ -4403,7 +4460,7 @@
         <v>20</v>
       </c>
       <c r="DO5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP5">
         <v>3</v>
@@ -4415,19 +4472,19 @@
         <v>20</v>
       </c>
       <c r="DS5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT5">
         <v>3</v>
       </c>
       <c r="DU5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV5">
         <v>3</v>
       </c>
       <c r="DW5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="DX5">
         <v>1</v>
@@ -4436,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="DZ5">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="EA5" t="s">
         <v>284</v>
@@ -4445,7 +4502,7 @@
         <v>1</v>
       </c>
       <c r="EC5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="ED5">
         <v>1</v>
@@ -4460,10 +4517,10 @@
         <v>9</v>
       </c>
       <c r="EH5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ5">
         <v>3</v>
@@ -4475,7 +4532,7 @@
         <v>20</v>
       </c>
       <c r="EM5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN5">
         <v>3</v>
@@ -4487,19 +4544,19 @@
         <v>20</v>
       </c>
       <c r="EQ5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER5">
         <v>3</v>
       </c>
       <c r="ES5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET5">
         <v>3</v>
       </c>
       <c r="EU5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV5">
         <v>0</v>
@@ -4508,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB5">
         <v>1</v>
@@ -4523,10 +4580,10 @@
         <v>9</v>
       </c>
       <c r="FF5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH5">
         <v>3</v>
@@ -4538,7 +4595,7 @@
         <v>20</v>
       </c>
       <c r="FK5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL5">
         <v>3</v>
@@ -4550,19 +4607,19 @@
         <v>20</v>
       </c>
       <c r="FO5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP5">
         <v>3</v>
       </c>
       <c r="FQ5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR5">
         <v>3</v>
       </c>
       <c r="FS5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT5">
         <v>0</v>
@@ -4571,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="FX5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY5">
         <v>1</v>
@@ -4580,19 +4637,19 @@
         <v>1</v>
       </c>
       <c r="GA5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="GB5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="GC5">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="GD5">
-        <v>22000</v>
+        <v>7200</v>
       </c>
       <c r="GE5">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="GF5">
         <v>0.9</v>
@@ -4607,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="GS5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT5">
         <v>0.05</v>
@@ -4622,13 +4679,13 @@
         <v>8.5</v>
       </c>
       <c r="GX5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA5">
         <v>1</v>
@@ -4637,10 +4694,10 @@
         <v>1</v>
       </c>
       <c r="HC5">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="HD5">
-        <v>3600</v>
+        <v>2000</v>
       </c>
       <c r="HE5">
         <v>0.95</v>
@@ -4655,7 +4712,7 @@
         <v>0</v>
       </c>
       <c r="HI5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ5">
         <v>0</v>
@@ -4664,49 +4721,49 @@
         <v>0</v>
       </c>
       <c r="HP5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS5">
         <v>86400</v>
       </c>
       <c r="HT5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU5">
         <v>86400</v>
       </c>
       <c r="HV5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW5">
         <v>1</v>
       </c>
       <c r="HX5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY5">
         <v>1</v>
       </c>
       <c r="HZ5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE5">
         <v>86400</v>
@@ -4726,10 +4783,10 @@
         <v>244</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -4738,7 +4795,7 @@
         <v>2.6</v>
       </c>
       <c r="J6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4750,13 +4807,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>3863000</v>
+        <v>5527000</v>
       </c>
       <c r="O6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P6" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4771,10 +4828,10 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -4786,7 +4843,7 @@
         <v>20</v>
       </c>
       <c r="Z6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA6">
         <v>3</v>
@@ -4798,13 +4855,13 @@
         <v>20</v>
       </c>
       <c r="AD6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE6">
         <v>3</v>
       </c>
       <c r="AF6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG6">
         <v>3</v>
@@ -4819,7 +4876,7 @@
         <v>6</v>
       </c>
       <c r="AM6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -4834,10 +4891,10 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT6">
         <v>3</v>
@@ -4849,7 +4906,7 @@
         <v>20</v>
       </c>
       <c r="AW6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX6">
         <v>3</v>
@@ -4861,13 +4918,13 @@
         <v>20</v>
       </c>
       <c r="BA6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB6">
         <v>3</v>
       </c>
       <c r="BC6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD6">
         <v>3</v>
@@ -4879,16 +4936,16 @@
         <v>1</v>
       </c>
       <c r="BG6">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BI6">
         <v>55</v>
       </c>
       <c r="BJ6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -4903,10 +4960,10 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ6">
         <v>3</v>
@@ -4918,7 +4975,7 @@
         <v>20</v>
       </c>
       <c r="BT6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU6">
         <v>3</v>
@@ -4930,13 +4987,13 @@
         <v>20</v>
       </c>
       <c r="BX6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY6">
         <v>3</v>
       </c>
       <c r="BZ6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA6">
         <v>1</v>
@@ -4945,16 +5002,16 @@
         <v>1</v>
       </c>
       <c r="CC6">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="CD6" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="CE6">
         <v>55</v>
       </c>
       <c r="CF6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -4969,10 +5026,10 @@
         <v>9</v>
       </c>
       <c r="CK6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM6">
         <v>3</v>
@@ -4984,7 +5041,7 @@
         <v>20</v>
       </c>
       <c r="CP6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ6">
         <v>3</v>
@@ -4996,13 +5053,13 @@
         <v>20</v>
       </c>
       <c r="CT6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU6">
         <v>3</v>
       </c>
       <c r="CV6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW6">
         <v>3</v>
@@ -5014,22 +5071,22 @@
         <v>1</v>
       </c>
       <c r="CZ6">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="DA6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB6">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD6" t="b">
         <v>1</v>
       </c>
       <c r="DE6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF6">
         <v>1</v>
@@ -5044,10 +5101,10 @@
         <v>9</v>
       </c>
       <c r="DJ6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL6">
         <v>3</v>
@@ -5059,7 +5116,7 @@
         <v>20</v>
       </c>
       <c r="DO6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP6">
         <v>3</v>
@@ -5071,19 +5128,19 @@
         <v>20</v>
       </c>
       <c r="DS6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT6">
         <v>3</v>
       </c>
       <c r="DU6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV6">
         <v>3</v>
       </c>
       <c r="DW6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="DX6">
         <v>1</v>
@@ -5092,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="DZ6">
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="EA6" t="s">
         <v>284</v>
@@ -5101,7 +5158,7 @@
         <v>1</v>
       </c>
       <c r="EC6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="ED6">
         <v>1</v>
@@ -5116,10 +5173,10 @@
         <v>9</v>
       </c>
       <c r="EH6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ6">
         <v>3</v>
@@ -5131,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="EM6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN6">
         <v>3</v>
@@ -5143,19 +5200,19 @@
         <v>20</v>
       </c>
       <c r="EQ6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER6">
         <v>3</v>
       </c>
       <c r="ES6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET6">
         <v>3</v>
       </c>
       <c r="EU6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV6">
         <v>0</v>
@@ -5164,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="FA6" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB6">
         <v>1</v>
@@ -5179,10 +5236,10 @@
         <v>9</v>
       </c>
       <c r="FF6" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH6">
         <v>3</v>
@@ -5194,7 +5251,7 @@
         <v>20</v>
       </c>
       <c r="FK6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL6">
         <v>3</v>
@@ -5206,19 +5263,19 @@
         <v>20</v>
       </c>
       <c r="FO6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP6">
         <v>3</v>
       </c>
       <c r="FQ6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR6">
         <v>3</v>
       </c>
       <c r="FS6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT6">
         <v>0</v>
@@ -5227,28 +5284,28 @@
         <v>0</v>
       </c>
       <c r="FX6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY6">
         <v>1</v>
       </c>
       <c r="FZ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GA6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="GB6">
-        <v>75000</v>
+        <v>50000</v>
       </c>
       <c r="GC6">
         <v>7200</v>
       </c>
       <c r="GD6">
-        <v>11000</v>
+        <v>7200</v>
       </c>
       <c r="GE6">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="GF6">
         <v>0.9</v>
@@ -5262,35 +5319,8 @@
       <c r="GI6" t="b">
         <v>0</v>
       </c>
-      <c r="GJ6" t="s">
-        <v>289</v>
-      </c>
-      <c r="GK6">
-        <v>75000</v>
-      </c>
-      <c r="GL6">
-        <v>7200</v>
-      </c>
-      <c r="GM6">
-        <v>11000</v>
-      </c>
-      <c r="GN6">
-        <v>100000</v>
-      </c>
-      <c r="GO6">
-        <v>0.9</v>
-      </c>
-      <c r="GP6">
-        <v>0.8</v>
-      </c>
-      <c r="GQ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="b">
-        <v>0</v>
-      </c>
       <c r="GS6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT6">
         <v>0.05</v>
@@ -5305,13 +5335,13 @@
         <v>8.5</v>
       </c>
       <c r="GX6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA6">
         <v>1</v>
@@ -5320,10 +5350,10 @@
         <v>1</v>
       </c>
       <c r="HC6">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="HD6">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="HE6">
         <v>0.95</v>
@@ -5338,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="HI6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ6">
         <v>0</v>
@@ -5347,49 +5377,49 @@
         <v>0</v>
       </c>
       <c r="HP6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS6">
         <v>86400</v>
       </c>
       <c r="HT6" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU6">
         <v>86400</v>
       </c>
       <c r="HV6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW6">
         <v>1</v>
       </c>
       <c r="HX6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY6">
         <v>1</v>
       </c>
       <c r="HZ6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE6">
         <v>86400</v>
@@ -5409,10 +5439,10 @@
         <v>245</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -5421,7 +5451,7 @@
         <v>2.6</v>
       </c>
       <c r="J7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -5433,13 +5463,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>4402000</v>
+        <v>4536000</v>
       </c>
       <c r="O7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5454,10 +5484,10 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W7">
         <v>3</v>
@@ -5469,7 +5499,7 @@
         <v>20</v>
       </c>
       <c r="Z7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA7">
         <v>3</v>
@@ -5481,13 +5511,13 @@
         <v>20</v>
       </c>
       <c r="AD7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE7">
         <v>3</v>
       </c>
       <c r="AF7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -5502,7 +5532,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5517,10 +5547,10 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT7">
         <v>3</v>
@@ -5532,7 +5562,7 @@
         <v>20</v>
       </c>
       <c r="AW7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX7">
         <v>3</v>
@@ -5544,13 +5574,13 @@
         <v>20</v>
       </c>
       <c r="BA7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB7">
         <v>3</v>
       </c>
       <c r="BC7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD7">
         <v>3</v>
@@ -5562,16 +5592,16 @@
         <v>1</v>
       </c>
       <c r="BG7">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="BI7">
         <v>55</v>
       </c>
       <c r="BJ7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -5586,10 +5616,10 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ7">
         <v>3</v>
@@ -5601,7 +5631,7 @@
         <v>20</v>
       </c>
       <c r="BT7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU7">
         <v>3</v>
@@ -5613,13 +5643,13 @@
         <v>20</v>
       </c>
       <c r="BX7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY7">
         <v>3</v>
       </c>
       <c r="BZ7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA7">
         <v>1</v>
@@ -5628,16 +5658,16 @@
         <v>1</v>
       </c>
       <c r="CC7">
-        <v>2100000</v>
+        <v>2400000</v>
       </c>
       <c r="CD7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="CE7">
         <v>55</v>
       </c>
       <c r="CF7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG7">
         <v>1</v>
@@ -5652,10 +5682,10 @@
         <v>9</v>
       </c>
       <c r="CK7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM7">
         <v>3</v>
@@ -5667,7 +5697,7 @@
         <v>20</v>
       </c>
       <c r="CP7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ7">
         <v>3</v>
@@ -5679,13 +5709,13 @@
         <v>20</v>
       </c>
       <c r="CT7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU7">
         <v>3</v>
       </c>
       <c r="CV7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW7">
         <v>3</v>
@@ -5697,10 +5727,10 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>5400</v>
+        <v>8100</v>
       </c>
       <c r="DA7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -5712,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="DE7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -5727,10 +5757,10 @@
         <v>9</v>
       </c>
       <c r="DJ7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL7">
         <v>3</v>
@@ -5742,7 +5772,7 @@
         <v>20</v>
       </c>
       <c r="DO7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP7">
         <v>3</v>
@@ -5754,37 +5784,37 @@
         <v>20</v>
       </c>
       <c r="DS7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT7">
         <v>3</v>
       </c>
       <c r="DU7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV7">
         <v>3</v>
       </c>
       <c r="DW7" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX7">
+        <v>1</v>
+      </c>
+      <c r="DY7">
+        <v>1</v>
+      </c>
+      <c r="DZ7">
+        <v>2000</v>
+      </c>
+      <c r="EA7" t="s">
+        <v>285</v>
+      </c>
+      <c r="EB7" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC7" t="s">
         <v>280</v>
-      </c>
-      <c r="DX7">
-        <v>1</v>
-      </c>
-      <c r="DY7">
-        <v>1</v>
-      </c>
-      <c r="DZ7">
-        <v>2400</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>281</v>
-      </c>
-      <c r="EB7" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>279</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -5799,10 +5829,10 @@
         <v>9</v>
       </c>
       <c r="EH7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ7">
         <v>3</v>
@@ -5814,7 +5844,7 @@
         <v>20</v>
       </c>
       <c r="EM7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN7">
         <v>3</v>
@@ -5826,19 +5856,19 @@
         <v>20</v>
       </c>
       <c r="EQ7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER7">
         <v>3</v>
       </c>
       <c r="ES7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET7">
         <v>3</v>
       </c>
       <c r="EU7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV7">
         <v>0</v>
@@ -5847,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB7">
         <v>1</v>
@@ -5862,10 +5892,10 @@
         <v>9</v>
       </c>
       <c r="FF7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH7">
         <v>3</v>
@@ -5877,7 +5907,7 @@
         <v>20</v>
       </c>
       <c r="FK7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL7">
         <v>3</v>
@@ -5889,19 +5919,19 @@
         <v>20</v>
       </c>
       <c r="FO7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP7">
         <v>3</v>
       </c>
       <c r="FQ7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR7">
         <v>3</v>
       </c>
       <c r="FS7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT7">
         <v>0</v>
@@ -5910,28 +5940,28 @@
         <v>0</v>
       </c>
       <c r="FX7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY7">
         <v>1</v>
       </c>
       <c r="FZ7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GA7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="GB7">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="GC7">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GD7">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="GE7">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="GF7">
         <v>0.9</v>
@@ -5945,35 +5975,8 @@
       <c r="GI7" t="b">
         <v>0</v>
       </c>
-      <c r="GJ7" t="s">
-        <v>293</v>
-      </c>
-      <c r="GK7">
-        <v>100000</v>
-      </c>
-      <c r="GL7">
-        <v>11000</v>
-      </c>
-      <c r="GM7">
-        <v>22000</v>
-      </c>
-      <c r="GN7">
-        <v>200000</v>
-      </c>
-      <c r="GO7">
-        <v>0.9</v>
-      </c>
-      <c r="GP7">
-        <v>0.8</v>
-      </c>
-      <c r="GQ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="GR7" t="b">
-        <v>0</v>
-      </c>
       <c r="GS7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT7">
         <v>0.05</v>
@@ -5988,13 +5991,13 @@
         <v>8.5</v>
       </c>
       <c r="GX7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA7">
         <v>1</v>
@@ -6003,10 +6006,10 @@
         <v>1</v>
       </c>
       <c r="HC7">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="HD7">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="HE7">
         <v>0.95</v>
@@ -6021,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="HI7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ7">
         <v>0</v>
@@ -6030,49 +6033,49 @@
         <v>0</v>
       </c>
       <c r="HP7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS7">
         <v>86400</v>
       </c>
       <c r="HT7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU7">
         <v>86400</v>
       </c>
       <c r="HV7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW7">
         <v>1</v>
       </c>
       <c r="HX7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY7">
         <v>1</v>
       </c>
       <c r="HZ7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE7">
         <v>86400</v>
@@ -6092,10 +6095,10 @@
         <v>246</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -6104,7 +6107,7 @@
         <v>2.6</v>
       </c>
       <c r="J8">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6116,13 +6119,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>2455000</v>
+        <v>3863000</v>
       </c>
       <c r="O8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -6137,10 +6140,10 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W8">
         <v>3</v>
@@ -6152,7 +6155,7 @@
         <v>20</v>
       </c>
       <c r="Z8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA8">
         <v>3</v>
@@ -6164,13 +6167,13 @@
         <v>20</v>
       </c>
       <c r="AD8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE8">
         <v>3</v>
       </c>
       <c r="AF8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG8">
         <v>3</v>
@@ -6185,7 +6188,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -6200,10 +6203,10 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT8">
         <v>3</v>
@@ -6215,7 +6218,7 @@
         <v>20</v>
       </c>
       <c r="AW8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX8">
         <v>3</v>
@@ -6227,13 +6230,13 @@
         <v>20</v>
       </c>
       <c r="BA8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB8">
         <v>3</v>
       </c>
       <c r="BC8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD8">
         <v>3</v>
@@ -6245,16 +6248,16 @@
         <v>1</v>
       </c>
       <c r="BG8">
-        <v>19500000</v>
+        <v>5500000</v>
       </c>
       <c r="BH8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BI8">
         <v>35</v>
       </c>
       <c r="BJ8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -6269,10 +6272,10 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ8">
         <v>3</v>
@@ -6284,7 +6287,7 @@
         <v>20</v>
       </c>
       <c r="BT8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU8">
         <v>3</v>
@@ -6296,13 +6299,13 @@
         <v>20</v>
       </c>
       <c r="BX8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY8">
         <v>3</v>
       </c>
       <c r="BZ8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA8">
         <v>1</v>
@@ -6311,16 +6314,16 @@
         <v>1</v>
       </c>
       <c r="CC8">
-        <v>2800000</v>
+        <v>2100000</v>
       </c>
       <c r="CD8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="CE8">
         <v>55</v>
       </c>
       <c r="CF8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -6335,10 +6338,10 @@
         <v>9</v>
       </c>
       <c r="CK8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM8">
         <v>3</v>
@@ -6350,7 +6353,7 @@
         <v>20</v>
       </c>
       <c r="CP8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ8">
         <v>3</v>
@@ -6362,13 +6365,13 @@
         <v>20</v>
       </c>
       <c r="CT8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU8">
         <v>3</v>
       </c>
       <c r="CV8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW8">
         <v>3</v>
@@ -6380,10 +6383,10 @@
         <v>1</v>
       </c>
       <c r="CZ8">
-        <v>3400</v>
+        <v>5000</v>
       </c>
       <c r="DA8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB8">
         <v>0</v>
@@ -6395,7 +6398,7 @@
         <v>1</v>
       </c>
       <c r="DE8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF8">
         <v>1</v>
@@ -6410,10 +6413,10 @@
         <v>9</v>
       </c>
       <c r="DJ8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL8">
         <v>3</v>
@@ -6425,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="DO8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP8">
         <v>3</v>
@@ -6437,37 +6440,37 @@
         <v>20</v>
       </c>
       <c r="DS8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT8">
         <v>3</v>
       </c>
       <c r="DU8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV8">
         <v>3</v>
       </c>
       <c r="DW8" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX8">
+        <v>1</v>
+      </c>
+      <c r="DY8">
+        <v>1</v>
+      </c>
+      <c r="DZ8">
+        <v>1600</v>
+      </c>
+      <c r="EA8" t="s">
+        <v>286</v>
+      </c>
+      <c r="EB8" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC8" t="s">
         <v>280</v>
-      </c>
-      <c r="DX8">
-        <v>1</v>
-      </c>
-      <c r="DY8">
-        <v>1</v>
-      </c>
-      <c r="DZ8">
-        <v>1700</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>284</v>
-      </c>
-      <c r="EB8" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>279</v>
       </c>
       <c r="ED8">
         <v>1</v>
@@ -6482,10 +6485,10 @@
         <v>9</v>
       </c>
       <c r="EH8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ8">
         <v>3</v>
@@ -6497,7 +6500,7 @@
         <v>20</v>
       </c>
       <c r="EM8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN8">
         <v>3</v>
@@ -6509,19 +6512,19 @@
         <v>20</v>
       </c>
       <c r="EQ8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER8">
         <v>3</v>
       </c>
       <c r="ES8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET8">
         <v>3</v>
       </c>
       <c r="EU8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -6530,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="FA8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB8">
         <v>1</v>
@@ -6545,10 +6548,10 @@
         <v>9</v>
       </c>
       <c r="FF8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH8">
         <v>3</v>
@@ -6560,7 +6563,7 @@
         <v>20</v>
       </c>
       <c r="FK8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL8">
         <v>3</v>
@@ -6572,19 +6575,19 @@
         <v>20</v>
       </c>
       <c r="FO8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP8">
         <v>3</v>
       </c>
       <c r="FQ8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR8">
         <v>3</v>
       </c>
       <c r="FS8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT8">
         <v>0</v>
@@ -6593,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="FX8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY8">
         <v>1</v>
@@ -6602,19 +6605,19 @@
         <v>1</v>
       </c>
       <c r="GA8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="GB8">
-        <v>50000</v>
+        <v>75000</v>
       </c>
       <c r="GC8">
         <v>7200</v>
       </c>
       <c r="GD8">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GE8">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="GF8">
         <v>0.9</v>
@@ -6629,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="GS8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT8">
         <v>0.05</v>
@@ -6644,13 +6647,13 @@
         <v>8.5</v>
       </c>
       <c r="GX8" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA8">
         <v>1</v>
@@ -6659,10 +6662,10 @@
         <v>1</v>
       </c>
       <c r="HC8">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="HD8">
-        <v>2500</v>
+        <v>3900</v>
       </c>
       <c r="HE8">
         <v>0.95</v>
@@ -6677,7 +6680,7 @@
         <v>0</v>
       </c>
       <c r="HI8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ8">
         <v>0</v>
@@ -6686,49 +6689,49 @@
         <v>0</v>
       </c>
       <c r="HP8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS8">
         <v>86400</v>
       </c>
       <c r="HT8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU8">
         <v>86400</v>
       </c>
       <c r="HV8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW8">
         <v>1</v>
       </c>
       <c r="HX8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY8">
         <v>1</v>
       </c>
       <c r="HZ8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE8">
         <v>86400</v>
@@ -6748,10 +6751,10 @@
         <v>247</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -6760,7 +6763,7 @@
         <v>2.6</v>
       </c>
       <c r="J9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6772,13 +6775,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>5527000</v>
+        <v>3863000</v>
       </c>
       <c r="O9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6793,10 +6796,10 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W9">
         <v>3</v>
@@ -6808,7 +6811,7 @@
         <v>20</v>
       </c>
       <c r="Z9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA9">
         <v>3</v>
@@ -6820,13 +6823,13 @@
         <v>20</v>
       </c>
       <c r="AD9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE9">
         <v>3</v>
       </c>
       <c r="AF9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG9">
         <v>3</v>
@@ -6841,7 +6844,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -6856,10 +6859,10 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -6871,7 +6874,7 @@
         <v>20</v>
       </c>
       <c r="AW9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX9">
         <v>3</v>
@@ -6883,13 +6886,13 @@
         <v>20</v>
       </c>
       <c r="BA9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB9">
         <v>3</v>
       </c>
       <c r="BC9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD9">
         <v>3</v>
@@ -6901,16 +6904,16 @@
         <v>1</v>
       </c>
       <c r="BG9">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="BI9">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="BJ9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -6925,10 +6928,10 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ9">
         <v>3</v>
@@ -6940,7 +6943,7 @@
         <v>20</v>
       </c>
       <c r="BT9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU9">
         <v>3</v>
@@ -6952,13 +6955,13 @@
         <v>20</v>
       </c>
       <c r="BX9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY9">
         <v>3</v>
       </c>
       <c r="BZ9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA9">
         <v>1</v>
@@ -6967,7 +6970,7 @@
         <v>1</v>
       </c>
       <c r="CC9">
-        <v>2400000</v>
+        <v>3200000</v>
       </c>
       <c r="CD9" t="s">
         <v>275</v>
@@ -6976,7 +6979,7 @@
         <v>55</v>
       </c>
       <c r="CF9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG9">
         <v>1</v>
@@ -6991,10 +6994,10 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM9">
         <v>3</v>
@@ -7006,7 +7009,7 @@
         <v>20</v>
       </c>
       <c r="CP9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ9">
         <v>3</v>
@@ -7018,13 +7021,13 @@
         <v>20</v>
       </c>
       <c r="CT9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU9">
         <v>3</v>
       </c>
       <c r="CV9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW9">
         <v>3</v>
@@ -7036,10 +7039,10 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>9100</v>
+        <v>5500</v>
       </c>
       <c r="DA9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB9">
         <v>0</v>
@@ -7051,7 +7054,7 @@
         <v>1</v>
       </c>
       <c r="DE9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF9">
         <v>1</v>
@@ -7066,10 +7069,10 @@
         <v>9</v>
       </c>
       <c r="DJ9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL9">
         <v>3</v>
@@ -7081,7 +7084,7 @@
         <v>20</v>
       </c>
       <c r="DO9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP9">
         <v>3</v>
@@ -7093,37 +7096,37 @@
         <v>20</v>
       </c>
       <c r="DS9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT9">
         <v>3</v>
       </c>
       <c r="DU9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV9">
         <v>3</v>
       </c>
       <c r="DW9" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX9">
+        <v>1</v>
+      </c>
+      <c r="DY9">
+        <v>1</v>
+      </c>
+      <c r="DZ9">
+        <v>3000</v>
+      </c>
+      <c r="EA9" t="s">
+        <v>284</v>
+      </c>
+      <c r="EB9" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC9" t="s">
         <v>280</v>
-      </c>
-      <c r="DX9">
-        <v>1</v>
-      </c>
-      <c r="DY9">
-        <v>1</v>
-      </c>
-      <c r="DZ9">
-        <v>3800</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>283</v>
-      </c>
-      <c r="EB9" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>279</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -7138,10 +7141,10 @@
         <v>9</v>
       </c>
       <c r="EH9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ9">
         <v>3</v>
@@ -7153,7 +7156,7 @@
         <v>20</v>
       </c>
       <c r="EM9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN9">
         <v>3</v>
@@ -7165,19 +7168,19 @@
         <v>20</v>
       </c>
       <c r="EQ9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER9">
         <v>3</v>
       </c>
       <c r="ES9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET9">
         <v>3</v>
       </c>
       <c r="EU9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV9">
         <v>0</v>
@@ -7186,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="FA9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB9">
         <v>1</v>
@@ -7201,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="FF9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH9">
         <v>3</v>
@@ -7216,7 +7219,7 @@
         <v>20</v>
       </c>
       <c r="FK9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL9">
         <v>3</v>
@@ -7228,19 +7231,19 @@
         <v>20</v>
       </c>
       <c r="FO9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP9">
         <v>3</v>
       </c>
       <c r="FQ9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR9">
         <v>3</v>
       </c>
       <c r="FS9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT9">
         <v>0</v>
@@ -7249,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="FX9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY9">
         <v>1</v>
@@ -7258,7 +7261,7 @@
         <v>1</v>
       </c>
       <c r="GA9" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="GB9">
         <v>50000</v>
@@ -7285,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="GS9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT9">
         <v>0.05</v>
@@ -7300,13 +7303,13 @@
         <v>8.5</v>
       </c>
       <c r="GX9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA9">
         <v>1</v>
@@ -7315,10 +7318,10 @@
         <v>1</v>
       </c>
       <c r="HC9">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="HD9">
-        <v>5500</v>
+        <v>3900</v>
       </c>
       <c r="HE9">
         <v>0.95</v>
@@ -7333,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="HI9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ9">
         <v>0</v>
@@ -7342,49 +7345,49 @@
         <v>0</v>
       </c>
       <c r="HP9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS9">
         <v>86400</v>
       </c>
       <c r="HT9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU9">
         <v>86400</v>
       </c>
       <c r="HV9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW9">
         <v>1</v>
       </c>
       <c r="HX9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY9">
         <v>1</v>
       </c>
       <c r="HZ9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE9">
         <v>86400</v>
@@ -7404,10 +7407,10 @@
         <v>248</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -7416,7 +7419,7 @@
         <v>2.6</v>
       </c>
       <c r="J10">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -7428,13 +7431,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>2262000</v>
+        <v>5527000</v>
       </c>
       <c r="O10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7449,10 +7452,10 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W10">
         <v>3</v>
@@ -7464,7 +7467,7 @@
         <v>20</v>
       </c>
       <c r="Z10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA10">
         <v>3</v>
@@ -7476,13 +7479,13 @@
         <v>20</v>
       </c>
       <c r="AD10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE10">
         <v>3</v>
       </c>
       <c r="AF10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG10">
         <v>3</v>
@@ -7497,7 +7500,7 @@
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -7512,10 +7515,10 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -7527,7 +7530,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX10">
         <v>3</v>
@@ -7539,13 +7542,13 @@
         <v>20</v>
       </c>
       <c r="BA10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB10">
         <v>3</v>
       </c>
       <c r="BC10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD10">
         <v>3</v>
@@ -7557,16 +7560,16 @@
         <v>1</v>
       </c>
       <c r="BG10">
-        <v>5500000</v>
+        <v>19500000</v>
       </c>
       <c r="BH10" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="BI10">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="BJ10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -7581,10 +7584,10 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ10">
         <v>3</v>
@@ -7596,7 +7599,7 @@
         <v>20</v>
       </c>
       <c r="BT10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU10">
         <v>3</v>
@@ -7608,13 +7611,13 @@
         <v>20</v>
       </c>
       <c r="BX10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY10">
         <v>3</v>
       </c>
       <c r="BZ10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA10">
         <v>1</v>
@@ -7623,16 +7626,16 @@
         <v>1</v>
       </c>
       <c r="CC10">
-        <v>2100000</v>
+        <v>2800000</v>
       </c>
       <c r="CD10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="CE10">
         <v>55</v>
       </c>
       <c r="CF10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG10">
         <v>1</v>
@@ -7647,10 +7650,10 @@
         <v>9</v>
       </c>
       <c r="CK10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM10">
         <v>3</v>
@@ -7662,7 +7665,7 @@
         <v>20</v>
       </c>
       <c r="CP10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ10">
         <v>3</v>
@@ -7674,13 +7677,13 @@
         <v>20</v>
       </c>
       <c r="CT10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU10">
         <v>3</v>
       </c>
       <c r="CV10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW10">
         <v>3</v>
@@ -7692,10 +7695,10 @@
         <v>1</v>
       </c>
       <c r="CZ10">
-        <v>3600</v>
+        <v>8600</v>
       </c>
       <c r="DA10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB10">
         <v>0</v>
@@ -7707,7 +7710,7 @@
         <v>1</v>
       </c>
       <c r="DE10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF10">
         <v>1</v>
@@ -7722,10 +7725,10 @@
         <v>9</v>
       </c>
       <c r="DJ10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL10">
         <v>3</v>
@@ -7737,7 +7740,7 @@
         <v>20</v>
       </c>
       <c r="DO10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP10">
         <v>3</v>
@@ -7749,37 +7752,37 @@
         <v>20</v>
       </c>
       <c r="DS10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT10">
         <v>3</v>
       </c>
       <c r="DU10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV10">
         <v>3</v>
       </c>
       <c r="DW10" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX10">
+        <v>1</v>
+      </c>
+      <c r="DY10">
+        <v>1</v>
+      </c>
+      <c r="DZ10">
+        <v>3000</v>
+      </c>
+      <c r="EA10" t="s">
+        <v>283</v>
+      </c>
+      <c r="EB10" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC10" t="s">
         <v>280</v>
-      </c>
-      <c r="DX10">
-        <v>1</v>
-      </c>
-      <c r="DY10">
-        <v>1</v>
-      </c>
-      <c r="DZ10">
-        <v>1800</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>282</v>
-      </c>
-      <c r="EB10" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC10" t="s">
-        <v>279</v>
       </c>
       <c r="ED10">
         <v>1</v>
@@ -7794,10 +7797,10 @@
         <v>9</v>
       </c>
       <c r="EH10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ10">
         <v>3</v>
@@ -7809,7 +7812,7 @@
         <v>20</v>
       </c>
       <c r="EM10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN10">
         <v>3</v>
@@ -7821,19 +7824,19 @@
         <v>20</v>
       </c>
       <c r="EQ10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER10">
         <v>3</v>
       </c>
       <c r="ES10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET10">
         <v>3</v>
       </c>
       <c r="EU10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV10">
         <v>0</v>
@@ -7842,7 +7845,7 @@
         <v>0</v>
       </c>
       <c r="FA10" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB10">
         <v>1</v>
@@ -7857,10 +7860,10 @@
         <v>9</v>
       </c>
       <c r="FF10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH10">
         <v>3</v>
@@ -7872,7 +7875,7 @@
         <v>20</v>
       </c>
       <c r="FK10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL10">
         <v>3</v>
@@ -7884,19 +7887,19 @@
         <v>20</v>
       </c>
       <c r="FO10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP10">
         <v>3</v>
       </c>
       <c r="FQ10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR10">
         <v>3</v>
       </c>
       <c r="FS10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT10">
         <v>0</v>
@@ -7905,28 +7908,28 @@
         <v>0</v>
       </c>
       <c r="FX10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY10">
         <v>1</v>
       </c>
       <c r="FZ10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GA10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="GB10">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="GC10">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GD10">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="GE10">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="GF10">
         <v>0.9</v>
@@ -7940,35 +7943,8 @@
       <c r="GI10" t="b">
         <v>0</v>
       </c>
-      <c r="GJ10" t="s">
-        <v>292</v>
-      </c>
-      <c r="GK10">
-        <v>50000</v>
-      </c>
-      <c r="GL10">
-        <v>7200</v>
-      </c>
-      <c r="GM10">
-        <v>7200</v>
-      </c>
-      <c r="GN10">
-        <v>50000</v>
-      </c>
-      <c r="GO10">
-        <v>0.9</v>
-      </c>
-      <c r="GP10">
-        <v>0.8</v>
-      </c>
-      <c r="GQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="GR10" t="b">
-        <v>0</v>
-      </c>
       <c r="GS10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT10">
         <v>0.05</v>
@@ -7983,13 +7959,13 @@
         <v>8.5</v>
       </c>
       <c r="GX10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA10">
         <v>1</v>
@@ -7998,10 +7974,10 @@
         <v>1</v>
       </c>
       <c r="HC10">
-        <v>2300</v>
+        <v>5500</v>
       </c>
       <c r="HD10">
-        <v>2300</v>
+        <v>5500</v>
       </c>
       <c r="HE10">
         <v>0.95</v>
@@ -8016,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="HI10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ10">
         <v>0</v>
@@ -8025,49 +8001,49 @@
         <v>0</v>
       </c>
       <c r="HP10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS10">
         <v>86400</v>
       </c>
       <c r="HT10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU10">
         <v>86400</v>
       </c>
       <c r="HV10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW10">
         <v>1</v>
       </c>
       <c r="HX10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY10">
         <v>1</v>
       </c>
       <c r="HZ10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE10">
         <v>86400</v>
@@ -8111,13 +8087,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>4402000</v>
+        <v>2687000</v>
       </c>
       <c r="O11" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -8132,10 +8108,10 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="W11">
         <v>3</v>
@@ -8147,7 +8123,7 @@
         <v>20</v>
       </c>
       <c r="Z11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AA11">
         <v>3</v>
@@ -8159,13 +8135,13 @@
         <v>20</v>
       </c>
       <c r="AD11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AE11">
         <v>3</v>
       </c>
       <c r="AF11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG11">
         <v>3</v>
@@ -8180,7 +8156,7 @@
         <v>6</v>
       </c>
       <c r="AM11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -8195,10 +8171,10 @@
         <v>9</v>
       </c>
       <c r="AR11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AS11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AT11">
         <v>3</v>
@@ -8210,7 +8186,7 @@
         <v>20</v>
       </c>
       <c r="AW11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AX11">
         <v>3</v>
@@ -8222,13 +8198,13 @@
         <v>20</v>
       </c>
       <c r="BA11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BB11">
         <v>3</v>
       </c>
       <c r="BC11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BD11">
         <v>3</v>
@@ -8243,13 +8219,13 @@
         <v>19500000</v>
       </c>
       <c r="BH11" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="BI11">
         <v>55</v>
       </c>
       <c r="BJ11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -8264,10 +8240,10 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="BP11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BQ11">
         <v>3</v>
@@ -8279,7 +8255,7 @@
         <v>20</v>
       </c>
       <c r="BT11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BU11">
         <v>3</v>
@@ -8291,13 +8267,13 @@
         <v>20</v>
       </c>
       <c r="BX11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="BY11">
         <v>3</v>
       </c>
       <c r="BZ11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CA11">
         <v>1</v>
@@ -8309,13 +8285,13 @@
         <v>2400000</v>
       </c>
       <c r="CD11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="CE11">
         <v>55</v>
       </c>
       <c r="CF11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -8330,10 +8306,10 @@
         <v>9</v>
       </c>
       <c r="CK11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="CL11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CM11">
         <v>3</v>
@@ -8345,7 +8321,7 @@
         <v>20</v>
       </c>
       <c r="CP11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CQ11">
         <v>3</v>
@@ -8357,13 +8333,13 @@
         <v>20</v>
       </c>
       <c r="CT11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="CU11">
         <v>3</v>
       </c>
       <c r="CV11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="CW11">
         <v>3</v>
@@ -8375,10 +8351,10 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>5400</v>
+        <v>3500</v>
       </c>
       <c r="DA11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="DB11">
         <v>-20</v>
@@ -8390,7 +8366,7 @@
         <v>1</v>
       </c>
       <c r="DE11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="DF11">
         <v>1</v>
@@ -8405,10 +8381,10 @@
         <v>9</v>
       </c>
       <c r="DJ11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DL11">
         <v>3</v>
@@ -8420,7 +8396,7 @@
         <v>20</v>
       </c>
       <c r="DO11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DP11">
         <v>3</v>
@@ -8432,37 +8408,37 @@
         <v>20</v>
       </c>
       <c r="DS11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DT11">
         <v>3</v>
       </c>
       <c r="DU11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DV11">
         <v>3</v>
       </c>
       <c r="DW11" t="s">
+        <v>281</v>
+      </c>
+      <c r="DX11">
+        <v>1</v>
+      </c>
+      <c r="DY11">
+        <v>1</v>
+      </c>
+      <c r="DZ11">
+        <v>2100</v>
+      </c>
+      <c r="EA11" t="s">
+        <v>282</v>
+      </c>
+      <c r="EB11" t="b">
+        <v>1</v>
+      </c>
+      <c r="EC11" t="s">
         <v>280</v>
-      </c>
-      <c r="DX11">
-        <v>1</v>
-      </c>
-      <c r="DY11">
-        <v>1</v>
-      </c>
-      <c r="DZ11">
-        <v>2700</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>284</v>
-      </c>
-      <c r="EB11" t="b">
-        <v>1</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>279</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -8477,10 +8453,10 @@
         <v>9</v>
       </c>
       <c r="EH11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EI11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EJ11">
         <v>3</v>
@@ -8492,7 +8468,7 @@
         <v>20</v>
       </c>
       <c r="EM11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EN11">
         <v>3</v>
@@ -8504,19 +8480,19 @@
         <v>20</v>
       </c>
       <c r="EQ11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="ER11">
         <v>3</v>
       </c>
       <c r="ES11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="ET11">
         <v>3</v>
       </c>
       <c r="EU11" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="EV11">
         <v>0</v>
@@ -8525,7 +8501,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="FB11">
         <v>1</v>
@@ -8540,10 +8516,10 @@
         <v>9</v>
       </c>
       <c r="FF11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="FG11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FH11">
         <v>3</v>
@@ -8555,7 +8531,7 @@
         <v>20</v>
       </c>
       <c r="FK11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FL11">
         <v>3</v>
@@ -8567,19 +8543,19 @@
         <v>20</v>
       </c>
       <c r="FO11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="FP11">
         <v>3</v>
       </c>
       <c r="FQ11" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="FR11">
         <v>3</v>
       </c>
       <c r="FS11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FT11">
         <v>0</v>
@@ -8588,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="FX11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="FY11">
         <v>1</v>
@@ -8624,7 +8600,7 @@
         <v>0</v>
       </c>
       <c r="GS11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="GT11">
         <v>0.05</v>
@@ -8639,13 +8615,13 @@
         <v>8.5</v>
       </c>
       <c r="GX11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="GY11" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="GZ11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HA11">
         <v>1</v>
@@ -8654,10 +8630,10 @@
         <v>1</v>
       </c>
       <c r="HC11">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="HD11">
-        <v>4400</v>
+        <v>2700</v>
       </c>
       <c r="HE11">
         <v>0.95</v>
@@ -8672,7 +8648,7 @@
         <v>0</v>
       </c>
       <c r="HI11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HJ11">
         <v>0</v>
@@ -8681,49 +8657,49 @@
         <v>0</v>
       </c>
       <c r="HP11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="HQ11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HR11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="HS11">
         <v>86400</v>
       </c>
       <c r="HT11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="HU11">
         <v>86400</v>
       </c>
       <c r="HV11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HW11">
         <v>1</v>
       </c>
       <c r="HX11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="HY11">
         <v>1</v>
       </c>
       <c r="HZ11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IA11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IB11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="IC11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="ID11" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="IE11">
         <v>86400</v>
@@ -8762,13 +8738,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -8990,7 +8966,7 @@
         <v>76</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>77</v>
@@ -9446,10 +9422,10 @@
         <v>227</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="IB1" s="1" t="s">
         <v>232</v>
@@ -9503,7 +9479,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9905,22 +9881,22 @@
         <v>199</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="EN1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="EP1" s="1" t="s">
         <v>206</v>
@@ -9968,10 +9944,10 @@
         <v>227</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FG1" s="1" t="s">
         <v>232</v>
@@ -10025,7 +10001,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10517,10 +10493,10 @@
         <v>227</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="FP1" s="1" t="s">
         <v>232</v>
@@ -10841,10 +10817,10 @@
         <v>227</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>232</v>
@@ -10928,58 +10904,58 @@
         <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>223</v>
@@ -10997,10 +10973,10 @@
         <v>227</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>232</v>

--- a/02 - config/example_single_market/agents.xlsx
+++ b/02 - config/example_single_market/agents.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="309">
   <si>
     <t>general/agent_id</t>
   </si>
@@ -741,55 +741,52 @@
     <t>ems/fcasts/update</t>
   </si>
   <si>
-    <t>DYGMezeMcdBzkRE</t>
-  </si>
-  <si>
-    <t>3yZ7HjucQPUWBLV</t>
-  </si>
-  <si>
-    <t>CwxAe4i0Qo05kEy</t>
-  </si>
-  <si>
-    <t>bMNKj4RQXe3Bn5G</t>
-  </si>
-  <si>
-    <t>UfgFBNdFQIwN3aX</t>
-  </si>
-  <si>
-    <t>pzymfr2mXV8WUcn</t>
-  </si>
-  <si>
-    <t>QosLqiKD0U1v0co</t>
-  </si>
-  <si>
-    <t>A6Z44wNxl4MrGZO</t>
-  </si>
-  <si>
-    <t>W2oNQbQSIvLfC4j</t>
-  </si>
-  <si>
-    <t>OQxohNNX3xGnxLk</t>
-  </si>
-  <si>
-    <t>hh_3648_0.csv</t>
+    <t>6amLPGSnTedGjou</t>
+  </si>
+  <si>
+    <t>gQ7Sq3ucg78n4e2</t>
+  </si>
+  <si>
+    <t>0O9n4HIGxRrV58t</t>
+  </si>
+  <si>
+    <t>khzFYYWbb9gU6bQ</t>
+  </si>
+  <si>
+    <t>42KvQZD9ht2Hf7I</t>
+  </si>
+  <si>
+    <t>KO0lC3dN9zUuBwS</t>
+  </si>
+  <si>
+    <t>W16FZ8BxcyuuvrL</t>
+  </si>
+  <si>
+    <t>9l37kMNMXWcA0Nm</t>
+  </si>
+  <si>
+    <t>JHwCQsEwLJG3EbF</t>
+  </si>
+  <si>
+    <t>wi68hZKelP3cqgt</t>
+  </si>
+  <si>
+    <t>hh_5527_0.csv</t>
   </si>
   <si>
     <t>hh_4402_0.csv</t>
   </si>
   <si>
+    <t>hh_2959_0.csv</t>
+  </si>
+  <si>
+    <t>hh_3296_0.csv</t>
+  </si>
+  <si>
     <t>hh_3125_0.csv</t>
   </si>
   <si>
-    <t>hh_2012_3.csv</t>
-  </si>
-  <si>
-    <t>hh_5527_0.csv</t>
-  </si>
-  <si>
-    <t>hh_4536_0.csv</t>
-  </si>
-  <si>
-    <t>hh_3863_0.csv</t>
+    <t>hh_3564_0.csv</t>
   </si>
   <si>
     <t>hh_2687_0.csv</t>
@@ -810,51 +807,9 @@
     <t>rfr</t>
   </si>
   <si>
-    <t>heat_3648_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_1_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3125_0.csv</t>
-  </si>
-  <si>
-    <t>heat_2012_3.csv</t>
-  </si>
-  <si>
-    <t>heat_5527_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_3863_0.csv</t>
-  </si>
-  <si>
-    <t>heat_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>heat_2687_0.csv</t>
-  </si>
-  <si>
     <t>naive</t>
   </si>
   <si>
-    <t>dhw_gen_0_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_5_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_6_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_4_pu.csv</t>
-  </si>
-  <si>
-    <t>dhw_gen_2_pu.csv</t>
-  </si>
-  <si>
     <t>average</t>
   </si>
   <si>
@@ -867,43 +822,22 @@
     <t>green_local</t>
   </si>
   <si>
-    <t>wind_Siemens_SWT-3.6-130_3600000_130.json</t>
-  </si>
-  <si>
-    <t>wind_Senvion-REpower_3.2M122_3200000_122.json</t>
-  </si>
-  <si>
-    <t>wind_Enercon_E-53-800_800000_53.json</t>
-  </si>
-  <si>
-    <t>wind_Nordex_MM92_3300000_131.json</t>
-  </si>
-  <si>
-    <t>wind_Vestas_V117-3.3-MW_3300000_117.json</t>
-  </si>
-  <si>
     <t>local</t>
   </si>
   <si>
-    <t>ev_fulltime_45.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_49.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_47.csv</t>
-  </si>
-  <si>
-    <t>ev_freetime_1.csv</t>
+    <t>ev_fulltime_43.csv</t>
+  </si>
+  <si>
+    <t>ev_freetime_3.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_88.csv</t>
+  </si>
+  <si>
+    <t>ev_parttime_89.csv</t>
   </si>
   <si>
     <t>ev_fulltime_48.csv</t>
-  </si>
-  <si>
-    <t>ev_fulltime_46.csv</t>
-  </si>
-  <si>
-    <t>ev_parttime_89.csv</t>
   </si>
   <si>
     <t>min_soc</t>
@@ -2105,10 +2039,10 @@
         <v>240</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -2117,7 +2051,7 @@
         <v>2.6</v>
       </c>
       <c r="J2">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -2129,13 +2063,13 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3648000</v>
+        <v>5527000</v>
       </c>
       <c r="O2" t="s">
         <v>250</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -2150,40 +2084,40 @@
         <v>9</v>
       </c>
       <c r="U2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V2" t="s">
+        <v>259</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
+      </c>
+      <c r="X2">
+        <v>20</v>
+      </c>
+      <c r="Y2">
+        <v>20</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA2">
+        <v>3</v>
+      </c>
+      <c r="AB2">
+        <v>20</v>
+      </c>
+      <c r="AC2">
+        <v>20</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE2">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
         <v>260</v>
-      </c>
-      <c r="W2">
-        <v>3</v>
-      </c>
-      <c r="X2">
-        <v>20</v>
-      </c>
-      <c r="Y2">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA2">
-        <v>3</v>
-      </c>
-      <c r="AB2">
-        <v>20</v>
-      </c>
-      <c r="AC2">
-        <v>20</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE2">
-        <v>3</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>261</v>
       </c>
       <c r="AG2">
         <v>3</v>
@@ -2198,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="AM2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN2">
         <v>1</v>
@@ -2213,61 +2147,52 @@
         <v>9</v>
       </c>
       <c r="AR2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>20</v>
+      </c>
+      <c r="AV2">
+        <v>20</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX2">
+        <v>3</v>
+      </c>
+      <c r="AY2">
+        <v>20</v>
+      </c>
+      <c r="AZ2">
+        <v>20</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB2">
+        <v>3</v>
+      </c>
+      <c r="BC2" t="s">
         <v>260</v>
       </c>
-      <c r="AT2">
-        <v>3</v>
-      </c>
-      <c r="AU2">
-        <v>20</v>
-      </c>
-      <c r="AV2">
-        <v>20</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX2">
-        <v>3</v>
-      </c>
-      <c r="AY2">
-        <v>20</v>
-      </c>
-      <c r="AZ2">
-        <v>20</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB2">
-        <v>3</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>261</v>
-      </c>
       <c r="BD2">
         <v>3</v>
       </c>
       <c r="BE2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>1</v>
-      </c>
-      <c r="BG2">
-        <v>5500000</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BI2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK2">
         <v>1</v>
@@ -2282,58 +2207,49 @@
         <v>9</v>
       </c>
       <c r="BO2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ2">
+        <v>3</v>
+      </c>
+      <c r="BR2">
+        <v>20</v>
+      </c>
+      <c r="BS2">
+        <v>20</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU2">
+        <v>3</v>
+      </c>
+      <c r="BV2">
+        <v>20</v>
+      </c>
+      <c r="BW2">
+        <v>20</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY2">
+        <v>3</v>
+      </c>
+      <c r="BZ2" t="s">
         <v>260</v>
       </c>
-      <c r="BQ2">
-        <v>3</v>
-      </c>
-      <c r="BR2">
-        <v>20</v>
-      </c>
-      <c r="BS2">
-        <v>20</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU2">
-        <v>3</v>
-      </c>
-      <c r="BV2">
-        <v>20</v>
-      </c>
-      <c r="BW2">
-        <v>20</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY2">
-        <v>3</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>261</v>
-      </c>
       <c r="CA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1</v>
-      </c>
-      <c r="CC2">
-        <v>1800000</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE2">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG2">
         <v>1</v>
@@ -2348,67 +2264,52 @@
         <v>9</v>
       </c>
       <c r="CK2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM2">
+        <v>3</v>
+      </c>
+      <c r="CN2">
+        <v>20</v>
+      </c>
+      <c r="CO2">
+        <v>20</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ2">
+        <v>3</v>
+      </c>
+      <c r="CR2">
+        <v>20</v>
+      </c>
+      <c r="CS2">
+        <v>20</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU2">
+        <v>3</v>
+      </c>
+      <c r="CV2" t="s">
         <v>260</v>
       </c>
-      <c r="CM2">
-        <v>3</v>
-      </c>
-      <c r="CN2">
-        <v>20</v>
-      </c>
-      <c r="CO2">
-        <v>20</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ2">
-        <v>3</v>
-      </c>
-      <c r="CR2">
-        <v>20</v>
-      </c>
-      <c r="CS2">
-        <v>20</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU2">
-        <v>3</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>261</v>
-      </c>
       <c r="CW2">
         <v>3</v>
       </c>
       <c r="CX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY2">
-        <v>1</v>
-      </c>
-      <c r="CZ2">
-        <v>6100</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>279</v>
-      </c>
-      <c r="DB2">
-        <v>-20</v>
-      </c>
-      <c r="DC2">
-        <v>50</v>
-      </c>
-      <c r="DD2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF2">
         <v>1</v>
@@ -2423,64 +2324,55 @@
         <v>9</v>
       </c>
       <c r="DJ2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL2">
+        <v>3</v>
+      </c>
+      <c r="DM2">
+        <v>20</v>
+      </c>
+      <c r="DN2">
+        <v>20</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP2">
+        <v>3</v>
+      </c>
+      <c r="DQ2">
+        <v>20</v>
+      </c>
+      <c r="DR2">
+        <v>20</v>
+      </c>
+      <c r="DS2" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT2">
+        <v>3</v>
+      </c>
+      <c r="DU2" t="s">
         <v>260</v>
       </c>
-      <c r="DL2">
-        <v>3</v>
-      </c>
-      <c r="DM2">
-        <v>20</v>
-      </c>
-      <c r="DN2">
-        <v>20</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP2">
-        <v>3</v>
-      </c>
-      <c r="DQ2">
-        <v>20</v>
-      </c>
-      <c r="DR2">
-        <v>20</v>
-      </c>
-      <c r="DS2" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT2">
-        <v>3</v>
-      </c>
-      <c r="DU2" t="s">
-        <v>261</v>
-      </c>
       <c r="DV2">
         <v>3</v>
       </c>
       <c r="DW2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>1</v>
-      </c>
-      <c r="DZ2">
-        <v>2600</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>282</v>
-      </c>
-      <c r="EB2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED2">
         <v>1</v>
@@ -2495,46 +2387,46 @@
         <v>9</v>
       </c>
       <c r="EH2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ2">
+        <v>3</v>
+      </c>
+      <c r="EK2">
+        <v>20</v>
+      </c>
+      <c r="EL2">
+        <v>20</v>
+      </c>
+      <c r="EM2" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN2">
+        <v>3</v>
+      </c>
+      <c r="EO2">
+        <v>20</v>
+      </c>
+      <c r="EP2">
+        <v>20</v>
+      </c>
+      <c r="EQ2" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER2">
+        <v>3</v>
+      </c>
+      <c r="ES2" t="s">
         <v>260</v>
       </c>
-      <c r="EJ2">
-        <v>3</v>
-      </c>
-      <c r="EK2">
-        <v>20</v>
-      </c>
-      <c r="EL2">
-        <v>20</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN2">
-        <v>3</v>
-      </c>
-      <c r="EO2">
-        <v>20</v>
-      </c>
-      <c r="EP2">
-        <v>20</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER2">
-        <v>3</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>261</v>
-      </c>
       <c r="ET2">
         <v>3</v>
       </c>
       <c r="EU2" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV2">
         <v>0</v>
@@ -2543,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="FA2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB2">
         <v>1</v>
@@ -2558,46 +2450,46 @@
         <v>9</v>
       </c>
       <c r="FF2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH2">
+        <v>3</v>
+      </c>
+      <c r="FI2">
+        <v>20</v>
+      </c>
+      <c r="FJ2">
+        <v>20</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL2">
+        <v>3</v>
+      </c>
+      <c r="FM2">
+        <v>20</v>
+      </c>
+      <c r="FN2">
+        <v>20</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP2">
+        <v>3</v>
+      </c>
+      <c r="FQ2" t="s">
         <v>260</v>
       </c>
-      <c r="FH2">
-        <v>3</v>
-      </c>
-      <c r="FI2">
-        <v>20</v>
-      </c>
-      <c r="FJ2">
-        <v>20</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL2">
-        <v>3</v>
-      </c>
-      <c r="FM2">
-        <v>20</v>
-      </c>
-      <c r="FN2">
-        <v>20</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP2">
-        <v>3</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>261</v>
-      </c>
       <c r="FR2">
         <v>3</v>
       </c>
       <c r="FS2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT2">
         <v>0</v>
@@ -2606,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="FX2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY2">
         <v>1</v>
@@ -2615,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="GA2" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="GB2">
         <v>50000</v>
@@ -2642,19 +2534,19 @@
         <v>0</v>
       </c>
       <c r="GJ2" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="GK2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="GL2">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GM2">
-        <v>7200</v>
+        <v>22000</v>
       </c>
       <c r="GN2">
-        <v>50000</v>
+        <v>200000</v>
       </c>
       <c r="GO2">
         <v>0.9</v>
@@ -2669,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="GS2" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT2">
         <v>0.05</v>
@@ -2684,40 +2576,22 @@
         <v>8.5</v>
       </c>
       <c r="GX2" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY2" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB2">
-        <v>1</v>
-      </c>
-      <c r="HC2">
-        <v>3600</v>
-      </c>
-      <c r="HD2">
-        <v>3600</v>
-      </c>
-      <c r="HE2">
-        <v>0.95</v>
-      </c>
-      <c r="HF2">
-        <v>0.1</v>
-      </c>
-      <c r="HG2" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH2" t="b">
         <v>0</v>
       </c>
       <c r="HI2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ2">
         <v>0</v>
@@ -2726,49 +2600,49 @@
         <v>0</v>
       </c>
       <c r="HP2" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR2" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS2">
         <v>86400</v>
       </c>
       <c r="HT2" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU2">
         <v>86400</v>
       </c>
       <c r="HV2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW2">
         <v>1</v>
       </c>
       <c r="HX2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY2">
         <v>1</v>
       </c>
       <c r="HZ2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID2" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE2">
         <v>86400</v>
@@ -2788,10 +2662,10 @@
         <v>241</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -2800,7 +2674,7 @@
         <v>2.6</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -2818,7 +2692,7 @@
         <v>251</v>
       </c>
       <c r="P3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2833,40 +2707,40 @@
         <v>9</v>
       </c>
       <c r="U3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V3" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>20</v>
+      </c>
+      <c r="Y3">
+        <v>20</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA3">
+        <v>3</v>
+      </c>
+      <c r="AB3">
+        <v>20</v>
+      </c>
+      <c r="AC3">
+        <v>20</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE3">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="s">
         <v>260</v>
-      </c>
-      <c r="W3">
-        <v>3</v>
-      </c>
-      <c r="X3">
-        <v>20</v>
-      </c>
-      <c r="Y3">
-        <v>20</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA3">
-        <v>3</v>
-      </c>
-      <c r="AB3">
-        <v>20</v>
-      </c>
-      <c r="AC3">
-        <v>20</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE3">
-        <v>3</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>261</v>
       </c>
       <c r="AG3">
         <v>3</v>
@@ -2881,7 +2755,7 @@
         <v>6</v>
       </c>
       <c r="AM3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN3">
         <v>1</v>
@@ -2896,61 +2770,52 @@
         <v>9</v>
       </c>
       <c r="AR3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>20</v>
+      </c>
+      <c r="AV3">
+        <v>20</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX3">
+        <v>3</v>
+      </c>
+      <c r="AY3">
+        <v>20</v>
+      </c>
+      <c r="AZ3">
+        <v>20</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB3">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="s">
         <v>260</v>
       </c>
-      <c r="AT3">
-        <v>3</v>
-      </c>
-      <c r="AU3">
-        <v>20</v>
-      </c>
-      <c r="AV3">
-        <v>20</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX3">
-        <v>3</v>
-      </c>
-      <c r="AY3">
-        <v>20</v>
-      </c>
-      <c r="AZ3">
-        <v>20</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB3">
-        <v>3</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>261</v>
-      </c>
       <c r="BD3">
         <v>3</v>
       </c>
       <c r="BE3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>1</v>
-      </c>
-      <c r="BG3">
-        <v>19500000</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>264</v>
-      </c>
-      <c r="BI3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK3">
         <v>1</v>
@@ -2965,58 +2830,49 @@
         <v>9</v>
       </c>
       <c r="BO3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ3">
+        <v>3</v>
+      </c>
+      <c r="BR3">
+        <v>20</v>
+      </c>
+      <c r="BS3">
+        <v>20</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU3">
+        <v>3</v>
+      </c>
+      <c r="BV3">
+        <v>20</v>
+      </c>
+      <c r="BW3">
+        <v>20</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY3">
+        <v>3</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>260</v>
       </c>
-      <c r="BQ3">
-        <v>3</v>
-      </c>
-      <c r="BR3">
-        <v>20</v>
-      </c>
-      <c r="BS3">
-        <v>20</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU3">
-        <v>3</v>
-      </c>
-      <c r="BV3">
-        <v>20</v>
-      </c>
-      <c r="BW3">
-        <v>20</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY3">
-        <v>3</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>261</v>
-      </c>
       <c r="CA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>1</v>
-      </c>
-      <c r="CC3">
-        <v>3200000</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE3">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG3">
         <v>1</v>
@@ -3031,67 +2887,52 @@
         <v>9</v>
       </c>
       <c r="CK3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM3">
+        <v>3</v>
+      </c>
+      <c r="CN3">
+        <v>20</v>
+      </c>
+      <c r="CO3">
+        <v>20</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ3">
+        <v>3</v>
+      </c>
+      <c r="CR3">
+        <v>20</v>
+      </c>
+      <c r="CS3">
+        <v>20</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU3">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="s">
         <v>260</v>
       </c>
-      <c r="CM3">
-        <v>3</v>
-      </c>
-      <c r="CN3">
-        <v>20</v>
-      </c>
-      <c r="CO3">
-        <v>20</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ3">
-        <v>3</v>
-      </c>
-      <c r="CR3">
-        <v>20</v>
-      </c>
-      <c r="CS3">
-        <v>20</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU3">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>261</v>
-      </c>
       <c r="CW3">
         <v>3</v>
       </c>
       <c r="CX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY3">
-        <v>1</v>
-      </c>
-      <c r="CZ3">
-        <v>5600</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>279</v>
-      </c>
-      <c r="DB3">
-        <v>0</v>
-      </c>
-      <c r="DC3">
-        <v>40</v>
-      </c>
-      <c r="DD3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF3">
         <v>1</v>
@@ -3106,64 +2947,55 @@
         <v>9</v>
       </c>
       <c r="DJ3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK3" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL3">
+        <v>3</v>
+      </c>
+      <c r="DM3">
+        <v>20</v>
+      </c>
+      <c r="DN3">
+        <v>20</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP3">
+        <v>3</v>
+      </c>
+      <c r="DQ3">
+        <v>20</v>
+      </c>
+      <c r="DR3">
+        <v>20</v>
+      </c>
+      <c r="DS3" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT3">
+        <v>3</v>
+      </c>
+      <c r="DU3" t="s">
         <v>260</v>
       </c>
-      <c r="DL3">
-        <v>3</v>
-      </c>
-      <c r="DM3">
-        <v>20</v>
-      </c>
-      <c r="DN3">
-        <v>20</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP3">
-        <v>3</v>
-      </c>
-      <c r="DQ3">
-        <v>20</v>
-      </c>
-      <c r="DR3">
-        <v>20</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT3">
-        <v>3</v>
-      </c>
-      <c r="DU3" t="s">
-        <v>261</v>
-      </c>
       <c r="DV3">
         <v>3</v>
       </c>
       <c r="DW3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>1</v>
-      </c>
-      <c r="DZ3">
-        <v>2900</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>283</v>
-      </c>
-      <c r="EB3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC3" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED3">
         <v>1</v>
@@ -3178,46 +3010,46 @@
         <v>9</v>
       </c>
       <c r="EH3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI3" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ3">
+        <v>3</v>
+      </c>
+      <c r="EK3">
+        <v>20</v>
+      </c>
+      <c r="EL3">
+        <v>20</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN3">
+        <v>3</v>
+      </c>
+      <c r="EO3">
+        <v>20</v>
+      </c>
+      <c r="EP3">
+        <v>20</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER3">
+        <v>3</v>
+      </c>
+      <c r="ES3" t="s">
         <v>260</v>
       </c>
-      <c r="EJ3">
-        <v>3</v>
-      </c>
-      <c r="EK3">
-        <v>20</v>
-      </c>
-      <c r="EL3">
-        <v>20</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN3">
-        <v>3</v>
-      </c>
-      <c r="EO3">
-        <v>20</v>
-      </c>
-      <c r="EP3">
-        <v>20</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER3">
-        <v>3</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>261</v>
-      </c>
       <c r="ET3">
         <v>3</v>
       </c>
       <c r="EU3" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV3">
         <v>0</v>
@@ -3226,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="FA3" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB3">
         <v>1</v>
@@ -3241,46 +3073,46 @@
         <v>9</v>
       </c>
       <c r="FF3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG3" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH3">
+        <v>3</v>
+      </c>
+      <c r="FI3">
+        <v>20</v>
+      </c>
+      <c r="FJ3">
+        <v>20</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL3">
+        <v>3</v>
+      </c>
+      <c r="FM3">
+        <v>20</v>
+      </c>
+      <c r="FN3">
+        <v>20</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP3">
+        <v>3</v>
+      </c>
+      <c r="FQ3" t="s">
         <v>260</v>
       </c>
-      <c r="FH3">
-        <v>3</v>
-      </c>
-      <c r="FI3">
-        <v>20</v>
-      </c>
-      <c r="FJ3">
-        <v>20</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL3">
-        <v>3</v>
-      </c>
-      <c r="FM3">
-        <v>20</v>
-      </c>
-      <c r="FN3">
-        <v>20</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP3">
-        <v>3</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>261</v>
-      </c>
       <c r="FR3">
         <v>3</v>
       </c>
       <c r="FS3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT3">
         <v>0</v>
@@ -3289,16 +3121,16 @@
         <v>0</v>
       </c>
       <c r="FX3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY3">
         <v>1</v>
       </c>
       <c r="FZ3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="GA3" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="GB3">
         <v>75000</v>
@@ -3324,35 +3156,8 @@
       <c r="GI3" t="b">
         <v>0</v>
       </c>
-      <c r="GJ3" t="s">
-        <v>292</v>
-      </c>
-      <c r="GK3">
-        <v>75000</v>
-      </c>
-      <c r="GL3">
-        <v>7200</v>
-      </c>
-      <c r="GM3">
-        <v>11000</v>
-      </c>
-      <c r="GN3">
-        <v>100000</v>
-      </c>
-      <c r="GO3">
-        <v>0.9</v>
-      </c>
-      <c r="GP3">
-        <v>0.8</v>
-      </c>
-      <c r="GQ3" t="b">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="b">
-        <v>0</v>
-      </c>
       <c r="GS3" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT3">
         <v>0.05</v>
@@ -3367,40 +3172,22 @@
         <v>8.5</v>
       </c>
       <c r="GX3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB3">
-        <v>1</v>
-      </c>
-      <c r="HC3">
-        <v>4400</v>
-      </c>
-      <c r="HD3">
-        <v>4400</v>
-      </c>
-      <c r="HE3">
-        <v>0.95</v>
-      </c>
-      <c r="HF3">
-        <v>0.1</v>
-      </c>
-      <c r="HG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="b">
         <v>0</v>
       </c>
       <c r="HI3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ3">
         <v>0</v>
@@ -3409,49 +3196,49 @@
         <v>0</v>
       </c>
       <c r="HP3" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR3" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS3">
         <v>86400</v>
       </c>
       <c r="HT3" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU3">
         <v>86400</v>
       </c>
       <c r="HV3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW3">
         <v>1</v>
       </c>
       <c r="HX3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY3">
         <v>1</v>
       </c>
       <c r="HZ3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC3" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE3">
         <v>86400</v>
@@ -3495,13 +3282,13 @@
         <v>1</v>
       </c>
       <c r="N4">
-        <v>3125000</v>
+        <v>5527000</v>
       </c>
       <c r="O4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -3516,40 +3303,40 @@
         <v>9</v>
       </c>
       <c r="U4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V4" t="s">
+        <v>259</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>20</v>
+      </c>
+      <c r="Y4">
+        <v>20</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA4">
+        <v>3</v>
+      </c>
+      <c r="AB4">
+        <v>20</v>
+      </c>
+      <c r="AC4">
+        <v>20</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE4">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
         <v>260</v>
-      </c>
-      <c r="W4">
-        <v>3</v>
-      </c>
-      <c r="X4">
-        <v>20</v>
-      </c>
-      <c r="Y4">
-        <v>20</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA4">
-        <v>3</v>
-      </c>
-      <c r="AB4">
-        <v>20</v>
-      </c>
-      <c r="AC4">
-        <v>20</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE4">
-        <v>3</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>261</v>
       </c>
       <c r="AG4">
         <v>3</v>
@@ -3564,7 +3351,7 @@
         <v>6</v>
       </c>
       <c r="AM4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN4">
         <v>1</v>
@@ -3579,61 +3366,52 @@
         <v>9</v>
       </c>
       <c r="AR4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT4">
+        <v>3</v>
+      </c>
+      <c r="AU4">
+        <v>20</v>
+      </c>
+      <c r="AV4">
+        <v>20</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>20</v>
+      </c>
+      <c r="AZ4">
+        <v>20</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="s">
         <v>260</v>
       </c>
-      <c r="AT4">
-        <v>3</v>
-      </c>
-      <c r="AU4">
-        <v>20</v>
-      </c>
-      <c r="AV4">
-        <v>20</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX4">
-        <v>3</v>
-      </c>
-      <c r="AY4">
-        <v>20</v>
-      </c>
-      <c r="AZ4">
-        <v>20</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB4">
-        <v>3</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>261</v>
-      </c>
       <c r="BD4">
         <v>3</v>
       </c>
       <c r="BE4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>1</v>
-      </c>
-      <c r="BG4">
-        <v>5500000</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>265</v>
-      </c>
-      <c r="BI4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK4">
         <v>1</v>
@@ -3648,58 +3426,49 @@
         <v>9</v>
       </c>
       <c r="BO4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ4">
+        <v>3</v>
+      </c>
+      <c r="BR4">
+        <v>20</v>
+      </c>
+      <c r="BS4">
+        <v>20</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU4">
+        <v>3</v>
+      </c>
+      <c r="BV4">
+        <v>20</v>
+      </c>
+      <c r="BW4">
+        <v>20</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY4">
+        <v>3</v>
+      </c>
+      <c r="BZ4" t="s">
         <v>260</v>
       </c>
-      <c r="BQ4">
-        <v>3</v>
-      </c>
-      <c r="BR4">
-        <v>20</v>
-      </c>
-      <c r="BS4">
-        <v>20</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU4">
-        <v>3</v>
-      </c>
-      <c r="BV4">
-        <v>20</v>
-      </c>
-      <c r="BW4">
-        <v>20</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY4">
-        <v>3</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>261</v>
-      </c>
       <c r="CA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>2400000</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>274</v>
-      </c>
-      <c r="CE4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG4">
         <v>1</v>
@@ -3714,41 +3483,41 @@
         <v>9</v>
       </c>
       <c r="CK4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM4">
+        <v>3</v>
+      </c>
+      <c r="CN4">
+        <v>20</v>
+      </c>
+      <c r="CO4">
+        <v>20</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ4">
+        <v>3</v>
+      </c>
+      <c r="CR4">
+        <v>20</v>
+      </c>
+      <c r="CS4">
+        <v>20</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU4">
+        <v>3</v>
+      </c>
+      <c r="CV4" t="s">
         <v>260</v>
       </c>
-      <c r="CM4">
-        <v>3</v>
-      </c>
-      <c r="CN4">
-        <v>20</v>
-      </c>
-      <c r="CO4">
-        <v>20</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ4">
-        <v>3</v>
-      </c>
-      <c r="CR4">
-        <v>20</v>
-      </c>
-      <c r="CS4">
-        <v>20</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU4">
-        <v>3</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>261</v>
-      </c>
       <c r="CW4">
         <v>3</v>
       </c>
@@ -3759,10 +3528,10 @@
         <v>1</v>
       </c>
       <c r="CZ4">
-        <v>5600</v>
+        <v>6700</v>
       </c>
       <c r="DA4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB4">
         <v>-20</v>
@@ -3774,7 +3543,7 @@
         <v>1</v>
       </c>
       <c r="DE4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF4">
         <v>1</v>
@@ -3789,64 +3558,55 @@
         <v>9</v>
       </c>
       <c r="DJ4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK4" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL4">
+        <v>3</v>
+      </c>
+      <c r="DM4">
+        <v>20</v>
+      </c>
+      <c r="DN4">
+        <v>20</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP4">
+        <v>3</v>
+      </c>
+      <c r="DQ4">
+        <v>20</v>
+      </c>
+      <c r="DR4">
+        <v>20</v>
+      </c>
+      <c r="DS4" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT4">
+        <v>3</v>
+      </c>
+      <c r="DU4" t="s">
         <v>260</v>
       </c>
-      <c r="DL4">
-        <v>3</v>
-      </c>
-      <c r="DM4">
-        <v>20</v>
-      </c>
-      <c r="DN4">
-        <v>20</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP4">
-        <v>3</v>
-      </c>
-      <c r="DQ4">
-        <v>20</v>
-      </c>
-      <c r="DR4">
-        <v>20</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT4">
-        <v>3</v>
-      </c>
-      <c r="DU4" t="s">
-        <v>261</v>
-      </c>
       <c r="DV4">
         <v>3</v>
       </c>
       <c r="DW4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY4">
-        <v>1</v>
-      </c>
-      <c r="DZ4">
-        <v>2500</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>283</v>
-      </c>
-      <c r="EB4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC4" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED4">
         <v>1</v>
@@ -3861,46 +3621,46 @@
         <v>9</v>
       </c>
       <c r="EH4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI4" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ4">
+        <v>3</v>
+      </c>
+      <c r="EK4">
+        <v>20</v>
+      </c>
+      <c r="EL4">
+        <v>20</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN4">
+        <v>3</v>
+      </c>
+      <c r="EO4">
+        <v>20</v>
+      </c>
+      <c r="EP4">
+        <v>20</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER4">
+        <v>3</v>
+      </c>
+      <c r="ES4" t="s">
         <v>260</v>
       </c>
-      <c r="EJ4">
-        <v>3</v>
-      </c>
-      <c r="EK4">
-        <v>20</v>
-      </c>
-      <c r="EL4">
-        <v>20</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN4">
-        <v>3</v>
-      </c>
-      <c r="EO4">
-        <v>20</v>
-      </c>
-      <c r="EP4">
-        <v>20</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER4">
-        <v>3</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>261</v>
-      </c>
       <c r="ET4">
         <v>3</v>
       </c>
       <c r="EU4" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV4">
         <v>0</v>
@@ -3909,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="FA4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB4">
         <v>1</v>
@@ -3924,46 +3684,46 @@
         <v>9</v>
       </c>
       <c r="FF4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG4" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH4">
+        <v>3</v>
+      </c>
+      <c r="FI4">
+        <v>20</v>
+      </c>
+      <c r="FJ4">
+        <v>20</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL4">
+        <v>3</v>
+      </c>
+      <c r="FM4">
+        <v>20</v>
+      </c>
+      <c r="FN4">
+        <v>20</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP4">
+        <v>3</v>
+      </c>
+      <c r="FQ4" t="s">
         <v>260</v>
       </c>
-      <c r="FH4">
-        <v>3</v>
-      </c>
-      <c r="FI4">
-        <v>20</v>
-      </c>
-      <c r="FJ4">
-        <v>20</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL4">
-        <v>3</v>
-      </c>
-      <c r="FM4">
-        <v>20</v>
-      </c>
-      <c r="FN4">
-        <v>20</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP4">
-        <v>3</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>261</v>
-      </c>
       <c r="FR4">
         <v>3</v>
       </c>
       <c r="FS4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT4">
         <v>0</v>
@@ -3972,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="FX4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY4">
         <v>1</v>
@@ -3981,19 +3741,19 @@
         <v>1</v>
       </c>
       <c r="GA4" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="GB4">
-        <v>75000</v>
+        <v>100000</v>
       </c>
       <c r="GC4">
-        <v>7200</v>
+        <v>11000</v>
       </c>
       <c r="GD4">
-        <v>11000</v>
+        <v>22000</v>
       </c>
       <c r="GE4">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="GF4">
         <v>0.9</v>
@@ -4008,7 +3768,7 @@
         <v>0</v>
       </c>
       <c r="GS4" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT4">
         <v>0.05</v>
@@ -4023,13 +3783,13 @@
         <v>8.5</v>
       </c>
       <c r="GX4" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY4" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA4">
         <v>1</v>
@@ -4038,10 +3798,10 @@
         <v>1</v>
       </c>
       <c r="HC4">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="HD4">
-        <v>3100</v>
+        <v>5500</v>
       </c>
       <c r="HE4">
         <v>0.95</v>
@@ -4056,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="HI4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ4">
         <v>0</v>
@@ -4065,49 +3825,49 @@
         <v>0</v>
       </c>
       <c r="HP4" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR4" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS4">
         <v>86400</v>
       </c>
       <c r="HT4" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU4">
         <v>86400</v>
       </c>
       <c r="HV4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW4">
         <v>1</v>
       </c>
       <c r="HX4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY4">
         <v>1</v>
       </c>
       <c r="HZ4" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC4" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID4" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE4">
         <v>86400</v>
@@ -4151,13 +3911,13 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>2012000</v>
+        <v>4402000</v>
       </c>
       <c r="O5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q5">
         <v>1</v>
@@ -4172,40 +3932,40 @@
         <v>9</v>
       </c>
       <c r="U5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V5" t="s">
+        <v>259</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>20</v>
+      </c>
+      <c r="Y5">
+        <v>20</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA5">
+        <v>3</v>
+      </c>
+      <c r="AB5">
+        <v>20</v>
+      </c>
+      <c r="AC5">
+        <v>20</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
         <v>260</v>
-      </c>
-      <c r="W5">
-        <v>3</v>
-      </c>
-      <c r="X5">
-        <v>20</v>
-      </c>
-      <c r="Y5">
-        <v>20</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA5">
-        <v>3</v>
-      </c>
-      <c r="AB5">
-        <v>20</v>
-      </c>
-      <c r="AC5">
-        <v>20</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE5">
-        <v>3</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>261</v>
       </c>
       <c r="AG5">
         <v>3</v>
@@ -4220,7 +3980,7 @@
         <v>6</v>
       </c>
       <c r="AM5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN5">
         <v>1</v>
@@ -4235,61 +3995,52 @@
         <v>9</v>
       </c>
       <c r="AR5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>20</v>
+      </c>
+      <c r="AV5">
+        <v>20</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>20</v>
+      </c>
+      <c r="AZ5">
+        <v>20</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="s">
         <v>260</v>
       </c>
-      <c r="AT5">
-        <v>3</v>
-      </c>
-      <c r="AU5">
-        <v>20</v>
-      </c>
-      <c r="AV5">
-        <v>20</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX5">
-        <v>3</v>
-      </c>
-      <c r="AY5">
-        <v>20</v>
-      </c>
-      <c r="AZ5">
-        <v>20</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB5">
-        <v>3</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>261</v>
-      </c>
       <c r="BD5">
         <v>3</v>
       </c>
       <c r="BE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>1</v>
-      </c>
-      <c r="BG5">
-        <v>5500000</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>266</v>
-      </c>
-      <c r="BI5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK5">
         <v>1</v>
@@ -4304,58 +4055,49 @@
         <v>9</v>
       </c>
       <c r="BO5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ5">
+        <v>3</v>
+      </c>
+      <c r="BR5">
+        <v>20</v>
+      </c>
+      <c r="BS5">
+        <v>20</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU5">
+        <v>3</v>
+      </c>
+      <c r="BV5">
+        <v>20</v>
+      </c>
+      <c r="BW5">
+        <v>20</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY5">
+        <v>3</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>260</v>
       </c>
-      <c r="BQ5">
-        <v>3</v>
-      </c>
-      <c r="BR5">
-        <v>20</v>
-      </c>
-      <c r="BS5">
-        <v>20</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU5">
-        <v>3</v>
-      </c>
-      <c r="BV5">
-        <v>20</v>
-      </c>
-      <c r="BW5">
-        <v>20</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY5">
-        <v>3</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>261</v>
-      </c>
       <c r="CA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>1</v>
-      </c>
-      <c r="CC5">
-        <v>2100000</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE5">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG5">
         <v>1</v>
@@ -4370,41 +4112,41 @@
         <v>9</v>
       </c>
       <c r="CK5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL5" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM5">
+        <v>3</v>
+      </c>
+      <c r="CN5">
+        <v>20</v>
+      </c>
+      <c r="CO5">
+        <v>20</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ5">
+        <v>3</v>
+      </c>
+      <c r="CR5">
+        <v>20</v>
+      </c>
+      <c r="CS5">
+        <v>20</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU5">
+        <v>3</v>
+      </c>
+      <c r="CV5" t="s">
         <v>260</v>
       </c>
-      <c r="CM5">
-        <v>3</v>
-      </c>
-      <c r="CN5">
-        <v>20</v>
-      </c>
-      <c r="CO5">
-        <v>20</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ5">
-        <v>3</v>
-      </c>
-      <c r="CR5">
-        <v>20</v>
-      </c>
-      <c r="CS5">
-        <v>20</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU5">
-        <v>3</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>261</v>
-      </c>
       <c r="CW5">
         <v>3</v>
       </c>
@@ -4415,10 +4157,10 @@
         <v>1</v>
       </c>
       <c r="CZ5">
-        <v>3100</v>
+        <v>5700</v>
       </c>
       <c r="DA5" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB5">
         <v>0</v>
@@ -4430,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="DE5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF5">
         <v>1</v>
@@ -4445,64 +4187,55 @@
         <v>9</v>
       </c>
       <c r="DJ5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK5" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL5">
+        <v>3</v>
+      </c>
+      <c r="DM5">
+        <v>20</v>
+      </c>
+      <c r="DN5">
+        <v>20</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP5">
+        <v>3</v>
+      </c>
+      <c r="DQ5">
+        <v>20</v>
+      </c>
+      <c r="DR5">
+        <v>20</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT5">
+        <v>3</v>
+      </c>
+      <c r="DU5" t="s">
         <v>260</v>
       </c>
-      <c r="DL5">
-        <v>3</v>
-      </c>
-      <c r="DM5">
-        <v>20</v>
-      </c>
-      <c r="DN5">
-        <v>20</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP5">
-        <v>3</v>
-      </c>
-      <c r="DQ5">
-        <v>20</v>
-      </c>
-      <c r="DR5">
-        <v>20</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT5">
-        <v>3</v>
-      </c>
-      <c r="DU5" t="s">
-        <v>261</v>
-      </c>
       <c r="DV5">
         <v>3</v>
       </c>
       <c r="DW5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>1</v>
-      </c>
-      <c r="DZ5">
-        <v>1200</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>284</v>
-      </c>
-      <c r="EB5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED5">
         <v>1</v>
@@ -4517,46 +4250,46 @@
         <v>9</v>
       </c>
       <c r="EH5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI5" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ5">
+        <v>3</v>
+      </c>
+      <c r="EK5">
+        <v>20</v>
+      </c>
+      <c r="EL5">
+        <v>20</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN5">
+        <v>3</v>
+      </c>
+      <c r="EO5">
+        <v>20</v>
+      </c>
+      <c r="EP5">
+        <v>20</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER5">
+        <v>3</v>
+      </c>
+      <c r="ES5" t="s">
         <v>260</v>
       </c>
-      <c r="EJ5">
-        <v>3</v>
-      </c>
-      <c r="EK5">
-        <v>20</v>
-      </c>
-      <c r="EL5">
-        <v>20</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN5">
-        <v>3</v>
-      </c>
-      <c r="EO5">
-        <v>20</v>
-      </c>
-      <c r="EP5">
-        <v>20</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER5">
-        <v>3</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>261</v>
-      </c>
       <c r="ET5">
         <v>3</v>
       </c>
       <c r="EU5" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV5">
         <v>0</v>
@@ -4565,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="FA5" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB5">
         <v>1</v>
@@ -4580,46 +4313,46 @@
         <v>9</v>
       </c>
       <c r="FF5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG5" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH5">
+        <v>3</v>
+      </c>
+      <c r="FI5">
+        <v>20</v>
+      </c>
+      <c r="FJ5">
+        <v>20</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL5">
+        <v>3</v>
+      </c>
+      <c r="FM5">
+        <v>20</v>
+      </c>
+      <c r="FN5">
+        <v>20</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP5">
+        <v>3</v>
+      </c>
+      <c r="FQ5" t="s">
         <v>260</v>
       </c>
-      <c r="FH5">
-        <v>3</v>
-      </c>
-      <c r="FI5">
-        <v>20</v>
-      </c>
-      <c r="FJ5">
-        <v>20</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL5">
-        <v>3</v>
-      </c>
-      <c r="FM5">
-        <v>20</v>
-      </c>
-      <c r="FN5">
-        <v>20</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP5">
-        <v>3</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>261</v>
-      </c>
       <c r="FR5">
         <v>3</v>
       </c>
       <c r="FS5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT5">
         <v>0</v>
@@ -4628,43 +4361,16 @@
         <v>0</v>
       </c>
       <c r="FX5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>1</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>290</v>
-      </c>
-      <c r="GB5">
-        <v>50000</v>
-      </c>
-      <c r="GC5">
-        <v>7200</v>
-      </c>
-      <c r="GD5">
-        <v>7200</v>
-      </c>
-      <c r="GE5">
-        <v>50000</v>
-      </c>
-      <c r="GF5">
-        <v>0.9</v>
-      </c>
-      <c r="GG5">
-        <v>0.8</v>
-      </c>
-      <c r="GH5" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI5" t="b">
         <v>0</v>
       </c>
       <c r="GS5" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT5">
         <v>0.05</v>
@@ -4679,40 +4385,22 @@
         <v>8.5</v>
       </c>
       <c r="GX5" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY5" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB5">
-        <v>1</v>
-      </c>
-      <c r="HC5">
-        <v>2000</v>
-      </c>
-      <c r="HD5">
-        <v>2000</v>
-      </c>
-      <c r="HE5">
-        <v>0.95</v>
-      </c>
-      <c r="HF5">
-        <v>0.1</v>
-      </c>
-      <c r="HG5" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="b">
         <v>0</v>
       </c>
       <c r="HI5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ5">
         <v>0</v>
@@ -4721,49 +4409,49 @@
         <v>0</v>
       </c>
       <c r="HP5" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ5" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR5" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS5">
         <v>86400</v>
       </c>
       <c r="HT5" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU5">
         <v>86400</v>
       </c>
       <c r="HV5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW5">
         <v>1</v>
       </c>
       <c r="HX5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY5">
         <v>1</v>
       </c>
       <c r="HZ5" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID5" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE5">
         <v>86400</v>
@@ -4807,13 +4495,13 @@
         <v>1</v>
       </c>
       <c r="N6">
-        <v>5527000</v>
+        <v>2959000</v>
       </c>
       <c r="O6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -4828,40 +4516,40 @@
         <v>9</v>
       </c>
       <c r="U6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V6" t="s">
+        <v>259</v>
+      </c>
+      <c r="W6">
+        <v>3</v>
+      </c>
+      <c r="X6">
+        <v>20</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA6">
+        <v>3</v>
+      </c>
+      <c r="AB6">
+        <v>20</v>
+      </c>
+      <c r="AC6">
+        <v>20</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
         <v>260</v>
-      </c>
-      <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
-        <v>20</v>
-      </c>
-      <c r="Y6">
-        <v>20</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA6">
-        <v>3</v>
-      </c>
-      <c r="AB6">
-        <v>20</v>
-      </c>
-      <c r="AC6">
-        <v>20</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE6">
-        <v>3</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>261</v>
       </c>
       <c r="AG6">
         <v>3</v>
@@ -4876,7 +4564,7 @@
         <v>6</v>
       </c>
       <c r="AM6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN6">
         <v>1</v>
@@ -4891,61 +4579,52 @@
         <v>9</v>
       </c>
       <c r="AR6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT6">
+        <v>3</v>
+      </c>
+      <c r="AU6">
+        <v>20</v>
+      </c>
+      <c r="AV6">
+        <v>20</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX6">
+        <v>3</v>
+      </c>
+      <c r="AY6">
+        <v>20</v>
+      </c>
+      <c r="AZ6">
+        <v>20</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB6">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="s">
         <v>260</v>
       </c>
-      <c r="AT6">
-        <v>3</v>
-      </c>
-      <c r="AU6">
-        <v>20</v>
-      </c>
-      <c r="AV6">
-        <v>20</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX6">
-        <v>3</v>
-      </c>
-      <c r="AY6">
-        <v>20</v>
-      </c>
-      <c r="AZ6">
-        <v>20</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB6">
-        <v>3</v>
-      </c>
-      <c r="BC6" t="s">
-        <v>261</v>
-      </c>
       <c r="BD6">
         <v>3</v>
       </c>
       <c r="BE6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>1</v>
-      </c>
-      <c r="BG6">
-        <v>5500000</v>
-      </c>
-      <c r="BH6" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK6">
         <v>1</v>
@@ -4960,58 +4639,49 @@
         <v>9</v>
       </c>
       <c r="BO6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ6">
+        <v>3</v>
+      </c>
+      <c r="BR6">
+        <v>20</v>
+      </c>
+      <c r="BS6">
+        <v>20</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU6">
+        <v>3</v>
+      </c>
+      <c r="BV6">
+        <v>20</v>
+      </c>
+      <c r="BW6">
+        <v>20</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY6">
+        <v>3</v>
+      </c>
+      <c r="BZ6" t="s">
         <v>260</v>
       </c>
-      <c r="BQ6">
-        <v>3</v>
-      </c>
-      <c r="BR6">
-        <v>20</v>
-      </c>
-      <c r="BS6">
-        <v>20</v>
-      </c>
-      <c r="BT6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU6">
-        <v>3</v>
-      </c>
-      <c r="BV6">
-        <v>20</v>
-      </c>
-      <c r="BW6">
-        <v>20</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY6">
-        <v>3</v>
-      </c>
-      <c r="BZ6" t="s">
-        <v>261</v>
-      </c>
       <c r="CA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>1</v>
-      </c>
-      <c r="CC6">
-        <v>2100000</v>
-      </c>
-      <c r="CD6" t="s">
-        <v>276</v>
-      </c>
-      <c r="CE6">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG6">
         <v>1</v>
@@ -5026,41 +4696,41 @@
         <v>9</v>
       </c>
       <c r="CK6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL6" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM6">
+        <v>3</v>
+      </c>
+      <c r="CN6">
+        <v>20</v>
+      </c>
+      <c r="CO6">
+        <v>20</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ6">
+        <v>3</v>
+      </c>
+      <c r="CR6">
+        <v>20</v>
+      </c>
+      <c r="CS6">
+        <v>20</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU6">
+        <v>3</v>
+      </c>
+      <c r="CV6" t="s">
         <v>260</v>
       </c>
-      <c r="CM6">
-        <v>3</v>
-      </c>
-      <c r="CN6">
-        <v>20</v>
-      </c>
-      <c r="CO6">
-        <v>20</v>
-      </c>
-      <c r="CP6" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ6">
-        <v>3</v>
-      </c>
-      <c r="CR6">
-        <v>20</v>
-      </c>
-      <c r="CS6">
-        <v>20</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU6">
-        <v>3</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>261</v>
-      </c>
       <c r="CW6">
         <v>3</v>
       </c>
@@ -5071,10 +4741,10 @@
         <v>1</v>
       </c>
       <c r="CZ6">
-        <v>6700</v>
+        <v>4500</v>
       </c>
       <c r="DA6" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB6">
         <v>0</v>
@@ -5086,7 +4756,7 @@
         <v>1</v>
       </c>
       <c r="DE6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF6">
         <v>1</v>
@@ -5101,64 +4771,55 @@
         <v>9</v>
       </c>
       <c r="DJ6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK6" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL6">
+        <v>3</v>
+      </c>
+      <c r="DM6">
+        <v>20</v>
+      </c>
+      <c r="DN6">
+        <v>20</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP6">
+        <v>3</v>
+      </c>
+      <c r="DQ6">
+        <v>20</v>
+      </c>
+      <c r="DR6">
+        <v>20</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT6">
+        <v>3</v>
+      </c>
+      <c r="DU6" t="s">
         <v>260</v>
       </c>
-      <c r="DL6">
-        <v>3</v>
-      </c>
-      <c r="DM6">
-        <v>20</v>
-      </c>
-      <c r="DN6">
-        <v>20</v>
-      </c>
-      <c r="DO6" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP6">
-        <v>3</v>
-      </c>
-      <c r="DQ6">
-        <v>20</v>
-      </c>
-      <c r="DR6">
-        <v>20</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT6">
-        <v>3</v>
-      </c>
-      <c r="DU6" t="s">
-        <v>261</v>
-      </c>
       <c r="DV6">
         <v>3</v>
       </c>
       <c r="DW6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>1</v>
-      </c>
-      <c r="DZ6">
-        <v>3900</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>284</v>
-      </c>
-      <c r="EB6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC6" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED6">
         <v>1</v>
@@ -5173,46 +4834,46 @@
         <v>9</v>
       </c>
       <c r="EH6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI6" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ6">
+        <v>3</v>
+      </c>
+      <c r="EK6">
+        <v>20</v>
+      </c>
+      <c r="EL6">
+        <v>20</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN6">
+        <v>3</v>
+      </c>
+      <c r="EO6">
+        <v>20</v>
+      </c>
+      <c r="EP6">
+        <v>20</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER6">
+        <v>3</v>
+      </c>
+      <c r="ES6" t="s">
         <v>260</v>
       </c>
-      <c r="EJ6">
-        <v>3</v>
-      </c>
-      <c r="EK6">
-        <v>20</v>
-      </c>
-      <c r="EL6">
-        <v>20</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN6">
-        <v>3</v>
-      </c>
-      <c r="EO6">
-        <v>20</v>
-      </c>
-      <c r="EP6">
-        <v>20</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER6">
-        <v>3</v>
-      </c>
-      <c r="ES6" t="s">
-        <v>261</v>
-      </c>
       <c r="ET6">
         <v>3</v>
       </c>
       <c r="EU6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV6">
         <v>0</v>
@@ -5221,7 +4882,7 @@
         <v>0</v>
       </c>
       <c r="FA6" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB6">
         <v>1</v>
@@ -5236,46 +4897,46 @@
         <v>9</v>
       </c>
       <c r="FF6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG6" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH6">
+        <v>3</v>
+      </c>
+      <c r="FI6">
+        <v>20</v>
+      </c>
+      <c r="FJ6">
+        <v>20</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL6">
+        <v>3</v>
+      </c>
+      <c r="FM6">
+        <v>20</v>
+      </c>
+      <c r="FN6">
+        <v>20</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP6">
+        <v>3</v>
+      </c>
+      <c r="FQ6" t="s">
         <v>260</v>
       </c>
-      <c r="FH6">
-        <v>3</v>
-      </c>
-      <c r="FI6">
-        <v>20</v>
-      </c>
-      <c r="FJ6">
-        <v>20</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL6">
-        <v>3</v>
-      </c>
-      <c r="FM6">
-        <v>20</v>
-      </c>
-      <c r="FN6">
-        <v>20</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP6">
-        <v>3</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>261</v>
-      </c>
       <c r="FR6">
         <v>3</v>
       </c>
       <c r="FS6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT6">
         <v>0</v>
@@ -5284,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="FX6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY6">
         <v>1</v>
@@ -5293,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="GA6" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="GB6">
         <v>50000</v>
@@ -5320,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="GS6" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT6">
         <v>0.05</v>
@@ -5335,13 +4996,13 @@
         <v>8.5</v>
       </c>
       <c r="GX6" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY6" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA6">
         <v>1</v>
@@ -5350,10 +5011,10 @@
         <v>1</v>
       </c>
       <c r="HC6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="HD6">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="HE6">
         <v>0.95</v>
@@ -5368,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="HI6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ6">
         <v>0</v>
@@ -5377,49 +5038,49 @@
         <v>0</v>
       </c>
       <c r="HP6" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR6" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS6">
         <v>86400</v>
       </c>
       <c r="HT6" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU6">
         <v>86400</v>
       </c>
       <c r="HV6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW6">
         <v>1</v>
       </c>
       <c r="HX6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY6">
         <v>1</v>
       </c>
       <c r="HZ6" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC6" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID6" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE6">
         <v>86400</v>
@@ -5463,13 +5124,13 @@
         <v>1</v>
       </c>
       <c r="N7">
-        <v>4536000</v>
+        <v>3296000</v>
       </c>
       <c r="O7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q7">
         <v>1</v>
@@ -5484,40 +5145,40 @@
         <v>9</v>
       </c>
       <c r="U7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V7" t="s">
+        <v>259</v>
+      </c>
+      <c r="W7">
+        <v>3</v>
+      </c>
+      <c r="X7">
+        <v>20</v>
+      </c>
+      <c r="Y7">
+        <v>20</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>20</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE7">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
         <v>260</v>
-      </c>
-      <c r="W7">
-        <v>3</v>
-      </c>
-      <c r="X7">
-        <v>20</v>
-      </c>
-      <c r="Y7">
-        <v>20</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA7">
-        <v>3</v>
-      </c>
-      <c r="AB7">
-        <v>20</v>
-      </c>
-      <c r="AC7">
-        <v>20</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE7">
-        <v>3</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>261</v>
       </c>
       <c r="AG7">
         <v>3</v>
@@ -5532,7 +5193,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN7">
         <v>1</v>
@@ -5547,61 +5208,52 @@
         <v>9</v>
       </c>
       <c r="AR7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT7">
+        <v>3</v>
+      </c>
+      <c r="AU7">
+        <v>20</v>
+      </c>
+      <c r="AV7">
+        <v>20</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>20</v>
+      </c>
+      <c r="AZ7">
+        <v>20</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB7">
+        <v>3</v>
+      </c>
+      <c r="BC7" t="s">
         <v>260</v>
       </c>
-      <c r="AT7">
-        <v>3</v>
-      </c>
-      <c r="AU7">
-        <v>20</v>
-      </c>
-      <c r="AV7">
-        <v>20</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX7">
-        <v>3</v>
-      </c>
-      <c r="AY7">
-        <v>20</v>
-      </c>
-      <c r="AZ7">
-        <v>20</v>
-      </c>
-      <c r="BA7" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB7">
-        <v>3</v>
-      </c>
-      <c r="BC7" t="s">
-        <v>261</v>
-      </c>
       <c r="BD7">
         <v>3</v>
       </c>
       <c r="BE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF7">
-        <v>1</v>
-      </c>
-      <c r="BG7">
-        <v>19500000</v>
-      </c>
-      <c r="BH7" t="s">
-        <v>268</v>
-      </c>
-      <c r="BI7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK7">
         <v>1</v>
@@ -5616,58 +5268,49 @@
         <v>9</v>
       </c>
       <c r="BO7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ7">
+        <v>3</v>
+      </c>
+      <c r="BR7">
+        <v>20</v>
+      </c>
+      <c r="BS7">
+        <v>20</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU7">
+        <v>3</v>
+      </c>
+      <c r="BV7">
+        <v>20</v>
+      </c>
+      <c r="BW7">
+        <v>20</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY7">
+        <v>3</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>260</v>
       </c>
-      <c r="BQ7">
-        <v>3</v>
-      </c>
-      <c r="BR7">
-        <v>20</v>
-      </c>
-      <c r="BS7">
-        <v>20</v>
-      </c>
-      <c r="BT7" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU7">
-        <v>3</v>
-      </c>
-      <c r="BV7">
-        <v>20</v>
-      </c>
-      <c r="BW7">
-        <v>20</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY7">
-        <v>3</v>
-      </c>
-      <c r="BZ7" t="s">
-        <v>261</v>
-      </c>
       <c r="CA7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB7">
-        <v>1</v>
-      </c>
-      <c r="CC7">
-        <v>2400000</v>
-      </c>
-      <c r="CD7" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE7">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG7">
         <v>1</v>
@@ -5682,41 +5325,41 @@
         <v>9</v>
       </c>
       <c r="CK7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL7" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM7">
+        <v>3</v>
+      </c>
+      <c r="CN7">
+        <v>20</v>
+      </c>
+      <c r="CO7">
+        <v>20</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ7">
+        <v>3</v>
+      </c>
+      <c r="CR7">
+        <v>20</v>
+      </c>
+      <c r="CS7">
+        <v>20</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU7">
+        <v>3</v>
+      </c>
+      <c r="CV7" t="s">
         <v>260</v>
       </c>
-      <c r="CM7">
-        <v>3</v>
-      </c>
-      <c r="CN7">
-        <v>20</v>
-      </c>
-      <c r="CO7">
-        <v>20</v>
-      </c>
-      <c r="CP7" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ7">
-        <v>3</v>
-      </c>
-      <c r="CR7">
-        <v>20</v>
-      </c>
-      <c r="CS7">
-        <v>20</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU7">
-        <v>3</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>261</v>
-      </c>
       <c r="CW7">
         <v>3</v>
       </c>
@@ -5727,10 +5370,10 @@
         <v>1</v>
       </c>
       <c r="CZ7">
-        <v>8100</v>
+        <v>5000</v>
       </c>
       <c r="DA7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB7">
         <v>0</v>
@@ -5742,7 +5385,7 @@
         <v>1</v>
       </c>
       <c r="DE7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF7">
         <v>1</v>
@@ -5757,64 +5400,55 @@
         <v>9</v>
       </c>
       <c r="DJ7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK7" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL7">
+        <v>3</v>
+      </c>
+      <c r="DM7">
+        <v>20</v>
+      </c>
+      <c r="DN7">
+        <v>20</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP7">
+        <v>3</v>
+      </c>
+      <c r="DQ7">
+        <v>20</v>
+      </c>
+      <c r="DR7">
+        <v>20</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT7">
+        <v>3</v>
+      </c>
+      <c r="DU7" t="s">
         <v>260</v>
       </c>
-      <c r="DL7">
-        <v>3</v>
-      </c>
-      <c r="DM7">
-        <v>20</v>
-      </c>
-      <c r="DN7">
-        <v>20</v>
-      </c>
-      <c r="DO7" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP7">
-        <v>3</v>
-      </c>
-      <c r="DQ7">
-        <v>20</v>
-      </c>
-      <c r="DR7">
-        <v>20</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT7">
-        <v>3</v>
-      </c>
-      <c r="DU7" t="s">
-        <v>261</v>
-      </c>
       <c r="DV7">
         <v>3</v>
       </c>
       <c r="DW7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY7">
-        <v>1</v>
-      </c>
-      <c r="DZ7">
-        <v>2000</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>285</v>
-      </c>
-      <c r="EB7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED7">
         <v>1</v>
@@ -5829,46 +5463,46 @@
         <v>9</v>
       </c>
       <c r="EH7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI7" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ7">
+        <v>3</v>
+      </c>
+      <c r="EK7">
+        <v>20</v>
+      </c>
+      <c r="EL7">
+        <v>20</v>
+      </c>
+      <c r="EM7" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN7">
+        <v>3</v>
+      </c>
+      <c r="EO7">
+        <v>20</v>
+      </c>
+      <c r="EP7">
+        <v>20</v>
+      </c>
+      <c r="EQ7" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER7">
+        <v>3</v>
+      </c>
+      <c r="ES7" t="s">
         <v>260</v>
       </c>
-      <c r="EJ7">
-        <v>3</v>
-      </c>
-      <c r="EK7">
-        <v>20</v>
-      </c>
-      <c r="EL7">
-        <v>20</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN7">
-        <v>3</v>
-      </c>
-      <c r="EO7">
-        <v>20</v>
-      </c>
-      <c r="EP7">
-        <v>20</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER7">
-        <v>3</v>
-      </c>
-      <c r="ES7" t="s">
-        <v>261</v>
-      </c>
       <c r="ET7">
         <v>3</v>
       </c>
       <c r="EU7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV7">
         <v>0</v>
@@ -5877,7 +5511,7 @@
         <v>0</v>
       </c>
       <c r="FA7" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB7">
         <v>1</v>
@@ -5892,46 +5526,46 @@
         <v>9</v>
       </c>
       <c r="FF7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG7" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH7">
+        <v>3</v>
+      </c>
+      <c r="FI7">
+        <v>20</v>
+      </c>
+      <c r="FJ7">
+        <v>20</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL7">
+        <v>3</v>
+      </c>
+      <c r="FM7">
+        <v>20</v>
+      </c>
+      <c r="FN7">
+        <v>20</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP7">
+        <v>3</v>
+      </c>
+      <c r="FQ7" t="s">
         <v>260</v>
       </c>
-      <c r="FH7">
-        <v>3</v>
-      </c>
-      <c r="FI7">
-        <v>20</v>
-      </c>
-      <c r="FJ7">
-        <v>20</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL7">
-        <v>3</v>
-      </c>
-      <c r="FM7">
-        <v>20</v>
-      </c>
-      <c r="FN7">
-        <v>20</v>
-      </c>
-      <c r="FO7" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP7">
-        <v>3</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>261</v>
-      </c>
       <c r="FR7">
         <v>3</v>
       </c>
       <c r="FS7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT7">
         <v>0</v>
@@ -5940,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="FX7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY7">
         <v>1</v>
@@ -5949,19 +5583,19 @@
         <v>1</v>
       </c>
       <c r="GA7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="GB7">
+        <v>75000</v>
+      </c>
+      <c r="GC7">
+        <v>7200</v>
+      </c>
+      <c r="GD7">
+        <v>11000</v>
+      </c>
+      <c r="GE7">
         <v>100000</v>
-      </c>
-      <c r="GC7">
-        <v>11000</v>
-      </c>
-      <c r="GD7">
-        <v>22000</v>
-      </c>
-      <c r="GE7">
-        <v>200000</v>
       </c>
       <c r="GF7">
         <v>0.9</v>
@@ -5976,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="GS7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT7">
         <v>0.05</v>
@@ -5991,13 +5625,13 @@
         <v>8.5</v>
       </c>
       <c r="GX7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY7" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA7">
         <v>1</v>
@@ -6006,10 +5640,10 @@
         <v>1</v>
       </c>
       <c r="HC7">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="HD7">
-        <v>4500</v>
+        <v>3300</v>
       </c>
       <c r="HE7">
         <v>0.95</v>
@@ -6024,7 +5658,7 @@
         <v>0</v>
       </c>
       <c r="HI7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ7">
         <v>0</v>
@@ -6033,49 +5667,49 @@
         <v>0</v>
       </c>
       <c r="HP7" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR7" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS7">
         <v>86400</v>
       </c>
       <c r="HT7" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU7">
         <v>86400</v>
       </c>
       <c r="HV7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW7">
         <v>1</v>
       </c>
       <c r="HX7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY7">
         <v>1</v>
       </c>
       <c r="HZ7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC7" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID7" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE7">
         <v>86400</v>
@@ -6119,13 +5753,13 @@
         <v>1</v>
       </c>
       <c r="N8">
-        <v>3863000</v>
+        <v>3125000</v>
       </c>
       <c r="O8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -6140,40 +5774,40 @@
         <v>9</v>
       </c>
       <c r="U8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V8" t="s">
+        <v>259</v>
+      </c>
+      <c r="W8">
+        <v>3</v>
+      </c>
+      <c r="X8">
+        <v>20</v>
+      </c>
+      <c r="Y8">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>20</v>
+      </c>
+      <c r="AC8">
+        <v>20</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
         <v>260</v>
-      </c>
-      <c r="W8">
-        <v>3</v>
-      </c>
-      <c r="X8">
-        <v>20</v>
-      </c>
-      <c r="Y8">
-        <v>20</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>20</v>
-      </c>
-      <c r="AC8">
-        <v>20</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE8">
-        <v>3</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>261</v>
       </c>
       <c r="AG8">
         <v>3</v>
@@ -6188,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="AM8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN8">
         <v>1</v>
@@ -6203,61 +5837,52 @@
         <v>9</v>
       </c>
       <c r="AR8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8">
+        <v>20</v>
+      </c>
+      <c r="AV8">
+        <v>20</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX8">
+        <v>3</v>
+      </c>
+      <c r="AY8">
+        <v>20</v>
+      </c>
+      <c r="AZ8">
+        <v>20</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB8">
+        <v>3</v>
+      </c>
+      <c r="BC8" t="s">
         <v>260</v>
       </c>
-      <c r="AT8">
-        <v>3</v>
-      </c>
-      <c r="AU8">
-        <v>20</v>
-      </c>
-      <c r="AV8">
-        <v>20</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX8">
-        <v>3</v>
-      </c>
-      <c r="AY8">
-        <v>20</v>
-      </c>
-      <c r="AZ8">
-        <v>20</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB8">
-        <v>3</v>
-      </c>
-      <c r="BC8" t="s">
-        <v>261</v>
-      </c>
       <c r="BD8">
         <v>3</v>
       </c>
       <c r="BE8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF8">
-        <v>1</v>
-      </c>
-      <c r="BG8">
-        <v>5500000</v>
-      </c>
-      <c r="BH8" t="s">
-        <v>269</v>
-      </c>
-      <c r="BI8">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BJ8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK8">
         <v>1</v>
@@ -6272,58 +5897,49 @@
         <v>9</v>
       </c>
       <c r="BO8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ8">
+        <v>3</v>
+      </c>
+      <c r="BR8">
+        <v>20</v>
+      </c>
+      <c r="BS8">
+        <v>20</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU8">
+        <v>3</v>
+      </c>
+      <c r="BV8">
+        <v>20</v>
+      </c>
+      <c r="BW8">
+        <v>20</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY8">
+        <v>3</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>260</v>
       </c>
-      <c r="BQ8">
-        <v>3</v>
-      </c>
-      <c r="BR8">
-        <v>20</v>
-      </c>
-      <c r="BS8">
-        <v>20</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU8">
-        <v>3</v>
-      </c>
-      <c r="BV8">
-        <v>20</v>
-      </c>
-      <c r="BW8">
-        <v>20</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY8">
-        <v>3</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>261</v>
-      </c>
       <c r="CA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB8">
-        <v>1</v>
-      </c>
-      <c r="CC8">
-        <v>2100000</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>277</v>
-      </c>
-      <c r="CE8">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG8">
         <v>1</v>
@@ -6338,67 +5954,52 @@
         <v>9</v>
       </c>
       <c r="CK8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL8" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM8">
+        <v>3</v>
+      </c>
+      <c r="CN8">
+        <v>20</v>
+      </c>
+      <c r="CO8">
+        <v>20</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ8">
+        <v>3</v>
+      </c>
+      <c r="CR8">
+        <v>20</v>
+      </c>
+      <c r="CS8">
+        <v>20</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU8">
+        <v>3</v>
+      </c>
+      <c r="CV8" t="s">
         <v>260</v>
       </c>
-      <c r="CM8">
-        <v>3</v>
-      </c>
-      <c r="CN8">
-        <v>20</v>
-      </c>
-      <c r="CO8">
-        <v>20</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ8">
-        <v>3</v>
-      </c>
-      <c r="CR8">
-        <v>20</v>
-      </c>
-      <c r="CS8">
-        <v>20</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU8">
-        <v>3</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>261</v>
-      </c>
       <c r="CW8">
         <v>3</v>
       </c>
       <c r="CX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CY8">
-        <v>1</v>
-      </c>
-      <c r="CZ8">
-        <v>5000</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>279</v>
-      </c>
-      <c r="DB8">
-        <v>0</v>
-      </c>
-      <c r="DC8">
-        <v>40</v>
-      </c>
-      <c r="DD8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF8">
         <v>1</v>
@@ -6413,64 +6014,55 @@
         <v>9</v>
       </c>
       <c r="DJ8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK8" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL8">
+        <v>3</v>
+      </c>
+      <c r="DM8">
+        <v>20</v>
+      </c>
+      <c r="DN8">
+        <v>20</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP8">
+        <v>3</v>
+      </c>
+      <c r="DQ8">
+        <v>20</v>
+      </c>
+      <c r="DR8">
+        <v>20</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT8">
+        <v>3</v>
+      </c>
+      <c r="DU8" t="s">
         <v>260</v>
       </c>
-      <c r="DL8">
-        <v>3</v>
-      </c>
-      <c r="DM8">
-        <v>20</v>
-      </c>
-      <c r="DN8">
-        <v>20</v>
-      </c>
-      <c r="DO8" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP8">
-        <v>3</v>
-      </c>
-      <c r="DQ8">
-        <v>20</v>
-      </c>
-      <c r="DR8">
-        <v>20</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT8">
-        <v>3</v>
-      </c>
-      <c r="DU8" t="s">
-        <v>261</v>
-      </c>
       <c r="DV8">
         <v>3</v>
       </c>
       <c r="DW8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY8">
-        <v>1</v>
-      </c>
-      <c r="DZ8">
-        <v>1600</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>286</v>
-      </c>
-      <c r="EB8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC8" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED8">
         <v>1</v>
@@ -6485,46 +6077,46 @@
         <v>9</v>
       </c>
       <c r="EH8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI8" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ8">
+        <v>3</v>
+      </c>
+      <c r="EK8">
+        <v>20</v>
+      </c>
+      <c r="EL8">
+        <v>20</v>
+      </c>
+      <c r="EM8" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN8">
+        <v>3</v>
+      </c>
+      <c r="EO8">
+        <v>20</v>
+      </c>
+      <c r="EP8">
+        <v>20</v>
+      </c>
+      <c r="EQ8" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER8">
+        <v>3</v>
+      </c>
+      <c r="ES8" t="s">
         <v>260</v>
       </c>
-      <c r="EJ8">
-        <v>3</v>
-      </c>
-      <c r="EK8">
-        <v>20</v>
-      </c>
-      <c r="EL8">
-        <v>20</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN8">
-        <v>3</v>
-      </c>
-      <c r="EO8">
-        <v>20</v>
-      </c>
-      <c r="EP8">
-        <v>20</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER8">
-        <v>3</v>
-      </c>
-      <c r="ES8" t="s">
-        <v>261</v>
-      </c>
       <c r="ET8">
         <v>3</v>
       </c>
       <c r="EU8" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV8">
         <v>0</v>
@@ -6533,7 +6125,7 @@
         <v>0</v>
       </c>
       <c r="FA8" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB8">
         <v>1</v>
@@ -6548,46 +6140,46 @@
         <v>9</v>
       </c>
       <c r="FF8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG8" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH8">
+        <v>3</v>
+      </c>
+      <c r="FI8">
+        <v>20</v>
+      </c>
+      <c r="FJ8">
+        <v>20</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL8">
+        <v>3</v>
+      </c>
+      <c r="FM8">
+        <v>20</v>
+      </c>
+      <c r="FN8">
+        <v>20</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP8">
+        <v>3</v>
+      </c>
+      <c r="FQ8" t="s">
         <v>260</v>
       </c>
-      <c r="FH8">
-        <v>3</v>
-      </c>
-      <c r="FI8">
-        <v>20</v>
-      </c>
-      <c r="FJ8">
-        <v>20</v>
-      </c>
-      <c r="FK8" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL8">
-        <v>3</v>
-      </c>
-      <c r="FM8">
-        <v>20</v>
-      </c>
-      <c r="FN8">
-        <v>20</v>
-      </c>
-      <c r="FO8" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP8">
-        <v>3</v>
-      </c>
-      <c r="FQ8" t="s">
-        <v>261</v>
-      </c>
       <c r="FR8">
         <v>3</v>
       </c>
       <c r="FS8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT8">
         <v>0</v>
@@ -6596,43 +6188,16 @@
         <v>0</v>
       </c>
       <c r="FX8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ8">
-        <v>1</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>293</v>
-      </c>
-      <c r="GB8">
-        <v>75000</v>
-      </c>
-      <c r="GC8">
-        <v>7200</v>
-      </c>
-      <c r="GD8">
-        <v>11000</v>
-      </c>
-      <c r="GE8">
-        <v>100000</v>
-      </c>
-      <c r="GF8">
-        <v>0.9</v>
-      </c>
-      <c r="GG8">
-        <v>0.8</v>
-      </c>
-      <c r="GH8" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI8" t="b">
         <v>0</v>
       </c>
       <c r="GS8" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT8">
         <v>0.05</v>
@@ -6647,40 +6212,22 @@
         <v>8.5</v>
       </c>
       <c r="GX8" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY8" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HB8">
-        <v>1</v>
-      </c>
-      <c r="HC8">
-        <v>3900</v>
-      </c>
-      <c r="HD8">
-        <v>3900</v>
-      </c>
-      <c r="HE8">
-        <v>0.95</v>
-      </c>
-      <c r="HF8">
-        <v>0.1</v>
-      </c>
-      <c r="HG8" t="b">
-        <v>0</v>
-      </c>
-      <c r="HH8" t="b">
         <v>0</v>
       </c>
       <c r="HI8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ8">
         <v>0</v>
@@ -6689,49 +6236,49 @@
         <v>0</v>
       </c>
       <c r="HP8" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ8" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR8" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS8">
         <v>86400</v>
       </c>
       <c r="HT8" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU8">
         <v>86400</v>
       </c>
       <c r="HV8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW8">
         <v>1</v>
       </c>
       <c r="HX8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY8">
         <v>1</v>
       </c>
       <c r="HZ8" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC8" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID8" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE8">
         <v>86400</v>
@@ -6775,13 +6322,13 @@
         <v>1</v>
       </c>
       <c r="N9">
-        <v>3863000</v>
+        <v>3564000</v>
       </c>
       <c r="O9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q9">
         <v>1</v>
@@ -6796,40 +6343,40 @@
         <v>9</v>
       </c>
       <c r="U9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V9" t="s">
+        <v>259</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="X9">
+        <v>20</v>
+      </c>
+      <c r="Y9">
+        <v>20</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA9">
+        <v>3</v>
+      </c>
+      <c r="AB9">
+        <v>20</v>
+      </c>
+      <c r="AC9">
+        <v>20</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE9">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
         <v>260</v>
-      </c>
-      <c r="W9">
-        <v>3</v>
-      </c>
-      <c r="X9">
-        <v>20</v>
-      </c>
-      <c r="Y9">
-        <v>20</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA9">
-        <v>3</v>
-      </c>
-      <c r="AB9">
-        <v>20</v>
-      </c>
-      <c r="AC9">
-        <v>20</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE9">
-        <v>3</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>261</v>
       </c>
       <c r="AG9">
         <v>3</v>
@@ -6844,7 +6391,7 @@
         <v>6</v>
       </c>
       <c r="AM9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN9">
         <v>1</v>
@@ -6859,61 +6406,52 @@
         <v>9</v>
       </c>
       <c r="AR9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>20</v>
+      </c>
+      <c r="AV9">
+        <v>20</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX9">
+        <v>3</v>
+      </c>
+      <c r="AY9">
+        <v>20</v>
+      </c>
+      <c r="AZ9">
+        <v>20</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB9">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="s">
         <v>260</v>
       </c>
-      <c r="AT9">
-        <v>3</v>
-      </c>
-      <c r="AU9">
-        <v>20</v>
-      </c>
-      <c r="AV9">
-        <v>20</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX9">
-        <v>3</v>
-      </c>
-      <c r="AY9">
-        <v>20</v>
-      </c>
-      <c r="AZ9">
-        <v>20</v>
-      </c>
-      <c r="BA9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB9">
-        <v>3</v>
-      </c>
-      <c r="BC9" t="s">
-        <v>261</v>
-      </c>
       <c r="BD9">
         <v>3</v>
       </c>
       <c r="BE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF9">
-        <v>1</v>
-      </c>
-      <c r="BG9">
-        <v>19500000</v>
-      </c>
-      <c r="BH9" t="s">
-        <v>270</v>
-      </c>
-      <c r="BI9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK9">
         <v>1</v>
@@ -6928,58 +6466,49 @@
         <v>9</v>
       </c>
       <c r="BO9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP9" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ9">
+        <v>3</v>
+      </c>
+      <c r="BR9">
+        <v>20</v>
+      </c>
+      <c r="BS9">
+        <v>20</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU9">
+        <v>3</v>
+      </c>
+      <c r="BV9">
+        <v>20</v>
+      </c>
+      <c r="BW9">
+        <v>20</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY9">
+        <v>3</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>260</v>
       </c>
-      <c r="BQ9">
-        <v>3</v>
-      </c>
-      <c r="BR9">
-        <v>20</v>
-      </c>
-      <c r="BS9">
-        <v>20</v>
-      </c>
-      <c r="BT9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU9">
-        <v>3</v>
-      </c>
-      <c r="BV9">
-        <v>20</v>
-      </c>
-      <c r="BW9">
-        <v>20</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY9">
-        <v>3</v>
-      </c>
-      <c r="BZ9" t="s">
-        <v>261</v>
-      </c>
       <c r="CA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB9">
-        <v>1</v>
-      </c>
-      <c r="CC9">
-        <v>3200000</v>
-      </c>
-      <c r="CD9" t="s">
-        <v>275</v>
-      </c>
-      <c r="CE9">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG9">
         <v>1</v>
@@ -6994,41 +6523,41 @@
         <v>9</v>
       </c>
       <c r="CK9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM9">
+        <v>3</v>
+      </c>
+      <c r="CN9">
+        <v>20</v>
+      </c>
+      <c r="CO9">
+        <v>20</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ9">
+        <v>3</v>
+      </c>
+      <c r="CR9">
+        <v>20</v>
+      </c>
+      <c r="CS9">
+        <v>20</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU9">
+        <v>3</v>
+      </c>
+      <c r="CV9" t="s">
         <v>260</v>
       </c>
-      <c r="CM9">
-        <v>3</v>
-      </c>
-      <c r="CN9">
-        <v>20</v>
-      </c>
-      <c r="CO9">
-        <v>20</v>
-      </c>
-      <c r="CP9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ9">
-        <v>3</v>
-      </c>
-      <c r="CR9">
-        <v>20</v>
-      </c>
-      <c r="CS9">
-        <v>20</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU9">
-        <v>3</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>261</v>
-      </c>
       <c r="CW9">
         <v>3</v>
       </c>
@@ -7039,10 +6568,10 @@
         <v>1</v>
       </c>
       <c r="CZ9">
-        <v>5500</v>
+        <v>6200</v>
       </c>
       <c r="DA9" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB9">
         <v>0</v>
@@ -7054,7 +6583,7 @@
         <v>1</v>
       </c>
       <c r="DE9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF9">
         <v>1</v>
@@ -7069,64 +6598,55 @@
         <v>9</v>
       </c>
       <c r="DJ9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK9" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL9">
+        <v>3</v>
+      </c>
+      <c r="DM9">
+        <v>20</v>
+      </c>
+      <c r="DN9">
+        <v>20</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP9">
+        <v>3</v>
+      </c>
+      <c r="DQ9">
+        <v>20</v>
+      </c>
+      <c r="DR9">
+        <v>20</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT9">
+        <v>3</v>
+      </c>
+      <c r="DU9" t="s">
         <v>260</v>
       </c>
-      <c r="DL9">
-        <v>3</v>
-      </c>
-      <c r="DM9">
-        <v>20</v>
-      </c>
-      <c r="DN9">
-        <v>20</v>
-      </c>
-      <c r="DO9" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP9">
-        <v>3</v>
-      </c>
-      <c r="DQ9">
-        <v>20</v>
-      </c>
-      <c r="DR9">
-        <v>20</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT9">
-        <v>3</v>
-      </c>
-      <c r="DU9" t="s">
-        <v>261</v>
-      </c>
       <c r="DV9">
         <v>3</v>
       </c>
       <c r="DW9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY9">
-        <v>1</v>
-      </c>
-      <c r="DZ9">
-        <v>3000</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>284</v>
-      </c>
-      <c r="EB9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC9" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED9">
         <v>1</v>
@@ -7141,46 +6661,46 @@
         <v>9</v>
       </c>
       <c r="EH9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI9" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ9">
+        <v>3</v>
+      </c>
+      <c r="EK9">
+        <v>20</v>
+      </c>
+      <c r="EL9">
+        <v>20</v>
+      </c>
+      <c r="EM9" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN9">
+        <v>3</v>
+      </c>
+      <c r="EO9">
+        <v>20</v>
+      </c>
+      <c r="EP9">
+        <v>20</v>
+      </c>
+      <c r="EQ9" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER9">
+        <v>3</v>
+      </c>
+      <c r="ES9" t="s">
         <v>260</v>
       </c>
-      <c r="EJ9">
-        <v>3</v>
-      </c>
-      <c r="EK9">
-        <v>20</v>
-      </c>
-      <c r="EL9">
-        <v>20</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN9">
-        <v>3</v>
-      </c>
-      <c r="EO9">
-        <v>20</v>
-      </c>
-      <c r="EP9">
-        <v>20</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER9">
-        <v>3</v>
-      </c>
-      <c r="ES9" t="s">
-        <v>261</v>
-      </c>
       <c r="ET9">
         <v>3</v>
       </c>
       <c r="EU9" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV9">
         <v>0</v>
@@ -7189,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="FA9" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB9">
         <v>1</v>
@@ -7204,46 +6724,46 @@
         <v>9</v>
       </c>
       <c r="FF9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG9" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH9">
+        <v>3</v>
+      </c>
+      <c r="FI9">
+        <v>20</v>
+      </c>
+      <c r="FJ9">
+        <v>20</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL9">
+        <v>3</v>
+      </c>
+      <c r="FM9">
+        <v>20</v>
+      </c>
+      <c r="FN9">
+        <v>20</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP9">
+        <v>3</v>
+      </c>
+      <c r="FQ9" t="s">
         <v>260</v>
       </c>
-      <c r="FH9">
-        <v>3</v>
-      </c>
-      <c r="FI9">
-        <v>20</v>
-      </c>
-      <c r="FJ9">
-        <v>20</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL9">
-        <v>3</v>
-      </c>
-      <c r="FM9">
-        <v>20</v>
-      </c>
-      <c r="FN9">
-        <v>20</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP9">
-        <v>3</v>
-      </c>
-      <c r="FQ9" t="s">
-        <v>261</v>
-      </c>
       <c r="FR9">
         <v>3</v>
       </c>
       <c r="FS9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT9">
         <v>0</v>
@@ -7252,43 +6772,16 @@
         <v>0</v>
       </c>
       <c r="FX9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ9">
-        <v>1</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>294</v>
-      </c>
-      <c r="GB9">
-        <v>50000</v>
-      </c>
-      <c r="GC9">
-        <v>7200</v>
-      </c>
-      <c r="GD9">
-        <v>7200</v>
-      </c>
-      <c r="GE9">
-        <v>50000</v>
-      </c>
-      <c r="GF9">
-        <v>0.9</v>
-      </c>
-      <c r="GG9">
-        <v>0.8</v>
-      </c>
-      <c r="GH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI9" t="b">
         <v>0</v>
       </c>
       <c r="GS9" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT9">
         <v>0.05</v>
@@ -7303,13 +6796,13 @@
         <v>8.5</v>
       </c>
       <c r="GX9" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY9" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA9">
         <v>1</v>
@@ -7318,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="HC9">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="HD9">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="HE9">
         <v>0.95</v>
@@ -7336,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="HI9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ9">
         <v>0</v>
@@ -7345,49 +6838,49 @@
         <v>0</v>
       </c>
       <c r="HP9" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ9" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR9" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS9">
         <v>86400</v>
       </c>
       <c r="HT9" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU9">
         <v>86400</v>
       </c>
       <c r="HV9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW9">
         <v>1</v>
       </c>
       <c r="HX9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY9">
         <v>1</v>
       </c>
       <c r="HZ9" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID9" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE9">
         <v>86400</v>
@@ -7431,13 +6924,13 @@
         <v>1</v>
       </c>
       <c r="N10">
-        <v>5527000</v>
+        <v>2687000</v>
       </c>
       <c r="O10" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -7452,40 +6945,40 @@
         <v>9</v>
       </c>
       <c r="U10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V10" t="s">
+        <v>259</v>
+      </c>
+      <c r="W10">
+        <v>3</v>
+      </c>
+      <c r="X10">
+        <v>20</v>
+      </c>
+      <c r="Y10">
+        <v>20</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>20</v>
+      </c>
+      <c r="AC10">
+        <v>20</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE10">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
         <v>260</v>
-      </c>
-      <c r="W10">
-        <v>3</v>
-      </c>
-      <c r="X10">
-        <v>20</v>
-      </c>
-      <c r="Y10">
-        <v>20</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA10">
-        <v>3</v>
-      </c>
-      <c r="AB10">
-        <v>20</v>
-      </c>
-      <c r="AC10">
-        <v>20</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE10">
-        <v>3</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>261</v>
       </c>
       <c r="AG10">
         <v>3</v>
@@ -7500,7 +6993,7 @@
         <v>6</v>
       </c>
       <c r="AM10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN10">
         <v>1</v>
@@ -7515,61 +7008,52 @@
         <v>9</v>
       </c>
       <c r="AR10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>20</v>
+      </c>
+      <c r="AV10">
+        <v>20</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX10">
+        <v>3</v>
+      </c>
+      <c r="AY10">
+        <v>20</v>
+      </c>
+      <c r="AZ10">
+        <v>20</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB10">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="s">
         <v>260</v>
       </c>
-      <c r="AT10">
-        <v>3</v>
-      </c>
-      <c r="AU10">
-        <v>20</v>
-      </c>
-      <c r="AV10">
-        <v>20</v>
-      </c>
-      <c r="AW10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX10">
-        <v>3</v>
-      </c>
-      <c r="AY10">
-        <v>20</v>
-      </c>
-      <c r="AZ10">
-        <v>20</v>
-      </c>
-      <c r="BA10" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB10">
-        <v>3</v>
-      </c>
-      <c r="BC10" t="s">
-        <v>261</v>
-      </c>
       <c r="BD10">
         <v>3</v>
       </c>
       <c r="BE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF10">
-        <v>1</v>
-      </c>
-      <c r="BG10">
-        <v>19500000</v>
-      </c>
-      <c r="BH10" t="s">
-        <v>267</v>
-      </c>
-      <c r="BI10">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="BJ10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK10">
         <v>1</v>
@@ -7584,58 +7068,49 @@
         <v>9</v>
       </c>
       <c r="BO10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP10" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ10">
+        <v>3</v>
+      </c>
+      <c r="BR10">
+        <v>20</v>
+      </c>
+      <c r="BS10">
+        <v>20</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU10">
+        <v>3</v>
+      </c>
+      <c r="BV10">
+        <v>20</v>
+      </c>
+      <c r="BW10">
+        <v>20</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY10">
+        <v>3</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>260</v>
       </c>
-      <c r="BQ10">
-        <v>3</v>
-      </c>
-      <c r="BR10">
-        <v>20</v>
-      </c>
-      <c r="BS10">
-        <v>20</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU10">
-        <v>3</v>
-      </c>
-      <c r="BV10">
-        <v>20</v>
-      </c>
-      <c r="BW10">
-        <v>20</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY10">
-        <v>3</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>261</v>
-      </c>
       <c r="CA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB10">
-        <v>1</v>
-      </c>
-      <c r="CC10">
-        <v>2800000</v>
-      </c>
-      <c r="CD10" t="s">
-        <v>276</v>
-      </c>
-      <c r="CE10">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG10">
         <v>1</v>
@@ -7650,41 +7125,41 @@
         <v>9</v>
       </c>
       <c r="CK10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL10" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM10">
+        <v>3</v>
+      </c>
+      <c r="CN10">
+        <v>20</v>
+      </c>
+      <c r="CO10">
+        <v>20</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ10">
+        <v>3</v>
+      </c>
+      <c r="CR10">
+        <v>20</v>
+      </c>
+      <c r="CS10">
+        <v>20</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU10">
+        <v>3</v>
+      </c>
+      <c r="CV10" t="s">
         <v>260</v>
       </c>
-      <c r="CM10">
-        <v>3</v>
-      </c>
-      <c r="CN10">
-        <v>20</v>
-      </c>
-      <c r="CO10">
-        <v>20</v>
-      </c>
-      <c r="CP10" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ10">
-        <v>3</v>
-      </c>
-      <c r="CR10">
-        <v>20</v>
-      </c>
-      <c r="CS10">
-        <v>20</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU10">
-        <v>3</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>261</v>
-      </c>
       <c r="CW10">
         <v>3</v>
       </c>
@@ -7695,22 +7170,22 @@
         <v>1</v>
       </c>
       <c r="CZ10">
-        <v>8600</v>
+        <v>4200</v>
       </c>
       <c r="DA10" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB10">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="DC10">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="DD10" t="b">
         <v>1</v>
       </c>
       <c r="DE10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF10">
         <v>1</v>
@@ -7725,64 +7200,55 @@
         <v>9</v>
       </c>
       <c r="DJ10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL10">
+        <v>3</v>
+      </c>
+      <c r="DM10">
+        <v>20</v>
+      </c>
+      <c r="DN10">
+        <v>20</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP10">
+        <v>3</v>
+      </c>
+      <c r="DQ10">
+        <v>20</v>
+      </c>
+      <c r="DR10">
+        <v>20</v>
+      </c>
+      <c r="DS10" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT10">
+        <v>3</v>
+      </c>
+      <c r="DU10" t="s">
         <v>260</v>
       </c>
-      <c r="DL10">
-        <v>3</v>
-      </c>
-      <c r="DM10">
-        <v>20</v>
-      </c>
-      <c r="DN10">
-        <v>20</v>
-      </c>
-      <c r="DO10" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP10">
-        <v>3</v>
-      </c>
-      <c r="DQ10">
-        <v>20</v>
-      </c>
-      <c r="DR10">
-        <v>20</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT10">
-        <v>3</v>
-      </c>
-      <c r="DU10" t="s">
-        <v>261</v>
-      </c>
       <c r="DV10">
         <v>3</v>
       </c>
       <c r="DW10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY10">
-        <v>1</v>
-      </c>
-      <c r="DZ10">
-        <v>3000</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>283</v>
-      </c>
-      <c r="EB10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED10">
         <v>1</v>
@@ -7797,46 +7263,46 @@
         <v>9</v>
       </c>
       <c r="EH10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI10" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ10">
+        <v>3</v>
+      </c>
+      <c r="EK10">
+        <v>20</v>
+      </c>
+      <c r="EL10">
+        <v>20</v>
+      </c>
+      <c r="EM10" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN10">
+        <v>3</v>
+      </c>
+      <c r="EO10">
+        <v>20</v>
+      </c>
+      <c r="EP10">
+        <v>20</v>
+      </c>
+      <c r="EQ10" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER10">
+        <v>3</v>
+      </c>
+      <c r="ES10" t="s">
         <v>260</v>
       </c>
-      <c r="EJ10">
-        <v>3</v>
-      </c>
-      <c r="EK10">
-        <v>20</v>
-      </c>
-      <c r="EL10">
-        <v>20</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN10">
-        <v>3</v>
-      </c>
-      <c r="EO10">
-        <v>20</v>
-      </c>
-      <c r="EP10">
-        <v>20</v>
-      </c>
-      <c r="EQ10" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER10">
-        <v>3</v>
-      </c>
-      <c r="ES10" t="s">
-        <v>261</v>
-      </c>
       <c r="ET10">
         <v>3</v>
       </c>
       <c r="EU10" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV10">
         <v>0</v>
@@ -7845,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="FA10" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB10">
         <v>1</v>
@@ -7860,46 +7326,46 @@
         <v>9</v>
       </c>
       <c r="FF10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG10" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH10">
+        <v>3</v>
+      </c>
+      <c r="FI10">
+        <v>20</v>
+      </c>
+      <c r="FJ10">
+        <v>20</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL10">
+        <v>3</v>
+      </c>
+      <c r="FM10">
+        <v>20</v>
+      </c>
+      <c r="FN10">
+        <v>20</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP10">
+        <v>3</v>
+      </c>
+      <c r="FQ10" t="s">
         <v>260</v>
       </c>
-      <c r="FH10">
-        <v>3</v>
-      </c>
-      <c r="FI10">
-        <v>20</v>
-      </c>
-      <c r="FJ10">
-        <v>20</v>
-      </c>
-      <c r="FK10" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL10">
-        <v>3</v>
-      </c>
-      <c r="FM10">
-        <v>20</v>
-      </c>
-      <c r="FN10">
-        <v>20</v>
-      </c>
-      <c r="FO10" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP10">
-        <v>3</v>
-      </c>
-      <c r="FQ10" t="s">
-        <v>261</v>
-      </c>
       <c r="FR10">
         <v>3</v>
       </c>
       <c r="FS10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT10">
         <v>0</v>
@@ -7908,43 +7374,16 @@
         <v>0</v>
       </c>
       <c r="FX10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ10">
-        <v>1</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>293</v>
-      </c>
-      <c r="GB10">
-        <v>100000</v>
-      </c>
-      <c r="GC10">
-        <v>11000</v>
-      </c>
-      <c r="GD10">
-        <v>22000</v>
-      </c>
-      <c r="GE10">
-        <v>200000</v>
-      </c>
-      <c r="GF10">
-        <v>0.9</v>
-      </c>
-      <c r="GG10">
-        <v>0.8</v>
-      </c>
-      <c r="GH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI10" t="b">
         <v>0</v>
       </c>
       <c r="GS10" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT10">
         <v>0.05</v>
@@ -7959,13 +7398,13 @@
         <v>8.5</v>
       </c>
       <c r="GX10" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY10" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA10">
         <v>1</v>
@@ -7974,10 +7413,10 @@
         <v>1</v>
       </c>
       <c r="HC10">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="HD10">
-        <v>5500</v>
+        <v>2700</v>
       </c>
       <c r="HE10">
         <v>0.95</v>
@@ -7992,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="HI10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ10">
         <v>0</v>
@@ -8001,49 +7440,49 @@
         <v>0</v>
       </c>
       <c r="HP10" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ10" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR10" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS10">
         <v>86400</v>
       </c>
       <c r="HT10" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU10">
         <v>86400</v>
       </c>
       <c r="HV10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW10">
         <v>1</v>
       </c>
       <c r="HX10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY10">
         <v>1</v>
       </c>
       <c r="HZ10" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID10" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE10">
         <v>86400</v>
@@ -8087,13 +7526,13 @@
         <v>1</v>
       </c>
       <c r="N11">
-        <v>2687000</v>
+        <v>3125000</v>
       </c>
       <c r="O11" t="s">
+        <v>254</v>
+      </c>
+      <c r="P11" t="s">
         <v>257</v>
-      </c>
-      <c r="P11" t="s">
-        <v>258</v>
       </c>
       <c r="Q11">
         <v>1</v>
@@ -8108,40 +7547,40 @@
         <v>9</v>
       </c>
       <c r="U11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V11" t="s">
+        <v>259</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>20</v>
+      </c>
+      <c r="Y11">
+        <v>20</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA11">
+        <v>3</v>
+      </c>
+      <c r="AB11">
+        <v>20</v>
+      </c>
+      <c r="AC11">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE11">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="s">
         <v>260</v>
-      </c>
-      <c r="W11">
-        <v>3</v>
-      </c>
-      <c r="X11">
-        <v>20</v>
-      </c>
-      <c r="Y11">
-        <v>20</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AA11">
-        <v>3</v>
-      </c>
-      <c r="AB11">
-        <v>20</v>
-      </c>
-      <c r="AC11">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>261</v>
       </c>
       <c r="AG11">
         <v>3</v>
@@ -8156,7 +7595,7 @@
         <v>6</v>
       </c>
       <c r="AM11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AN11">
         <v>1</v>
@@ -8171,61 +7610,52 @@
         <v>9</v>
       </c>
       <c r="AR11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AS11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AT11">
+        <v>3</v>
+      </c>
+      <c r="AU11">
+        <v>20</v>
+      </c>
+      <c r="AV11">
+        <v>20</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>259</v>
+      </c>
+      <c r="AX11">
+        <v>3</v>
+      </c>
+      <c r="AY11">
+        <v>20</v>
+      </c>
+      <c r="AZ11">
+        <v>20</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>259</v>
+      </c>
+      <c r="BB11">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="s">
         <v>260</v>
       </c>
-      <c r="AT11">
-        <v>3</v>
-      </c>
-      <c r="AU11">
-        <v>20</v>
-      </c>
-      <c r="AV11">
-        <v>20</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>260</v>
-      </c>
-      <c r="AX11">
-        <v>3</v>
-      </c>
-      <c r="AY11">
-        <v>20</v>
-      </c>
-      <c r="AZ11">
-        <v>20</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>260</v>
-      </c>
-      <c r="BB11">
-        <v>3</v>
-      </c>
-      <c r="BC11" t="s">
-        <v>261</v>
-      </c>
       <c r="BD11">
         <v>3</v>
       </c>
       <c r="BE11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF11">
-        <v>1</v>
-      </c>
-      <c r="BG11">
-        <v>19500000</v>
-      </c>
-      <c r="BH11" t="s">
-        <v>271</v>
-      </c>
-      <c r="BI11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="BJ11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="BK11">
         <v>1</v>
@@ -8240,58 +7670,49 @@
         <v>9</v>
       </c>
       <c r="BO11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="BP11" t="s">
+        <v>259</v>
+      </c>
+      <c r="BQ11">
+        <v>3</v>
+      </c>
+      <c r="BR11">
+        <v>20</v>
+      </c>
+      <c r="BS11">
+        <v>20</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>259</v>
+      </c>
+      <c r="BU11">
+        <v>3</v>
+      </c>
+      <c r="BV11">
+        <v>20</v>
+      </c>
+      <c r="BW11">
+        <v>20</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY11">
+        <v>3</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>260</v>
       </c>
-      <c r="BQ11">
-        <v>3</v>
-      </c>
-      <c r="BR11">
-        <v>20</v>
-      </c>
-      <c r="BS11">
-        <v>20</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>260</v>
-      </c>
-      <c r="BU11">
-        <v>3</v>
-      </c>
-      <c r="BV11">
-        <v>20</v>
-      </c>
-      <c r="BW11">
-        <v>20</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>260</v>
-      </c>
-      <c r="BY11">
-        <v>3</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>261</v>
-      </c>
       <c r="CA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB11">
-        <v>1</v>
-      </c>
-      <c r="CC11">
-        <v>2400000</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>273</v>
-      </c>
-      <c r="CE11">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="CF11" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="CG11">
         <v>1</v>
@@ -8306,41 +7727,41 @@
         <v>9</v>
       </c>
       <c r="CK11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="CL11" t="s">
+        <v>259</v>
+      </c>
+      <c r="CM11">
+        <v>3</v>
+      </c>
+      <c r="CN11">
+        <v>20</v>
+      </c>
+      <c r="CO11">
+        <v>20</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>259</v>
+      </c>
+      <c r="CQ11">
+        <v>3</v>
+      </c>
+      <c r="CR11">
+        <v>20</v>
+      </c>
+      <c r="CS11">
+        <v>20</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>259</v>
+      </c>
+      <c r="CU11">
+        <v>3</v>
+      </c>
+      <c r="CV11" t="s">
         <v>260</v>
       </c>
-      <c r="CM11">
-        <v>3</v>
-      </c>
-      <c r="CN11">
-        <v>20</v>
-      </c>
-      <c r="CO11">
-        <v>20</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>260</v>
-      </c>
-      <c r="CQ11">
-        <v>3</v>
-      </c>
-      <c r="CR11">
-        <v>20</v>
-      </c>
-      <c r="CS11">
-        <v>20</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>260</v>
-      </c>
-      <c r="CU11">
-        <v>3</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>261</v>
-      </c>
       <c r="CW11">
         <v>3</v>
       </c>
@@ -8351,22 +7772,22 @@
         <v>1</v>
       </c>
       <c r="CZ11">
-        <v>3500</v>
+        <v>4800</v>
       </c>
       <c r="DA11" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="DB11">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="DC11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DD11" t="b">
         <v>1</v>
       </c>
       <c r="DE11" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="DF11">
         <v>1</v>
@@ -8381,64 +7802,55 @@
         <v>9</v>
       </c>
       <c r="DJ11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="DK11" t="s">
+        <v>259</v>
+      </c>
+      <c r="DL11">
+        <v>3</v>
+      </c>
+      <c r="DM11">
+        <v>20</v>
+      </c>
+      <c r="DN11">
+        <v>20</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>259</v>
+      </c>
+      <c r="DP11">
+        <v>3</v>
+      </c>
+      <c r="DQ11">
+        <v>20</v>
+      </c>
+      <c r="DR11">
+        <v>20</v>
+      </c>
+      <c r="DS11" t="s">
+        <v>259</v>
+      </c>
+      <c r="DT11">
+        <v>3</v>
+      </c>
+      <c r="DU11" t="s">
         <v>260</v>
       </c>
-      <c r="DL11">
-        <v>3</v>
-      </c>
-      <c r="DM11">
-        <v>20</v>
-      </c>
-      <c r="DN11">
-        <v>20</v>
-      </c>
-      <c r="DO11" t="s">
-        <v>260</v>
-      </c>
-      <c r="DP11">
-        <v>3</v>
-      </c>
-      <c r="DQ11">
-        <v>20</v>
-      </c>
-      <c r="DR11">
-        <v>20</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT11">
-        <v>3</v>
-      </c>
-      <c r="DU11" t="s">
-        <v>261</v>
-      </c>
       <c r="DV11">
         <v>3</v>
       </c>
       <c r="DW11" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="DX11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY11">
-        <v>1</v>
-      </c>
-      <c r="DZ11">
-        <v>2100</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>282</v>
-      </c>
-      <c r="EB11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EC11" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="ED11">
         <v>1</v>
@@ -8453,46 +7865,46 @@
         <v>9</v>
       </c>
       <c r="EH11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="EI11" t="s">
+        <v>259</v>
+      </c>
+      <c r="EJ11">
+        <v>3</v>
+      </c>
+      <c r="EK11">
+        <v>20</v>
+      </c>
+      <c r="EL11">
+        <v>20</v>
+      </c>
+      <c r="EM11" t="s">
+        <v>259</v>
+      </c>
+      <c r="EN11">
+        <v>3</v>
+      </c>
+      <c r="EO11">
+        <v>20</v>
+      </c>
+      <c r="EP11">
+        <v>20</v>
+      </c>
+      <c r="EQ11" t="s">
+        <v>259</v>
+      </c>
+      <c r="ER11">
+        <v>3</v>
+      </c>
+      <c r="ES11" t="s">
         <v>260</v>
       </c>
-      <c r="EJ11">
-        <v>3</v>
-      </c>
-      <c r="EK11">
-        <v>20</v>
-      </c>
-      <c r="EL11">
-        <v>20</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>260</v>
-      </c>
-      <c r="EN11">
-        <v>3</v>
-      </c>
-      <c r="EO11">
-        <v>20</v>
-      </c>
-      <c r="EP11">
-        <v>20</v>
-      </c>
-      <c r="EQ11" t="s">
-        <v>260</v>
-      </c>
-      <c r="ER11">
-        <v>3</v>
-      </c>
-      <c r="ES11" t="s">
-        <v>261</v>
-      </c>
       <c r="ET11">
         <v>3</v>
       </c>
       <c r="EU11" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="EV11">
         <v>0</v>
@@ -8501,7 +7913,7 @@
         <v>0</v>
       </c>
       <c r="FA11" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="FB11">
         <v>1</v>
@@ -8516,46 +7928,46 @@
         <v>9</v>
       </c>
       <c r="FF11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="FG11" t="s">
+        <v>259</v>
+      </c>
+      <c r="FH11">
+        <v>3</v>
+      </c>
+      <c r="FI11">
+        <v>20</v>
+      </c>
+      <c r="FJ11">
+        <v>20</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>259</v>
+      </c>
+      <c r="FL11">
+        <v>3</v>
+      </c>
+      <c r="FM11">
+        <v>20</v>
+      </c>
+      <c r="FN11">
+        <v>20</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>259</v>
+      </c>
+      <c r="FP11">
+        <v>3</v>
+      </c>
+      <c r="FQ11" t="s">
         <v>260</v>
       </c>
-      <c r="FH11">
-        <v>3</v>
-      </c>
-      <c r="FI11">
-        <v>20</v>
-      </c>
-      <c r="FJ11">
-        <v>20</v>
-      </c>
-      <c r="FK11" t="s">
-        <v>260</v>
-      </c>
-      <c r="FL11">
-        <v>3</v>
-      </c>
-      <c r="FM11">
-        <v>20</v>
-      </c>
-      <c r="FN11">
-        <v>20</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>260</v>
-      </c>
-      <c r="FP11">
-        <v>3</v>
-      </c>
-      <c r="FQ11" t="s">
-        <v>261</v>
-      </c>
       <c r="FR11">
         <v>3</v>
       </c>
       <c r="FS11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FT11">
         <v>0</v>
@@ -8564,43 +7976,16 @@
         <v>0</v>
       </c>
       <c r="FX11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="FY11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ11">
-        <v>1</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>292</v>
-      </c>
-      <c r="GB11">
-        <v>75000</v>
-      </c>
-      <c r="GC11">
-        <v>7200</v>
-      </c>
-      <c r="GD11">
-        <v>11000</v>
-      </c>
-      <c r="GE11">
-        <v>100000</v>
-      </c>
-      <c r="GF11">
-        <v>0.9</v>
-      </c>
-      <c r="GG11">
-        <v>0.8</v>
-      </c>
-      <c r="GH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="GI11" t="b">
         <v>0</v>
       </c>
       <c r="GS11" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="GT11">
         <v>0.05</v>
@@ -8615,13 +8000,13 @@
         <v>8.5</v>
       </c>
       <c r="GX11" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="GY11" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="GZ11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HA11">
         <v>1</v>
@@ -8630,10 +8015,10 @@
         <v>1</v>
       </c>
       <c r="HC11">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="HD11">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="HE11">
         <v>0.95</v>
@@ -8648,7 +8033,7 @@
         <v>0</v>
       </c>
       <c r="HI11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HJ11">
         <v>0</v>
@@ -8657,49 +8042,49 @@
         <v>0</v>
       </c>
       <c r="HP11" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="HQ11" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HR11" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="HS11">
         <v>86400</v>
       </c>
       <c r="HT11" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="HU11">
         <v>86400</v>
       </c>
       <c r="HV11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HW11">
         <v>1</v>
       </c>
       <c r="HX11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="HY11">
         <v>1</v>
       </c>
       <c r="HZ11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IA11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IB11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="IC11" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="ID11" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="IE11">
         <v>86400</v>
@@ -8738,13 +8123,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>4</v>
@@ -8966,7 +8351,7 @@
         <v>76</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>77</v>
@@ -9422,10 +8807,10 @@
         <v>227</v>
       </c>
       <c r="HZ1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="IA1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="IB1" s="1" t="s">
         <v>232</v>
@@ -9479,7 +8864,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -9881,22 +9266,22 @@
         <v>199</v>
       </c>
       <c r="EJ1" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="EK1" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="EL1" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="EM1" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="EN1" s="1" t="s">
         <v>204</v>
       </c>
       <c r="EO1" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="EP1" s="1" t="s">
         <v>206</v>
@@ -9944,10 +9329,10 @@
         <v>227</v>
       </c>
       <c r="FE1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="FF1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="FG1" s="1" t="s">
         <v>232</v>
@@ -10001,7 +9386,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -10493,10 +9878,10 @@
         <v>227</v>
       </c>
       <c r="FN1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="FO1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="FP1" s="1" t="s">
         <v>232</v>
@@ -10817,10 +10202,10 @@
         <v>227</v>
       </c>
       <c r="CQ1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="CR1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="CS1" s="1" t="s">
         <v>232</v>
@@ -10904,58 +10289,58 @@
         <v>215</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>223</v>
@@ -10973,10 +10358,10 @@
         <v>227</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>232</v>
